--- a/docs/接口文档/tetris-zoom/新平台云会议业务接口.xlsx
+++ b/docs/接口文档/tetris-zoom/新平台云会议业务接口.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="153">
   <si>
     <t>广播消息</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,10 +241,6 @@
   </si>
   <si>
     <t>删除发言人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邀请入会</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -481,71 +477,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>数据类型：formdata</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Long targetZoomMemberId 目标发言人成员id</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>数据类型：formdata</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-String code 会议号码
-Long userId 目标用户id</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>websocket删除发言人消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    targetId:"消息目标用户id",
-    businessId:"zoomRemoveSpokesman",
-    content:{
-        code:"会议号码",
-        name:"会议名称" 
-    },
-    fromId:"消息发送者id",
-    fromName:"消息发送者名称"
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -725,68 +657,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    targetId:"消息目标用户id",
-    businessId:"zoomRemoveSpokesman",
-    content:{
-        id:"会议成员id",
-        uuid:"会议成员uuid",
-        updateTime:"会议成员创建时间，格式：yyyy-MM-dd hh:ss:mm",
-        userId:"用户id",
-        userNickname:"用户昵称",
-        rename:"入会名称",  
-        tourist:"是否是游客",
-        zoomId:"会议id",
-        chairman:"是否是主席" ,
-        spokesman:"是否是发言人",
-        join:"是否加入会议",
-        myAudio:"是否开启自己音频",
-        myVideo:"是否开启自己视频",
-        theirAudio:"是否接收音频", 
-        theirVideo:"是否接收视频",
-        shareScreen:"是否开启共享屏幕",
-        bundleId:"设备id",
-        videoChannelId:"视频通道id",
-        audioChannelId:"音频通道id",
-        screenChannelId:"屏幕通道id"    
-    },
-    fromId:"消息发送者id",
-    fromName:"消息发送者名称"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    targetId:"消息目标用户id",
-    businessId:"zoomKickOut",
-    content:{
-        id:"会议成员id",
-        uuid:"会议成员uuid",
-        updateTime:"会议成员创建时间，格式：yyyy-MM-dd hh:ss:mm",
-        userId:"用户id",
-        userNickname:"用户昵称",
-        rename:"入会名称",  
-        tourist:"是否是游客",
-        zoomId:"会议id",
-        chairman:"是否是主席" ,
-        spokesman:"是否是发言人",
-        join:"是否加入会议",
-        myAudio:"是否开启自己音频",
-        myVideo:"是否开启自己视频",
-        theirAudio:"是否接收音频", 
-        theirVideo:"是否接收视频",
-        shareScreen:"是否开启共享屏幕",
-        bundleId:"设备id",
-        videoChannelId:"视频通道id",
-        audioChannelId:"音频通道id",
-        screenChannelId:"屏幕通道id"    
-    },
-    fromId:"消息发送者id",
-    fromName:"消息发送者名称"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>群发私信</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -796,31 +666,6 @@
   </si>
   <si>
     <t>/tetris-zoom/api/zoom/android/message/private/letter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>数据类型：formdata</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Long targetZoomMemberId 目标成员id</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -894,44 +739,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Long myZoomMemberId 消息发送者成员id
-Long targetZoomMemberId 消息发送目标成员id
-String message 消息内容</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>数据类型：formdata</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
 Long myZoomMemberId 消息发送者成员id
 JSONString targetZoomMemberId 消息发送目标成员id列表
 String message 消息内容</t>
@@ -1119,10 +926,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/tetris-zoom/api/zoom/android/open/share/screen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1183,37 +986,6 @@
       <t xml:space="preserve">
 Long myZoomMemberId 当前会议成员id</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    targetId:"消息目标用户id",
-    businessId:"zoomOpenShareScreen",
-    content:{
-        id:"会议成员id",
-        uuid:"会议成员uuid",
-        updateTime:"会议成员创建时间，格式：yyyy-MM-dd hh:ss:mm",
-        userId:"用户id",
-        userNickname:"用户昵称",
-        rename:"入会名称",  
-        tourist:"是否是游客",
-        zoomId:"会议id",
-        chairman:"是否是主席" ,
-        spokesman:"是否是发言人",
-        join:"是否加入会议",
-        myAudio:"是否开启自己音频",
-        myVideo:"是否开启自己视频",
-        theirAudio:"是否接收音频", 
-        theirVideo:"是否接收视频",
-        shareScreen:"是否开启共享屏幕",
-        bundleId:"设备id",
-        videoChannelId:"视频通道id",
-        audioChannelId:"音频通道id",
-        screenChannelId:"屏幕通道id"    
-    },
-    fromId:"消息发送者id",
-    fromName:"消息发送者名称"
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1932,7 +1704,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>//TODO 是否隐私--隐私等级</t>
+      <t>//TODO 是否隐私--隐私等级 是否允许游客</t>
     </r>
     <r>
       <rPr>
@@ -1980,6 +1752,273 @@
     members:[{}]  
 }</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据类型：json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+{
+    id:"会议成员id",
+    uuid:"会议成员uuid",
+    updateTime:"会议成员创建时间，格式：yyyy-MM-dd hh:ss:mm",
+    userId:"用户id",
+    userNickname:"用户昵称",
+    rename:"入会名称",  
+    tourist:"是否是游客",
+    zoomId:"会议id",
+    chairman:"是否是主席" ,
+    spokesman:"是否是发言人",
+    join:"是否加入会议",
+    myAudio:"是否开启自己音频",
+    myVideo:"是否开启自己视频",
+    theirAudio:"是否接收音频", 
+    theirVideo:"是否接收视频",
+    shareScreen:"是否开启共享屏幕",
+    bundleId:"设备id",
+    videoChannelId:"视频通道id",
+    audioChannelId:"音频通道id",
+    screenChannelId:"屏幕通道id"    
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    targetId:"消息目标用户id",
+    businessId:"zoomRemoveSpokesman",
+    content:{
+        id:"会议成员id",
+        uuid:"会议成员uuid",
+        updateTime:"会议成员创建时间，格式：yyyy-MM-dd hh:ss:mm",
+        userId:"用户id",
+        userNickname:"用户昵称",
+        rename:"入会名称",  
+        tourist:"是否是游客",
+        zoomId:"会议id",
+        chairman:"是否是主席" ,
+        spokesman:"是否是发言人",
+        join:"是否加入会议",
+        myAudio:"是否开启自己音频",
+        myVideo:"是否开启自己视频",
+        theirAudio:"是否接收音频", 
+        theirVideo:"是否接收视频",
+        shareScreen:"是否开启共享屏幕",
+        bundleId:"设备id",
+        videoChannelId:"视频通道id",
+        audioChannelId:"音频通道id",
+        screenChannelId:"屏幕通道id"    
+    },
+    fromId:"消息发送者id",
+    fromName:"消息发送者名称"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请入会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据类型：formdata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+String code 会议号码
+Long userId 目标用户id
+TODU 数组</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    targetId:"消息目标用户id",
+    businessId:"zoomRemoveSpokesman",
+    content:{
+        code:"会议号码",
+        name:"会议名称" 
+    },
+    fromId:"消息发送者id",
+    fromName:"消息发送者名称"
+}TODO 数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据类型：formdata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Long targetZoomMemberId 目标成员id
+TODU 批量</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据类型：formdata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Long myZoomMemberId 消息发送者成员id
+Long targetZoomMemberId 消息发送目标成员id
+String message 消息内容</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    targetId:"消息目标用户id",
+    businessId:"zoomKickOut",
+    content:{
+        id:"会议成员id",
+        uuid:"会议成员uuid",
+        updateTime:"会议成员创建时间，格式：yyyy-MM-dd hh:ss:mm",
+        userId:"用户id",
+        userNickname:"用户昵称",
+        rename:"入会名称",  
+        tourist:"是否是游客",
+        zoomId:"会议id",
+        chairman:"是否是主席" ,
+        spokesman:"是否是发言人",
+        join:"是否加入会议",
+        myAudio:"是否开启自己音频",
+        myVideo:"是否开启自己视频",
+        theirAudio:"是否接收音频", 
+        theirVideo:"是否接收视频",
+        shareScreen:"是否开启共享屏幕",
+        bundleId:"设备id",
+        videoChannelId:"视频通道id",
+        audioChannelId:"音频通道id",
+        screenChannelId:"屏幕通道id"    
+    },
+    fromId:"消息发送者id",
+    fromName:"消息发送者名称"
+}TODU 批量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置音视频权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部静音  全部关闭摄像头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉设备入会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tetris-zoom/api/zoom/android/open/share/screen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    targetId:"消息目标用户id",
+    businessId:"zoomOpenShareScreen",
+    content:{
+        id:"会议成员id",
+        uuid:"会议成员uuid",
+        updateTime:"会议成员创建时间，格式：yyyy-MM-dd hh:ss:mm",
+        userId:"用户id",
+        userNickname:"用户昵称",
+        rename:"入会名称",  
+        tourist:"是否是游客",
+        zoomId:"会议id",
+        chairman:"是否是主席" ,
+        spokesman:"是否是发言人",
+        join:"是否加入会议",
+        myAudio:"是否开启自己音频",
+        myVideo:"是否开启自己视频",
+        theirAudio:"是否接收音频", 
+        theirVideo:"是否接收视频",
+        shareScreen:"是否开启共享屏幕",
+        bundleId:"设备id",
+        videoChannelId:"视频通道id",
+        audioChannelId:"音频通道id",
+        screenChannelId:"屏幕通道id"    
+    },
+    fromId:"消息发送者id",
+    fromName:"消息发送者名称"
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2574,10 +2613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F449"/>
+  <dimension ref="B1:F452"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A432" workbookViewId="0">
+      <selection activeCell="E444" sqref="E444:E449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2617,13 +2656,13 @@
         <v>20</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="33" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -2844,13 +2883,13 @@
         <v>21</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E34" s="31" t="s">
         <v>12</v>
       </c>
       <c r="F34" s="31" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -3160,7 +3199,7 @@
       </c>
       <c r="D75" s="20"/>
       <c r="E75" s="15" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="F75" s="20"/>
     </row>
@@ -3305,13 +3344,13 @@
         <v>22</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E95" s="33" t="s">
         <v>12</v>
       </c>
       <c r="F95" s="33" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -3527,11 +3566,11 @@
     <row r="126" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B126" s="5"/>
       <c r="C126" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D126" s="23"/>
       <c r="E126" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F126" s="23"/>
     </row>
@@ -3585,10 +3624,10 @@
         <v>23</v>
       </c>
       <c r="D133" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E133" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F133" s="18"/>
     </row>
@@ -3621,13 +3660,13 @@
         <v>24</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E137" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="138" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -3647,11 +3686,11 @@
     <row r="140" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B140" s="5"/>
       <c r="C140" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D140" s="23"/>
       <c r="E140" s="27" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F140" s="23"/>
     </row>
@@ -3796,13 +3835,13 @@
         <v>25</v>
       </c>
       <c r="D160" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E160" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F160" s="31" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="161" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -3913,11 +3952,11 @@
     <row r="176" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B176" s="13"/>
       <c r="C176" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D176" s="18"/>
       <c r="E176" s="19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F176" s="18"/>
     </row>
@@ -4062,13 +4101,13 @@
         <v>26</v>
       </c>
       <c r="D196" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E196" s="33" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F196" s="33" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="197" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -4179,11 +4218,11 @@
     <row r="212" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B212" s="5"/>
       <c r="C212" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D212" s="10"/>
       <c r="E212" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F212" s="10"/>
     </row>
@@ -4328,13 +4367,13 @@
         <v>27</v>
       </c>
       <c r="D232" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E232" s="31" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="F232" s="31" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
     </row>
     <row r="233" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -4445,11 +4484,11 @@
     <row r="248" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B248" s="13"/>
       <c r="C248" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D248" s="15"/>
       <c r="E248" s="15" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="F248" s="15"/>
     </row>
@@ -4591,13 +4630,13 @@
         <v>9</v>
       </c>
       <c r="C268" s="10" t="s">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="D268" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E268" s="33" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="F268" s="10"/>
     </row>
@@ -4625,11 +4664,11 @@
     <row r="272" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B272" s="5"/>
       <c r="C272" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D272" s="23"/>
       <c r="E272" s="7" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="F272" s="23"/>
     </row>
@@ -4680,16 +4719,16 @@
         <v>10</v>
       </c>
       <c r="C279" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D279" s="18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E279" s="31" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="F279" s="31" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="280" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -4800,11 +4839,11 @@
     <row r="295" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B295" s="13"/>
       <c r="C295" s="20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D295" s="20"/>
       <c r="E295" s="15" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="F295" s="20"/>
     </row>
@@ -4946,16 +4985,16 @@
         <v>11</v>
       </c>
       <c r="C315" s="10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D315" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E315" s="33" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="F315" s="33" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="316" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -5017,16 +5056,16 @@
     <row r="324" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B324" s="5"/>
       <c r="C324" s="23" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D324" s="23" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E324" s="26" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F324" s="26" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="325" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -5088,11 +5127,11 @@
     <row r="333" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B333" s="5"/>
       <c r="C333" s="23" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D333" s="23"/>
       <c r="E333" s="7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F333" s="26"/>
     </row>
@@ -5167,13 +5206,13 @@
         <v>0</v>
       </c>
       <c r="D343" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E343" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="E343" s="31" t="s">
-        <v>99</v>
-      </c>
       <c r="F343" s="31" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="344" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -5228,11 +5267,11 @@
     <row r="351" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B351" s="13"/>
       <c r="C351" s="20" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D351" s="20"/>
       <c r="E351" s="15" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F351" s="20"/>
     </row>
@@ -5297,16 +5336,16 @@
         <v>14</v>
       </c>
       <c r="C360" s="10" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D360" s="10" t="s">
-        <v>98</v>
+        <v>151</v>
       </c>
       <c r="E360" s="33" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F360" s="33" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
     </row>
     <row r="361" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -5417,11 +5456,11 @@
     <row r="376" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B376" s="5"/>
       <c r="C376" s="7" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D376" s="10"/>
       <c r="E376" s="11" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F376" s="10"/>
     </row>
@@ -5563,16 +5602,16 @@
         <v>15</v>
       </c>
       <c r="C396" s="18" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D396" s="18" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E396" s="31" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F396" s="31" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="397" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -5683,11 +5722,11 @@
     <row r="412" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B412" s="13"/>
       <c r="C412" s="15" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D412" s="18"/>
       <c r="E412" s="19" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F412" s="18"/>
     </row>
@@ -5829,13 +5868,13 @@
         <v>16</v>
       </c>
       <c r="C432" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D432" s="10" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E432" s="33" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F432" s="10"/>
     </row>
@@ -5879,7 +5918,7 @@
         <v>17</v>
       </c>
       <c r="C438" s="18" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D438" s="18"/>
       <c r="E438" s="18"/>
@@ -5924,7 +5963,9 @@
       <c r="B444" s="34">
         <v>18</v>
       </c>
-      <c r="C444" s="18"/>
+      <c r="C444" s="18" t="s">
+        <v>147</v>
+      </c>
       <c r="D444" s="18"/>
       <c r="E444" s="18"/>
       <c r="F444" s="18"/>
@@ -5963,6 +6004,21 @@
       <c r="D449" s="18"/>
       <c r="E449" s="18"/>
       <c r="F449" s="18"/>
+    </row>
+    <row r="450" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="C450" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="451" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="C451" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="452" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="C452" s="1" t="s">
+        <v>149</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="153">
@@ -6130,7 +6186,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F71"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -6151,13 +6209,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -6207,13 +6265,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F9" s="10"/>
     </row>
@@ -6257,13 +6315,13 @@
         <v>3</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F15" s="18"/>
     </row>
@@ -6307,13 +6365,13 @@
         <v>4</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F21" s="10"/>
     </row>
@@ -6357,16 +6415,16 @@
         <v>5</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -6416,13 +6474,13 @@
         <v>6</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F34" s="23"/>
     </row>
@@ -6466,7 +6524,7 @@
         <v>7</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D40" s="20"/>
       <c r="E40" s="18"/>
@@ -6512,16 +6570,16 @@
         <v>8</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F46" s="38" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -6571,16 +6629,16 @@
         <v>9</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F53" s="31" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -6630,13 +6688,13 @@
         <v>10</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E60" s="33" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F60" s="10"/>
     </row>
@@ -6785,7 +6843,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F56"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:E22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -6803,7 +6863,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="42"/>
@@ -6849,7 +6909,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="41"/>
       <c r="E8" s="42"/>
@@ -6895,7 +6955,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="41"/>
       <c r="E14" s="42"/>
@@ -6941,13 +7001,13 @@
         <v>4</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F20" s="18"/>
     </row>
@@ -6970,7 +7030,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" s="41"/>
       <c r="E23" s="42"/>
@@ -7016,7 +7076,7 @@
         <v>6</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D29" s="41"/>
       <c r="E29" s="42"/>
@@ -7062,16 +7122,16 @@
         <v>7</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F35" s="33" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -7135,14 +7195,14 @@
         <v>8</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="19" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -7287,8 +7347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F91"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D19"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -7306,7 +7366,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="18"/>
@@ -7352,7 +7412,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="18"/>
@@ -7398,7 +7458,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="18"/>
@@ -7444,7 +7504,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="18"/>
@@ -7490,7 +7550,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="18"/>
@@ -7536,7 +7596,7 @@
         <v>6</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D32" s="20"/>
       <c r="E32" s="18"/>
@@ -7582,7 +7642,7 @@
         <v>7</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D38" s="20"/>
       <c r="E38" s="18"/>
@@ -7628,7 +7688,7 @@
         <v>8</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D44" s="20"/>
       <c r="E44" s="18"/>
@@ -7674,7 +7734,7 @@
         <v>9</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D50" s="20"/>
       <c r="E50" s="18"/>

--- a/docs/接口文档/tetris-zoom/新平台云会议业务接口.xlsx
+++ b/docs/接口文档/tetris-zoom/新平台云会议业务接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="会议接口" sheetId="1" r:id="rId1"/>
@@ -1975,10 +1975,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>全部静音  全部关闭摄像头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点播</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2019,6 +2015,10 @@
     fromId:"消息发送者id",
     fromName:"消息发送者名称"
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部静音  全部关闭摄像头</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2615,8 +2615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F452"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A432" workbookViewId="0">
-      <selection activeCell="E444" sqref="E444:E449"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -5339,7 +5339,7 @@
         <v>87</v>
       </c>
       <c r="D360" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E360" s="33" t="s">
         <v>94</v>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="D376" s="10"/>
       <c r="E376" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F376" s="10"/>
     </row>
@@ -6007,17 +6007,17 @@
     </row>
     <row r="450" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="C450" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="451" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="C451" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="452" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="C452" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/docs/接口文档/tetris-zoom/新平台云会议业务接口.xlsx
+++ b/docs/接口文档/tetris-zoom/新平台云会议业务接口.xlsx
@@ -7,17 +7,18 @@
     <workbookView xWindow="0" yWindow="30" windowWidth="28800" windowHeight="12510"/>
   </bookViews>
   <sheets>
-    <sheet name="会议接口" sheetId="1" r:id="rId1"/>
+    <sheet name="会议操作接口" sheetId="1" r:id="rId1"/>
     <sheet name="收藏夹" sheetId="2" r:id="rId2"/>
     <sheet name="历史" sheetId="3" r:id="rId3"/>
     <sheet name="联系人" sheetId="4" r:id="rId4"/>
+    <sheet name="查询接口" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="160">
   <si>
     <t>序号</t>
   </si>
@@ -199,18 +200,6 @@
   </si>
   <si>
     <t>websocket推送会议开始消息</t>
-  </si>
-  <si>
-    <t>{
-    targetId:"消息目标用户id",
-    businessId:"zoomStart",
-    content:{
-        code:"会议号码",
-        chairman:"主席名称"     
-    },
-    fromId:"消息发送者id",
-    fromName:"消息发送者名称"
-}</t>
   </si>
   <si>
     <t>停止会议</t>
@@ -620,53 +609,7 @@
     <t>/tetris-zoom/api/zoom/android/remove</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>数据类型：formdata</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>String</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> code 会议号码</t>
-    </r>
-  </si>
-  <si>
     <t>预约会议</t>
-  </si>
-  <si>
-    <t>设置音视频权限</t>
   </si>
   <si>
     <t>全部静音  全部关闭摄像头</t>
@@ -1198,10 +1141,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>选人建会</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>{
     targetId:"消息目标用户id",
@@ -8496,6 +8435,292 @@
     fromName:"消息发送者名称"
 }</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    targetId:"消息目标用户id",
+    businessId:"zoomStart",
+    content:{
+        code:"会议号码",
+        name:"会议名称",
+        chairman:"主席名称"     
+    },
+    fromId:"消息发送者id",
+    fromName:"消息发送者名称"
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>建会邀人（WJW）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据类型：formdata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> code 会议号码</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据类型：formdata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+String name 会议名称
+ZoomMode mode 会议模式
+String rename 主席入会名称
+Boolean myAudio 是否开启音频
+Boolean myVideo 是否开启视频
+ZoomSecretLevel secretLevel 秘密等级
+ZoomMemberType type 成员类型
+Collection&lt;String&gt; usernos 被邀成员用户号码列表</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据类型：json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+{
+    id:"会议id",
+    uuid:"会议uuid",
+    updateTime:"会议创建时间，格式：yyyy-MM-dd hh:ss:mm"，
+    name:"会议名称",
+    code:"会议号码",
+    status:"START(开始), STOP(停止)",
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>secretLevel:"PUBLIC|PRIVATE",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    mode:"DISCUSSION_MODE(讨论模式),CONVERSION_MODE(大会模式)",
+    creatorUserId:"创建用户id",
+    creatorUserNickname:"创建者用户昵称",
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> webRtc:{
+        ip:"ip",
+        layerId:"接入层id", 
+        httpPort:"http端口",
+        websocketPort:"websocket端口"
+    },</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    //当前用户成员
+    me:{
+        id:"会议成员id",
+        uuid:"会议成员uuid",
+        updateTime:"会议成员创建时间，格式：yyyy-MM-dd hh:ss:mm" ,
+        userId:"用户id",
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>userno:"用户号码",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        userNickname:"用户昵称",
+        rename:"入会名称",  
+        tourist:"是否是游客" ,
+        zoomId:"会议id",
+        chairman:"是否是主席" ,
+        spokesman:"是否是发言人" ,
+        join:"是否加入会议",
+        myAudio:"是否开启自己音频",
+        myVideo:"是否开启自己视频" ,
+        theirAudio:"是否接收音频", 
+        theirVideo:"是否接收视频",
+        shareScreen:"是否开启共享屏幕",
+        bundleId:"设备id",
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>layerId:"接入id",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        videoChannelId:"视频通道id",
+        audioChannelId:"音频通道id",
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>screenVideoChannelId:"屏幕视频通道id",
+        screenAudioChannelId:"屏幕音频通道id",
+        type:"TERMINl|JV220"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    },
+    //会议主席，格式同"me"  
+    chairman:{},
+    //共享屏幕，格式同"me" 
+    sharedScreen:[{}],
+    //发言人列表，格式同"me" 
+    spokesmem:[{}]，
+    totalMembers:"成员总数",
+    //成员列表，格式同"me"   
+    members:[{}]  
+}</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置音视频权限</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端开关音视频</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -9140,11 +9365,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F521"/>
+  <dimension ref="B1:F571"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C503" workbookViewId="0">
-      <selection activeCell="E388" sqref="E388:E397"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -9189,7 +9412,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -9462,10 +9685,10 @@
         <v>9</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -9824,7 +10047,7 @@
       </c>
       <c r="D89" s="6"/>
       <c r="E89" s="23" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F89" s="6"/>
     </row>
@@ -9996,7 +10219,7 @@
         <v>10</v>
       </c>
       <c r="F112" s="22" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="113" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -10264,8 +10487,8 @@
         <v>24</v>
       </c>
       <c r="D150" s="15"/>
-      <c r="E150" s="24" t="s">
-        <v>25</v>
+      <c r="E150" s="27" t="s">
+        <v>153</v>
       </c>
       <c r="F150" s="15"/>
     </row>
@@ -10305,32 +10528,32 @@
       <c r="F155" s="16"/>
     </row>
     <row r="156" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B156" s="35"/>
-      <c r="C156" s="30"/>
-      <c r="D156" s="17"/>
-      <c r="E156" s="17"/>
-      <c r="F156" s="17"/>
+      <c r="B156" s="34"/>
+      <c r="C156" s="29"/>
+      <c r="D156" s="16"/>
+      <c r="E156" s="16"/>
+      <c r="F156" s="16"/>
     </row>
     <row r="157" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B157" s="38">
+      <c r="B157" s="35"/>
+      <c r="C157" s="30"/>
+      <c r="D157" s="17"/>
+      <c r="E157" s="17"/>
+      <c r="F157" s="17"/>
+    </row>
+    <row r="158" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B158" s="38">
         <v>4</v>
       </c>
-      <c r="C157" s="5" t="s">
+      <c r="C158" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D158" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D157" s="5" t="s">
+      <c r="E158" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E157" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F157" s="5"/>
-    </row>
-    <row r="158" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B158" s="38"/>
-      <c r="C158" s="5"/>
-      <c r="D158" s="5"/>
-      <c r="E158" s="5"/>
       <c r="F158" s="5"/>
     </row>
     <row r="159" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -10348,25 +10571,25 @@
       <c r="F160" s="5"/>
     </row>
     <row r="161" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B161" s="33">
+      <c r="B161" s="38"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+    </row>
+    <row r="162" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B162" s="33">
         <v>5</v>
       </c>
-      <c r="C161" s="10" t="s">
+      <c r="C162" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D162" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D161" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E161" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="F161" s="10"/>
-    </row>
-    <row r="162" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B162" s="34"/>
-      <c r="C162" s="10"/>
-      <c r="D162" s="10"/>
-      <c r="E162" s="10"/>
+      <c r="E162" s="22" t="s">
+        <v>134</v>
+      </c>
       <c r="F162" s="10"/>
     </row>
     <row r="163" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -10378,21 +10601,21 @@
     </row>
     <row r="164" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B164" s="34"/>
-      <c r="C164" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D164" s="15"/>
-      <c r="E164" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="F164" s="15"/>
+      <c r="C164" s="10"/>
+      <c r="D164" s="10"/>
+      <c r="E164" s="10"/>
+      <c r="F164" s="10"/>
     </row>
     <row r="165" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B165" s="34"/>
-      <c r="C165" s="29"/>
-      <c r="D165" s="16"/>
-      <c r="E165" s="16"/>
-      <c r="F165" s="16"/>
+      <c r="C165" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D165" s="15"/>
+      <c r="E165" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F165" s="15"/>
     </row>
     <row r="166" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B166" s="34"/>
@@ -10542,28 +10765,28 @@
       <c r="F186" s="16"/>
     </row>
     <row r="187" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B187" s="31">
+      <c r="B187" s="34"/>
+      <c r="C187" s="29"/>
+      <c r="D187" s="16"/>
+      <c r="E187" s="16"/>
+      <c r="F187" s="16"/>
+    </row>
+    <row r="188" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B188" s="31">
         <v>6</v>
       </c>
-      <c r="C187" s="5" t="s">
+      <c r="C188" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D188" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D187" s="5" t="s">
+      <c r="E188" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E187" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F187" s="11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="188" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B188" s="32"/>
-      <c r="C188" s="5"/>
-      <c r="D188" s="5"/>
-      <c r="E188" s="5"/>
-      <c r="F188" s="5"/>
+      <c r="F188" s="11" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="189" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B189" s="32"/>
@@ -10700,20 +10923,20 @@
     </row>
     <row r="208" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B208" s="32"/>
-      <c r="C208" s="39" t="s">
-        <v>35</v>
-      </c>
+      <c r="C208" s="5"/>
       <c r="D208" s="5"/>
-      <c r="E208" s="11" t="s">
-        <v>137</v>
-      </c>
+      <c r="E208" s="5"/>
       <c r="F208" s="5"/>
     </row>
     <row r="209" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B209" s="32"/>
-      <c r="C209" s="40"/>
+      <c r="C209" s="39" t="s">
+        <v>34</v>
+      </c>
       <c r="D209" s="5"/>
-      <c r="E209" s="5"/>
+      <c r="E209" s="11" t="s">
+        <v>133</v>
+      </c>
       <c r="F209" s="5"/>
     </row>
     <row r="210" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -10878,34 +11101,34 @@
       <c r="F232" s="5"/>
     </row>
     <row r="233" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B233" s="33">
+      <c r="B233" s="32"/>
+      <c r="C233" s="40"/>
+      <c r="D233" s="5"/>
+      <c r="E233" s="5"/>
+      <c r="F233" s="5"/>
+    </row>
+    <row r="234" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B234" s="33">
         <v>7</v>
       </c>
-      <c r="C233" s="10" t="s">
+      <c r="C234" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D234" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D233" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E233" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F233" s="9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="234" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B234" s="34"/>
-      <c r="C234" s="10"/>
-      <c r="D234" s="10"/>
-      <c r="E234" s="28"/>
-      <c r="F234" s="10"/>
+      <c r="E234" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F234" s="9" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="235" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B235" s="34"/>
       <c r="C235" s="10"/>
       <c r="D235" s="10"/>
-      <c r="E235" s="10"/>
+      <c r="E235" s="28"/>
       <c r="F235" s="10"/>
     </row>
     <row r="236" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -11022,20 +11245,20 @@
     </row>
     <row r="252" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B252" s="34"/>
-      <c r="C252" s="24" t="s">
-        <v>38</v>
-      </c>
+      <c r="C252" s="10"/>
       <c r="D252" s="10"/>
-      <c r="E252" s="9" t="s">
-        <v>147</v>
-      </c>
+      <c r="E252" s="10"/>
       <c r="F252" s="10"/>
     </row>
     <row r="253" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B253" s="34"/>
-      <c r="C253" s="29"/>
+      <c r="C253" s="24" t="s">
+        <v>37</v>
+      </c>
       <c r="D253" s="10"/>
-      <c r="E253" s="10"/>
+      <c r="E253" s="9" t="s">
+        <v>143</v>
+      </c>
       <c r="F253" s="10"/>
     </row>
     <row r="254" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -11179,35 +11402,35 @@
       <c r="F273" s="10"/>
     </row>
     <row r="274" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B274" s="35"/>
-      <c r="C274" s="30"/>
+      <c r="B274" s="34"/>
+      <c r="C274" s="29"/>
       <c r="D274" s="10"/>
       <c r="E274" s="10"/>
       <c r="F274" s="10"/>
     </row>
     <row r="275" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B275" s="31">
+      <c r="B275" s="35"/>
+      <c r="C275" s="30"/>
+      <c r="D275" s="10"/>
+      <c r="E275" s="10"/>
+      <c r="F275" s="10"/>
+    </row>
+    <row r="276" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B276" s="31">
         <v>8</v>
       </c>
-      <c r="C275" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D275" s="52" t="s">
-        <v>148</v>
-      </c>
-      <c r="E275" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="F275" s="11" t="s">
+      <c r="C276" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D276" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="E276" s="11" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="276" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B276" s="32"/>
-      <c r="C276" s="5"/>
-      <c r="D276" s="5"/>
-      <c r="E276" s="5"/>
-      <c r="F276" s="5"/>
+      <c r="F276" s="11" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="277" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B277" s="32"/>
@@ -11330,21 +11553,21 @@
     </row>
     <row r="294" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B294" s="32"/>
-      <c r="C294" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D294" s="12"/>
-      <c r="E294" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="F294" s="12"/>
+      <c r="C294" s="5"/>
+      <c r="D294" s="5"/>
+      <c r="E294" s="5"/>
+      <c r="F294" s="5"/>
     </row>
     <row r="295" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B295" s="32"/>
-      <c r="C295" s="13"/>
-      <c r="D295" s="13"/>
-      <c r="E295" s="13"/>
-      <c r="F295" s="13"/>
+      <c r="C295" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D295" s="12"/>
+      <c r="E295" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="F295" s="12"/>
     </row>
     <row r="296" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B296" s="32"/>
@@ -11487,32 +11710,32 @@
       <c r="F315" s="13"/>
     </row>
     <row r="316" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B316" s="36"/>
-      <c r="C316" s="14"/>
-      <c r="D316" s="14"/>
-      <c r="E316" s="14"/>
-      <c r="F316" s="14"/>
+      <c r="B316" s="32"/>
+      <c r="C316" s="13"/>
+      <c r="D316" s="13"/>
+      <c r="E316" s="13"/>
+      <c r="F316" s="13"/>
     </row>
     <row r="317" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B317" s="33">
+      <c r="B317" s="36"/>
+      <c r="C317" s="14"/>
+      <c r="D317" s="14"/>
+      <c r="E317" s="14"/>
+      <c r="F317" s="14"/>
+    </row>
+    <row r="318" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B318" s="33">
         <v>9</v>
       </c>
-      <c r="C317" s="10" t="s">
+      <c r="C318" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D318" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D317" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E317" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="F317" s="10"/>
-    </row>
-    <row r="318" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B318" s="34"/>
-      <c r="C318" s="10"/>
-      <c r="D318" s="10"/>
-      <c r="E318" s="10"/>
+      <c r="E318" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="F318" s="10"/>
     </row>
     <row r="319" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -11531,21 +11754,21 @@
     </row>
     <row r="321" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B321" s="34"/>
-      <c r="C321" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D321" s="15"/>
-      <c r="E321" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="F321" s="15"/>
+      <c r="C321" s="10"/>
+      <c r="D321" s="10"/>
+      <c r="E321" s="10"/>
+      <c r="F321" s="10"/>
     </row>
     <row r="322" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B322" s="34"/>
-      <c r="C322" s="29"/>
-      <c r="D322" s="16"/>
-      <c r="E322" s="16"/>
-      <c r="F322" s="16"/>
+      <c r="C322" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D322" s="15"/>
+      <c r="E322" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="F322" s="15"/>
     </row>
     <row r="323" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B323" s="34"/>
@@ -11576,35 +11799,35 @@
       <c r="F326" s="16"/>
     </row>
     <row r="327" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B327" s="35"/>
-      <c r="C327" s="30"/>
-      <c r="D327" s="17"/>
-      <c r="E327" s="17"/>
-      <c r="F327" s="17"/>
+      <c r="B327" s="34"/>
+      <c r="C327" s="29"/>
+      <c r="D327" s="16"/>
+      <c r="E327" s="16"/>
+      <c r="F327" s="16"/>
     </row>
     <row r="328" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B328" s="31">
+      <c r="B328" s="35"/>
+      <c r="C328" s="30"/>
+      <c r="D328" s="17"/>
+      <c r="E328" s="17"/>
+      <c r="F328" s="17"/>
+    </row>
+    <row r="329" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B329" s="31">
         <v>10</v>
       </c>
-      <c r="C328" s="5" t="s">
+      <c r="C329" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D329" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D328" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E328" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="F328" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="329" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B329" s="32"/>
-      <c r="C329" s="5"/>
-      <c r="D329" s="5"/>
-      <c r="E329" s="5"/>
-      <c r="F329" s="5"/>
+      <c r="E329" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F329" s="11" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="330" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B330" s="32"/>
@@ -11727,21 +11950,21 @@
     </row>
     <row r="347" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B347" s="32"/>
-      <c r="C347" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D347" s="6"/>
-      <c r="E347" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="F347" s="6"/>
+      <c r="C347" s="5"/>
+      <c r="D347" s="5"/>
+      <c r="E347" s="5"/>
+      <c r="F347" s="5"/>
     </row>
     <row r="348" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B348" s="32"/>
-      <c r="C348" s="7"/>
-      <c r="D348" s="7"/>
-      <c r="E348" s="7"/>
-      <c r="F348" s="7"/>
+      <c r="C348" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D348" s="6"/>
+      <c r="E348" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="F348" s="6"/>
     </row>
     <row r="349" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B349" s="32"/>
@@ -11891,28 +12114,28 @@
       <c r="F369" s="7"/>
     </row>
     <row r="370" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B370" s="33">
+      <c r="B370" s="32"/>
+      <c r="C370" s="7"/>
+      <c r="D370" s="7"/>
+      <c r="E370" s="7"/>
+      <c r="F370" s="7"/>
+    </row>
+    <row r="371" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B371" s="33">
         <v>11</v>
       </c>
-      <c r="C370" s="10" t="s">
+      <c r="C371" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D371" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D370" s="10" t="s">
+      <c r="E371" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E370" s="18" t="s">
+      <c r="F371" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F370" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="371" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B371" s="34"/>
-      <c r="C371" s="10"/>
-      <c r="D371" s="10"/>
-      <c r="E371" s="10"/>
-      <c r="F371" s="10"/>
     </row>
     <row r="372" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B372" s="34"/>
@@ -11965,25 +12188,25 @@
     </row>
     <row r="379" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B379" s="34"/>
-      <c r="C379" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D379" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E379" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F379" s="19" t="s">
-        <v>54</v>
-      </c>
+      <c r="C379" s="10"/>
+      <c r="D379" s="10"/>
+      <c r="E379" s="10"/>
+      <c r="F379" s="10"/>
     </row>
     <row r="380" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B380" s="34"/>
-      <c r="C380" s="16"/>
-      <c r="D380" s="16"/>
-      <c r="E380" s="16"/>
-      <c r="F380" s="16"/>
+      <c r="C380" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D380" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E380" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F380" s="19" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="381" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B381" s="34"/>
@@ -12029,28 +12252,28 @@
     </row>
     <row r="387" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B387" s="34"/>
-      <c r="C387" s="17"/>
-      <c r="D387" s="17"/>
-      <c r="E387" s="17"/>
-      <c r="F387" s="17"/>
+      <c r="C387" s="16"/>
+      <c r="D387" s="16"/>
+      <c r="E387" s="16"/>
+      <c r="F387" s="16"/>
     </row>
     <row r="388" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B388" s="34"/>
-      <c r="C388" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D388" s="15"/>
-      <c r="E388" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="F388" s="19"/>
+      <c r="C388" s="17"/>
+      <c r="D388" s="17"/>
+      <c r="E388" s="17"/>
+      <c r="F388" s="17"/>
     </row>
     <row r="389" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B389" s="34"/>
-      <c r="C389" s="16"/>
-      <c r="D389" s="16"/>
-      <c r="E389" s="16"/>
-      <c r="F389" s="16"/>
+      <c r="C389" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D389" s="15"/>
+      <c r="E389" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F389" s="19"/>
     </row>
     <row r="390" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B390" s="34"/>
@@ -12102,35 +12325,35 @@
       <c r="F396" s="16"/>
     </row>
     <row r="397" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B397" s="35"/>
-      <c r="C397" s="17"/>
-      <c r="D397" s="17"/>
-      <c r="E397" s="17"/>
-      <c r="F397" s="17"/>
+      <c r="B397" s="34"/>
+      <c r="C397" s="16"/>
+      <c r="D397" s="16"/>
+      <c r="E397" s="16"/>
+      <c r="F397" s="16"/>
     </row>
     <row r="398" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B398" s="31">
+      <c r="B398" s="35"/>
+      <c r="C398" s="17"/>
+      <c r="D398" s="17"/>
+      <c r="E398" s="17"/>
+      <c r="F398" s="17"/>
+    </row>
+    <row r="399" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B399" s="31">
         <v>13</v>
       </c>
-      <c r="C398" s="5" t="s">
+      <c r="C399" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D399" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D398" s="5" t="s">
+      <c r="E399" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E398" s="4" t="s">
+      <c r="F399" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F398" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="399" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B399" s="32"/>
-      <c r="C399" s="5"/>
-      <c r="D399" s="5"/>
-      <c r="E399" s="5"/>
-      <c r="F399" s="5"/>
     </row>
     <row r="400" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B400" s="32"/>
@@ -12176,21 +12399,21 @@
     </row>
     <row r="406" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B406" s="32"/>
-      <c r="C406" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D406" s="6"/>
-      <c r="E406" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F406" s="6"/>
+      <c r="C406" s="5"/>
+      <c r="D406" s="5"/>
+      <c r="E406" s="5"/>
+      <c r="F406" s="5"/>
     </row>
     <row r="407" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B407" s="32"/>
-      <c r="C407" s="7"/>
-      <c r="D407" s="7"/>
-      <c r="E407" s="7"/>
-      <c r="F407" s="7"/>
+      <c r="C407" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D407" s="6"/>
+      <c r="E407" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F407" s="6"/>
     </row>
     <row r="408" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B408" s="32"/>
@@ -12235,35 +12458,35 @@
       <c r="F413" s="7"/>
     </row>
     <row r="414" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B414" s="36"/>
-      <c r="C414" s="8"/>
-      <c r="D414" s="8"/>
-      <c r="E414" s="8"/>
-      <c r="F414" s="8"/>
+      <c r="B414" s="32"/>
+      <c r="C414" s="7"/>
+      <c r="D414" s="7"/>
+      <c r="E414" s="7"/>
+      <c r="F414" s="7"/>
     </row>
     <row r="415" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B415" s="33">
+      <c r="B415" s="36"/>
+      <c r="C415" s="8"/>
+      <c r="D415" s="8"/>
+      <c r="E415" s="8"/>
+      <c r="F415" s="8"/>
+    </row>
+    <row r="416" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B416" s="33">
         <v>14</v>
       </c>
-      <c r="C415" s="10" t="s">
+      <c r="C416" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D416" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D415" s="10" t="s">
+      <c r="E416" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E415" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F415" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="416" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B416" s="34"/>
-      <c r="C416" s="10"/>
-      <c r="D416" s="10"/>
-      <c r="E416" s="18"/>
-      <c r="F416" s="10"/>
+      <c r="F416" s="9" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="417" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B417" s="34"/>
@@ -12353,7 +12576,7 @@
       <c r="B429" s="34"/>
       <c r="C429" s="10"/>
       <c r="D429" s="10"/>
-      <c r="E429" s="10"/>
+      <c r="E429" s="18"/>
       <c r="F429" s="10"/>
     </row>
     <row r="430" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -12386,20 +12609,20 @@
     </row>
     <row r="434" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B434" s="34"/>
-      <c r="C434" s="24" t="s">
-        <v>66</v>
-      </c>
+      <c r="C434" s="10"/>
       <c r="D434" s="10"/>
-      <c r="E434" s="9" t="s">
-        <v>135</v>
-      </c>
+      <c r="E434" s="10"/>
       <c r="F434" s="10"/>
     </row>
     <row r="435" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B435" s="34"/>
-      <c r="C435" s="29"/>
+      <c r="C435" s="24" t="s">
+        <v>65</v>
+      </c>
       <c r="D435" s="10"/>
-      <c r="E435" s="10"/>
+      <c r="E435" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="F435" s="10"/>
     </row>
     <row r="436" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -12543,35 +12766,35 @@
       <c r="F455" s="10"/>
     </row>
     <row r="456" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B456" s="35"/>
-      <c r="C456" s="30"/>
+      <c r="B456" s="34"/>
+      <c r="C456" s="29"/>
       <c r="D456" s="10"/>
       <c r="E456" s="10"/>
       <c r="F456" s="10"/>
     </row>
     <row r="457" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B457" s="31">
+      <c r="B457" s="35"/>
+      <c r="C457" s="30"/>
+      <c r="D457" s="10"/>
+      <c r="E457" s="10"/>
+      <c r="F457" s="10"/>
+    </row>
+    <row r="458" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B458" s="31">
         <v>15</v>
       </c>
-      <c r="C457" s="5" t="s">
+      <c r="C458" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D458" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D457" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E457" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F457" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="458" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B458" s="32"/>
-      <c r="C458" s="5"/>
-      <c r="D458" s="5"/>
-      <c r="E458" s="4"/>
-      <c r="F458" s="5"/>
+      <c r="E458" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F458" s="11" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="459" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B459" s="32"/>
@@ -12661,7 +12884,7 @@
       <c r="B471" s="32"/>
       <c r="C471" s="5"/>
       <c r="D471" s="5"/>
-      <c r="E471" s="5"/>
+      <c r="E471" s="4"/>
       <c r="F471" s="5"/>
     </row>
     <row r="472" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -12694,20 +12917,20 @@
     </row>
     <row r="476" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B476" s="32"/>
-      <c r="C476" s="12" t="s">
-        <v>69</v>
-      </c>
+      <c r="C476" s="5"/>
       <c r="D476" s="5"/>
-      <c r="E476" s="11" t="s">
-        <v>136</v>
-      </c>
+      <c r="E476" s="5"/>
       <c r="F476" s="5"/>
     </row>
     <row r="477" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B477" s="32"/>
-      <c r="C477" s="13"/>
+      <c r="C477" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="D477" s="5"/>
-      <c r="E477" s="5"/>
+      <c r="E477" s="11" t="s">
+        <v>132</v>
+      </c>
       <c r="F477" s="5"/>
     </row>
     <row r="478" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -12851,32 +13074,32 @@
       <c r="F497" s="5"/>
     </row>
     <row r="498" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B498" s="36"/>
-      <c r="C498" s="14"/>
+      <c r="B498" s="32"/>
+      <c r="C498" s="13"/>
       <c r="D498" s="5"/>
       <c r="E498" s="5"/>
       <c r="F498" s="5"/>
     </row>
     <row r="499" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B499" s="37">
+      <c r="B499" s="36"/>
+      <c r="C499" s="14"/>
+      <c r="D499" s="5"/>
+      <c r="E499" s="5"/>
+      <c r="F499" s="5"/>
+    </row>
+    <row r="500" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B500" s="37">
         <v>16</v>
       </c>
-      <c r="C499" s="10" t="s">
+      <c r="C500" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D500" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D499" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E499" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F499" s="10"/>
-    </row>
-    <row r="500" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B500" s="37"/>
-      <c r="C500" s="10"/>
-      <c r="D500" s="10"/>
-      <c r="E500" s="10"/>
+      <c r="E500" s="9" t="s">
+        <v>155</v>
+      </c>
       <c r="F500" s="10"/>
     </row>
     <row r="501" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -12908,141 +13131,515 @@
       <c r="F504" s="10"/>
     </row>
     <row r="505" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B505" s="38">
-        <v>17</v>
-      </c>
-      <c r="C505" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D505" s="5"/>
-      <c r="E505" s="5"/>
-      <c r="F505" s="5"/>
+      <c r="B505" s="37"/>
+      <c r="C505" s="10"/>
+      <c r="D505" s="10"/>
+      <c r="E505" s="10"/>
+      <c r="F505" s="10"/>
     </row>
     <row r="506" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B506" s="38"/>
-      <c r="C506" s="5"/>
+      <c r="B506" s="38">
+        <v>18</v>
+      </c>
+      <c r="C506" s="52" t="s">
+        <v>154</v>
+      </c>
       <c r="D506" s="5"/>
-      <c r="E506" s="5"/>
-      <c r="F506" s="5"/>
+      <c r="E506" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F506" s="23" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="507" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B507" s="38"/>
-      <c r="C507" s="5"/>
+      <c r="C507" s="52"/>
       <c r="D507" s="5"/>
-      <c r="E507" s="5"/>
-      <c r="F507" s="5"/>
+      <c r="E507" s="11"/>
+      <c r="F507" s="13"/>
     </row>
     <row r="508" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B508" s="38"/>
-      <c r="C508" s="5"/>
+      <c r="C508" s="52"/>
       <c r="D508" s="5"/>
-      <c r="E508" s="5"/>
-      <c r="F508" s="5"/>
+      <c r="E508" s="11"/>
+      <c r="F508" s="13"/>
     </row>
     <row r="509" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B509" s="38"/>
-      <c r="C509" s="5"/>
+      <c r="C509" s="52"/>
       <c r="D509" s="5"/>
-      <c r="E509" s="5"/>
-      <c r="F509" s="5"/>
+      <c r="E509" s="11"/>
+      <c r="F509" s="13"/>
     </row>
     <row r="510" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B510" s="38"/>
-      <c r="C510" s="5"/>
+      <c r="C510" s="52"/>
       <c r="D510" s="5"/>
-      <c r="E510" s="5"/>
-      <c r="F510" s="5"/>
+      <c r="E510" s="11"/>
+      <c r="F510" s="13"/>
     </row>
     <row r="511" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B511" s="38">
-        <v>18</v>
-      </c>
-      <c r="C511" s="5" t="s">
-        <v>74</v>
-      </c>
+      <c r="B511" s="38"/>
+      <c r="C511" s="52"/>
       <c r="D511" s="5"/>
-      <c r="E511" s="5"/>
-      <c r="F511" s="5"/>
+      <c r="E511" s="11"/>
+      <c r="F511" s="13"/>
     </row>
     <row r="512" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B512" s="38"/>
-      <c r="C512" s="5"/>
+      <c r="C512" s="52"/>
       <c r="D512" s="5"/>
-      <c r="E512" s="5"/>
-      <c r="F512" s="5"/>
+      <c r="E512" s="11"/>
+      <c r="F512" s="13"/>
     </row>
     <row r="513" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B513" s="38"/>
-      <c r="C513" s="5"/>
+      <c r="C513" s="52"/>
       <c r="D513" s="5"/>
-      <c r="E513" s="5"/>
-      <c r="F513" s="5"/>
+      <c r="E513" s="11"/>
+      <c r="F513" s="13"/>
     </row>
     <row r="514" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B514" s="38"/>
-      <c r="C514" s="5"/>
+      <c r="C514" s="52"/>
       <c r="D514" s="5"/>
-      <c r="E514" s="5"/>
-      <c r="F514" s="5"/>
+      <c r="E514" s="11"/>
+      <c r="F514" s="13"/>
     </row>
     <row r="515" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B515" s="38"/>
-      <c r="C515" s="5"/>
+      <c r="C515" s="52"/>
       <c r="D515" s="5"/>
-      <c r="E515" s="5"/>
-      <c r="F515" s="5"/>
+      <c r="E515" s="11"/>
+      <c r="F515" s="13"/>
     </row>
     <row r="516" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B516" s="38"/>
-      <c r="C516" s="5"/>
+      <c r="C516" s="52"/>
       <c r="D516" s="5"/>
-      <c r="E516" s="5"/>
-      <c r="F516" s="5"/>
+      <c r="E516" s="11"/>
+      <c r="F516" s="13"/>
     </row>
     <row r="517" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="C517" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="B517" s="38"/>
+      <c r="C517" s="52"/>
+      <c r="D517" s="5"/>
+      <c r="E517" s="11"/>
+      <c r="F517" s="13"/>
     </row>
     <row r="518" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="C518" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="B518" s="38"/>
+      <c r="C518" s="52"/>
+      <c r="D518" s="5"/>
+      <c r="E518" s="11"/>
+      <c r="F518" s="13"/>
     </row>
     <row r="519" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="C519" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="B519" s="38"/>
+      <c r="C519" s="52"/>
+      <c r="D519" s="5"/>
+      <c r="E519" s="11"/>
+      <c r="F519" s="13"/>
     </row>
     <row r="520" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="C520" s="1" t="s">
-        <v>132</v>
-      </c>
+      <c r="B520" s="38"/>
+      <c r="C520" s="52"/>
+      <c r="D520" s="5"/>
+      <c r="E520" s="11"/>
+      <c r="F520" s="13"/>
     </row>
     <row r="521" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="C521" s="51" t="s">
-        <v>143</v>
-      </c>
+      <c r="B521" s="38"/>
+      <c r="C521" s="52"/>
+      <c r="D521" s="5"/>
+      <c r="E521" s="11"/>
+      <c r="F521" s="13"/>
+    </row>
+    <row r="522" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B522" s="38"/>
+      <c r="C522" s="52"/>
+      <c r="D522" s="5"/>
+      <c r="E522" s="11"/>
+      <c r="F522" s="13"/>
+    </row>
+    <row r="523" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B523" s="38"/>
+      <c r="C523" s="52"/>
+      <c r="D523" s="5"/>
+      <c r="E523" s="11"/>
+      <c r="F523" s="13"/>
+    </row>
+    <row r="524" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B524" s="38"/>
+      <c r="C524" s="52"/>
+      <c r="D524" s="5"/>
+      <c r="E524" s="11"/>
+      <c r="F524" s="13"/>
+    </row>
+    <row r="525" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B525" s="38"/>
+      <c r="C525" s="52"/>
+      <c r="D525" s="5"/>
+      <c r="E525" s="11"/>
+      <c r="F525" s="13"/>
+    </row>
+    <row r="526" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B526" s="38"/>
+      <c r="C526" s="52"/>
+      <c r="D526" s="5"/>
+      <c r="E526" s="11"/>
+      <c r="F526" s="13"/>
+    </row>
+    <row r="527" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B527" s="38"/>
+      <c r="C527" s="52"/>
+      <c r="D527" s="5"/>
+      <c r="E527" s="11"/>
+      <c r="F527" s="13"/>
+    </row>
+    <row r="528" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B528" s="38"/>
+      <c r="C528" s="52"/>
+      <c r="D528" s="5"/>
+      <c r="E528" s="11"/>
+      <c r="F528" s="13"/>
+    </row>
+    <row r="529" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B529" s="38"/>
+      <c r="C529" s="52"/>
+      <c r="D529" s="5"/>
+      <c r="E529" s="11"/>
+      <c r="F529" s="13"/>
+    </row>
+    <row r="530" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B530" s="38"/>
+      <c r="C530" s="52"/>
+      <c r="D530" s="5"/>
+      <c r="E530" s="11"/>
+      <c r="F530" s="13"/>
+    </row>
+    <row r="531" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B531" s="38"/>
+      <c r="C531" s="52"/>
+      <c r="D531" s="5"/>
+      <c r="E531" s="11"/>
+      <c r="F531" s="13"/>
+    </row>
+    <row r="532" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B532" s="38"/>
+      <c r="C532" s="52"/>
+      <c r="D532" s="5"/>
+      <c r="E532" s="11"/>
+      <c r="F532" s="13"/>
+    </row>
+    <row r="533" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B533" s="38"/>
+      <c r="C533" s="52"/>
+      <c r="D533" s="5"/>
+      <c r="E533" s="11"/>
+      <c r="F533" s="13"/>
+    </row>
+    <row r="534" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B534" s="38"/>
+      <c r="C534" s="52"/>
+      <c r="D534" s="5"/>
+      <c r="E534" s="11"/>
+      <c r="F534" s="13"/>
+    </row>
+    <row r="535" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B535" s="38"/>
+      <c r="C535" s="52"/>
+      <c r="D535" s="5"/>
+      <c r="E535" s="11"/>
+      <c r="F535" s="13"/>
+    </row>
+    <row r="536" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B536" s="38"/>
+      <c r="C536" s="52"/>
+      <c r="D536" s="5"/>
+      <c r="E536" s="11"/>
+      <c r="F536" s="13"/>
+    </row>
+    <row r="537" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B537" s="38"/>
+      <c r="C537" s="52"/>
+      <c r="D537" s="5"/>
+      <c r="E537" s="11"/>
+      <c r="F537" s="13"/>
+    </row>
+    <row r="538" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B538" s="38"/>
+      <c r="C538" s="52"/>
+      <c r="D538" s="5"/>
+      <c r="E538" s="11"/>
+      <c r="F538" s="13"/>
+    </row>
+    <row r="539" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B539" s="38"/>
+      <c r="C539" s="52"/>
+      <c r="D539" s="5"/>
+      <c r="E539" s="11"/>
+      <c r="F539" s="13"/>
+    </row>
+    <row r="540" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B540" s="38"/>
+      <c r="C540" s="52"/>
+      <c r="D540" s="5"/>
+      <c r="E540" s="11"/>
+      <c r="F540" s="13"/>
+    </row>
+    <row r="541" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B541" s="38"/>
+      <c r="C541" s="5"/>
+      <c r="D541" s="5"/>
+      <c r="E541" s="5"/>
+      <c r="F541" s="13"/>
+    </row>
+    <row r="542" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B542" s="38"/>
+      <c r="C542" s="5"/>
+      <c r="D542" s="5"/>
+      <c r="E542" s="5"/>
+      <c r="F542" s="13"/>
+    </row>
+    <row r="543" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B543" s="38"/>
+      <c r="C543" s="5"/>
+      <c r="D543" s="5"/>
+      <c r="E543" s="5"/>
+      <c r="F543" s="14"/>
+    </row>
+    <row r="544" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B544" s="38">
+        <v>17</v>
+      </c>
+      <c r="C544" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D544" s="5"/>
+      <c r="E544" s="5"/>
+      <c r="F544" s="5"/>
+    </row>
+    <row r="545" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B545" s="38"/>
+      <c r="C545" s="5"/>
+      <c r="D545" s="5"/>
+      <c r="E545" s="5"/>
+      <c r="F545" s="5"/>
+    </row>
+    <row r="546" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B546" s="38"/>
+      <c r="C546" s="5"/>
+      <c r="D546" s="5"/>
+      <c r="E546" s="5"/>
+      <c r="F546" s="5"/>
+    </row>
+    <row r="547" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B547" s="38"/>
+      <c r="C547" s="5"/>
+      <c r="D547" s="5"/>
+      <c r="E547" s="5"/>
+      <c r="F547" s="5"/>
+    </row>
+    <row r="548" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B548" s="38"/>
+      <c r="C548" s="5"/>
+      <c r="D548" s="5"/>
+      <c r="E548" s="5"/>
+      <c r="F548" s="5"/>
+    </row>
+    <row r="549" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B549" s="38"/>
+      <c r="C549" s="5"/>
+      <c r="D549" s="5"/>
+      <c r="E549" s="5"/>
+      <c r="F549" s="5"/>
+    </row>
+    <row r="550" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B550" s="38">
+        <v>18</v>
+      </c>
+      <c r="C550" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="D550" s="5"/>
+      <c r="E550" s="5"/>
+      <c r="F550" s="5"/>
+    </row>
+    <row r="551" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B551" s="38"/>
+      <c r="C551" s="5"/>
+      <c r="D551" s="5"/>
+      <c r="E551" s="5"/>
+      <c r="F551" s="5"/>
+    </row>
+    <row r="552" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B552" s="38"/>
+      <c r="C552" s="5"/>
+      <c r="D552" s="5"/>
+      <c r="E552" s="5"/>
+      <c r="F552" s="5"/>
+    </row>
+    <row r="553" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B553" s="38"/>
+      <c r="C553" s="5"/>
+      <c r="D553" s="5"/>
+      <c r="E553" s="5"/>
+      <c r="F553" s="5"/>
+    </row>
+    <row r="554" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B554" s="38"/>
+      <c r="C554" s="5"/>
+      <c r="D554" s="5"/>
+      <c r="E554" s="5"/>
+      <c r="F554" s="5"/>
+    </row>
+    <row r="555" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B555" s="38"/>
+      <c r="C555" s="5"/>
+      <c r="D555" s="5"/>
+      <c r="E555" s="5"/>
+      <c r="F555" s="5"/>
+    </row>
+    <row r="556" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B556" s="38">
+        <v>19</v>
+      </c>
+      <c r="C556" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D556" s="5"/>
+      <c r="E556" s="5"/>
+      <c r="F556" s="5"/>
+    </row>
+    <row r="557" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B557" s="38"/>
+      <c r="C557" s="13"/>
+      <c r="D557" s="5"/>
+      <c r="E557" s="5"/>
+      <c r="F557" s="5"/>
+    </row>
+    <row r="558" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B558" s="38"/>
+      <c r="C558" s="13"/>
+      <c r="D558" s="5"/>
+      <c r="E558" s="5"/>
+      <c r="F558" s="5"/>
+    </row>
+    <row r="559" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B559" s="38"/>
+      <c r="C559" s="13"/>
+      <c r="D559" s="5"/>
+      <c r="E559" s="5"/>
+      <c r="F559" s="5"/>
+    </row>
+    <row r="560" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B560" s="38"/>
+      <c r="C560" s="13"/>
+      <c r="D560" s="5"/>
+      <c r="E560" s="5"/>
+      <c r="F560" s="5"/>
+    </row>
+    <row r="561" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B561" s="38"/>
+      <c r="C561" s="14"/>
+      <c r="D561" s="5"/>
+      <c r="E561" s="5"/>
+      <c r="F561" s="5"/>
+    </row>
+    <row r="562" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B562" s="38">
+        <v>20</v>
+      </c>
+      <c r="C562" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D562" s="5"/>
+      <c r="E562" s="5"/>
+      <c r="F562" s="5"/>
+    </row>
+    <row r="563" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B563" s="38"/>
+      <c r="C563" s="13"/>
+      <c r="D563" s="5"/>
+      <c r="E563" s="5"/>
+      <c r="F563" s="5"/>
+    </row>
+    <row r="564" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B564" s="38"/>
+      <c r="C564" s="13"/>
+      <c r="D564" s="5"/>
+      <c r="E564" s="5"/>
+      <c r="F564" s="5"/>
+    </row>
+    <row r="565" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B565" s="38"/>
+      <c r="C565" s="13"/>
+      <c r="D565" s="5"/>
+      <c r="E565" s="5"/>
+      <c r="F565" s="5"/>
+    </row>
+    <row r="566" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B566" s="38"/>
+      <c r="C566" s="14"/>
+      <c r="D566" s="5"/>
+      <c r="E566" s="5"/>
+      <c r="F566" s="5"/>
+    </row>
+    <row r="567" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="C567" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="568" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="C568" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="569" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="C569" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="571" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="C571" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="153">
+  <mergeCells count="168">
+    <mergeCell ref="B562:B566"/>
+    <mergeCell ref="C562:C566"/>
+    <mergeCell ref="D562:D566"/>
+    <mergeCell ref="E562:E566"/>
+    <mergeCell ref="F562:F566"/>
+    <mergeCell ref="B506:B543"/>
+    <mergeCell ref="C506:C543"/>
+    <mergeCell ref="D506:D543"/>
+    <mergeCell ref="E506:E543"/>
+    <mergeCell ref="F506:F543"/>
+    <mergeCell ref="B556:B561"/>
+    <mergeCell ref="C556:C561"/>
+    <mergeCell ref="D556:D561"/>
+    <mergeCell ref="E556:E561"/>
+    <mergeCell ref="F556:F561"/>
     <mergeCell ref="B3:B40"/>
     <mergeCell ref="B41:B111"/>
-    <mergeCell ref="B112:B156"/>
-    <mergeCell ref="B157:B160"/>
-    <mergeCell ref="B161:B186"/>
-    <mergeCell ref="B187:B232"/>
-    <mergeCell ref="B233:B274"/>
-    <mergeCell ref="B275:B316"/>
-    <mergeCell ref="B317:B327"/>
-    <mergeCell ref="B328:B369"/>
-    <mergeCell ref="B370:B397"/>
-    <mergeCell ref="B398:B414"/>
-    <mergeCell ref="B415:B456"/>
-    <mergeCell ref="B457:B498"/>
-    <mergeCell ref="B499:B504"/>
-    <mergeCell ref="B505:B510"/>
-    <mergeCell ref="B511:B516"/>
+    <mergeCell ref="B112:B157"/>
+    <mergeCell ref="B158:B161"/>
+    <mergeCell ref="B162:B187"/>
+    <mergeCell ref="B188:B233"/>
+    <mergeCell ref="B234:B275"/>
+    <mergeCell ref="B276:B317"/>
+    <mergeCell ref="B318:B328"/>
+    <mergeCell ref="B329:B370"/>
+    <mergeCell ref="B371:B398"/>
+    <mergeCell ref="B399:B415"/>
+    <mergeCell ref="B416:B457"/>
+    <mergeCell ref="B458:B499"/>
+    <mergeCell ref="B500:B505"/>
+    <mergeCell ref="B544:B549"/>
+    <mergeCell ref="B550:B555"/>
     <mergeCell ref="C3:C40"/>
     <mergeCell ref="C41:C78"/>
     <mergeCell ref="C79:C81"/>
@@ -13051,32 +13648,32 @@
     <mergeCell ref="C87:C88"/>
     <mergeCell ref="C89:C111"/>
     <mergeCell ref="C112:C149"/>
-    <mergeCell ref="C150:C156"/>
-    <mergeCell ref="C157:C160"/>
-    <mergeCell ref="C161:C163"/>
-    <mergeCell ref="C164:C186"/>
-    <mergeCell ref="C187:C207"/>
-    <mergeCell ref="C208:C232"/>
-    <mergeCell ref="C233:C251"/>
-    <mergeCell ref="C252:C274"/>
-    <mergeCell ref="C275:C293"/>
-    <mergeCell ref="C294:C316"/>
-    <mergeCell ref="C317:C320"/>
-    <mergeCell ref="C321:C327"/>
-    <mergeCell ref="C328:C346"/>
-    <mergeCell ref="C347:C369"/>
-    <mergeCell ref="C370:C378"/>
-    <mergeCell ref="C379:C387"/>
-    <mergeCell ref="C388:C397"/>
-    <mergeCell ref="C398:C405"/>
-    <mergeCell ref="C406:C414"/>
-    <mergeCell ref="C415:C433"/>
-    <mergeCell ref="C434:C456"/>
-    <mergeCell ref="C457:C475"/>
-    <mergeCell ref="C476:C498"/>
-    <mergeCell ref="C499:C504"/>
-    <mergeCell ref="C505:C510"/>
-    <mergeCell ref="C511:C516"/>
+    <mergeCell ref="C150:C157"/>
+    <mergeCell ref="C158:C161"/>
+    <mergeCell ref="C162:C164"/>
+    <mergeCell ref="C165:C187"/>
+    <mergeCell ref="C188:C208"/>
+    <mergeCell ref="C209:C233"/>
+    <mergeCell ref="C234:C252"/>
+    <mergeCell ref="C253:C275"/>
+    <mergeCell ref="C276:C294"/>
+    <mergeCell ref="C295:C317"/>
+    <mergeCell ref="C318:C321"/>
+    <mergeCell ref="C322:C328"/>
+    <mergeCell ref="C329:C347"/>
+    <mergeCell ref="C348:C370"/>
+    <mergeCell ref="C371:C379"/>
+    <mergeCell ref="C380:C388"/>
+    <mergeCell ref="C389:C398"/>
+    <mergeCell ref="C399:C406"/>
+    <mergeCell ref="C407:C415"/>
+    <mergeCell ref="C416:C434"/>
+    <mergeCell ref="C435:C457"/>
+    <mergeCell ref="C458:C476"/>
+    <mergeCell ref="C477:C499"/>
+    <mergeCell ref="C500:C505"/>
+    <mergeCell ref="C544:C549"/>
+    <mergeCell ref="C550:C555"/>
     <mergeCell ref="D3:D40"/>
     <mergeCell ref="D41:D78"/>
     <mergeCell ref="D79:D81"/>
@@ -13085,32 +13682,32 @@
     <mergeCell ref="D87:D88"/>
     <mergeCell ref="D89:D111"/>
     <mergeCell ref="D112:D149"/>
-    <mergeCell ref="D150:D156"/>
-    <mergeCell ref="D157:D160"/>
-    <mergeCell ref="D161:D163"/>
-    <mergeCell ref="D164:D186"/>
-    <mergeCell ref="D187:D207"/>
-    <mergeCell ref="D208:D232"/>
-    <mergeCell ref="D233:D251"/>
-    <mergeCell ref="D252:D274"/>
-    <mergeCell ref="D275:D293"/>
-    <mergeCell ref="D294:D316"/>
-    <mergeCell ref="D317:D320"/>
-    <mergeCell ref="D321:D327"/>
-    <mergeCell ref="D328:D346"/>
-    <mergeCell ref="D347:D369"/>
-    <mergeCell ref="D370:D378"/>
-    <mergeCell ref="D379:D387"/>
-    <mergeCell ref="D388:D397"/>
-    <mergeCell ref="D398:D405"/>
-    <mergeCell ref="D406:D414"/>
-    <mergeCell ref="D415:D433"/>
-    <mergeCell ref="D434:D456"/>
-    <mergeCell ref="D457:D475"/>
-    <mergeCell ref="D476:D498"/>
-    <mergeCell ref="D499:D504"/>
-    <mergeCell ref="D505:D510"/>
-    <mergeCell ref="D511:D516"/>
+    <mergeCell ref="D150:D157"/>
+    <mergeCell ref="D158:D161"/>
+    <mergeCell ref="D162:D164"/>
+    <mergeCell ref="D165:D187"/>
+    <mergeCell ref="D188:D208"/>
+    <mergeCell ref="D209:D233"/>
+    <mergeCell ref="D234:D252"/>
+    <mergeCell ref="D253:D275"/>
+    <mergeCell ref="D276:D294"/>
+    <mergeCell ref="D295:D317"/>
+    <mergeCell ref="D318:D321"/>
+    <mergeCell ref="D322:D328"/>
+    <mergeCell ref="D329:D347"/>
+    <mergeCell ref="D348:D370"/>
+    <mergeCell ref="D371:D379"/>
+    <mergeCell ref="D380:D388"/>
+    <mergeCell ref="D389:D398"/>
+    <mergeCell ref="D399:D406"/>
+    <mergeCell ref="D407:D415"/>
+    <mergeCell ref="D416:D434"/>
+    <mergeCell ref="D435:D457"/>
+    <mergeCell ref="D458:D476"/>
+    <mergeCell ref="D477:D499"/>
+    <mergeCell ref="D500:D505"/>
+    <mergeCell ref="D544:D549"/>
+    <mergeCell ref="D550:D555"/>
     <mergeCell ref="E3:E40"/>
     <mergeCell ref="E41:E78"/>
     <mergeCell ref="E79:E81"/>
@@ -13119,32 +13716,32 @@
     <mergeCell ref="E87:E88"/>
     <mergeCell ref="E89:E111"/>
     <mergeCell ref="E112:E149"/>
-    <mergeCell ref="E150:E156"/>
-    <mergeCell ref="E157:E160"/>
-    <mergeCell ref="E161:E163"/>
-    <mergeCell ref="E164:E186"/>
-    <mergeCell ref="E187:E207"/>
-    <mergeCell ref="E208:E232"/>
-    <mergeCell ref="E233:E251"/>
-    <mergeCell ref="E252:E274"/>
-    <mergeCell ref="E275:E293"/>
-    <mergeCell ref="E294:E316"/>
-    <mergeCell ref="E317:E320"/>
-    <mergeCell ref="E321:E327"/>
-    <mergeCell ref="E328:E346"/>
-    <mergeCell ref="E347:E369"/>
-    <mergeCell ref="E370:E378"/>
-    <mergeCell ref="E379:E387"/>
-    <mergeCell ref="E388:E397"/>
-    <mergeCell ref="E398:E405"/>
-    <mergeCell ref="E406:E414"/>
-    <mergeCell ref="E415:E433"/>
-    <mergeCell ref="E434:E456"/>
-    <mergeCell ref="E457:E475"/>
-    <mergeCell ref="E476:E498"/>
-    <mergeCell ref="E499:E504"/>
-    <mergeCell ref="E505:E510"/>
-    <mergeCell ref="E511:E516"/>
+    <mergeCell ref="E150:E157"/>
+    <mergeCell ref="E158:E161"/>
+    <mergeCell ref="E162:E164"/>
+    <mergeCell ref="E165:E187"/>
+    <mergeCell ref="E188:E208"/>
+    <mergeCell ref="E209:E233"/>
+    <mergeCell ref="E234:E252"/>
+    <mergeCell ref="E253:E275"/>
+    <mergeCell ref="E276:E294"/>
+    <mergeCell ref="E295:E317"/>
+    <mergeCell ref="E318:E321"/>
+    <mergeCell ref="E322:E328"/>
+    <mergeCell ref="E329:E347"/>
+    <mergeCell ref="E348:E370"/>
+    <mergeCell ref="E371:E379"/>
+    <mergeCell ref="E380:E388"/>
+    <mergeCell ref="E389:E398"/>
+    <mergeCell ref="E399:E406"/>
+    <mergeCell ref="E407:E415"/>
+    <mergeCell ref="E416:E434"/>
+    <mergeCell ref="E435:E457"/>
+    <mergeCell ref="E458:E476"/>
+    <mergeCell ref="E477:E499"/>
+    <mergeCell ref="E500:E505"/>
+    <mergeCell ref="E544:E549"/>
+    <mergeCell ref="E550:E555"/>
     <mergeCell ref="F3:F40"/>
     <mergeCell ref="F41:F78"/>
     <mergeCell ref="F79:F81"/>
@@ -13153,32 +13750,32 @@
     <mergeCell ref="F87:F88"/>
     <mergeCell ref="F89:F111"/>
     <mergeCell ref="F112:F149"/>
-    <mergeCell ref="F150:F156"/>
-    <mergeCell ref="F157:F160"/>
-    <mergeCell ref="F161:F163"/>
-    <mergeCell ref="F164:F186"/>
-    <mergeCell ref="F187:F207"/>
-    <mergeCell ref="F208:F232"/>
-    <mergeCell ref="F233:F251"/>
-    <mergeCell ref="F252:F274"/>
-    <mergeCell ref="F275:F293"/>
-    <mergeCell ref="F294:F316"/>
-    <mergeCell ref="F317:F320"/>
-    <mergeCell ref="F321:F327"/>
-    <mergeCell ref="F328:F346"/>
-    <mergeCell ref="F347:F369"/>
-    <mergeCell ref="F370:F378"/>
-    <mergeCell ref="F379:F387"/>
-    <mergeCell ref="F388:F397"/>
-    <mergeCell ref="F398:F405"/>
-    <mergeCell ref="F406:F414"/>
-    <mergeCell ref="F415:F433"/>
-    <mergeCell ref="F434:F456"/>
-    <mergeCell ref="F457:F475"/>
-    <mergeCell ref="F476:F498"/>
-    <mergeCell ref="F499:F504"/>
-    <mergeCell ref="F505:F510"/>
-    <mergeCell ref="F511:F516"/>
+    <mergeCell ref="F150:F157"/>
+    <mergeCell ref="F158:F161"/>
+    <mergeCell ref="F162:F164"/>
+    <mergeCell ref="F165:F187"/>
+    <mergeCell ref="F188:F208"/>
+    <mergeCell ref="F209:F233"/>
+    <mergeCell ref="F234:F252"/>
+    <mergeCell ref="F253:F275"/>
+    <mergeCell ref="F276:F294"/>
+    <mergeCell ref="F295:F317"/>
+    <mergeCell ref="F318:F321"/>
+    <mergeCell ref="F322:F328"/>
+    <mergeCell ref="F329:F347"/>
+    <mergeCell ref="F348:F370"/>
+    <mergeCell ref="F371:F379"/>
+    <mergeCell ref="F380:F388"/>
+    <mergeCell ref="F389:F398"/>
+    <mergeCell ref="F399:F406"/>
+    <mergeCell ref="F407:F415"/>
+    <mergeCell ref="F416:F434"/>
+    <mergeCell ref="F435:F457"/>
+    <mergeCell ref="F458:F476"/>
+    <mergeCell ref="F477:F499"/>
+    <mergeCell ref="F500:F505"/>
+    <mergeCell ref="F544:F549"/>
+    <mergeCell ref="F550:F555"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13210,16 +13807,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -13269,13 +13866,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F9" s="10"/>
     </row>
@@ -13319,13 +13916,13 @@
         <v>3</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F15" s="5"/>
     </row>
@@ -13369,13 +13966,13 @@
         <v>4</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F21" s="10"/>
     </row>
@@ -13419,16 +14016,16 @@
         <v>5</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -13478,13 +14075,13 @@
         <v>6</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F34" s="15"/>
     </row>
@@ -13528,7 +14125,7 @@
         <v>7</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="5"/>
@@ -13574,16 +14171,16 @@
         <v>8</v>
       </c>
       <c r="C46" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F46" s="26" t="s">
         <v>96</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E46" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="F46" s="26" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -13633,16 +14230,16 @@
         <v>9</v>
       </c>
       <c r="C53" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="54" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -13692,13 +14289,13 @@
         <v>10</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F60" s="10"/>
     </row>
@@ -13867,7 +14464,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="43"/>
@@ -13913,7 +14510,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D8" s="41"/>
       <c r="E8" s="43"/>
@@ -13959,7 +14556,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D14" s="41"/>
       <c r="E14" s="43"/>
@@ -14005,13 +14602,13 @@
         <v>4</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F20" s="5"/>
     </row>
@@ -14034,7 +14631,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D23" s="41"/>
       <c r="E23" s="43"/>
@@ -14080,7 +14677,7 @@
         <v>6</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D29" s="41"/>
       <c r="E29" s="43"/>
@@ -14126,16 +14723,16 @@
         <v>7</v>
       </c>
       <c r="C35" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="18" t="s">
         <v>115</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -14199,14 +14796,14 @@
         <v>8</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="42" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -14351,9 +14948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F91"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:F31"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -14370,7 +14965,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="5"/>
@@ -14416,7 +15011,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="5"/>
@@ -14462,7 +15057,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="5"/>
@@ -14508,7 +15103,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="5"/>
@@ -14554,7 +15149,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="5"/>
@@ -14600,7 +15195,7 @@
         <v>6</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="5"/>
@@ -14646,7 +15241,7 @@
         <v>7</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="5"/>
@@ -14692,7 +15287,7 @@
         <v>8</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="5"/>
@@ -14738,7 +15333,7 @@
         <v>9</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="5"/>
@@ -15113,4 +15708,752 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F91"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="60.625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="9.9499999999999993" customHeight="1"/>
+    <row r="2" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B2" s="38">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="38"/>
+    </row>
+    <row r="3" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B3" s="38"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="38"/>
+    </row>
+    <row r="4" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="38"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="38"/>
+    </row>
+    <row r="5" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="38"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="38"/>
+    </row>
+    <row r="6" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="38"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="38"/>
+    </row>
+    <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="38"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="38"/>
+    </row>
+    <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="38">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="38"/>
+    </row>
+    <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="38"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="38"/>
+    </row>
+    <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="38"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="38"/>
+    </row>
+    <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="38"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="38"/>
+    </row>
+    <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="38"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="38"/>
+    </row>
+    <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="38"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="38"/>
+    </row>
+    <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="38">
+        <v>3</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="38"/>
+    </row>
+    <row r="15" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="38"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="38"/>
+    </row>
+    <row r="16" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="38"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="38"/>
+    </row>
+    <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="38"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="38"/>
+    </row>
+    <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B18" s="38"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="38"/>
+    </row>
+    <row r="19" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="38"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="38"/>
+    </row>
+    <row r="20" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="38">
+        <v>4</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="38"/>
+    </row>
+    <row r="21" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="38"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="38"/>
+    </row>
+    <row r="22" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B22" s="38"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="38"/>
+    </row>
+    <row r="23" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B23" s="38"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="38"/>
+    </row>
+    <row r="24" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B24" s="38"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="38"/>
+    </row>
+    <row r="25" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B25" s="38"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="38"/>
+    </row>
+    <row r="26" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B26" s="38">
+        <v>5</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="38"/>
+    </row>
+    <row r="27" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B27" s="38"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="38"/>
+    </row>
+    <row r="28" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B28" s="38"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="38"/>
+    </row>
+    <row r="29" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B29" s="38"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="38"/>
+    </row>
+    <row r="30" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B30" s="38"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="38"/>
+    </row>
+    <row r="31" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B31" s="38"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="38"/>
+    </row>
+    <row r="32" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B32" s="38">
+        <v>6</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="38"/>
+    </row>
+    <row r="33" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B33" s="38"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="38"/>
+    </row>
+    <row r="34" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B34" s="38"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="38"/>
+    </row>
+    <row r="35" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B35" s="38"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="38"/>
+    </row>
+    <row r="36" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B36" s="38"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="38"/>
+    </row>
+    <row r="37" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B37" s="38"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="38"/>
+    </row>
+    <row r="38" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B38" s="38">
+        <v>7</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="38"/>
+    </row>
+    <row r="39" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B39" s="38"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="38"/>
+    </row>
+    <row r="40" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B40" s="38"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="38"/>
+    </row>
+    <row r="41" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B41" s="38"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="38"/>
+    </row>
+    <row r="42" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B42" s="38"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="38"/>
+    </row>
+    <row r="43" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B43" s="38"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="38"/>
+    </row>
+    <row r="44" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B44" s="38">
+        <v>8</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="38"/>
+    </row>
+    <row r="45" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B45" s="38"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="38"/>
+    </row>
+    <row r="46" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B46" s="38"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="38"/>
+    </row>
+    <row r="47" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B47" s="38"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="38"/>
+    </row>
+    <row r="48" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B48" s="38"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="38"/>
+    </row>
+    <row r="49" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B49" s="38"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="38"/>
+    </row>
+    <row r="50" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B50" s="38">
+        <v>9</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="38"/>
+    </row>
+    <row r="51" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B51" s="38"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="38"/>
+    </row>
+    <row r="52" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B52" s="38"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="38"/>
+    </row>
+    <row r="53" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B53" s="38"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="38"/>
+    </row>
+    <row r="54" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B54" s="38"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="38"/>
+    </row>
+    <row r="55" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B55" s="38"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="38"/>
+    </row>
+    <row r="56" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B56" s="38"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="38"/>
+    </row>
+    <row r="57" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B57" s="38"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="38"/>
+    </row>
+    <row r="58" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B58" s="38"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="38"/>
+    </row>
+    <row r="59" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B59" s="38"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="38"/>
+    </row>
+    <row r="60" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B60" s="38"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="38"/>
+    </row>
+    <row r="61" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B61" s="38"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="38"/>
+    </row>
+    <row r="62" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B62" s="38"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="38"/>
+    </row>
+    <row r="63" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B63" s="38"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="38"/>
+    </row>
+    <row r="64" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B64" s="38"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="38"/>
+    </row>
+    <row r="65" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B65" s="38"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="38"/>
+    </row>
+    <row r="66" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B66" s="38"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="38"/>
+    </row>
+    <row r="67" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B67" s="38"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="38"/>
+    </row>
+    <row r="68" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B68" s="38"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="38"/>
+    </row>
+    <row r="69" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B69" s="38"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="38"/>
+    </row>
+    <row r="70" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B70" s="38"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="38"/>
+    </row>
+    <row r="71" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B71" s="38"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="38"/>
+    </row>
+    <row r="72" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B72" s="38"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="38"/>
+    </row>
+    <row r="73" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B73" s="38"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="38"/>
+    </row>
+    <row r="74" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B74" s="38"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="38"/>
+    </row>
+    <row r="75" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B75" s="38"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="38"/>
+    </row>
+    <row r="76" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B76" s="38"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="38"/>
+    </row>
+    <row r="77" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B77" s="38"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="38"/>
+    </row>
+    <row r="78" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B78" s="38"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="38"/>
+    </row>
+    <row r="79" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B79" s="38"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="38"/>
+    </row>
+    <row r="80" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B80" s="38"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="38"/>
+    </row>
+    <row r="81" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B81" s="38"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="38"/>
+    </row>
+    <row r="82" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B82" s="38"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="38"/>
+    </row>
+    <row r="83" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B83" s="38"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="38"/>
+    </row>
+    <row r="84" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B84" s="38"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="38"/>
+    </row>
+    <row r="85" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B85" s="38"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="38"/>
+    </row>
+    <row r="86" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B86" s="38"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="38"/>
+    </row>
+    <row r="87" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B87" s="38"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="38"/>
+    </row>
+    <row r="88" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B88" s="38"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="38"/>
+    </row>
+    <row r="89" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B89" s="38"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="38"/>
+    </row>
+    <row r="90" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B90" s="38"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="38"/>
+    </row>
+    <row r="91" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B91" s="38"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="75">
+    <mergeCell ref="B86:B91"/>
+    <mergeCell ref="C86:C91"/>
+    <mergeCell ref="D86:D91"/>
+    <mergeCell ref="E86:E91"/>
+    <mergeCell ref="F86:F91"/>
+    <mergeCell ref="B74:B79"/>
+    <mergeCell ref="C74:C79"/>
+    <mergeCell ref="D74:D79"/>
+    <mergeCell ref="E74:E79"/>
+    <mergeCell ref="F74:F79"/>
+    <mergeCell ref="B80:B85"/>
+    <mergeCell ref="C80:C85"/>
+    <mergeCell ref="D80:D85"/>
+    <mergeCell ref="E80:E85"/>
+    <mergeCell ref="F80:F85"/>
+    <mergeCell ref="B62:B67"/>
+    <mergeCell ref="C62:C67"/>
+    <mergeCell ref="D62:D67"/>
+    <mergeCell ref="E62:E67"/>
+    <mergeCell ref="F62:F67"/>
+    <mergeCell ref="B68:B73"/>
+    <mergeCell ref="C68:C73"/>
+    <mergeCell ref="D68:D73"/>
+    <mergeCell ref="E68:E73"/>
+    <mergeCell ref="F68:F73"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="C50:C55"/>
+    <mergeCell ref="D50:D55"/>
+    <mergeCell ref="E50:E55"/>
+    <mergeCell ref="F50:F55"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="C56:C61"/>
+    <mergeCell ref="D56:D61"/>
+    <mergeCell ref="E56:E61"/>
+    <mergeCell ref="F56:F61"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="C38:C43"/>
+    <mergeCell ref="D38:D43"/>
+    <mergeCell ref="E38:E43"/>
+    <mergeCell ref="F38:F43"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="C44:C49"/>
+    <mergeCell ref="D44:D49"/>
+    <mergeCell ref="E44:E49"/>
+    <mergeCell ref="F44:F49"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="D26:D31"/>
+    <mergeCell ref="E26:E31"/>
+    <mergeCell ref="F26:F31"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="C32:C37"/>
+    <mergeCell ref="D32:D37"/>
+    <mergeCell ref="E32:E37"/>
+    <mergeCell ref="F32:F37"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="F14:F19"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="E20:E25"/>
+    <mergeCell ref="F20:F25"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="E8:E13"/>
+    <mergeCell ref="F8:F13"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
 </file>
--- a/docs/接口文档/tetris-zoom/新平台云会议业务接口.xlsx
+++ b/docs/接口文档/tetris-zoom/新平台云会议业务接口.xlsx
@@ -3258,1443 +3258,6 @@
   </si>
   <si>
     <r>
-      <t>数据类型：json</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-{
-    id:"会议id",
-    uuid:"会议uuid",
-    updateTime:"会议创建时间，格式：yyyy-MM-dd hh:ss:mm"，
-    name:"会议名称",
-    code:"会议号码",
-    status:"START(开始), STOP(停止)",
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>secretLevel:"PUBLIC|PRIVATE",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-    mode:"DISCUSSION_MODE(讨论模式),CONVERSION_MODE(大会模式)",
-    creatorUserId:"创建用户id",
-    creatorUserNickname:"创建者用户昵称",
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>webRtc:{
-        ip:"ip",
-        layerId:"接入层id", 
-        httpPort:"http端口",
-        websocketPort:"websocket端口"
-    },</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-    //当前用户成员
-    me:{
-        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id:"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>会议成员</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id",
-        uuid:"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>会议成员</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uuid",
-        updateTime:"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>会议成员创建时间，格式：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>yyyy-MM-dd hh:ss:mm" ,
-        userId:"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>用户</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">id",
-        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>userno:"用户号码",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-        userNickname:"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>用户昵称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",
-        rename:"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>入会名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",  
-        tourist:"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>是否是游客</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" ,
-        zoomId:"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>会议</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id",
-        chairman:"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>是否是主席</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" ,
-        spokesman:"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>是否是发言人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" ,
-        join:"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>是否加入会议</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",
-        myAudio:"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>是否开启自己音频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",
-        myVideo:"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>是否开启自己视频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" ,
-        theirAudio:"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>是否接收音频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>", 
-        theirVideo:"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>是否接收视频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",
-        shareScreen:"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>是否开启共享屏幕</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",
-        bundleId:"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>设备</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">id",
-        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>layerId:"接入id",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-        videoChannelId:"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>视频通道</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id",
-        audioChannelId:"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>音频通道</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">id",
-        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>screenVideoChannelId:"屏幕视频通道id",
-        screenAudioChannelId:"屏幕音频通道id",
-        type:"TERMINl|JV220"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-    },
-    //会议主席，格式同"me"  
-    chairman:{},
-    //共享屏幕，格式同"me" 
-    sharedScreen:[{}],
-    //发言人列表，格式同"me" 
-    spokesmem:[{}]，
-    totalMembers:"成员总数",
-    //成员列表，格式同"me"   
-    members:[{}]  
-}</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>数据类型：json</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-{
-    id:"会议id",
-    uuid:"会议uuid",
-    updateTime:"会议创建时间，格式：yyyy-MM-dd hh:ss:mm"，
-    name:"会议名称",
-    code:"会议号码",
-    status:"START(开始), STOP(停止)",
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>secretLevel:"PUBLIC|PRIVATE",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-    mode:"DISCUSSION_MODE(讨论模式),CONVERSION_MODE(大会模式)",
-    creatorUserId:"创建用户id",
-    creatorUserNickname:"创建者用户昵称",
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>webRtc:{
-        ip:"ip",
-        layerId:"接入层id", 
-        httpPort:"http端口",
-        websocketPort:"websocket端口"
-    },</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-    //当前用户成员
-    me:{
-        id:"会议成员id",
-        uuid:"会议成员uuid",
-        updateTime:"会议成员创建时间，格式：yyyy-MM-dd hh:ss:mm" ,
-        userId:"用户id",
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>userno:"用户号码",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-        userNickname:"用户昵称",
-        rename:"入会名称",  
-        tourist:"是否是游客" ,
-        zoomId:"会议id",
-        chairman:"是否是主席" ,
-        spokesman:"是否是发言人" ,
-        join:"是否加入会议",
-        myAudio:"是否开启自己音频",
-        myVideo:"是否开启自己视频" ,
-        theirAudio:"是否接收音频", 
-        theirVideo:"是否接收视频",
-        shareScreen:"是否开启共享屏幕",
-        bundleId:"设备id",
-        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>layerId:"接入id",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-        videoChannelId:"视频通道id",
-        audioChannelId:"音频通道id",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-        screenVideoChannelId:"屏幕视频通道id",
-        screenAudioChannelId:"屏幕音频通道id",
-        type:"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TERMINl|JV220</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-    },
-    //会议主席，格式同"me"  
-    chairman:{},
-    //共享屏幕，格式同"me" 
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sharedScreen:[{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}],
-    //发言人列表，格式同"me" 
-    spokesmem:[{}]，
-    totalMembers:"成员总数",
-    //成员列表，格式同"me"   
-    members:[{}]  
-}</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">数据类型：json
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{
-    id:"会议id",
-    uuid:"会议uuid",
-    updateTime:"会议创建时间，格式：yyyy-MM-dd hh:ss:mm"，
-    name:"会议名称",
-    code:"会议号码",
-    status:"START(开始), STOP(停止)",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">    secretLevel:"PUBLIC|PRIVATE",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-    mode:"DISCUSSION_MODE(讨论模式),CONVERSION_MODE(大会模式)",
-    creatorUserId:"创建用户id",
-    creatorUserNickname:"创建者用户昵称",
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>webRtc:{
-        ip:"ip",
-        layerId:"接入层id", 
-        httpPort:"http端口",
-        websocketPort:"websocket端口"
-    },</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-    //当前用户成员
-    me:{
-        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id:"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>会议成员</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id",
-        uuid:"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>会议成员</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uuid",
-        updateTime:"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>会议成员创建时间，格式：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>yyyy-MM-dd hh:ss:mm" ,
-        userId:"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>用户</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">id",
-        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>userno:"用户号码",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-        userNickname:"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>用户昵称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",
-        rename:"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>入会名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",  
-        tourist:"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>是否是游客</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" ,
-        zoomId:"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>会议</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id",
-        chairman:"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>是否是主席</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" ,
-        spokesman:"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>是否是发言人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" ,
-        join:"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>是否加入会议</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",
-        myAudio:"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>是否开启自己音频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",
-        myVideo:"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>是否开启自己视频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" ,
-        theirAudio:"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>是否接收音频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>", 
-        theirVideo:"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>是否接收视频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",
-        shareScreen:"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>是否开启共享屏幕</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",
-        bundleId:"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>设备</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">id",
-        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>layerId:"接入id",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-        videoChannelId:"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>视频通道</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id",
-        audioChannelId:"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>音频通道</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">id",
-        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>screenVideoChannelId:"屏幕视频通道id",
-        screenAudioChannelId:"屏幕音频通道id",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>type:"TERMINl|JV220"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-    },
-    //会议主席，格式同"me"  
-    chairman:{},
-    //共享屏幕，格式同"me" 
-    sharedScreen:[{}],
-    //发言人列表，格式同"me" 
-    spokesmem:[{}]，
-    totalMembers:"成员总数",
-    //成员列表，格式同"me"   
-    members:[{}]  
-}</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">{
     targetId:"消息目标用户id",
     businessId:"zoomJoin",
@@ -8533,15 +7096,614 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>设置音视频权限</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端开关音视频</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">数据类型：json
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{
+    id:"会议id",
+    uuid:"会议uuid",
+    updateTime:"会议创建时间，格式：yyyy-MM-dd hh:ss:mm"，
+    name:"会议名称",
+    code:"会议号码",
+    status:"START(开始), STOP(停止)",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    secretLevel:"PUBLIC|PRIVATE",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    mode:"DISCUSSION_MODE(讨论模式),CONVERSION_MODE(大会模式)",
+    creatorUserId:"创建用户id",
+    creatorUserNickname:"创建者用户昵称",
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>webRtc:{
+        ip:"ip",
+        layerId:"接入层id", 
+        httpPort:"http端口",
+        websocketPort:"websocket端口"
+    },</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    //当前用户成员
+    me:{
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>会议成员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id",
+        uuid:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>会议成员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uuid",
+        updateTime:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>会议成员创建时间，格式：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yyyy-MM-dd hh:ss:mm" ,
+        userId:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">id",
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>userno:"用户号码",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        userNickname:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用户昵称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+        rename:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>入会名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",  
+        tourist:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是否是游客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" ,
+        zoomId:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>会议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id",
+        chairman:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是否是主席</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" ,
+        spokesman:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是否是发言人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" ,
+        join:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是否加入会议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+        myAudio:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是否开启自己音频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+        myVideo:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是否开启自己视频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" ,
+        theirAudio:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是否接收音频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>", 
+        theirVideo:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是否接收视频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+        shareScreen:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是否开启共享屏幕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+        bundleId:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">id",
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>layerId:"接入id",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        videoChannelId:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视频通道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id",
+        audioChannelId:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>音频通道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">id",
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>screenVideoChannelId:"屏幕视频通道id",
+        screenAudioChannelId:"屏幕音频通道id",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>type:"TERMINl|JV220"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    },
+    //会议主席，格式同"me"  
+    chairman:{},
+    //共享屏幕，格式同"me" 
+    sharedScreen:[{}],
+    //发言人列表，格式同"me" 
+    spokesme</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:[{}]，
+    totalMembers:"成员总数",
+    //成员列表，格式同"me"   
+    members:[{}]  
+}</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>数据类型：json</t>
     </r>
     <r>
@@ -8560,7 +7722,18 @@
     name:"会议名称",
     code:"会议号码",
     status:"START(开始), STOP(停止)",
-    </t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
     </r>
     <r>
       <rPr>
@@ -8585,7 +7758,18 @@
     mode:"DISCUSSION_MODE(讨论模式),CONVERSION_MODE(大会模式)",
     creatorUserId:"创建用户id",
     creatorUserNickname:"创建者用户昵称",
-   </t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
     </r>
     <r>
       <rPr>
@@ -8596,7 +7780,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> webRtc:{
+      <t>webRtc:{
         ip:"ip",
         layerId:"接入层id", 
         httpPort:"http端口",
@@ -8618,7 +7802,18 @@
         uuid:"会议成员uuid",
         updateTime:"会议成员创建时间，格式：yyyy-MM-dd hh:ss:mm" ,
         userId:"用户id",
-        </t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
     </r>
     <r>
       <rPr>
@@ -8676,7 +7871,677 @@
       </rPr>
       <t xml:space="preserve">
         videoChannelId:"视频通道id",
-        audioChannelId:"音频通道id",
+        audioChannelId:"音频通道id",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        screenVideoChannelId:"屏幕视频通道id",
+        screenAudioChannelId:"屏幕音频通道id",
+        type:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TERMINl|JV220</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    },
+    //会议主席，格式同"me"  
+    chairman:{},
+    //共享屏幕，格式同"me" 
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sharedScreen:[{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}],
+    //发言人列表，格式同"me" 
+    spokesme</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:[{}]，
+    totalMembers:"成员总数",
+    //成员列表，格式同"me"   
+    members:[{}]  
+}</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>数据类型：json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+{
+    id:"会议id",
+    uuid:"会议uuid",
+    updateTime:"会议创建时间，格式：yyyy-MM-dd hh:ss:mm"，
+    name:"会议名称",
+    code:"会议号码",
+    status:"START(开始), STOP(停止)",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>secretLevel:"PUBLIC|PRIVATE",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    mode:"DISCUSSION_MODE(讨论模式),CONVERSION_MODE(大会模式)",
+    creatorUserId:"创建用户id",
+    creatorUserNickname:"创建者用户昵称",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>webRtc:{
+        ip:"ip",
+        layerId:"接入层id", 
+        httpPort:"http端口",
+        websocketPort:"websocket端口"
+    },</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    //当前用户成员
+    me:{
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>会议成员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id",
+        uuid:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>会议成员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uuid",
+        updateTime:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>会议成员创建时间，格式：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yyyy-MM-dd hh:ss:mm" ,
+        userId:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">id",
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>userno:"用户号码",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        userNickname:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用户昵称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+        rename:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>入会名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",  
+        tourist:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是否是游客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" ,
+        zoomId:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>会议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id",
+        chairman:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是否是主席</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" ,
+        spokesman:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是否是发言人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" ,
+        join:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是否加入会议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+        myAudio:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是否开启自己音频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+        myVideo:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是否开启自己视频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" ,
+        theirAudio:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是否接收音频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>", 
+        theirVideo:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是否接收视频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+        shareScreen:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是否开启共享屏幕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+        bundleId:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">id",
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>layerId:"接入id",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        videoChannelId:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视频通道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id",
+        audioChannelId:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>音频通道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">id",
         </t>
     </r>
     <r>
@@ -8707,7 +8572,28 @@
     //共享屏幕，格式同"me" 
     sharedScreen:[{}],
     //发言人列表，格式同"me" 
-    spokesmem:[{}]，
+    spokesme</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:[{}]，
     totalMembers:"成员总数",
     //成员列表，格式同"me"   
     members:[{}]  
@@ -8716,11 +8602,207 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>设置音视频权限</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>终端开关音视频</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据类型：json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+{
+    id:"会议id",
+    uuid:"会议uuid",
+    updateTime:"会议创建时间，格式：yyyy-MM-dd hh:ss:mm"，
+    name:"会议名称",
+    code:"会议号码",
+    status:"START(开始), STOP(停止)",
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>secretLevel:"PUBLIC|PRIVATE",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    mode:"DISCUSSION_MODE(讨论模式),CONVERSION_MODE(大会模式)",
+    creatorUserId:"创建用户id",
+    creatorUserNickname:"创建者用户昵称",
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> webRtc:{
+        ip:"ip",
+        layerId:"接入层id", 
+        httpPort:"http端口",
+        websocketPort:"websocket端口"
+    },</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    //当前用户成员
+    me:{
+        id:"会议成员id",
+        uuid:"会议成员uuid",
+        updateTime:"会议成员创建时间，格式：yyyy-MM-dd hh:ss:mm" ,
+        userId:"用户id",
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>userno:"用户号码",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        userNickname:"用户昵称",
+        rename:"入会名称",  
+        tourist:"是否是游客" ,
+        zoomId:"会议id",
+        chairman:"是否是主席" ,
+        spokesman:"是否是发言人" ,
+        join:"是否加入会议",
+        myAudio:"是否开启自己音频",
+        myVideo:"是否开启自己视频" ,
+        theirAudio:"是否接收音频", 
+        theirVideo:"是否接收视频",
+        shareScreen:"是否开启共享屏幕",
+        bundleId:"设备id",
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>layerId:"接入id",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        videoChannelId:"视频通道id",
+        audioChannelId:"音频通道id",
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>screenVideoChannelId:"屏幕视频通道id",
+        screenAudioChannelId:"屏幕音频通道id",
+        type:"TERMINl|JV220"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    },
+    //会议主席，格式同"me"  
+    chairman:{},
+    //共享屏幕，格式同"me" 
+    sharedScreen:[{}],
+    //发言人列表，格式同"me" 
+    spokesme</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:[{}]，
+    totalMembers:"成员总数",
+    //成员列表，格式同"me"   
+    members:[{}]  
+}</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -9367,7 +9449,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F571"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C506" workbookViewId="0">
+      <selection activeCell="F506" sqref="F506:F543"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -9412,7 +9496,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -9688,7 +9772,7 @@
         <v>128</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -10047,7 +10131,7 @@
       </c>
       <c r="D89" s="6"/>
       <c r="E89" s="23" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F89" s="6"/>
     </row>
@@ -10219,7 +10303,7 @@
         <v>10</v>
       </c>
       <c r="F112" s="22" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -10488,7 +10572,7 @@
       </c>
       <c r="D150" s="15"/>
       <c r="E150" s="27" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F150" s="15"/>
     </row>
@@ -10785,7 +10869,7 @@
         <v>33</v>
       </c>
       <c r="F188" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="189" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -11118,10 +11202,10 @@
         <v>36</v>
       </c>
       <c r="E234" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F234" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="235" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -11257,7 +11341,7 @@
       </c>
       <c r="D253" s="10"/>
       <c r="E253" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F253" s="10"/>
     </row>
@@ -11423,13 +11507,13 @@
         <v>38</v>
       </c>
       <c r="D276" s="52" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E276" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F276" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="277" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -11565,7 +11649,7 @@
       </c>
       <c r="D295" s="12"/>
       <c r="E295" s="23" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F295" s="12"/>
     </row>
@@ -11734,7 +11818,7 @@
         <v>41</v>
       </c>
       <c r="E318" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F318" s="10"/>
     </row>
@@ -11766,7 +11850,7 @@
       </c>
       <c r="D322" s="15"/>
       <c r="E322" s="27" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F322" s="15"/>
     </row>
@@ -11823,10 +11907,10 @@
         <v>44</v>
       </c>
       <c r="E329" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F329" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="330" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -11962,7 +12046,7 @@
       </c>
       <c r="D348" s="6"/>
       <c r="E348" s="23" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F348" s="6"/>
     </row>
@@ -13098,7 +13182,7 @@
         <v>70</v>
       </c>
       <c r="E500" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F500" s="10"/>
     </row>
@@ -13142,14 +13226,14 @@
         <v>18</v>
       </c>
       <c r="C506" s="52" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D506" s="5"/>
       <c r="E506" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F506" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="507" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -13462,7 +13546,7 @@
         <v>18</v>
       </c>
       <c r="C550" s="52" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D550" s="5"/>
       <c r="E550" s="5"/>
@@ -13508,7 +13592,7 @@
         <v>19</v>
       </c>
       <c r="C556" s="23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D556" s="5"/>
       <c r="E556" s="5"/>
@@ -13554,7 +13638,7 @@
         <v>20</v>
       </c>
       <c r="C562" s="23" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D562" s="5"/>
       <c r="E562" s="5"/>

--- a/docs/接口文档/tetris-zoom/新平台云会议业务接口.xlsx
+++ b/docs/接口文档/tetris-zoom/新平台云会议业务接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="28800" windowHeight="12510" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="28800" windowHeight="12510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="登录接口" sheetId="7" r:id="rId1"/>
@@ -6004,109 +6004,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">{
-    targetId:"消息目标用户id",
-    businessId:"zoomKickOut",
-    content:[{
-        id:"会议成员id",
-        uuid:"会议成员uuid",
-        updateTime:"会议成员创建时间，格式：yyyy-MM-dd hh:ss:mm" ,
-        userId:"用户id",
-        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>userno:"用户号码",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-        userNickname:"用户昵称",
-        rename:"入会名称",  
-        tourist:"是否是游客" ,
-        zoomId:"会议id",
-        chairman:"是否是主席" ,
-        spokesman:"是否是发言人" ,
-        join:"是否加入会议",
-        myAudio:"是否开启自己音频",
-        myVideo:"是否开启自己视频" ,
-        theirAudio:"是否接收音频", 
-        theirVideo:"是否接收视频",
-        shareScreen:"是否开启共享屏幕",
-        bundleId:"设备id",
-        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>layerId:"接入id",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-        videoChannelId:"视频通道id",
-        audioChannelId:"音频通道id",
-        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>screenVideoChannelId:"屏幕视频通道id",
-        screenAudioChannelId:"屏幕音频通道id",
-        type:"TERMINl|JV220"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">     
-    }],
-    fromId:"消息发送者id",
-    fromName:"消息发送者名称"
-}</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>建会邀人（WJW）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -11434,6 +11331,151 @@
 }</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+    targetId:"消息目标用户id",
+    businessId:"zoomKickOut",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    content:[{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        id:"会议成员id",
+        uuid:"会议成员uuid",
+        updateTime:"会议成员创建时间，格式：yyyy-MM-dd hh:ss:mm" ,
+        userId:"用户id",
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>userno:"用户号码",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        userNickname:"用户昵称",
+        rename:"入会名称",  
+        tourist:"是否是游客" ,
+        zoomId:"会议id",
+        chairman:"是否是主席" ,
+        spokesman:"是否是发言人" ,
+        join:"是否加入会议",
+        myAudio:"是否开启自己音频",
+        myVideo:"是否开启自己视频" ,
+        theirAudio:"是否接收音频", 
+        theirVideo:"是否接收视频",
+        shareScreen:"是否开启共享屏幕",
+        bundleId:"设备id",
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>layerId:"接入id",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        videoChannelId:"视频通道id",
+        audioChannelId:"音频通道id",
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>screenVideoChannelId:"屏幕视频通道id",
+        screenAudioChannelId:"屏幕音频通道id",
+        type:"TERMINl|JV220"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    }],</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    fromId:"消息发送者id",
+    fromName:"消息发送者名称"
+}</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -11671,6 +11713,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -11678,12 +11726,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -11704,9 +11746,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -11714,6 +11753,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12130,16 +12172,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -12182,14 +12224,14 @@
         <v>2</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -12880,9 +12922,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F746"/>
+  <dimension ref="B1:F747"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A349" workbookViewId="0">
+      <selection activeCell="E356" sqref="E356:E379"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -12914,7 +12958,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="29">
+      <c r="B3" s="32">
         <v>1</v>
       </c>
       <c r="C3" s="33" t="s">
@@ -12924,266 +12968,266 @@
         <v>6</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="29"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
       <c r="E4" s="33"/>
       <c r="F4" s="33"/>
     </row>
     <row r="5" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="29"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
       <c r="F5" s="33"/>
     </row>
     <row r="6" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="29"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
     </row>
     <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="29"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="33"/>
     </row>
     <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="29"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
     </row>
     <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="29"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="33"/>
     </row>
     <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="29"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
     </row>
     <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="29"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
     </row>
     <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="29"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
     </row>
     <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="29"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
     </row>
     <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="29"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
     <row r="15" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="29"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
     <row r="16" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="29"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
     <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="29"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
     <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="29"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="33"/>
     </row>
     <row r="19" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="29"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
     </row>
     <row r="20" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="29"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
     </row>
     <row r="21" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="29"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="33"/>
     </row>
     <row r="22" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B22" s="29"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="33"/>
     </row>
     <row r="23" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B23" s="29"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="33"/>
     </row>
     <row r="24" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B24" s="29"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="33"/>
     </row>
     <row r="25" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B25" s="29"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="33"/>
     </row>
     <row r="26" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B26" s="29"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="33"/>
     </row>
     <row r="27" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B27" s="29"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="33"/>
     </row>
     <row r="28" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B28" s="29"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="33"/>
     </row>
     <row r="29" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B29" s="29"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="33"/>
     </row>
     <row r="30" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B30" s="29"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
     </row>
     <row r="31" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B31" s="29"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
     </row>
     <row r="32" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B32" s="29"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
     </row>
     <row r="33" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B33" s="29"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="33"/>
     </row>
     <row r="34" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B34" s="29"/>
+      <c r="B34" s="32"/>
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="33"/>
     </row>
     <row r="35" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B35" s="29"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
     </row>
     <row r="36" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B36" s="29"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="33"/>
     </row>
     <row r="37" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B37" s="29"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="33"/>
     </row>
     <row r="38" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B38" s="29"/>
+      <c r="B38" s="32"/>
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="33"/>
     </row>
     <row r="39" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B39" s="29"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="33"/>
     </row>
     <row r="40" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B40" s="29"/>
+      <c r="B40" s="32"/>
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
@@ -13203,7 +13247,7 @@
         <v>117</v>
       </c>
       <c r="F41" s="50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -13474,20 +13518,20 @@
         <v>11</v>
       </c>
       <c r="E79" s="10"/>
-      <c r="F79" s="22" t="s">
+      <c r="F79" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="80" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B80" s="27"/>
-      <c r="C80" s="19"/>
+      <c r="C80" s="21"/>
       <c r="D80" s="10"/>
       <c r="E80" s="10"/>
       <c r="F80" s="10"/>
     </row>
     <row r="81" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B81" s="27"/>
-      <c r="C81" s="19"/>
+      <c r="C81" s="21"/>
       <c r="D81" s="10"/>
       <c r="E81" s="10"/>
       <c r="F81" s="10"/>
@@ -13525,14 +13569,14 @@
     </row>
     <row r="85" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B85" s="27"/>
-      <c r="C85" s="19"/>
+      <c r="C85" s="21"/>
       <c r="D85" s="13"/>
       <c r="E85" s="13"/>
       <c r="F85" s="13"/>
     </row>
     <row r="86" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B86" s="27"/>
-      <c r="C86" s="19"/>
+      <c r="C86" s="21"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13"/>
       <c r="F86" s="13"/>
@@ -13568,160 +13612,160 @@
     </row>
     <row r="90" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B90" s="27"/>
-      <c r="C90" s="19"/>
+      <c r="C90" s="21"/>
       <c r="D90" s="13"/>
       <c r="E90" s="13"/>
       <c r="F90" s="13"/>
     </row>
     <row r="91" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B91" s="27"/>
-      <c r="C91" s="19"/>
+      <c r="C91" s="21"/>
       <c r="D91" s="13"/>
       <c r="E91" s="13"/>
       <c r="F91" s="13"/>
     </row>
     <row r="92" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B92" s="27"/>
-      <c r="C92" s="19"/>
+      <c r="C92" s="21"/>
       <c r="D92" s="13"/>
       <c r="E92" s="13"/>
       <c r="F92" s="13"/>
     </row>
     <row r="93" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B93" s="27"/>
-      <c r="C93" s="19"/>
+      <c r="C93" s="21"/>
       <c r="D93" s="13"/>
       <c r="E93" s="13"/>
       <c r="F93" s="13"/>
     </row>
     <row r="94" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B94" s="27"/>
-      <c r="C94" s="19"/>
+      <c r="C94" s="21"/>
       <c r="D94" s="13"/>
       <c r="E94" s="13"/>
       <c r="F94" s="13"/>
     </row>
     <row r="95" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B95" s="27"/>
-      <c r="C95" s="19"/>
+      <c r="C95" s="21"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13"/>
       <c r="F95" s="13"/>
     </row>
     <row r="96" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B96" s="27"/>
-      <c r="C96" s="19"/>
+      <c r="C96" s="21"/>
       <c r="D96" s="13"/>
       <c r="E96" s="13"/>
       <c r="F96" s="13"/>
     </row>
     <row r="97" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B97" s="27"/>
-      <c r="C97" s="19"/>
+      <c r="C97" s="21"/>
       <c r="D97" s="13"/>
       <c r="E97" s="13"/>
       <c r="F97" s="13"/>
     </row>
     <row r="98" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B98" s="27"/>
-      <c r="C98" s="19"/>
+      <c r="C98" s="21"/>
       <c r="D98" s="13"/>
       <c r="E98" s="13"/>
       <c r="F98" s="13"/>
     </row>
     <row r="99" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B99" s="27"/>
-      <c r="C99" s="19"/>
+      <c r="C99" s="21"/>
       <c r="D99" s="13"/>
       <c r="E99" s="13"/>
       <c r="F99" s="13"/>
     </row>
     <row r="100" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B100" s="27"/>
-      <c r="C100" s="19"/>
+      <c r="C100" s="21"/>
       <c r="D100" s="13"/>
       <c r="E100" s="13"/>
       <c r="F100" s="13"/>
     </row>
     <row r="101" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B101" s="27"/>
-      <c r="C101" s="19"/>
+      <c r="C101" s="21"/>
       <c r="D101" s="13"/>
       <c r="E101" s="13"/>
       <c r="F101" s="13"/>
     </row>
     <row r="102" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B102" s="27"/>
-      <c r="C102" s="19"/>
+      <c r="C102" s="21"/>
       <c r="D102" s="13"/>
       <c r="E102" s="13"/>
       <c r="F102" s="13"/>
     </row>
     <row r="103" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B103" s="27"/>
-      <c r="C103" s="19"/>
+      <c r="C103" s="21"/>
       <c r="D103" s="13"/>
       <c r="E103" s="13"/>
       <c r="F103" s="13"/>
     </row>
     <row r="104" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B104" s="27"/>
-      <c r="C104" s="19"/>
+      <c r="C104" s="21"/>
       <c r="D104" s="13"/>
       <c r="E104" s="13"/>
       <c r="F104" s="13"/>
     </row>
     <row r="105" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B105" s="27"/>
-      <c r="C105" s="19"/>
+      <c r="C105" s="21"/>
       <c r="D105" s="13"/>
       <c r="E105" s="13"/>
       <c r="F105" s="13"/>
     </row>
     <row r="106" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B106" s="27"/>
-      <c r="C106" s="19"/>
+      <c r="C106" s="21"/>
       <c r="D106" s="13"/>
       <c r="E106" s="13"/>
       <c r="F106" s="13"/>
     </row>
     <row r="107" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B107" s="27"/>
-      <c r="C107" s="19"/>
+      <c r="C107" s="21"/>
       <c r="D107" s="13"/>
       <c r="E107" s="13"/>
       <c r="F107" s="13"/>
     </row>
     <row r="108" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B108" s="27"/>
-      <c r="C108" s="19"/>
+      <c r="C108" s="21"/>
       <c r="D108" s="13"/>
       <c r="E108" s="13"/>
       <c r="F108" s="13"/>
     </row>
     <row r="109" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B109" s="27"/>
-      <c r="C109" s="19"/>
+      <c r="C109" s="21"/>
       <c r="D109" s="13"/>
       <c r="E109" s="13"/>
       <c r="F109" s="13"/>
     </row>
     <row r="110" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B110" s="27"/>
-      <c r="C110" s="19"/>
+      <c r="C110" s="21"/>
       <c r="D110" s="13"/>
       <c r="E110" s="13"/>
       <c r="F110" s="13"/>
     </row>
     <row r="111" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B111" s="27"/>
-      <c r="C111" s="19"/>
+      <c r="C111" s="21"/>
       <c r="D111" s="13"/>
       <c r="E111" s="13"/>
       <c r="F111" s="13"/>
     </row>
     <row r="112" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B112" s="30">
+      <c r="B112" s="29">
         <v>3</v>
       </c>
       <c r="C112" s="35" t="s">
@@ -13734,323 +13778,323 @@
         <v>9</v>
       </c>
       <c r="F112" s="46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="113" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B113" s="31"/>
+      <c r="B113" s="30"/>
       <c r="C113" s="36"/>
       <c r="D113" s="33"/>
       <c r="E113" s="33"/>
       <c r="F113" s="33"/>
     </row>
     <row r="114" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B114" s="31"/>
+      <c r="B114" s="30"/>
       <c r="C114" s="36"/>
       <c r="D114" s="33"/>
       <c r="E114" s="33"/>
       <c r="F114" s="33"/>
     </row>
     <row r="115" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B115" s="31"/>
+      <c r="B115" s="30"/>
       <c r="C115" s="36"/>
       <c r="D115" s="33"/>
       <c r="E115" s="33"/>
       <c r="F115" s="33"/>
     </row>
     <row r="116" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B116" s="31"/>
+      <c r="B116" s="30"/>
       <c r="C116" s="36"/>
       <c r="D116" s="33"/>
       <c r="E116" s="33"/>
       <c r="F116" s="33"/>
     </row>
     <row r="117" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B117" s="31"/>
+      <c r="B117" s="30"/>
       <c r="C117" s="36"/>
       <c r="D117" s="33"/>
       <c r="E117" s="33"/>
       <c r="F117" s="33"/>
     </row>
     <row r="118" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B118" s="31"/>
+      <c r="B118" s="30"/>
       <c r="C118" s="36"/>
       <c r="D118" s="33"/>
       <c r="E118" s="33"/>
       <c r="F118" s="33"/>
     </row>
     <row r="119" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B119" s="31"/>
+      <c r="B119" s="30"/>
       <c r="C119" s="36"/>
       <c r="D119" s="33"/>
       <c r="E119" s="33"/>
       <c r="F119" s="33"/>
     </row>
     <row r="120" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B120" s="31"/>
+      <c r="B120" s="30"/>
       <c r="C120" s="36"/>
       <c r="D120" s="33"/>
       <c r="E120" s="33"/>
       <c r="F120" s="33"/>
     </row>
     <row r="121" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B121" s="31"/>
+      <c r="B121" s="30"/>
       <c r="C121" s="36"/>
       <c r="D121" s="33"/>
       <c r="E121" s="33"/>
       <c r="F121" s="33"/>
     </row>
     <row r="122" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B122" s="31"/>
+      <c r="B122" s="30"/>
       <c r="C122" s="36"/>
       <c r="D122" s="33"/>
       <c r="E122" s="33"/>
       <c r="F122" s="33"/>
     </row>
     <row r="123" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B123" s="31"/>
+      <c r="B123" s="30"/>
       <c r="C123" s="36"/>
       <c r="D123" s="33"/>
       <c r="E123" s="33"/>
       <c r="F123" s="33"/>
     </row>
     <row r="124" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B124" s="31"/>
+      <c r="B124" s="30"/>
       <c r="C124" s="36"/>
       <c r="D124" s="33"/>
       <c r="E124" s="33"/>
       <c r="F124" s="33"/>
     </row>
     <row r="125" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B125" s="31"/>
+      <c r="B125" s="30"/>
       <c r="C125" s="36"/>
       <c r="D125" s="33"/>
       <c r="E125" s="33"/>
       <c r="F125" s="33"/>
     </row>
     <row r="126" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B126" s="31"/>
+      <c r="B126" s="30"/>
       <c r="C126" s="36"/>
       <c r="D126" s="33"/>
       <c r="E126" s="33"/>
       <c r="F126" s="33"/>
     </row>
     <row r="127" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B127" s="31"/>
+      <c r="B127" s="30"/>
       <c r="C127" s="36"/>
       <c r="D127" s="33"/>
       <c r="E127" s="33"/>
       <c r="F127" s="33"/>
     </row>
     <row r="128" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B128" s="31"/>
+      <c r="B128" s="30"/>
       <c r="C128" s="36"/>
       <c r="D128" s="33"/>
       <c r="E128" s="33"/>
       <c r="F128" s="33"/>
     </row>
     <row r="129" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B129" s="31"/>
+      <c r="B129" s="30"/>
       <c r="C129" s="36"/>
       <c r="D129" s="33"/>
       <c r="E129" s="33"/>
       <c r="F129" s="33"/>
     </row>
     <row r="130" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B130" s="31"/>
+      <c r="B130" s="30"/>
       <c r="C130" s="36"/>
       <c r="D130" s="33"/>
       <c r="E130" s="33"/>
       <c r="F130" s="33"/>
     </row>
     <row r="131" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B131" s="31"/>
+      <c r="B131" s="30"/>
       <c r="C131" s="36"/>
       <c r="D131" s="33"/>
       <c r="E131" s="33"/>
       <c r="F131" s="33"/>
     </row>
     <row r="132" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B132" s="31"/>
+      <c r="B132" s="30"/>
       <c r="C132" s="36"/>
       <c r="D132" s="33"/>
       <c r="E132" s="33"/>
       <c r="F132" s="33"/>
     </row>
     <row r="133" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B133" s="31"/>
+      <c r="B133" s="30"/>
       <c r="C133" s="36"/>
       <c r="D133" s="33"/>
       <c r="E133" s="33"/>
       <c r="F133" s="33"/>
     </row>
     <row r="134" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B134" s="31"/>
+      <c r="B134" s="30"/>
       <c r="C134" s="36"/>
       <c r="D134" s="33"/>
       <c r="E134" s="33"/>
       <c r="F134" s="33"/>
     </row>
     <row r="135" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B135" s="31"/>
+      <c r="B135" s="30"/>
       <c r="C135" s="36"/>
       <c r="D135" s="33"/>
       <c r="E135" s="33"/>
       <c r="F135" s="33"/>
     </row>
     <row r="136" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B136" s="31"/>
+      <c r="B136" s="30"/>
       <c r="C136" s="36"/>
       <c r="D136" s="33"/>
       <c r="E136" s="33"/>
       <c r="F136" s="33"/>
     </row>
     <row r="137" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B137" s="31"/>
+      <c r="B137" s="30"/>
       <c r="C137" s="36"/>
       <c r="D137" s="33"/>
       <c r="E137" s="33"/>
       <c r="F137" s="33"/>
     </row>
     <row r="138" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B138" s="31"/>
+      <c r="B138" s="30"/>
       <c r="C138" s="36"/>
       <c r="D138" s="33"/>
       <c r="E138" s="33"/>
       <c r="F138" s="33"/>
     </row>
     <row r="139" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B139" s="31"/>
+      <c r="B139" s="30"/>
       <c r="C139" s="36"/>
       <c r="D139" s="33"/>
       <c r="E139" s="33"/>
       <c r="F139" s="33"/>
     </row>
     <row r="140" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B140" s="31"/>
+      <c r="B140" s="30"/>
       <c r="C140" s="36"/>
       <c r="D140" s="33"/>
       <c r="E140" s="33"/>
       <c r="F140" s="33"/>
     </row>
     <row r="141" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B141" s="31"/>
+      <c r="B141" s="30"/>
       <c r="C141" s="36"/>
       <c r="D141" s="33"/>
       <c r="E141" s="33"/>
       <c r="F141" s="33"/>
     </row>
     <row r="142" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B142" s="31"/>
+      <c r="B142" s="30"/>
       <c r="C142" s="36"/>
       <c r="D142" s="33"/>
       <c r="E142" s="33"/>
       <c r="F142" s="33"/>
     </row>
     <row r="143" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B143" s="31"/>
+      <c r="B143" s="30"/>
       <c r="C143" s="36"/>
       <c r="D143" s="33"/>
       <c r="E143" s="33"/>
       <c r="F143" s="33"/>
     </row>
     <row r="144" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B144" s="31"/>
+      <c r="B144" s="30"/>
       <c r="C144" s="36"/>
       <c r="D144" s="33"/>
       <c r="E144" s="33"/>
       <c r="F144" s="33"/>
     </row>
     <row r="145" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B145" s="31"/>
+      <c r="B145" s="30"/>
       <c r="C145" s="36"/>
       <c r="D145" s="33"/>
       <c r="E145" s="33"/>
       <c r="F145" s="33"/>
     </row>
     <row r="146" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B146" s="31"/>
+      <c r="B146" s="30"/>
       <c r="C146" s="36"/>
       <c r="D146" s="33"/>
       <c r="E146" s="33"/>
       <c r="F146" s="33"/>
     </row>
     <row r="147" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B147" s="31"/>
+      <c r="B147" s="30"/>
       <c r="C147" s="36"/>
       <c r="D147" s="33"/>
       <c r="E147" s="33"/>
       <c r="F147" s="33"/>
     </row>
     <row r="148" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B148" s="31"/>
+      <c r="B148" s="30"/>
       <c r="C148" s="36"/>
       <c r="D148" s="33"/>
       <c r="E148" s="33"/>
       <c r="F148" s="33"/>
     </row>
     <row r="149" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B149" s="31"/>
+      <c r="B149" s="30"/>
       <c r="C149" s="37"/>
       <c r="D149" s="33"/>
       <c r="E149" s="33"/>
       <c r="F149" s="33"/>
     </row>
     <row r="150" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B150" s="31"/>
+      <c r="B150" s="30"/>
       <c r="C150" s="38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D150" s="35"/>
       <c r="E150" s="38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F150" s="35"/>
     </row>
     <row r="151" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B151" s="31"/>
+      <c r="B151" s="30"/>
       <c r="C151" s="39"/>
       <c r="D151" s="36"/>
       <c r="E151" s="36"/>
       <c r="F151" s="36"/>
     </row>
     <row r="152" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B152" s="31"/>
+      <c r="B152" s="30"/>
       <c r="C152" s="39"/>
       <c r="D152" s="36"/>
       <c r="E152" s="36"/>
       <c r="F152" s="36"/>
     </row>
     <row r="153" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B153" s="31"/>
+      <c r="B153" s="30"/>
       <c r="C153" s="39"/>
       <c r="D153" s="36"/>
       <c r="E153" s="36"/>
       <c r="F153" s="36"/>
     </row>
     <row r="154" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B154" s="31"/>
+      <c r="B154" s="30"/>
       <c r="C154" s="39"/>
       <c r="D154" s="36"/>
       <c r="E154" s="36"/>
       <c r="F154" s="36"/>
     </row>
     <row r="155" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B155" s="31"/>
+      <c r="B155" s="30"/>
       <c r="C155" s="39"/>
       <c r="D155" s="36"/>
       <c r="E155" s="36"/>
       <c r="F155" s="36"/>
     </row>
     <row r="156" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B156" s="31"/>
+      <c r="B156" s="30"/>
       <c r="C156" s="39"/>
       <c r="D156" s="36"/>
       <c r="E156" s="36"/>
       <c r="F156" s="36"/>
     </row>
     <row r="157" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B157" s="32"/>
+      <c r="B157" s="31"/>
       <c r="C157" s="40"/>
       <c r="D157" s="37"/>
       <c r="E157" s="37"/>
@@ -14095,11 +14139,11 @@
     <row r="162" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B162" s="27"/>
       <c r="C162" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D162" s="10"/>
       <c r="E162" s="51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F162" s="10"/>
     </row>
@@ -14140,20 +14184,20 @@
     </row>
     <row r="168" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B168" s="27"/>
-      <c r="C168" s="19"/>
+      <c r="C168" s="21"/>
       <c r="D168" s="10"/>
       <c r="E168" s="52"/>
       <c r="F168" s="10"/>
     </row>
     <row r="169" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B169" s="28"/>
-      <c r="C169" s="20"/>
+      <c r="C169" s="22"/>
       <c r="D169" s="10"/>
       <c r="E169" s="52"/>
       <c r="F169" s="10"/>
     </row>
     <row r="170" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B170" s="30">
+      <c r="B170" s="29">
         <v>5</v>
       </c>
       <c r="C170" s="33" t="s">
@@ -14168,179 +14212,179 @@
       <c r="F170" s="33"/>
     </row>
     <row r="171" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B171" s="31"/>
+      <c r="B171" s="30"/>
       <c r="C171" s="33"/>
       <c r="D171" s="33"/>
       <c r="E171" s="33"/>
       <c r="F171" s="33"/>
     </row>
     <row r="172" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B172" s="31"/>
+      <c r="B172" s="30"/>
       <c r="C172" s="33"/>
       <c r="D172" s="33"/>
       <c r="E172" s="33"/>
       <c r="F172" s="33"/>
     </row>
     <row r="173" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B173" s="31"/>
+      <c r="B173" s="30"/>
       <c r="C173" s="41" t="s">
         <v>28</v>
       </c>
       <c r="D173" s="35"/>
       <c r="E173" s="47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F173" s="35"/>
     </row>
     <row r="174" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B174" s="31"/>
+      <c r="B174" s="30"/>
       <c r="C174" s="39"/>
       <c r="D174" s="36"/>
       <c r="E174" s="36"/>
       <c r="F174" s="36"/>
     </row>
     <row r="175" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B175" s="31"/>
+      <c r="B175" s="30"/>
       <c r="C175" s="39"/>
       <c r="D175" s="36"/>
       <c r="E175" s="36"/>
       <c r="F175" s="36"/>
     </row>
     <row r="176" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B176" s="31"/>
+      <c r="B176" s="30"/>
       <c r="C176" s="39"/>
       <c r="D176" s="36"/>
       <c r="E176" s="36"/>
       <c r="F176" s="36"/>
     </row>
     <row r="177" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B177" s="31"/>
+      <c r="B177" s="30"/>
       <c r="C177" s="39"/>
       <c r="D177" s="36"/>
       <c r="E177" s="36"/>
       <c r="F177" s="36"/>
     </row>
     <row r="178" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B178" s="31"/>
+      <c r="B178" s="30"/>
       <c r="C178" s="39"/>
       <c r="D178" s="36"/>
       <c r="E178" s="36"/>
       <c r="F178" s="36"/>
     </row>
     <row r="179" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B179" s="31"/>
+      <c r="B179" s="30"/>
       <c r="C179" s="39"/>
       <c r="D179" s="36"/>
       <c r="E179" s="36"/>
       <c r="F179" s="36"/>
     </row>
     <row r="180" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B180" s="31"/>
+      <c r="B180" s="30"/>
       <c r="C180" s="39"/>
       <c r="D180" s="36"/>
       <c r="E180" s="36"/>
       <c r="F180" s="36"/>
     </row>
     <row r="181" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B181" s="31"/>
+      <c r="B181" s="30"/>
       <c r="C181" s="39"/>
       <c r="D181" s="36"/>
       <c r="E181" s="36"/>
       <c r="F181" s="36"/>
     </row>
     <row r="182" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B182" s="31"/>
+      <c r="B182" s="30"/>
       <c r="C182" s="39"/>
       <c r="D182" s="36"/>
       <c r="E182" s="36"/>
       <c r="F182" s="36"/>
     </row>
     <row r="183" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B183" s="31"/>
+      <c r="B183" s="30"/>
       <c r="C183" s="39"/>
       <c r="D183" s="36"/>
       <c r="E183" s="36"/>
       <c r="F183" s="36"/>
     </row>
     <row r="184" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B184" s="31"/>
+      <c r="B184" s="30"/>
       <c r="C184" s="39"/>
       <c r="D184" s="36"/>
       <c r="E184" s="36"/>
       <c r="F184" s="36"/>
     </row>
     <row r="185" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B185" s="31"/>
+      <c r="B185" s="30"/>
       <c r="C185" s="39"/>
       <c r="D185" s="36"/>
       <c r="E185" s="36"/>
       <c r="F185" s="36"/>
     </row>
     <row r="186" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B186" s="31"/>
+      <c r="B186" s="30"/>
       <c r="C186" s="39"/>
       <c r="D186" s="36"/>
       <c r="E186" s="36"/>
       <c r="F186" s="36"/>
     </row>
     <row r="187" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B187" s="31"/>
+      <c r="B187" s="30"/>
       <c r="C187" s="39"/>
       <c r="D187" s="36"/>
       <c r="E187" s="36"/>
       <c r="F187" s="36"/>
     </row>
     <row r="188" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B188" s="31"/>
+      <c r="B188" s="30"/>
       <c r="C188" s="39"/>
       <c r="D188" s="36"/>
       <c r="E188" s="36"/>
       <c r="F188" s="36"/>
     </row>
     <row r="189" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B189" s="31"/>
+      <c r="B189" s="30"/>
       <c r="C189" s="39"/>
       <c r="D189" s="36"/>
       <c r="E189" s="36"/>
       <c r="F189" s="36"/>
     </row>
     <row r="190" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B190" s="31"/>
+      <c r="B190" s="30"/>
       <c r="C190" s="39"/>
       <c r="D190" s="36"/>
       <c r="E190" s="36"/>
       <c r="F190" s="36"/>
     </row>
     <row r="191" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B191" s="31"/>
+      <c r="B191" s="30"/>
       <c r="C191" s="39"/>
       <c r="D191" s="36"/>
       <c r="E191" s="36"/>
       <c r="F191" s="36"/>
     </row>
     <row r="192" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B192" s="31"/>
+      <c r="B192" s="30"/>
       <c r="C192" s="39"/>
       <c r="D192" s="36"/>
       <c r="E192" s="36"/>
       <c r="F192" s="36"/>
     </row>
     <row r="193" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B193" s="31"/>
+      <c r="B193" s="30"/>
       <c r="C193" s="39"/>
       <c r="D193" s="36"/>
       <c r="E193" s="36"/>
       <c r="F193" s="36"/>
     </row>
     <row r="194" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B194" s="31"/>
+      <c r="B194" s="30"/>
       <c r="C194" s="39"/>
       <c r="D194" s="36"/>
       <c r="E194" s="36"/>
       <c r="F194" s="36"/>
     </row>
     <row r="195" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B195" s="31"/>
+      <c r="B195" s="30"/>
       <c r="C195" s="39"/>
       <c r="D195" s="36"/>
       <c r="E195" s="36"/>
@@ -14356,7 +14400,7 @@
       <c r="D196" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E196" s="22" t="s">
+      <c r="E196" s="19" t="s">
         <v>31</v>
       </c>
       <c r="F196" s="16" t="s">
@@ -14683,7 +14727,7 @@
       <c r="F241" s="10"/>
     </row>
     <row r="242" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B242" s="30">
+      <c r="B242" s="29">
         <v>7</v>
       </c>
       <c r="C242" s="33" t="s">
@@ -14700,291 +14744,291 @@
       </c>
     </row>
     <row r="243" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B243" s="31"/>
+      <c r="B243" s="30"/>
       <c r="C243" s="33"/>
       <c r="D243" s="33"/>
       <c r="E243" s="49"/>
       <c r="F243" s="33"/>
     </row>
     <row r="244" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B244" s="31"/>
+      <c r="B244" s="30"/>
       <c r="C244" s="33"/>
       <c r="D244" s="33"/>
       <c r="E244" s="33"/>
       <c r="F244" s="33"/>
     </row>
     <row r="245" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B245" s="31"/>
+      <c r="B245" s="30"/>
       <c r="C245" s="33"/>
       <c r="D245" s="33"/>
       <c r="E245" s="33"/>
       <c r="F245" s="33"/>
     </row>
     <row r="246" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B246" s="31"/>
+      <c r="B246" s="30"/>
       <c r="C246" s="33"/>
       <c r="D246" s="33"/>
       <c r="E246" s="33"/>
       <c r="F246" s="33"/>
     </row>
     <row r="247" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B247" s="31"/>
+      <c r="B247" s="30"/>
       <c r="C247" s="33"/>
       <c r="D247" s="33"/>
       <c r="E247" s="33"/>
       <c r="F247" s="33"/>
     </row>
     <row r="248" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B248" s="31"/>
+      <c r="B248" s="30"/>
       <c r="C248" s="33"/>
       <c r="D248" s="33"/>
       <c r="E248" s="33"/>
       <c r="F248" s="33"/>
     </row>
     <row r="249" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B249" s="31"/>
+      <c r="B249" s="30"/>
       <c r="C249" s="33"/>
       <c r="D249" s="33"/>
       <c r="E249" s="33"/>
       <c r="F249" s="33"/>
     </row>
     <row r="250" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B250" s="31"/>
+      <c r="B250" s="30"/>
       <c r="C250" s="33"/>
       <c r="D250" s="33"/>
       <c r="E250" s="33"/>
       <c r="F250" s="33"/>
     </row>
     <row r="251" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B251" s="31"/>
+      <c r="B251" s="30"/>
       <c r="C251" s="33"/>
       <c r="D251" s="33"/>
       <c r="E251" s="33"/>
       <c r="F251" s="33"/>
     </row>
     <row r="252" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B252" s="31"/>
+      <c r="B252" s="30"/>
       <c r="C252" s="33"/>
       <c r="D252" s="33"/>
       <c r="E252" s="33"/>
       <c r="F252" s="33"/>
     </row>
     <row r="253" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B253" s="31"/>
+      <c r="B253" s="30"/>
       <c r="C253" s="33"/>
       <c r="D253" s="33"/>
       <c r="E253" s="33"/>
       <c r="F253" s="33"/>
     </row>
     <row r="254" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B254" s="31"/>
+      <c r="B254" s="30"/>
       <c r="C254" s="33"/>
       <c r="D254" s="33"/>
       <c r="E254" s="33"/>
       <c r="F254" s="33"/>
     </row>
     <row r="255" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B255" s="31"/>
+      <c r="B255" s="30"/>
       <c r="C255" s="33"/>
       <c r="D255" s="33"/>
       <c r="E255" s="33"/>
       <c r="F255" s="33"/>
     </row>
     <row r="256" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B256" s="31"/>
+      <c r="B256" s="30"/>
       <c r="C256" s="33"/>
       <c r="D256" s="33"/>
       <c r="E256" s="33"/>
       <c r="F256" s="33"/>
     </row>
     <row r="257" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B257" s="31"/>
+      <c r="B257" s="30"/>
       <c r="C257" s="33"/>
       <c r="D257" s="33"/>
       <c r="E257" s="33"/>
       <c r="F257" s="33"/>
     </row>
     <row r="258" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B258" s="31"/>
+      <c r="B258" s="30"/>
       <c r="C258" s="33"/>
       <c r="D258" s="33"/>
       <c r="E258" s="33"/>
       <c r="F258" s="33"/>
     </row>
     <row r="259" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B259" s="31"/>
+      <c r="B259" s="30"/>
       <c r="C259" s="33"/>
       <c r="D259" s="33"/>
       <c r="E259" s="33"/>
       <c r="F259" s="33"/>
     </row>
     <row r="260" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B260" s="31"/>
+      <c r="B260" s="30"/>
       <c r="C260" s="33"/>
       <c r="D260" s="33"/>
       <c r="E260" s="33"/>
       <c r="F260" s="33"/>
     </row>
     <row r="261" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B261" s="31"/>
+      <c r="B261" s="30"/>
       <c r="C261" s="41" t="s">
         <v>35</v>
       </c>
       <c r="D261" s="33"/>
       <c r="E261" s="48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F261" s="33"/>
     </row>
     <row r="262" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B262" s="31"/>
+      <c r="B262" s="30"/>
       <c r="C262" s="39"/>
       <c r="D262" s="33"/>
       <c r="E262" s="33"/>
       <c r="F262" s="33"/>
     </row>
     <row r="263" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B263" s="31"/>
+      <c r="B263" s="30"/>
       <c r="C263" s="39"/>
       <c r="D263" s="33"/>
       <c r="E263" s="33"/>
       <c r="F263" s="33"/>
     </row>
     <row r="264" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B264" s="31"/>
+      <c r="B264" s="30"/>
       <c r="C264" s="39"/>
       <c r="D264" s="33"/>
       <c r="E264" s="33"/>
       <c r="F264" s="33"/>
     </row>
     <row r="265" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B265" s="31"/>
+      <c r="B265" s="30"/>
       <c r="C265" s="39"/>
       <c r="D265" s="33"/>
       <c r="E265" s="33"/>
       <c r="F265" s="33"/>
     </row>
     <row r="266" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B266" s="31"/>
+      <c r="B266" s="30"/>
       <c r="C266" s="39"/>
       <c r="D266" s="33"/>
       <c r="E266" s="33"/>
       <c r="F266" s="33"/>
     </row>
     <row r="267" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B267" s="31"/>
+      <c r="B267" s="30"/>
       <c r="C267" s="39"/>
       <c r="D267" s="33"/>
       <c r="E267" s="33"/>
       <c r="F267" s="33"/>
     </row>
     <row r="268" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B268" s="31"/>
+      <c r="B268" s="30"/>
       <c r="C268" s="39"/>
       <c r="D268" s="33"/>
       <c r="E268" s="33"/>
       <c r="F268" s="33"/>
     </row>
     <row r="269" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B269" s="31"/>
+      <c r="B269" s="30"/>
       <c r="C269" s="39"/>
       <c r="D269" s="33"/>
       <c r="E269" s="33"/>
       <c r="F269" s="33"/>
     </row>
     <row r="270" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B270" s="31"/>
+      <c r="B270" s="30"/>
       <c r="C270" s="39"/>
       <c r="D270" s="33"/>
       <c r="E270" s="33"/>
       <c r="F270" s="33"/>
     </row>
     <row r="271" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B271" s="31"/>
+      <c r="B271" s="30"/>
       <c r="C271" s="39"/>
       <c r="D271" s="33"/>
       <c r="E271" s="33"/>
       <c r="F271" s="33"/>
     </row>
     <row r="272" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B272" s="31"/>
+      <c r="B272" s="30"/>
       <c r="C272" s="39"/>
       <c r="D272" s="33"/>
       <c r="E272" s="33"/>
       <c r="F272" s="33"/>
     </row>
     <row r="273" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B273" s="31"/>
+      <c r="B273" s="30"/>
       <c r="C273" s="39"/>
       <c r="D273" s="33"/>
       <c r="E273" s="33"/>
       <c r="F273" s="33"/>
     </row>
     <row r="274" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B274" s="31"/>
+      <c r="B274" s="30"/>
       <c r="C274" s="39"/>
       <c r="D274" s="33"/>
       <c r="E274" s="33"/>
       <c r="F274" s="33"/>
     </row>
     <row r="275" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B275" s="31"/>
+      <c r="B275" s="30"/>
       <c r="C275" s="39"/>
       <c r="D275" s="33"/>
       <c r="E275" s="33"/>
       <c r="F275" s="33"/>
     </row>
     <row r="276" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B276" s="31"/>
+      <c r="B276" s="30"/>
       <c r="C276" s="39"/>
       <c r="D276" s="33"/>
       <c r="E276" s="33"/>
       <c r="F276" s="33"/>
     </row>
     <row r="277" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B277" s="31"/>
+      <c r="B277" s="30"/>
       <c r="C277" s="39"/>
       <c r="D277" s="33"/>
       <c r="E277" s="33"/>
       <c r="F277" s="33"/>
     </row>
     <row r="278" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B278" s="31"/>
+      <c r="B278" s="30"/>
       <c r="C278" s="39"/>
       <c r="D278" s="33"/>
       <c r="E278" s="33"/>
       <c r="F278" s="33"/>
     </row>
     <row r="279" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B279" s="31"/>
+      <c r="B279" s="30"/>
       <c r="C279" s="39"/>
       <c r="D279" s="33"/>
       <c r="E279" s="33"/>
       <c r="F279" s="33"/>
     </row>
     <row r="280" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B280" s="31"/>
+      <c r="B280" s="30"/>
       <c r="C280" s="39"/>
       <c r="D280" s="33"/>
       <c r="E280" s="33"/>
       <c r="F280" s="33"/>
     </row>
     <row r="281" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B281" s="31"/>
+      <c r="B281" s="30"/>
       <c r="C281" s="39"/>
       <c r="D281" s="33"/>
       <c r="E281" s="33"/>
       <c r="F281" s="33"/>
     </row>
     <row r="282" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B282" s="31"/>
+      <c r="B282" s="30"/>
       <c r="C282" s="39"/>
       <c r="D282" s="33"/>
       <c r="E282" s="33"/>
       <c r="F282" s="33"/>
     </row>
     <row r="283" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B283" s="32"/>
+      <c r="B283" s="31"/>
       <c r="C283" s="40"/>
       <c r="D283" s="33"/>
       <c r="E283" s="33"/>
@@ -14997,7 +15041,7 @@
       <c r="C284" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D284" s="21" t="s">
+      <c r="D284" s="18" t="s">
         <v>128</v>
       </c>
       <c r="E284" s="16" t="s">
@@ -15139,174 +15183,174 @@
         <v>37</v>
       </c>
       <c r="D303" s="34"/>
-      <c r="E303" s="18" t="s">
+      <c r="E303" s="20" t="s">
         <v>130</v>
       </c>
       <c r="F303" s="34"/>
     </row>
     <row r="304" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B304" s="27"/>
-      <c r="C304" s="19"/>
-      <c r="D304" s="19"/>
-      <c r="E304" s="19"/>
-      <c r="F304" s="19"/>
+      <c r="C304" s="21"/>
+      <c r="D304" s="21"/>
+      <c r="E304" s="21"/>
+      <c r="F304" s="21"/>
     </row>
     <row r="305" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B305" s="27"/>
-      <c r="C305" s="19"/>
-      <c r="D305" s="19"/>
-      <c r="E305" s="19"/>
-      <c r="F305" s="19"/>
+      <c r="C305" s="21"/>
+      <c r="D305" s="21"/>
+      <c r="E305" s="21"/>
+      <c r="F305" s="21"/>
     </row>
     <row r="306" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B306" s="27"/>
-      <c r="C306" s="19"/>
-      <c r="D306" s="19"/>
-      <c r="E306" s="19"/>
-      <c r="F306" s="19"/>
+      <c r="C306" s="21"/>
+      <c r="D306" s="21"/>
+      <c r="E306" s="21"/>
+      <c r="F306" s="21"/>
     </row>
     <row r="307" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B307" s="27"/>
-      <c r="C307" s="19"/>
-      <c r="D307" s="19"/>
-      <c r="E307" s="19"/>
-      <c r="F307" s="19"/>
+      <c r="C307" s="21"/>
+      <c r="D307" s="21"/>
+      <c r="E307" s="21"/>
+      <c r="F307" s="21"/>
     </row>
     <row r="308" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B308" s="27"/>
-      <c r="C308" s="19"/>
-      <c r="D308" s="19"/>
-      <c r="E308" s="19"/>
-      <c r="F308" s="19"/>
+      <c r="C308" s="21"/>
+      <c r="D308" s="21"/>
+      <c r="E308" s="21"/>
+      <c r="F308" s="21"/>
     </row>
     <row r="309" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B309" s="27"/>
-      <c r="C309" s="19"/>
-      <c r="D309" s="19"/>
-      <c r="E309" s="19"/>
-      <c r="F309" s="19"/>
+      <c r="C309" s="21"/>
+      <c r="D309" s="21"/>
+      <c r="E309" s="21"/>
+      <c r="F309" s="21"/>
     </row>
     <row r="310" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B310" s="27"/>
-      <c r="C310" s="19"/>
-      <c r="D310" s="19"/>
-      <c r="E310" s="19"/>
-      <c r="F310" s="19"/>
+      <c r="C310" s="21"/>
+      <c r="D310" s="21"/>
+      <c r="E310" s="21"/>
+      <c r="F310" s="21"/>
     </row>
     <row r="311" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B311" s="27"/>
-      <c r="C311" s="19"/>
-      <c r="D311" s="19"/>
-      <c r="E311" s="19"/>
-      <c r="F311" s="19"/>
+      <c r="C311" s="21"/>
+      <c r="D311" s="21"/>
+      <c r="E311" s="21"/>
+      <c r="F311" s="21"/>
     </row>
     <row r="312" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B312" s="27"/>
-      <c r="C312" s="19"/>
-      <c r="D312" s="19"/>
-      <c r="E312" s="19"/>
-      <c r="F312" s="19"/>
+      <c r="C312" s="21"/>
+      <c r="D312" s="21"/>
+      <c r="E312" s="21"/>
+      <c r="F312" s="21"/>
     </row>
     <row r="313" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B313" s="27"/>
-      <c r="C313" s="19"/>
-      <c r="D313" s="19"/>
-      <c r="E313" s="19"/>
-      <c r="F313" s="19"/>
+      <c r="C313" s="21"/>
+      <c r="D313" s="21"/>
+      <c r="E313" s="21"/>
+      <c r="F313" s="21"/>
     </row>
     <row r="314" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B314" s="27"/>
-      <c r="C314" s="19"/>
-      <c r="D314" s="19"/>
-      <c r="E314" s="19"/>
-      <c r="F314" s="19"/>
+      <c r="C314" s="21"/>
+      <c r="D314" s="21"/>
+      <c r="E314" s="21"/>
+      <c r="F314" s="21"/>
     </row>
     <row r="315" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B315" s="27"/>
-      <c r="C315" s="19"/>
-      <c r="D315" s="19"/>
-      <c r="E315" s="19"/>
-      <c r="F315" s="19"/>
+      <c r="C315" s="21"/>
+      <c r="D315" s="21"/>
+      <c r="E315" s="21"/>
+      <c r="F315" s="21"/>
     </row>
     <row r="316" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B316" s="27"/>
-      <c r="C316" s="19"/>
-      <c r="D316" s="19"/>
-      <c r="E316" s="19"/>
-      <c r="F316" s="19"/>
+      <c r="C316" s="21"/>
+      <c r="D316" s="21"/>
+      <c r="E316" s="21"/>
+      <c r="F316" s="21"/>
     </row>
     <row r="317" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B317" s="27"/>
-      <c r="C317" s="19"/>
-      <c r="D317" s="19"/>
-      <c r="E317" s="19"/>
-      <c r="F317" s="19"/>
+      <c r="C317" s="21"/>
+      <c r="D317" s="21"/>
+      <c r="E317" s="21"/>
+      <c r="F317" s="21"/>
     </row>
     <row r="318" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B318" s="27"/>
-      <c r="C318" s="19"/>
-      <c r="D318" s="19"/>
-      <c r="E318" s="19"/>
-      <c r="F318" s="19"/>
+      <c r="C318" s="21"/>
+      <c r="D318" s="21"/>
+      <c r="E318" s="21"/>
+      <c r="F318" s="21"/>
     </row>
     <row r="319" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B319" s="27"/>
-      <c r="C319" s="19"/>
-      <c r="D319" s="19"/>
-      <c r="E319" s="19"/>
-      <c r="F319" s="19"/>
+      <c r="C319" s="21"/>
+      <c r="D319" s="21"/>
+      <c r="E319" s="21"/>
+      <c r="F319" s="21"/>
     </row>
     <row r="320" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B320" s="27"/>
-      <c r="C320" s="19"/>
-      <c r="D320" s="19"/>
-      <c r="E320" s="19"/>
-      <c r="F320" s="19"/>
+      <c r="C320" s="21"/>
+      <c r="D320" s="21"/>
+      <c r="E320" s="21"/>
+      <c r="F320" s="21"/>
     </row>
     <row r="321" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B321" s="27"/>
-      <c r="C321" s="19"/>
-      <c r="D321" s="19"/>
-      <c r="E321" s="19"/>
-      <c r="F321" s="19"/>
+      <c r="C321" s="21"/>
+      <c r="D321" s="21"/>
+      <c r="E321" s="21"/>
+      <c r="F321" s="21"/>
     </row>
     <row r="322" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B322" s="27"/>
-      <c r="C322" s="19"/>
-      <c r="D322" s="19"/>
-      <c r="E322" s="19"/>
-      <c r="F322" s="19"/>
+      <c r="C322" s="21"/>
+      <c r="D322" s="21"/>
+      <c r="E322" s="21"/>
+      <c r="F322" s="21"/>
     </row>
     <row r="323" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B323" s="27"/>
-      <c r="C323" s="19"/>
-      <c r="D323" s="19"/>
-      <c r="E323" s="19"/>
-      <c r="F323" s="19"/>
+      <c r="C323" s="21"/>
+      <c r="D323" s="21"/>
+      <c r="E323" s="21"/>
+      <c r="F323" s="21"/>
     </row>
     <row r="324" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B324" s="27"/>
-      <c r="C324" s="19"/>
-      <c r="D324" s="19"/>
-      <c r="E324" s="19"/>
-      <c r="F324" s="19"/>
+      <c r="C324" s="21"/>
+      <c r="D324" s="21"/>
+      <c r="E324" s="21"/>
+      <c r="F324" s="21"/>
     </row>
     <row r="325" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B325" s="28"/>
-      <c r="C325" s="20"/>
-      <c r="D325" s="20"/>
-      <c r="E325" s="20"/>
-      <c r="F325" s="20"/>
+      <c r="C325" s="22"/>
+      <c r="D325" s="22"/>
+      <c r="E325" s="22"/>
+      <c r="F325" s="22"/>
     </row>
     <row r="326" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B326" s="30">
+      <c r="B326" s="29">
         <v>9</v>
       </c>
       <c r="C326" s="33" t="s">
         <v>38</v>
       </c>
       <c r="D326" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E326" s="48" t="s">
         <v>131</v>
@@ -15314,74 +15358,74 @@
       <c r="F326" s="33"/>
     </row>
     <row r="327" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B327" s="31"/>
+      <c r="B327" s="30"/>
       <c r="C327" s="33"/>
       <c r="D327" s="33"/>
       <c r="E327" s="33"/>
       <c r="F327" s="33"/>
     </row>
     <row r="328" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B328" s="31"/>
+      <c r="B328" s="30"/>
       <c r="C328" s="33"/>
       <c r="D328" s="33"/>
       <c r="E328" s="33"/>
       <c r="F328" s="33"/>
     </row>
     <row r="329" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B329" s="31"/>
+      <c r="B329" s="30"/>
       <c r="C329" s="33"/>
       <c r="D329" s="33"/>
       <c r="E329" s="33"/>
       <c r="F329" s="33"/>
     </row>
     <row r="330" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B330" s="31"/>
+      <c r="B330" s="30"/>
       <c r="C330" s="41" t="s">
         <v>39</v>
       </c>
       <c r="D330" s="35"/>
       <c r="E330" s="47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F330" s="35"/>
     </row>
     <row r="331" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B331" s="31"/>
+      <c r="B331" s="30"/>
       <c r="C331" s="39"/>
       <c r="D331" s="36"/>
       <c r="E331" s="36"/>
       <c r="F331" s="36"/>
     </row>
     <row r="332" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B332" s="31"/>
+      <c r="B332" s="30"/>
       <c r="C332" s="39"/>
       <c r="D332" s="36"/>
       <c r="E332" s="36"/>
       <c r="F332" s="36"/>
     </row>
     <row r="333" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B333" s="31"/>
+      <c r="B333" s="30"/>
       <c r="C333" s="39"/>
       <c r="D333" s="36"/>
       <c r="E333" s="36"/>
       <c r="F333" s="36"/>
     </row>
     <row r="334" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B334" s="31"/>
+      <c r="B334" s="30"/>
       <c r="C334" s="39"/>
       <c r="D334" s="36"/>
       <c r="E334" s="36"/>
       <c r="F334" s="36"/>
     </row>
     <row r="335" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B335" s="31"/>
+      <c r="B335" s="30"/>
       <c r="C335" s="39"/>
       <c r="D335" s="36"/>
       <c r="E335" s="36"/>
       <c r="F335" s="36"/>
     </row>
     <row r="336" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B336" s="32"/>
+      <c r="B336" s="31"/>
       <c r="C336" s="40"/>
       <c r="D336" s="37"/>
       <c r="E336" s="37"/>
@@ -15536,8 +15580,8 @@
         <v>42</v>
       </c>
       <c r="D356" s="17"/>
-      <c r="E356" s="18" t="s">
-        <v>135</v>
+      <c r="E356" s="15" t="s">
+        <v>228</v>
       </c>
       <c r="F356" s="17"/>
     </row>
@@ -15696,246 +15740,246 @@
       <c r="F378" s="13"/>
     </row>
     <row r="379" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B379" s="30">
+      <c r="B379" s="27"/>
+      <c r="C379" s="13"/>
+      <c r="D379" s="13"/>
+      <c r="E379" s="13"/>
+      <c r="F379" s="13"/>
+    </row>
+    <row r="380" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B380" s="29">
         <v>11</v>
       </c>
-      <c r="C379" s="33" t="s">
+      <c r="C380" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D379" s="33" t="s">
+      <c r="D380" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="E379" s="44" t="s">
+      <c r="E380" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="F379" s="44" t="s">
+      <c r="F380" s="44" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="380" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B380" s="31"/>
-      <c r="C380" s="33"/>
-      <c r="D380" s="33"/>
-      <c r="E380" s="33"/>
-      <c r="F380" s="33"/>
-    </row>
     <row r="381" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B381" s="31"/>
+      <c r="B381" s="30"/>
       <c r="C381" s="33"/>
       <c r="D381" s="33"/>
       <c r="E381" s="33"/>
       <c r="F381" s="33"/>
     </row>
     <row r="382" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B382" s="31"/>
+      <c r="B382" s="30"/>
       <c r="C382" s="33"/>
       <c r="D382" s="33"/>
       <c r="E382" s="33"/>
       <c r="F382" s="33"/>
     </row>
     <row r="383" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B383" s="31"/>
+      <c r="B383" s="30"/>
       <c r="C383" s="33"/>
       <c r="D383" s="33"/>
       <c r="E383" s="33"/>
       <c r="F383" s="33"/>
     </row>
     <row r="384" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B384" s="31"/>
+      <c r="B384" s="30"/>
       <c r="C384" s="33"/>
       <c r="D384" s="33"/>
       <c r="E384" s="33"/>
       <c r="F384" s="33"/>
     </row>
     <row r="385" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B385" s="31"/>
+      <c r="B385" s="30"/>
       <c r="C385" s="33"/>
       <c r="D385" s="33"/>
       <c r="E385" s="33"/>
       <c r="F385" s="33"/>
     </row>
     <row r="386" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B386" s="31"/>
+      <c r="B386" s="30"/>
       <c r="C386" s="33"/>
       <c r="D386" s="33"/>
       <c r="E386" s="33"/>
       <c r="F386" s="33"/>
     </row>
     <row r="387" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B387" s="31"/>
+      <c r="B387" s="30"/>
       <c r="C387" s="33"/>
       <c r="D387" s="33"/>
       <c r="E387" s="33"/>
       <c r="F387" s="33"/>
     </row>
     <row r="388" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B388" s="31"/>
-      <c r="C388" s="35" t="s">
+      <c r="B388" s="30"/>
+      <c r="C388" s="33"/>
+      <c r="D388" s="33"/>
+      <c r="E388" s="33"/>
+      <c r="F388" s="33"/>
+    </row>
+    <row r="389" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B389" s="30"/>
+      <c r="C389" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D388" s="35" t="s">
+      <c r="D389" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="E388" s="38" t="s">
+      <c r="E389" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="F388" s="38" t="s">
+      <c r="F389" s="38" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="389" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B389" s="31"/>
-      <c r="C389" s="36"/>
-      <c r="D389" s="36"/>
-      <c r="E389" s="36"/>
-      <c r="F389" s="36"/>
-    </row>
     <row r="390" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B390" s="31"/>
+      <c r="B390" s="30"/>
       <c r="C390" s="36"/>
       <c r="D390" s="36"/>
       <c r="E390" s="36"/>
       <c r="F390" s="36"/>
     </row>
     <row r="391" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B391" s="31"/>
+      <c r="B391" s="30"/>
       <c r="C391" s="36"/>
       <c r="D391" s="36"/>
       <c r="E391" s="36"/>
       <c r="F391" s="36"/>
     </row>
     <row r="392" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B392" s="31"/>
+      <c r="B392" s="30"/>
       <c r="C392" s="36"/>
       <c r="D392" s="36"/>
       <c r="E392" s="36"/>
       <c r="F392" s="36"/>
     </row>
     <row r="393" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B393" s="31"/>
+      <c r="B393" s="30"/>
       <c r="C393" s="36"/>
       <c r="D393" s="36"/>
       <c r="E393" s="36"/>
       <c r="F393" s="36"/>
     </row>
     <row r="394" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B394" s="31"/>
+      <c r="B394" s="30"/>
       <c r="C394" s="36"/>
       <c r="D394" s="36"/>
       <c r="E394" s="36"/>
       <c r="F394" s="36"/>
     </row>
     <row r="395" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B395" s="31"/>
+      <c r="B395" s="30"/>
       <c r="C395" s="36"/>
       <c r="D395" s="36"/>
       <c r="E395" s="36"/>
       <c r="F395" s="36"/>
     </row>
     <row r="396" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B396" s="31"/>
-      <c r="C396" s="37"/>
-      <c r="D396" s="37"/>
-      <c r="E396" s="37"/>
-      <c r="F396" s="37"/>
+      <c r="B396" s="30"/>
+      <c r="C396" s="36"/>
+      <c r="D396" s="36"/>
+      <c r="E396" s="36"/>
+      <c r="F396" s="36"/>
     </row>
     <row r="397" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B397" s="31"/>
-      <c r="C397" s="35" t="s">
+      <c r="B397" s="30"/>
+      <c r="C397" s="37"/>
+      <c r="D397" s="37"/>
+      <c r="E397" s="37"/>
+      <c r="F397" s="37"/>
+    </row>
+    <row r="398" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B398" s="30"/>
+      <c r="C398" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D397" s="35"/>
-      <c r="E397" s="41" t="s">
+      <c r="D398" s="35"/>
+      <c r="E398" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F397" s="38"/>
-    </row>
-    <row r="398" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B398" s="31"/>
-      <c r="C398" s="36"/>
-      <c r="D398" s="36"/>
-      <c r="E398" s="36"/>
-      <c r="F398" s="36"/>
+      <c r="F398" s="38"/>
     </row>
     <row r="399" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B399" s="31"/>
+      <c r="B399" s="30"/>
       <c r="C399" s="36"/>
       <c r="D399" s="36"/>
       <c r="E399" s="36"/>
       <c r="F399" s="36"/>
     </row>
     <row r="400" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B400" s="31"/>
+      <c r="B400" s="30"/>
       <c r="C400" s="36"/>
       <c r="D400" s="36"/>
       <c r="E400" s="36"/>
       <c r="F400" s="36"/>
     </row>
     <row r="401" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B401" s="31"/>
+      <c r="B401" s="30"/>
       <c r="C401" s="36"/>
       <c r="D401" s="36"/>
       <c r="E401" s="36"/>
       <c r="F401" s="36"/>
     </row>
     <row r="402" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B402" s="31"/>
+      <c r="B402" s="30"/>
       <c r="C402" s="36"/>
       <c r="D402" s="36"/>
       <c r="E402" s="36"/>
       <c r="F402" s="36"/>
     </row>
     <row r="403" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B403" s="31"/>
+      <c r="B403" s="30"/>
       <c r="C403" s="36"/>
       <c r="D403" s="36"/>
       <c r="E403" s="36"/>
       <c r="F403" s="36"/>
     </row>
     <row r="404" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B404" s="31"/>
+      <c r="B404" s="30"/>
       <c r="C404" s="36"/>
       <c r="D404" s="36"/>
       <c r="E404" s="36"/>
       <c r="F404" s="36"/>
     </row>
     <row r="405" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B405" s="31"/>
+      <c r="B405" s="30"/>
       <c r="C405" s="36"/>
       <c r="D405" s="36"/>
       <c r="E405" s="36"/>
       <c r="F405" s="36"/>
     </row>
     <row r="406" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B406" s="32"/>
-      <c r="C406" s="37"/>
-      <c r="D406" s="37"/>
-      <c r="E406" s="37"/>
-      <c r="F406" s="37"/>
+      <c r="B406" s="30"/>
+      <c r="C406" s="36"/>
+      <c r="D406" s="36"/>
+      <c r="E406" s="36"/>
+      <c r="F406" s="36"/>
     </row>
     <row r="407" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B407" s="26">
+      <c r="B407" s="31"/>
+      <c r="C407" s="37"/>
+      <c r="D407" s="37"/>
+      <c r="E407" s="37"/>
+      <c r="F407" s="37"/>
+    </row>
+    <row r="408" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B408" s="26">
         <v>13</v>
       </c>
-      <c r="C407" s="10" t="s">
+      <c r="C408" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D407" s="10" t="s">
+      <c r="D408" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E407" s="22" t="s">
+      <c r="E408" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="F407" s="22" t="s">
+      <c r="F408" s="19" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="408" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B408" s="27"/>
-      <c r="C408" s="10"/>
-      <c r="D408" s="10"/>
-      <c r="E408" s="10"/>
-      <c r="F408" s="10"/>
     </row>
     <row r="409" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B409" s="27"/>
@@ -15981,21 +16025,21 @@
     </row>
     <row r="415" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B415" s="27"/>
-      <c r="C415" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D415" s="17"/>
-      <c r="E415" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="F415" s="17"/>
+      <c r="C415" s="10"/>
+      <c r="D415" s="10"/>
+      <c r="E415" s="10"/>
+      <c r="F415" s="10"/>
     </row>
     <row r="416" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B416" s="27"/>
-      <c r="C416" s="13"/>
-      <c r="D416" s="13"/>
-      <c r="E416" s="13"/>
-      <c r="F416" s="13"/>
+      <c r="C416" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D416" s="17"/>
+      <c r="E416" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="F416" s="17"/>
     </row>
     <row r="417" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B417" s="27"/>
@@ -16040,433 +16084,433 @@
       <c r="F422" s="13"/>
     </row>
     <row r="423" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B423" s="28"/>
-      <c r="C423" s="14"/>
-      <c r="D423" s="14"/>
-      <c r="E423" s="14"/>
-      <c r="F423" s="14"/>
+      <c r="B423" s="27"/>
+      <c r="C423" s="13"/>
+      <c r="D423" s="13"/>
+      <c r="E423" s="13"/>
+      <c r="F423" s="13"/>
     </row>
     <row r="424" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B424" s="30">
+      <c r="B424" s="28"/>
+      <c r="C424" s="14"/>
+      <c r="D424" s="14"/>
+      <c r="E424" s="14"/>
+      <c r="F424" s="14"/>
+    </row>
+    <row r="425" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B425" s="29">
         <v>14</v>
       </c>
-      <c r="C424" s="33" t="s">
+      <c r="C425" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D424" s="33" t="s">
+      <c r="D425" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="E424" s="44" t="s">
+      <c r="E425" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="F424" s="48" t="s">
+      <c r="F425" s="48" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="425" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B425" s="31"/>
-      <c r="C425" s="33"/>
-      <c r="D425" s="33"/>
-      <c r="E425" s="44"/>
-      <c r="F425" s="33"/>
-    </row>
     <row r="426" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B426" s="31"/>
+      <c r="B426" s="30"/>
       <c r="C426" s="33"/>
       <c r="D426" s="33"/>
       <c r="E426" s="44"/>
       <c r="F426" s="33"/>
     </row>
     <row r="427" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B427" s="31"/>
+      <c r="B427" s="30"/>
       <c r="C427" s="33"/>
       <c r="D427" s="33"/>
       <c r="E427" s="44"/>
       <c r="F427" s="33"/>
     </row>
     <row r="428" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B428" s="31"/>
+      <c r="B428" s="30"/>
       <c r="C428" s="33"/>
       <c r="D428" s="33"/>
       <c r="E428" s="44"/>
       <c r="F428" s="33"/>
     </row>
     <row r="429" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B429" s="31"/>
+      <c r="B429" s="30"/>
       <c r="C429" s="33"/>
       <c r="D429" s="33"/>
       <c r="E429" s="44"/>
       <c r="F429" s="33"/>
     </row>
     <row r="430" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B430" s="31"/>
+      <c r="B430" s="30"/>
       <c r="C430" s="33"/>
       <c r="D430" s="33"/>
       <c r="E430" s="44"/>
       <c r="F430" s="33"/>
     </row>
     <row r="431" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B431" s="31"/>
+      <c r="B431" s="30"/>
       <c r="C431" s="33"/>
       <c r="D431" s="33"/>
       <c r="E431" s="44"/>
       <c r="F431" s="33"/>
     </row>
     <row r="432" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B432" s="31"/>
+      <c r="B432" s="30"/>
       <c r="C432" s="33"/>
       <c r="D432" s="33"/>
       <c r="E432" s="44"/>
       <c r="F432" s="33"/>
     </row>
     <row r="433" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B433" s="31"/>
+      <c r="B433" s="30"/>
       <c r="C433" s="33"/>
       <c r="D433" s="33"/>
       <c r="E433" s="44"/>
       <c r="F433" s="33"/>
     </row>
     <row r="434" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B434" s="31"/>
+      <c r="B434" s="30"/>
       <c r="C434" s="33"/>
       <c r="D434" s="33"/>
       <c r="E434" s="44"/>
       <c r="F434" s="33"/>
     </row>
     <row r="435" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B435" s="31"/>
+      <c r="B435" s="30"/>
       <c r="C435" s="33"/>
       <c r="D435" s="33"/>
       <c r="E435" s="44"/>
       <c r="F435" s="33"/>
     </row>
     <row r="436" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B436" s="31"/>
+      <c r="B436" s="30"/>
       <c r="C436" s="33"/>
       <c r="D436" s="33"/>
       <c r="E436" s="44"/>
       <c r="F436" s="33"/>
     </row>
     <row r="437" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B437" s="31"/>
+      <c r="B437" s="30"/>
       <c r="C437" s="33"/>
       <c r="D437" s="33"/>
       <c r="E437" s="44"/>
       <c r="F437" s="33"/>
     </row>
     <row r="438" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B438" s="31"/>
+      <c r="B438" s="30"/>
       <c r="C438" s="33"/>
       <c r="D438" s="33"/>
-      <c r="E438" s="33"/>
+      <c r="E438" s="44"/>
       <c r="F438" s="33"/>
     </row>
     <row r="439" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B439" s="31"/>
+      <c r="B439" s="30"/>
       <c r="C439" s="33"/>
       <c r="D439" s="33"/>
       <c r="E439" s="33"/>
       <c r="F439" s="33"/>
     </row>
     <row r="440" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B440" s="31"/>
+      <c r="B440" s="30"/>
       <c r="C440" s="33"/>
       <c r="D440" s="33"/>
       <c r="E440" s="33"/>
       <c r="F440" s="33"/>
     </row>
     <row r="441" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B441" s="31"/>
+      <c r="B441" s="30"/>
       <c r="C441" s="33"/>
       <c r="D441" s="33"/>
       <c r="E441" s="33"/>
       <c r="F441" s="33"/>
     </row>
     <row r="442" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B442" s="31"/>
+      <c r="B442" s="30"/>
       <c r="C442" s="33"/>
       <c r="D442" s="33"/>
       <c r="E442" s="33"/>
       <c r="F442" s="33"/>
     </row>
     <row r="443" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B443" s="31"/>
-      <c r="C443" s="41" t="s">
+      <c r="B443" s="30"/>
+      <c r="C443" s="33"/>
+      <c r="D443" s="33"/>
+      <c r="E443" s="33"/>
+      <c r="F443" s="33"/>
+    </row>
+    <row r="444" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B444" s="30"/>
+      <c r="C444" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="D443" s="33"/>
-      <c r="E443" s="48" t="s">
+      <c r="D444" s="33"/>
+      <c r="E444" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="F443" s="33"/>
-    </row>
-    <row r="444" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B444" s="31"/>
-      <c r="C444" s="39"/>
-      <c r="D444" s="33"/>
-      <c r="E444" s="33"/>
       <c r="F444" s="33"/>
     </row>
     <row r="445" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B445" s="31"/>
+      <c r="B445" s="30"/>
       <c r="C445" s="39"/>
       <c r="D445" s="33"/>
       <c r="E445" s="33"/>
       <c r="F445" s="33"/>
     </row>
     <row r="446" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B446" s="31"/>
+      <c r="B446" s="30"/>
       <c r="C446" s="39"/>
       <c r="D446" s="33"/>
       <c r="E446" s="33"/>
       <c r="F446" s="33"/>
     </row>
     <row r="447" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B447" s="31"/>
+      <c r="B447" s="30"/>
       <c r="C447" s="39"/>
       <c r="D447" s="33"/>
       <c r="E447" s="33"/>
       <c r="F447" s="33"/>
     </row>
     <row r="448" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B448" s="31"/>
+      <c r="B448" s="30"/>
       <c r="C448" s="39"/>
       <c r="D448" s="33"/>
       <c r="E448" s="33"/>
       <c r="F448" s="33"/>
     </row>
     <row r="449" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B449" s="31"/>
+      <c r="B449" s="30"/>
       <c r="C449" s="39"/>
       <c r="D449" s="33"/>
       <c r="E449" s="33"/>
       <c r="F449" s="33"/>
     </row>
     <row r="450" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B450" s="31"/>
+      <c r="B450" s="30"/>
       <c r="C450" s="39"/>
       <c r="D450" s="33"/>
       <c r="E450" s="33"/>
       <c r="F450" s="33"/>
     </row>
     <row r="451" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B451" s="31"/>
+      <c r="B451" s="30"/>
       <c r="C451" s="39"/>
       <c r="D451" s="33"/>
       <c r="E451" s="33"/>
       <c r="F451" s="33"/>
     </row>
     <row r="452" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B452" s="31"/>
+      <c r="B452" s="30"/>
       <c r="C452" s="39"/>
       <c r="D452" s="33"/>
       <c r="E452" s="33"/>
       <c r="F452" s="33"/>
     </row>
     <row r="453" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B453" s="31"/>
+      <c r="B453" s="30"/>
       <c r="C453" s="39"/>
       <c r="D453" s="33"/>
       <c r="E453" s="33"/>
       <c r="F453" s="33"/>
     </row>
     <row r="454" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B454" s="31"/>
+      <c r="B454" s="30"/>
       <c r="C454" s="39"/>
       <c r="D454" s="33"/>
       <c r="E454" s="33"/>
       <c r="F454" s="33"/>
     </row>
     <row r="455" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B455" s="31"/>
+      <c r="B455" s="30"/>
       <c r="C455" s="39"/>
       <c r="D455" s="33"/>
       <c r="E455" s="33"/>
       <c r="F455" s="33"/>
     </row>
     <row r="456" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B456" s="31"/>
+      <c r="B456" s="30"/>
       <c r="C456" s="39"/>
       <c r="D456" s="33"/>
       <c r="E456" s="33"/>
       <c r="F456" s="33"/>
     </row>
     <row r="457" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B457" s="31"/>
+      <c r="B457" s="30"/>
       <c r="C457" s="39"/>
       <c r="D457" s="33"/>
       <c r="E457" s="33"/>
       <c r="F457" s="33"/>
     </row>
     <row r="458" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B458" s="31"/>
+      <c r="B458" s="30"/>
       <c r="C458" s="39"/>
       <c r="D458" s="33"/>
       <c r="E458" s="33"/>
       <c r="F458" s="33"/>
     </row>
     <row r="459" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B459" s="31"/>
+      <c r="B459" s="30"/>
       <c r="C459" s="39"/>
       <c r="D459" s="33"/>
       <c r="E459" s="33"/>
       <c r="F459" s="33"/>
     </row>
     <row r="460" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B460" s="31"/>
+      <c r="B460" s="30"/>
       <c r="C460" s="39"/>
       <c r="D460" s="33"/>
       <c r="E460" s="33"/>
       <c r="F460" s="33"/>
     </row>
     <row r="461" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B461" s="31"/>
+      <c r="B461" s="30"/>
       <c r="C461" s="39"/>
       <c r="D461" s="33"/>
       <c r="E461" s="33"/>
       <c r="F461" s="33"/>
     </row>
     <row r="462" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B462" s="31"/>
+      <c r="B462" s="30"/>
       <c r="C462" s="39"/>
       <c r="D462" s="33"/>
       <c r="E462" s="33"/>
       <c r="F462" s="33"/>
     </row>
     <row r="463" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B463" s="31"/>
+      <c r="B463" s="30"/>
       <c r="C463" s="39"/>
       <c r="D463" s="33"/>
       <c r="E463" s="33"/>
       <c r="F463" s="33"/>
     </row>
     <row r="464" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B464" s="31"/>
+      <c r="B464" s="30"/>
       <c r="C464" s="39"/>
       <c r="D464" s="33"/>
       <c r="E464" s="33"/>
       <c r="F464" s="33"/>
     </row>
     <row r="465" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B465" s="32"/>
-      <c r="C465" s="40"/>
+      <c r="B465" s="30"/>
+      <c r="C465" s="39"/>
       <c r="D465" s="33"/>
       <c r="E465" s="33"/>
       <c r="F465" s="33"/>
     </row>
     <row r="466" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B466" s="26">
+      <c r="B466" s="31"/>
+      <c r="C466" s="40"/>
+      <c r="D466" s="33"/>
+      <c r="E466" s="33"/>
+      <c r="F466" s="33"/>
+    </row>
+    <row r="467" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B467" s="26">
         <v>15</v>
       </c>
-      <c r="C466" s="10" t="s">
+      <c r="C467" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D466" s="10" t="s">
+      <c r="D467" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E466" s="22" t="s">
+      <c r="E467" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="F466" s="22" t="s">
+      <c r="F467" s="19" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="467" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B467" s="27"/>
-      <c r="C467" s="10"/>
-      <c r="D467" s="10"/>
-      <c r="E467" s="22"/>
-      <c r="F467" s="10"/>
     </row>
     <row r="468" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B468" s="27"/>
       <c r="C468" s="10"/>
       <c r="D468" s="10"/>
-      <c r="E468" s="22"/>
+      <c r="E468" s="19"/>
       <c r="F468" s="10"/>
     </row>
     <row r="469" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B469" s="27"/>
       <c r="C469" s="10"/>
       <c r="D469" s="10"/>
-      <c r="E469" s="22"/>
+      <c r="E469" s="19"/>
       <c r="F469" s="10"/>
     </row>
     <row r="470" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B470" s="27"/>
       <c r="C470" s="10"/>
       <c r="D470" s="10"/>
-      <c r="E470" s="22"/>
+      <c r="E470" s="19"/>
       <c r="F470" s="10"/>
     </row>
     <row r="471" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B471" s="27"/>
       <c r="C471" s="10"/>
       <c r="D471" s="10"/>
-      <c r="E471" s="22"/>
+      <c r="E471" s="19"/>
       <c r="F471" s="10"/>
     </row>
     <row r="472" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B472" s="27"/>
       <c r="C472" s="10"/>
       <c r="D472" s="10"/>
-      <c r="E472" s="22"/>
+      <c r="E472" s="19"/>
       <c r="F472" s="10"/>
     </row>
     <row r="473" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B473" s="27"/>
       <c r="C473" s="10"/>
       <c r="D473" s="10"/>
-      <c r="E473" s="22"/>
+      <c r="E473" s="19"/>
       <c r="F473" s="10"/>
     </row>
     <row r="474" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B474" s="27"/>
       <c r="C474" s="10"/>
       <c r="D474" s="10"/>
-      <c r="E474" s="22"/>
+      <c r="E474" s="19"/>
       <c r="F474" s="10"/>
     </row>
     <row r="475" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B475" s="27"/>
       <c r="C475" s="10"/>
       <c r="D475" s="10"/>
-      <c r="E475" s="22"/>
+      <c r="E475" s="19"/>
       <c r="F475" s="10"/>
     </row>
     <row r="476" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B476" s="27"/>
       <c r="C476" s="10"/>
       <c r="D476" s="10"/>
-      <c r="E476" s="22"/>
+      <c r="E476" s="19"/>
       <c r="F476" s="10"/>
     </row>
     <row r="477" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B477" s="27"/>
       <c r="C477" s="10"/>
       <c r="D477" s="10"/>
-      <c r="E477" s="22"/>
+      <c r="E477" s="19"/>
       <c r="F477" s="10"/>
     </row>
     <row r="478" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B478" s="27"/>
       <c r="C478" s="10"/>
       <c r="D478" s="10"/>
-      <c r="E478" s="22"/>
+      <c r="E478" s="19"/>
       <c r="F478" s="10"/>
     </row>
     <row r="479" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B479" s="27"/>
       <c r="C479" s="10"/>
       <c r="D479" s="10"/>
-      <c r="E479" s="22"/>
+      <c r="E479" s="19"/>
       <c r="F479" s="10"/>
     </row>
     <row r="480" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B480" s="27"/>
       <c r="C480" s="10"/>
       <c r="D480" s="10"/>
-      <c r="E480" s="10"/>
+      <c r="E480" s="19"/>
       <c r="F480" s="10"/>
     </row>
     <row r="481" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -16499,607 +16543,607 @@
     </row>
     <row r="485" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B485" s="27"/>
-      <c r="C485" s="34" t="s">
-        <v>65</v>
-      </c>
+      <c r="C485" s="10"/>
       <c r="D485" s="10"/>
-      <c r="E485" s="22" t="s">
-        <v>120</v>
-      </c>
+      <c r="E485" s="10"/>
       <c r="F485" s="10"/>
     </row>
     <row r="486" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B486" s="27"/>
-      <c r="C486" s="19"/>
+      <c r="C486" s="34" t="s">
+        <v>65</v>
+      </c>
       <c r="D486" s="10"/>
-      <c r="E486" s="10"/>
+      <c r="E486" s="19" t="s">
+        <v>120</v>
+      </c>
       <c r="F486" s="10"/>
     </row>
     <row r="487" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B487" s="27"/>
-      <c r="C487" s="19"/>
+      <c r="C487" s="21"/>
       <c r="D487" s="10"/>
       <c r="E487" s="10"/>
       <c r="F487" s="10"/>
     </row>
     <row r="488" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B488" s="27"/>
-      <c r="C488" s="19"/>
+      <c r="C488" s="21"/>
       <c r="D488" s="10"/>
       <c r="E488" s="10"/>
       <c r="F488" s="10"/>
     </row>
     <row r="489" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B489" s="27"/>
-      <c r="C489" s="19"/>
+      <c r="C489" s="21"/>
       <c r="D489" s="10"/>
       <c r="E489" s="10"/>
       <c r="F489" s="10"/>
     </row>
     <row r="490" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B490" s="27"/>
-      <c r="C490" s="19"/>
+      <c r="C490" s="21"/>
       <c r="D490" s="10"/>
       <c r="E490" s="10"/>
       <c r="F490" s="10"/>
     </row>
     <row r="491" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B491" s="27"/>
-      <c r="C491" s="19"/>
+      <c r="C491" s="21"/>
       <c r="D491" s="10"/>
       <c r="E491" s="10"/>
       <c r="F491" s="10"/>
     </row>
     <row r="492" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B492" s="27"/>
-      <c r="C492" s="19"/>
+      <c r="C492" s="21"/>
       <c r="D492" s="10"/>
       <c r="E492" s="10"/>
       <c r="F492" s="10"/>
     </row>
     <row r="493" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B493" s="27"/>
-      <c r="C493" s="19"/>
+      <c r="C493" s="21"/>
       <c r="D493" s="10"/>
       <c r="E493" s="10"/>
       <c r="F493" s="10"/>
     </row>
     <row r="494" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B494" s="27"/>
-      <c r="C494" s="19"/>
+      <c r="C494" s="21"/>
       <c r="D494" s="10"/>
       <c r="E494" s="10"/>
       <c r="F494" s="10"/>
     </row>
     <row r="495" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B495" s="27"/>
-      <c r="C495" s="19"/>
+      <c r="C495" s="21"/>
       <c r="D495" s="10"/>
       <c r="E495" s="10"/>
       <c r="F495" s="10"/>
     </row>
     <row r="496" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B496" s="27"/>
-      <c r="C496" s="19"/>
+      <c r="C496" s="21"/>
       <c r="D496" s="10"/>
       <c r="E496" s="10"/>
       <c r="F496" s="10"/>
     </row>
     <row r="497" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B497" s="27"/>
-      <c r="C497" s="19"/>
+      <c r="C497" s="21"/>
       <c r="D497" s="10"/>
       <c r="E497" s="10"/>
       <c r="F497" s="10"/>
     </row>
     <row r="498" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B498" s="27"/>
-      <c r="C498" s="19"/>
+      <c r="C498" s="21"/>
       <c r="D498" s="10"/>
       <c r="E498" s="10"/>
       <c r="F498" s="10"/>
     </row>
     <row r="499" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B499" s="27"/>
-      <c r="C499" s="19"/>
+      <c r="C499" s="21"/>
       <c r="D499" s="10"/>
       <c r="E499" s="10"/>
       <c r="F499" s="10"/>
     </row>
     <row r="500" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B500" s="27"/>
-      <c r="C500" s="19"/>
+      <c r="C500" s="21"/>
       <c r="D500" s="10"/>
       <c r="E500" s="10"/>
       <c r="F500" s="10"/>
     </row>
     <row r="501" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B501" s="27"/>
-      <c r="C501" s="19"/>
+      <c r="C501" s="21"/>
       <c r="D501" s="10"/>
       <c r="E501" s="10"/>
       <c r="F501" s="10"/>
     </row>
     <row r="502" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B502" s="27"/>
-      <c r="C502" s="19"/>
+      <c r="C502" s="21"/>
       <c r="D502" s="10"/>
       <c r="E502" s="10"/>
       <c r="F502" s="10"/>
     </row>
     <row r="503" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B503" s="27"/>
-      <c r="C503" s="19"/>
+      <c r="C503" s="21"/>
       <c r="D503" s="10"/>
       <c r="E503" s="10"/>
       <c r="F503" s="10"/>
     </row>
     <row r="504" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B504" s="27"/>
-      <c r="C504" s="19"/>
+      <c r="C504" s="21"/>
       <c r="D504" s="10"/>
       <c r="E504" s="10"/>
       <c r="F504" s="10"/>
     </row>
     <row r="505" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B505" s="27"/>
-      <c r="C505" s="19"/>
+      <c r="C505" s="21"/>
       <c r="D505" s="10"/>
       <c r="E505" s="10"/>
       <c r="F505" s="10"/>
     </row>
     <row r="506" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B506" s="27"/>
-      <c r="C506" s="19"/>
+      <c r="C506" s="21"/>
       <c r="D506" s="10"/>
       <c r="E506" s="10"/>
       <c r="F506" s="10"/>
     </row>
     <row r="507" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B507" s="28"/>
-      <c r="C507" s="20"/>
+      <c r="B507" s="27"/>
+      <c r="C507" s="21"/>
       <c r="D507" s="10"/>
       <c r="E507" s="10"/>
       <c r="F507" s="10"/>
     </row>
     <row r="508" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B508" s="29">
+      <c r="B508" s="28"/>
+      <c r="C508" s="22"/>
+      <c r="D508" s="10"/>
+      <c r="E508" s="10"/>
+      <c r="F508" s="10"/>
+    </row>
+    <row r="509" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B509" s="32">
         <v>16</v>
       </c>
-      <c r="C508" s="33" t="s">
+      <c r="C509" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="D508" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="E508" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="F508" s="33"/>
-    </row>
-    <row r="509" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B509" s="29"/>
-      <c r="C509" s="33"/>
-      <c r="D509" s="33"/>
-      <c r="E509" s="33"/>
+      <c r="D509" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="E509" s="48" t="s">
+        <v>136</v>
+      </c>
       <c r="F509" s="33"/>
     </row>
     <row r="510" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B510" s="29"/>
+      <c r="B510" s="32"/>
       <c r="C510" s="33"/>
       <c r="D510" s="33"/>
       <c r="E510" s="33"/>
       <c r="F510" s="33"/>
     </row>
     <row r="511" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B511" s="29"/>
+      <c r="B511" s="32"/>
       <c r="C511" s="33"/>
       <c r="D511" s="33"/>
       <c r="E511" s="33"/>
       <c r="F511" s="33"/>
     </row>
     <row r="512" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B512" s="29"/>
+      <c r="B512" s="32"/>
       <c r="C512" s="33"/>
       <c r="D512" s="33"/>
       <c r="E512" s="33"/>
       <c r="F512" s="33"/>
     </row>
     <row r="513" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B513" s="29"/>
+      <c r="B513" s="32"/>
       <c r="C513" s="33"/>
       <c r="D513" s="33"/>
       <c r="E513" s="33"/>
       <c r="F513" s="33"/>
     </row>
     <row r="514" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B514" s="8">
+      <c r="B514" s="32"/>
+      <c r="C514" s="33"/>
+      <c r="D514" s="33"/>
+      <c r="E514" s="33"/>
+      <c r="F514" s="33"/>
+    </row>
+    <row r="515" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B515" s="8">
         <v>18</v>
       </c>
-      <c r="C514" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="D514" s="10"/>
-      <c r="E514" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="F514" s="18" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="515" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B515" s="8"/>
-      <c r="C515" s="21"/>
+      <c r="C515" s="18" t="s">
+        <v>135</v>
+      </c>
       <c r="D515" s="10"/>
-      <c r="E515" s="16"/>
-      <c r="F515" s="19"/>
+      <c r="E515" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F515" s="20" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="516" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B516" s="8"/>
-      <c r="C516" s="21"/>
+      <c r="C516" s="18"/>
       <c r="D516" s="10"/>
       <c r="E516" s="16"/>
-      <c r="F516" s="19"/>
+      <c r="F516" s="21"/>
     </row>
     <row r="517" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B517" s="8"/>
-      <c r="C517" s="21"/>
+      <c r="C517" s="18"/>
       <c r="D517" s="10"/>
       <c r="E517" s="16"/>
-      <c r="F517" s="19"/>
+      <c r="F517" s="21"/>
     </row>
     <row r="518" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B518" s="8"/>
-      <c r="C518" s="21"/>
+      <c r="C518" s="18"/>
       <c r="D518" s="10"/>
       <c r="E518" s="16"/>
-      <c r="F518" s="19"/>
+      <c r="F518" s="21"/>
     </row>
     <row r="519" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B519" s="8"/>
-      <c r="C519" s="21"/>
+      <c r="C519" s="18"/>
       <c r="D519" s="10"/>
       <c r="E519" s="16"/>
-      <c r="F519" s="19"/>
+      <c r="F519" s="21"/>
     </row>
     <row r="520" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B520" s="8"/>
-      <c r="C520" s="21"/>
+      <c r="C520" s="18"/>
       <c r="D520" s="10"/>
       <c r="E520" s="16"/>
-      <c r="F520" s="19"/>
+      <c r="F520" s="21"/>
     </row>
     <row r="521" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B521" s="8"/>
-      <c r="C521" s="21"/>
+      <c r="C521" s="18"/>
       <c r="D521" s="10"/>
       <c r="E521" s="16"/>
-      <c r="F521" s="19"/>
+      <c r="F521" s="21"/>
     </row>
     <row r="522" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B522" s="8"/>
-      <c r="C522" s="21"/>
+      <c r="C522" s="18"/>
       <c r="D522" s="10"/>
       <c r="E522" s="16"/>
-      <c r="F522" s="19"/>
+      <c r="F522" s="21"/>
     </row>
     <row r="523" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B523" s="8"/>
-      <c r="C523" s="21"/>
+      <c r="C523" s="18"/>
       <c r="D523" s="10"/>
       <c r="E523" s="16"/>
-      <c r="F523" s="19"/>
+      <c r="F523" s="21"/>
     </row>
     <row r="524" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B524" s="8"/>
-      <c r="C524" s="21"/>
+      <c r="C524" s="18"/>
       <c r="D524" s="10"/>
       <c r="E524" s="16"/>
-      <c r="F524" s="19"/>
+      <c r="F524" s="21"/>
     </row>
     <row r="525" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B525" s="8"/>
-      <c r="C525" s="21"/>
+      <c r="C525" s="18"/>
       <c r="D525" s="10"/>
       <c r="E525" s="16"/>
-      <c r="F525" s="19"/>
+      <c r="F525" s="21"/>
     </row>
     <row r="526" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B526" s="8"/>
-      <c r="C526" s="21"/>
+      <c r="C526" s="18"/>
       <c r="D526" s="10"/>
       <c r="E526" s="16"/>
-      <c r="F526" s="19"/>
+      <c r="F526" s="21"/>
     </row>
     <row r="527" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B527" s="8"/>
-      <c r="C527" s="21"/>
+      <c r="C527" s="18"/>
       <c r="D527" s="10"/>
       <c r="E527" s="16"/>
-      <c r="F527" s="19"/>
+      <c r="F527" s="21"/>
     </row>
     <row r="528" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B528" s="8"/>
-      <c r="C528" s="21"/>
+      <c r="C528" s="18"/>
       <c r="D528" s="10"/>
       <c r="E528" s="16"/>
-      <c r="F528" s="19"/>
+      <c r="F528" s="21"/>
     </row>
     <row r="529" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B529" s="8"/>
-      <c r="C529" s="21"/>
+      <c r="C529" s="18"/>
       <c r="D529" s="10"/>
       <c r="E529" s="16"/>
-      <c r="F529" s="19"/>
+      <c r="F529" s="21"/>
     </row>
     <row r="530" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B530" s="8"/>
-      <c r="C530" s="21"/>
+      <c r="C530" s="18"/>
       <c r="D530" s="10"/>
       <c r="E530" s="16"/>
-      <c r="F530" s="19"/>
+      <c r="F530" s="21"/>
     </row>
     <row r="531" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B531" s="8"/>
-      <c r="C531" s="21"/>
+      <c r="C531" s="18"/>
       <c r="D531" s="10"/>
       <c r="E531" s="16"/>
-      <c r="F531" s="19"/>
+      <c r="F531" s="21"/>
     </row>
     <row r="532" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B532" s="8"/>
-      <c r="C532" s="21"/>
+      <c r="C532" s="18"/>
       <c r="D532" s="10"/>
       <c r="E532" s="16"/>
-      <c r="F532" s="19"/>
+      <c r="F532" s="21"/>
     </row>
     <row r="533" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B533" s="8"/>
-      <c r="C533" s="21"/>
+      <c r="C533" s="18"/>
       <c r="D533" s="10"/>
       <c r="E533" s="16"/>
-      <c r="F533" s="19"/>
+      <c r="F533" s="21"/>
     </row>
     <row r="534" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B534" s="8"/>
-      <c r="C534" s="21"/>
+      <c r="C534" s="18"/>
       <c r="D534" s="10"/>
       <c r="E534" s="16"/>
-      <c r="F534" s="19"/>
+      <c r="F534" s="21"/>
     </row>
     <row r="535" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B535" s="8"/>
-      <c r="C535" s="21"/>
+      <c r="C535" s="18"/>
       <c r="D535" s="10"/>
       <c r="E535" s="16"/>
-      <c r="F535" s="19"/>
+      <c r="F535" s="21"/>
     </row>
     <row r="536" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B536" s="8"/>
-      <c r="C536" s="21"/>
+      <c r="C536" s="18"/>
       <c r="D536" s="10"/>
       <c r="E536" s="16"/>
-      <c r="F536" s="19"/>
+      <c r="F536" s="21"/>
     </row>
     <row r="537" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B537" s="8"/>
-      <c r="C537" s="21"/>
+      <c r="C537" s="18"/>
       <c r="D537" s="10"/>
       <c r="E537" s="16"/>
-      <c r="F537" s="19"/>
+      <c r="F537" s="21"/>
     </row>
     <row r="538" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B538" s="8"/>
-      <c r="C538" s="21"/>
+      <c r="C538" s="18"/>
       <c r="D538" s="10"/>
       <c r="E538" s="16"/>
-      <c r="F538" s="19"/>
+      <c r="F538" s="21"/>
     </row>
     <row r="539" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B539" s="8"/>
-      <c r="C539" s="21"/>
+      <c r="C539" s="18"/>
       <c r="D539" s="10"/>
       <c r="E539" s="16"/>
-      <c r="F539" s="19"/>
+      <c r="F539" s="21"/>
     </row>
     <row r="540" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B540" s="8"/>
-      <c r="C540" s="21"/>
+      <c r="C540" s="18"/>
       <c r="D540" s="10"/>
       <c r="E540" s="16"/>
-      <c r="F540" s="19"/>
+      <c r="F540" s="21"/>
     </row>
     <row r="541" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B541" s="8"/>
-      <c r="C541" s="21"/>
+      <c r="C541" s="18"/>
       <c r="D541" s="10"/>
       <c r="E541" s="16"/>
-      <c r="F541" s="19"/>
+      <c r="F541" s="21"/>
     </row>
     <row r="542" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B542" s="8"/>
-      <c r="C542" s="21"/>
+      <c r="C542" s="18"/>
       <c r="D542" s="10"/>
       <c r="E542" s="16"/>
-      <c r="F542" s="19"/>
+      <c r="F542" s="21"/>
     </row>
     <row r="543" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B543" s="8"/>
-      <c r="C543" s="21"/>
+      <c r="C543" s="18"/>
       <c r="D543" s="10"/>
       <c r="E543" s="16"/>
-      <c r="F543" s="19"/>
+      <c r="F543" s="21"/>
     </row>
     <row r="544" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B544" s="8"/>
-      <c r="C544" s="21"/>
+      <c r="C544" s="18"/>
       <c r="D544" s="10"/>
       <c r="E544" s="16"/>
-      <c r="F544" s="19"/>
+      <c r="F544" s="21"/>
     </row>
     <row r="545" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B545" s="8"/>
-      <c r="C545" s="21"/>
+      <c r="C545" s="18"/>
       <c r="D545" s="10"/>
       <c r="E545" s="16"/>
-      <c r="F545" s="19"/>
+      <c r="F545" s="21"/>
     </row>
     <row r="546" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B546" s="8"/>
-      <c r="C546" s="21"/>
+      <c r="C546" s="18"/>
       <c r="D546" s="10"/>
       <c r="E546" s="16"/>
-      <c r="F546" s="19"/>
+      <c r="F546" s="21"/>
     </row>
     <row r="547" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B547" s="8"/>
-      <c r="C547" s="21"/>
+      <c r="C547" s="18"/>
       <c r="D547" s="10"/>
       <c r="E547" s="16"/>
-      <c r="F547" s="19"/>
+      <c r="F547" s="21"/>
     </row>
     <row r="548" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B548" s="8"/>
-      <c r="C548" s="21"/>
+      <c r="C548" s="18"/>
       <c r="D548" s="10"/>
       <c r="E548" s="16"/>
-      <c r="F548" s="19"/>
+      <c r="F548" s="21"/>
     </row>
     <row r="549" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B549" s="8"/>
-      <c r="C549" s="10"/>
+      <c r="C549" s="18"/>
       <c r="D549" s="10"/>
-      <c r="E549" s="10"/>
-      <c r="F549" s="19"/>
+      <c r="E549" s="16"/>
+      <c r="F549" s="21"/>
     </row>
     <row r="550" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B550" s="8"/>
       <c r="C550" s="10"/>
       <c r="D550" s="10"/>
       <c r="E550" s="10"/>
-      <c r="F550" s="19"/>
+      <c r="F550" s="21"/>
     </row>
     <row r="551" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B551" s="8"/>
       <c r="C551" s="10"/>
       <c r="D551" s="10"/>
       <c r="E551" s="10"/>
-      <c r="F551" s="20"/>
+      <c r="F551" s="21"/>
     </row>
     <row r="552" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B552" s="26">
+      <c r="B552" s="8"/>
+      <c r="C552" s="10"/>
+      <c r="D552" s="10"/>
+      <c r="E552" s="10"/>
+      <c r="F552" s="22"/>
+    </row>
+    <row r="553" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B553" s="26">
         <v>19</v>
       </c>
-      <c r="C552" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D552" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="E552" s="22" t="s">
+      <c r="C553" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D553" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E553" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F553" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="F552" s="22" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="553" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B553" s="27"/>
-      <c r="C553" s="10"/>
-      <c r="D553" s="10"/>
-      <c r="E553" s="22"/>
-      <c r="F553" s="22"/>
     </row>
     <row r="554" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B554" s="27"/>
       <c r="C554" s="10"/>
       <c r="D554" s="10"/>
-      <c r="E554" s="22"/>
-      <c r="F554" s="22"/>
+      <c r="E554" s="19"/>
+      <c r="F554" s="19"/>
     </row>
     <row r="555" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B555" s="27"/>
       <c r="C555" s="10"/>
       <c r="D555" s="10"/>
-      <c r="E555" s="22"/>
-      <c r="F555" s="22"/>
+      <c r="E555" s="19"/>
+      <c r="F555" s="19"/>
     </row>
     <row r="556" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B556" s="27"/>
       <c r="C556" s="10"/>
       <c r="D556" s="10"/>
-      <c r="E556" s="22"/>
-      <c r="F556" s="22"/>
+      <c r="E556" s="19"/>
+      <c r="F556" s="19"/>
     </row>
     <row r="557" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B557" s="27"/>
       <c r="C557" s="10"/>
       <c r="D557" s="10"/>
-      <c r="E557" s="22"/>
-      <c r="F557" s="22"/>
+      <c r="E557" s="19"/>
+      <c r="F557" s="19"/>
     </row>
     <row r="558" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B558" s="27"/>
       <c r="C558" s="10"/>
       <c r="D558" s="10"/>
-      <c r="E558" s="22"/>
-      <c r="F558" s="22"/>
+      <c r="E558" s="19"/>
+      <c r="F558" s="19"/>
     </row>
     <row r="559" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B559" s="27"/>
       <c r="C559" s="10"/>
       <c r="D559" s="10"/>
-      <c r="E559" s="22"/>
-      <c r="F559" s="22"/>
+      <c r="E559" s="19"/>
+      <c r="F559" s="19"/>
     </row>
     <row r="560" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B560" s="27"/>
       <c r="C560" s="10"/>
       <c r="D560" s="10"/>
-      <c r="E560" s="22"/>
-      <c r="F560" s="22"/>
+      <c r="E560" s="19"/>
+      <c r="F560" s="19"/>
     </row>
     <row r="561" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B561" s="27"/>
       <c r="C561" s="10"/>
       <c r="D561" s="10"/>
-      <c r="E561" s="22"/>
-      <c r="F561" s="22"/>
+      <c r="E561" s="19"/>
+      <c r="F561" s="19"/>
     </row>
     <row r="562" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B562" s="27"/>
       <c r="C562" s="10"/>
       <c r="D562" s="10"/>
-      <c r="E562" s="22"/>
-      <c r="F562" s="22"/>
+      <c r="E562" s="19"/>
+      <c r="F562" s="19"/>
     </row>
     <row r="563" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B563" s="27"/>
       <c r="C563" s="10"/>
       <c r="D563" s="10"/>
-      <c r="E563" s="22"/>
-      <c r="F563" s="22"/>
+      <c r="E563" s="19"/>
+      <c r="F563" s="19"/>
     </row>
     <row r="564" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B564" s="27"/>
       <c r="C564" s="10"/>
       <c r="D564" s="10"/>
-      <c r="E564" s="22"/>
-      <c r="F564" s="22"/>
+      <c r="E564" s="19"/>
+      <c r="F564" s="19"/>
     </row>
     <row r="565" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B565" s="27"/>
       <c r="C565" s="10"/>
       <c r="D565" s="10"/>
-      <c r="E565" s="22"/>
-      <c r="F565" s="22"/>
+      <c r="E565" s="19"/>
+      <c r="F565" s="19"/>
     </row>
     <row r="566" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B566" s="27"/>
       <c r="C566" s="10"/>
       <c r="D566" s="10"/>
-      <c r="E566" s="10"/>
-      <c r="F566" s="10"/>
+      <c r="E566" s="19"/>
+      <c r="F566" s="19"/>
     </row>
     <row r="567" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B567" s="27"/>
@@ -17131,283 +17175,283 @@
     </row>
     <row r="571" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B571" s="27"/>
-      <c r="C571" s="15" t="s">
-        <v>164</v>
-      </c>
+      <c r="C571" s="10"/>
       <c r="D571" s="10"/>
-      <c r="E571" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="F571" s="22"/>
+      <c r="E571" s="10"/>
+      <c r="F571" s="10"/>
     </row>
     <row r="572" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B572" s="27"/>
-      <c r="C572" s="24"/>
+      <c r="C572" s="15" t="s">
+        <v>163</v>
+      </c>
       <c r="D572" s="10"/>
-      <c r="E572" s="22"/>
-      <c r="F572" s="22"/>
+      <c r="E572" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="F572" s="19"/>
     </row>
     <row r="573" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B573" s="27"/>
       <c r="C573" s="24"/>
       <c r="D573" s="10"/>
-      <c r="E573" s="22"/>
-      <c r="F573" s="22"/>
+      <c r="E573" s="19"/>
+      <c r="F573" s="19"/>
     </row>
     <row r="574" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B574" s="27"/>
       <c r="C574" s="24"/>
       <c r="D574" s="10"/>
-      <c r="E574" s="22"/>
-      <c r="F574" s="22"/>
+      <c r="E574" s="19"/>
+      <c r="F574" s="19"/>
     </row>
     <row r="575" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B575" s="27"/>
       <c r="C575" s="24"/>
       <c r="D575" s="10"/>
-      <c r="E575" s="22"/>
-      <c r="F575" s="22"/>
+      <c r="E575" s="19"/>
+      <c r="F575" s="19"/>
     </row>
     <row r="576" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B576" s="27"/>
       <c r="C576" s="24"/>
       <c r="D576" s="10"/>
-      <c r="E576" s="22"/>
-      <c r="F576" s="22"/>
+      <c r="E576" s="19"/>
+      <c r="F576" s="19"/>
     </row>
     <row r="577" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B577" s="27"/>
       <c r="C577" s="24"/>
       <c r="D577" s="10"/>
-      <c r="E577" s="22"/>
-      <c r="F577" s="22"/>
+      <c r="E577" s="19"/>
+      <c r="F577" s="19"/>
     </row>
     <row r="578" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B578" s="27"/>
       <c r="C578" s="24"/>
       <c r="D578" s="10"/>
-      <c r="E578" s="22"/>
-      <c r="F578" s="22"/>
+      <c r="E578" s="19"/>
+      <c r="F578" s="19"/>
     </row>
     <row r="579" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B579" s="27"/>
       <c r="C579" s="24"/>
       <c r="D579" s="10"/>
-      <c r="E579" s="22"/>
-      <c r="F579" s="22"/>
+      <c r="E579" s="19"/>
+      <c r="F579" s="19"/>
     </row>
     <row r="580" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B580" s="27"/>
       <c r="C580" s="24"/>
       <c r="D580" s="10"/>
-      <c r="E580" s="22"/>
-      <c r="F580" s="22"/>
+      <c r="E580" s="19"/>
+      <c r="F580" s="19"/>
     </row>
     <row r="581" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B581" s="27"/>
       <c r="C581" s="24"/>
       <c r="D581" s="10"/>
-      <c r="E581" s="22"/>
-      <c r="F581" s="22"/>
+      <c r="E581" s="19"/>
+      <c r="F581" s="19"/>
     </row>
     <row r="582" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B582" s="27"/>
       <c r="C582" s="24"/>
       <c r="D582" s="10"/>
-      <c r="E582" s="22"/>
-      <c r="F582" s="22"/>
+      <c r="E582" s="19"/>
+      <c r="F582" s="19"/>
     </row>
     <row r="583" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B583" s="27"/>
       <c r="C583" s="24"/>
       <c r="D583" s="10"/>
-      <c r="E583" s="22"/>
-      <c r="F583" s="22"/>
+      <c r="E583" s="19"/>
+      <c r="F583" s="19"/>
     </row>
     <row r="584" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B584" s="27"/>
       <c r="C584" s="24"/>
       <c r="D584" s="10"/>
-      <c r="E584" s="22"/>
-      <c r="F584" s="22"/>
+      <c r="E584" s="19"/>
+      <c r="F584" s="19"/>
     </row>
     <row r="585" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B585" s="27"/>
       <c r="C585" s="24"/>
       <c r="D585" s="10"/>
-      <c r="E585" s="22"/>
-      <c r="F585" s="22"/>
+      <c r="E585" s="19"/>
+      <c r="F585" s="19"/>
     </row>
     <row r="586" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B586" s="27"/>
       <c r="C586" s="24"/>
       <c r="D586" s="10"/>
-      <c r="E586" s="22"/>
-      <c r="F586" s="22"/>
+      <c r="E586" s="19"/>
+      <c r="F586" s="19"/>
     </row>
     <row r="587" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B587" s="27"/>
       <c r="C587" s="24"/>
       <c r="D587" s="10"/>
-      <c r="E587" s="22"/>
-      <c r="F587" s="22"/>
+      <c r="E587" s="19"/>
+      <c r="F587" s="19"/>
     </row>
     <row r="588" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B588" s="27"/>
       <c r="C588" s="24"/>
       <c r="D588" s="10"/>
-      <c r="E588" s="22"/>
-      <c r="F588" s="22"/>
+      <c r="E588" s="19"/>
+      <c r="F588" s="19"/>
     </row>
     <row r="589" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B589" s="27"/>
-      <c r="C589" s="19"/>
+      <c r="C589" s="24"/>
       <c r="D589" s="10"/>
-      <c r="E589" s="22"/>
-      <c r="F589" s="22"/>
+      <c r="E589" s="19"/>
+      <c r="F589" s="19"/>
     </row>
     <row r="590" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B590" s="27"/>
-      <c r="C590" s="19"/>
+      <c r="C590" s="21"/>
       <c r="D590" s="10"/>
-      <c r="E590" s="22"/>
-      <c r="F590" s="22"/>
+      <c r="E590" s="19"/>
+      <c r="F590" s="19"/>
     </row>
     <row r="591" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B591" s="27"/>
-      <c r="C591" s="19"/>
+      <c r="C591" s="21"/>
       <c r="D591" s="10"/>
-      <c r="E591" s="22"/>
-      <c r="F591" s="22"/>
+      <c r="E591" s="19"/>
+      <c r="F591" s="19"/>
     </row>
     <row r="592" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B592" s="27"/>
-      <c r="C592" s="19"/>
+      <c r="C592" s="21"/>
       <c r="D592" s="10"/>
-      <c r="E592" s="22"/>
-      <c r="F592" s="22"/>
+      <c r="E592" s="19"/>
+      <c r="F592" s="19"/>
     </row>
     <row r="593" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B593" s="28"/>
-      <c r="C593" s="20"/>
+      <c r="B593" s="27"/>
+      <c r="C593" s="21"/>
       <c r="D593" s="10"/>
-      <c r="E593" s="22"/>
-      <c r="F593" s="22"/>
+      <c r="E593" s="19"/>
+      <c r="F593" s="19"/>
     </row>
     <row r="594" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B594" s="26">
+      <c r="B594" s="28"/>
+      <c r="C594" s="22"/>
+      <c r="D594" s="10"/>
+      <c r="E594" s="19"/>
+      <c r="F594" s="19"/>
+    </row>
+    <row r="595" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B595" s="26">
         <v>20</v>
       </c>
-      <c r="C594" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D594" s="9" t="s">
+      <c r="C595" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D595" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E595" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="E594" s="22" t="s">
+      <c r="F595" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="F594" s="22" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="595" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B595" s="27"/>
-      <c r="C595" s="10"/>
-      <c r="D595" s="9"/>
-      <c r="E595" s="22"/>
-      <c r="F595" s="22"/>
     </row>
     <row r="596" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B596" s="27"/>
       <c r="C596" s="10"/>
       <c r="D596" s="9"/>
-      <c r="E596" s="22"/>
-      <c r="F596" s="22"/>
+      <c r="E596" s="19"/>
+      <c r="F596" s="19"/>
     </row>
     <row r="597" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B597" s="27"/>
       <c r="C597" s="10"/>
       <c r="D597" s="9"/>
-      <c r="E597" s="22"/>
-      <c r="F597" s="22"/>
+      <c r="E597" s="19"/>
+      <c r="F597" s="19"/>
     </row>
     <row r="598" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B598" s="27"/>
       <c r="C598" s="10"/>
       <c r="D598" s="9"/>
-      <c r="E598" s="22"/>
-      <c r="F598" s="22"/>
+      <c r="E598" s="19"/>
+      <c r="F598" s="19"/>
     </row>
     <row r="599" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B599" s="27"/>
       <c r="C599" s="10"/>
       <c r="D599" s="9"/>
-      <c r="E599" s="22"/>
-      <c r="F599" s="22"/>
+      <c r="E599" s="19"/>
+      <c r="F599" s="19"/>
     </row>
     <row r="600" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B600" s="27"/>
       <c r="C600" s="10"/>
       <c r="D600" s="9"/>
-      <c r="E600" s="22"/>
-      <c r="F600" s="22"/>
+      <c r="E600" s="19"/>
+      <c r="F600" s="19"/>
     </row>
     <row r="601" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B601" s="27"/>
       <c r="C601" s="10"/>
       <c r="D601" s="9"/>
-      <c r="E601" s="22"/>
-      <c r="F601" s="22"/>
+      <c r="E601" s="19"/>
+      <c r="F601" s="19"/>
     </row>
     <row r="602" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B602" s="27"/>
       <c r="C602" s="10"/>
       <c r="D602" s="9"/>
-      <c r="E602" s="22"/>
-      <c r="F602" s="22"/>
+      <c r="E602" s="19"/>
+      <c r="F602" s="19"/>
     </row>
     <row r="603" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B603" s="27"/>
       <c r="C603" s="10"/>
       <c r="D603" s="9"/>
-      <c r="E603" s="22"/>
-      <c r="F603" s="22"/>
+      <c r="E603" s="19"/>
+      <c r="F603" s="19"/>
     </row>
     <row r="604" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B604" s="27"/>
       <c r="C604" s="10"/>
       <c r="D604" s="9"/>
-      <c r="E604" s="22"/>
-      <c r="F604" s="22"/>
+      <c r="E604" s="19"/>
+      <c r="F604" s="19"/>
     </row>
     <row r="605" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B605" s="27"/>
       <c r="C605" s="10"/>
       <c r="D605" s="9"/>
-      <c r="E605" s="22"/>
-      <c r="F605" s="22"/>
+      <c r="E605" s="19"/>
+      <c r="F605" s="19"/>
     </row>
     <row r="606" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B606" s="27"/>
       <c r="C606" s="10"/>
       <c r="D606" s="9"/>
-      <c r="E606" s="22"/>
-      <c r="F606" s="22"/>
+      <c r="E606" s="19"/>
+      <c r="F606" s="19"/>
     </row>
     <row r="607" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B607" s="27"/>
       <c r="C607" s="10"/>
       <c r="D607" s="9"/>
-      <c r="E607" s="22"/>
-      <c r="F607" s="22"/>
+      <c r="E607" s="19"/>
+      <c r="F607" s="19"/>
     </row>
     <row r="608" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B608" s="27"/>
       <c r="C608" s="10"/>
-      <c r="D608" s="10"/>
-      <c r="E608" s="10"/>
-      <c r="F608" s="10"/>
+      <c r="D608" s="9"/>
+      <c r="E608" s="19"/>
+      <c r="F608" s="19"/>
     </row>
     <row r="609" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B609" s="27"/>
@@ -17439,185 +17483,185 @@
     </row>
     <row r="613" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B613" s="27"/>
-      <c r="C613" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D613" s="9"/>
-      <c r="E613" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="F613" s="22"/>
+      <c r="C613" s="10"/>
+      <c r="D613" s="10"/>
+      <c r="E613" s="10"/>
+      <c r="F613" s="10"/>
     </row>
     <row r="614" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B614" s="27"/>
-      <c r="C614" s="24"/>
+      <c r="C614" s="15" t="s">
+        <v>169</v>
+      </c>
       <c r="D614" s="9"/>
-      <c r="E614" s="22"/>
-      <c r="F614" s="22"/>
+      <c r="E614" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="F614" s="19"/>
     </row>
     <row r="615" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B615" s="27"/>
       <c r="C615" s="24"/>
       <c r="D615" s="9"/>
-      <c r="E615" s="22"/>
-      <c r="F615" s="22"/>
+      <c r="E615" s="19"/>
+      <c r="F615" s="19"/>
     </row>
     <row r="616" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B616" s="27"/>
       <c r="C616" s="24"/>
       <c r="D616" s="9"/>
-      <c r="E616" s="22"/>
-      <c r="F616" s="22"/>
+      <c r="E616" s="19"/>
+      <c r="F616" s="19"/>
     </row>
     <row r="617" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B617" s="27"/>
       <c r="C617" s="24"/>
       <c r="D617" s="9"/>
-      <c r="E617" s="22"/>
-      <c r="F617" s="22"/>
+      <c r="E617" s="19"/>
+      <c r="F617" s="19"/>
     </row>
     <row r="618" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B618" s="27"/>
       <c r="C618" s="24"/>
       <c r="D618" s="9"/>
-      <c r="E618" s="22"/>
-      <c r="F618" s="22"/>
+      <c r="E618" s="19"/>
+      <c r="F618" s="19"/>
     </row>
     <row r="619" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B619" s="27"/>
       <c r="C619" s="24"/>
       <c r="D619" s="9"/>
-      <c r="E619" s="22"/>
-      <c r="F619" s="22"/>
+      <c r="E619" s="19"/>
+      <c r="F619" s="19"/>
     </row>
     <row r="620" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B620" s="27"/>
       <c r="C620" s="24"/>
       <c r="D620" s="9"/>
-      <c r="E620" s="22"/>
-      <c r="F620" s="22"/>
+      <c r="E620" s="19"/>
+      <c r="F620" s="19"/>
     </row>
     <row r="621" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B621" s="27"/>
       <c r="C621" s="24"/>
       <c r="D621" s="9"/>
-      <c r="E621" s="22"/>
-      <c r="F621" s="22"/>
+      <c r="E621" s="19"/>
+      <c r="F621" s="19"/>
     </row>
     <row r="622" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B622" s="27"/>
       <c r="C622" s="24"/>
       <c r="D622" s="9"/>
-      <c r="E622" s="22"/>
-      <c r="F622" s="22"/>
+      <c r="E622" s="19"/>
+      <c r="F622" s="19"/>
     </row>
     <row r="623" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B623" s="27"/>
       <c r="C623" s="24"/>
       <c r="D623" s="9"/>
-      <c r="E623" s="22"/>
-      <c r="F623" s="22"/>
+      <c r="E623" s="19"/>
+      <c r="F623" s="19"/>
     </row>
     <row r="624" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B624" s="27"/>
       <c r="C624" s="24"/>
       <c r="D624" s="9"/>
-      <c r="E624" s="22"/>
-      <c r="F624" s="22"/>
+      <c r="E624" s="19"/>
+      <c r="F624" s="19"/>
     </row>
     <row r="625" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B625" s="27"/>
       <c r="C625" s="24"/>
       <c r="D625" s="9"/>
-      <c r="E625" s="22"/>
-      <c r="F625" s="22"/>
+      <c r="E625" s="19"/>
+      <c r="F625" s="19"/>
     </row>
     <row r="626" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B626" s="27"/>
       <c r="C626" s="24"/>
       <c r="D626" s="9"/>
-      <c r="E626" s="22"/>
-      <c r="F626" s="22"/>
+      <c r="E626" s="19"/>
+      <c r="F626" s="19"/>
     </row>
     <row r="627" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B627" s="27"/>
       <c r="C627" s="24"/>
       <c r="D627" s="9"/>
-      <c r="E627" s="22"/>
-      <c r="F627" s="22"/>
+      <c r="E627" s="19"/>
+      <c r="F627" s="19"/>
     </row>
     <row r="628" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B628" s="27"/>
       <c r="C628" s="24"/>
       <c r="D628" s="9"/>
-      <c r="E628" s="22"/>
-      <c r="F628" s="22"/>
+      <c r="E628" s="19"/>
+      <c r="F628" s="19"/>
     </row>
     <row r="629" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B629" s="27"/>
       <c r="C629" s="24"/>
       <c r="D629" s="9"/>
-      <c r="E629" s="22"/>
-      <c r="F629" s="22"/>
+      <c r="E629" s="19"/>
+      <c r="F629" s="19"/>
     </row>
     <row r="630" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B630" s="27"/>
       <c r="C630" s="24"/>
       <c r="D630" s="9"/>
-      <c r="E630" s="22"/>
-      <c r="F630" s="22"/>
+      <c r="E630" s="19"/>
+      <c r="F630" s="19"/>
     </row>
     <row r="631" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B631" s="27"/>
       <c r="C631" s="24"/>
       <c r="D631" s="9"/>
-      <c r="E631" s="22"/>
-      <c r="F631" s="22"/>
+      <c r="E631" s="19"/>
+      <c r="F631" s="19"/>
     </row>
     <row r="632" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B632" s="27"/>
-      <c r="C632" s="19"/>
+      <c r="C632" s="24"/>
       <c r="D632" s="9"/>
-      <c r="E632" s="22"/>
-      <c r="F632" s="22"/>
+      <c r="E632" s="19"/>
+      <c r="F632" s="19"/>
     </row>
     <row r="633" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B633" s="27"/>
-      <c r="C633" s="19"/>
+      <c r="C633" s="21"/>
       <c r="D633" s="9"/>
-      <c r="E633" s="22"/>
-      <c r="F633" s="22"/>
+      <c r="E633" s="19"/>
+      <c r="F633" s="19"/>
     </row>
     <row r="634" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B634" s="28"/>
-      <c r="C634" s="20"/>
+      <c r="B634" s="27"/>
+      <c r="C634" s="21"/>
       <c r="D634" s="9"/>
-      <c r="E634" s="22"/>
-      <c r="F634" s="22"/>
+      <c r="E634" s="19"/>
+      <c r="F634" s="19"/>
     </row>
     <row r="635" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B635" s="26">
+      <c r="B635" s="28"/>
+      <c r="C635" s="22"/>
+      <c r="D635" s="9"/>
+      <c r="E635" s="19"/>
+      <c r="F635" s="19"/>
+    </row>
+    <row r="636" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B636" s="26">
         <v>21</v>
       </c>
-      <c r="C635" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="D635" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="E635" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="F635" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="636" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B636" s="27"/>
-      <c r="C636" s="13"/>
-      <c r="D636" s="12"/>
-      <c r="E636" s="24"/>
-      <c r="F636" s="24"/>
+      <c r="C636" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D636" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E636" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="F636" s="15" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="637" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B637" s="27"/>
@@ -17733,28 +17777,28 @@
     </row>
     <row r="653" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B653" s="27"/>
-      <c r="C653" s="14"/>
-      <c r="D653" s="23"/>
-      <c r="E653" s="25"/>
-      <c r="F653" s="25"/>
+      <c r="C653" s="13"/>
+      <c r="D653" s="12"/>
+      <c r="E653" s="24"/>
+      <c r="F653" s="24"/>
     </row>
     <row r="654" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B654" s="27"/>
-      <c r="C654" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="D654" s="11"/>
-      <c r="E654" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="F654" s="15"/>
+      <c r="C654" s="14"/>
+      <c r="D654" s="23"/>
+      <c r="E654" s="25"/>
+      <c r="F654" s="25"/>
     </row>
     <row r="655" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B655" s="27"/>
-      <c r="C655" s="24"/>
-      <c r="D655" s="12"/>
-      <c r="E655" s="24"/>
-      <c r="F655" s="24"/>
+      <c r="C655" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D655" s="11"/>
+      <c r="E655" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="F655" s="15"/>
     </row>
     <row r="656" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B656" s="27"/>
@@ -17870,166 +17914,166 @@
     </row>
     <row r="672" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B672" s="27"/>
-      <c r="C672" s="19"/>
+      <c r="C672" s="24"/>
       <c r="D672" s="12"/>
       <c r="E672" s="24"/>
       <c r="F672" s="24"/>
     </row>
     <row r="673" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B673" s="27"/>
-      <c r="C673" s="19"/>
+      <c r="C673" s="21"/>
       <c r="D673" s="12"/>
       <c r="E673" s="24"/>
       <c r="F673" s="24"/>
     </row>
     <row r="674" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B674" s="27"/>
-      <c r="C674" s="19"/>
+      <c r="C674" s="21"/>
       <c r="D674" s="12"/>
       <c r="E674" s="24"/>
       <c r="F674" s="24"/>
     </row>
     <row r="675" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B675" s="27"/>
-      <c r="C675" s="19"/>
+      <c r="C675" s="21"/>
       <c r="D675" s="12"/>
       <c r="E675" s="24"/>
       <c r="F675" s="24"/>
     </row>
     <row r="676" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B676" s="28"/>
-      <c r="C676" s="20"/>
+      <c r="B676" s="27"/>
+      <c r="C676" s="21"/>
       <c r="D676" s="12"/>
       <c r="E676" s="24"/>
       <c r="F676" s="24"/>
     </row>
     <row r="677" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B677" s="26">
+      <c r="B677" s="28"/>
+      <c r="C677" s="22"/>
+      <c r="D677" s="12"/>
+      <c r="E677" s="24"/>
+      <c r="F677" s="24"/>
+    </row>
+    <row r="678" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B678" s="26">
         <v>22</v>
       </c>
-      <c r="C677" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D677" s="9" t="s">
+      <c r="C678" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D678" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E678" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="E677" s="22" t="s">
+      <c r="F678" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="F677" s="22" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="678" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B678" s="27"/>
-      <c r="C678" s="10"/>
-      <c r="D678" s="9"/>
-      <c r="E678" s="22"/>
-      <c r="F678" s="10"/>
     </row>
     <row r="679" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B679" s="27"/>
       <c r="C679" s="10"/>
       <c r="D679" s="9"/>
-      <c r="E679" s="22"/>
+      <c r="E679" s="19"/>
       <c r="F679" s="10"/>
     </row>
     <row r="680" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B680" s="27"/>
       <c r="C680" s="10"/>
       <c r="D680" s="9"/>
-      <c r="E680" s="22"/>
+      <c r="E680" s="19"/>
       <c r="F680" s="10"/>
     </row>
     <row r="681" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B681" s="27"/>
       <c r="C681" s="10"/>
       <c r="D681" s="9"/>
-      <c r="E681" s="22"/>
+      <c r="E681" s="19"/>
       <c r="F681" s="10"/>
     </row>
     <row r="682" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B682" s="27"/>
       <c r="C682" s="10"/>
       <c r="D682" s="9"/>
-      <c r="E682" s="22"/>
+      <c r="E682" s="19"/>
       <c r="F682" s="10"/>
     </row>
     <row r="683" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B683" s="27"/>
       <c r="C683" s="10"/>
       <c r="D683" s="9"/>
-      <c r="E683" s="22"/>
+      <c r="E683" s="19"/>
       <c r="F683" s="10"/>
     </row>
     <row r="684" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B684" s="27"/>
       <c r="C684" s="10"/>
       <c r="D684" s="9"/>
-      <c r="E684" s="22"/>
+      <c r="E684" s="19"/>
       <c r="F684" s="10"/>
     </row>
     <row r="685" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B685" s="27"/>
       <c r="C685" s="10"/>
       <c r="D685" s="9"/>
-      <c r="E685" s="22"/>
+      <c r="E685" s="19"/>
       <c r="F685" s="10"/>
     </row>
     <row r="686" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B686" s="27"/>
       <c r="C686" s="10"/>
       <c r="D686" s="9"/>
-      <c r="E686" s="22"/>
+      <c r="E686" s="19"/>
       <c r="F686" s="10"/>
     </row>
     <row r="687" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B687" s="27"/>
       <c r="C687" s="10"/>
       <c r="D687" s="9"/>
-      <c r="E687" s="22"/>
+      <c r="E687" s="19"/>
       <c r="F687" s="10"/>
     </row>
     <row r="688" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B688" s="27"/>
       <c r="C688" s="10"/>
       <c r="D688" s="9"/>
-      <c r="E688" s="22"/>
+      <c r="E688" s="19"/>
       <c r="F688" s="10"/>
     </row>
     <row r="689" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B689" s="27"/>
       <c r="C689" s="10"/>
       <c r="D689" s="9"/>
-      <c r="E689" s="22"/>
+      <c r="E689" s="19"/>
       <c r="F689" s="10"/>
     </row>
     <row r="690" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B690" s="27"/>
       <c r="C690" s="10"/>
       <c r="D690" s="9"/>
-      <c r="E690" s="22"/>
+      <c r="E690" s="19"/>
       <c r="F690" s="10"/>
     </row>
     <row r="691" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B691" s="27"/>
       <c r="C691" s="10"/>
       <c r="D691" s="9"/>
-      <c r="E691" s="22"/>
+      <c r="E691" s="19"/>
       <c r="F691" s="10"/>
     </row>
     <row r="692" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B692" s="27"/>
       <c r="C692" s="10"/>
       <c r="D692" s="9"/>
-      <c r="E692" s="22"/>
+      <c r="E692" s="19"/>
       <c r="F692" s="10"/>
     </row>
     <row r="693" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B693" s="27"/>
       <c r="C693" s="10"/>
-      <c r="D693" s="10"/>
-      <c r="E693" s="10"/>
+      <c r="D693" s="9"/>
+      <c r="E693" s="19"/>
       <c r="F693" s="10"/>
     </row>
     <row r="694" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -18048,183 +18092,183 @@
     </row>
     <row r="696" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B696" s="27"/>
-      <c r="C696" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="D696" s="9"/>
-      <c r="E696" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="F696" s="22"/>
+      <c r="C696" s="10"/>
+      <c r="D696" s="10"/>
+      <c r="E696" s="10"/>
+      <c r="F696" s="10"/>
     </row>
     <row r="697" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B697" s="27"/>
-      <c r="C697" s="24"/>
+      <c r="C697" s="15" t="s">
+        <v>219</v>
+      </c>
       <c r="D697" s="9"/>
-      <c r="E697" s="22"/>
-      <c r="F697" s="22"/>
+      <c r="E697" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="F697" s="19"/>
     </row>
     <row r="698" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B698" s="27"/>
       <c r="C698" s="24"/>
       <c r="D698" s="9"/>
-      <c r="E698" s="22"/>
-      <c r="F698" s="22"/>
+      <c r="E698" s="19"/>
+      <c r="F698" s="19"/>
     </row>
     <row r="699" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B699" s="27"/>
       <c r="C699" s="24"/>
       <c r="D699" s="9"/>
-      <c r="E699" s="22"/>
-      <c r="F699" s="22"/>
+      <c r="E699" s="19"/>
+      <c r="F699" s="19"/>
     </row>
     <row r="700" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B700" s="27"/>
       <c r="C700" s="24"/>
       <c r="D700" s="9"/>
-      <c r="E700" s="22"/>
-      <c r="F700" s="22"/>
+      <c r="E700" s="19"/>
+      <c r="F700" s="19"/>
     </row>
     <row r="701" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B701" s="27"/>
       <c r="C701" s="24"/>
       <c r="D701" s="9"/>
-      <c r="E701" s="22"/>
-      <c r="F701" s="22"/>
+      <c r="E701" s="19"/>
+      <c r="F701" s="19"/>
     </row>
     <row r="702" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B702" s="27"/>
       <c r="C702" s="24"/>
       <c r="D702" s="9"/>
-      <c r="E702" s="22"/>
-      <c r="F702" s="22"/>
+      <c r="E702" s="19"/>
+      <c r="F702" s="19"/>
     </row>
     <row r="703" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B703" s="27"/>
       <c r="C703" s="24"/>
       <c r="D703" s="9"/>
-      <c r="E703" s="22"/>
-      <c r="F703" s="22"/>
+      <c r="E703" s="19"/>
+      <c r="F703" s="19"/>
     </row>
     <row r="704" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B704" s="27"/>
       <c r="C704" s="24"/>
       <c r="D704" s="9"/>
-      <c r="E704" s="22"/>
-      <c r="F704" s="22"/>
+      <c r="E704" s="19"/>
+      <c r="F704" s="19"/>
     </row>
     <row r="705" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B705" s="27"/>
       <c r="C705" s="24"/>
       <c r="D705" s="9"/>
-      <c r="E705" s="22"/>
-      <c r="F705" s="22"/>
+      <c r="E705" s="19"/>
+      <c r="F705" s="19"/>
     </row>
     <row r="706" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B706" s="27"/>
       <c r="C706" s="24"/>
       <c r="D706" s="9"/>
-      <c r="E706" s="22"/>
-      <c r="F706" s="22"/>
+      <c r="E706" s="19"/>
+      <c r="F706" s="19"/>
     </row>
     <row r="707" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B707" s="27"/>
       <c r="C707" s="24"/>
       <c r="D707" s="9"/>
-      <c r="E707" s="22"/>
-      <c r="F707" s="22"/>
+      <c r="E707" s="19"/>
+      <c r="F707" s="19"/>
     </row>
     <row r="708" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B708" s="27"/>
       <c r="C708" s="24"/>
       <c r="D708" s="9"/>
-      <c r="E708" s="22"/>
-      <c r="F708" s="22"/>
+      <c r="E708" s="19"/>
+      <c r="F708" s="19"/>
     </row>
     <row r="709" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B709" s="27"/>
       <c r="C709" s="24"/>
       <c r="D709" s="9"/>
-      <c r="E709" s="22"/>
-      <c r="F709" s="22"/>
+      <c r="E709" s="19"/>
+      <c r="F709" s="19"/>
     </row>
     <row r="710" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B710" s="27"/>
       <c r="C710" s="24"/>
       <c r="D710" s="9"/>
-      <c r="E710" s="22"/>
-      <c r="F710" s="22"/>
+      <c r="E710" s="19"/>
+      <c r="F710" s="19"/>
     </row>
     <row r="711" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B711" s="27"/>
       <c r="C711" s="24"/>
       <c r="D711" s="9"/>
-      <c r="E711" s="22"/>
-      <c r="F711" s="22"/>
+      <c r="E711" s="19"/>
+      <c r="F711" s="19"/>
     </row>
     <row r="712" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B712" s="27"/>
       <c r="C712" s="24"/>
       <c r="D712" s="9"/>
-      <c r="E712" s="22"/>
-      <c r="F712" s="22"/>
+      <c r="E712" s="19"/>
+      <c r="F712" s="19"/>
     </row>
     <row r="713" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B713" s="27"/>
       <c r="C713" s="24"/>
       <c r="D713" s="9"/>
-      <c r="E713" s="22"/>
-      <c r="F713" s="22"/>
+      <c r="E713" s="19"/>
+      <c r="F713" s="19"/>
     </row>
     <row r="714" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B714" s="27"/>
-      <c r="C714" s="19"/>
+      <c r="C714" s="24"/>
       <c r="D714" s="9"/>
-      <c r="E714" s="22"/>
-      <c r="F714" s="10"/>
+      <c r="E714" s="19"/>
+      <c r="F714" s="19"/>
     </row>
     <row r="715" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B715" s="27"/>
-      <c r="C715" s="19"/>
+      <c r="C715" s="21"/>
       <c r="D715" s="9"/>
-      <c r="E715" s="22"/>
+      <c r="E715" s="19"/>
       <c r="F715" s="10"/>
     </row>
     <row r="716" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B716" s="27"/>
-      <c r="C716" s="19"/>
+      <c r="C716" s="21"/>
       <c r="D716" s="9"/>
-      <c r="E716" s="22"/>
+      <c r="E716" s="19"/>
       <c r="F716" s="10"/>
     </row>
     <row r="717" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B717" s="27"/>
-      <c r="C717" s="19"/>
+      <c r="C717" s="21"/>
       <c r="D717" s="9"/>
-      <c r="E717" s="22"/>
+      <c r="E717" s="19"/>
       <c r="F717" s="10"/>
     </row>
     <row r="718" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B718" s="28"/>
-      <c r="C718" s="20"/>
+      <c r="B718" s="27"/>
+      <c r="C718" s="21"/>
       <c r="D718" s="9"/>
-      <c r="E718" s="22"/>
+      <c r="E718" s="19"/>
       <c r="F718" s="10"/>
     </row>
     <row r="719" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B719" s="8">
+      <c r="B719" s="28"/>
+      <c r="C719" s="22"/>
+      <c r="D719" s="9"/>
+      <c r="E719" s="19"/>
+      <c r="F719" s="10"/>
+    </row>
+    <row r="720" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B720" s="8">
         <v>17</v>
       </c>
-      <c r="C719" s="10" t="s">
+      <c r="C720" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D719" s="10"/>
-      <c r="E719" s="10"/>
-      <c r="F719" s="10"/>
-    </row>
-    <row r="720" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B720" s="8"/>
-      <c r="C720" s="10"/>
       <c r="D720" s="10"/>
       <c r="E720" s="10"/>
       <c r="F720" s="10"/>
@@ -18258,19 +18302,19 @@
       <c r="F724" s="10"/>
     </row>
     <row r="725" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B725" s="8">
-        <v>18</v>
-      </c>
-      <c r="C725" s="21" t="s">
-        <v>139</v>
-      </c>
+      <c r="B725" s="8"/>
+      <c r="C725" s="10"/>
       <c r="D725" s="10"/>
       <c r="E725" s="10"/>
       <c r="F725" s="10"/>
     </row>
     <row r="726" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B726" s="8"/>
-      <c r="C726" s="10"/>
+      <c r="B726" s="8">
+        <v>18</v>
+      </c>
+      <c r="C726" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="D726" s="10"/>
       <c r="E726" s="10"/>
       <c r="F726" s="10"/>
@@ -18304,164 +18348,165 @@
       <c r="F730" s="10"/>
     </row>
     <row r="731" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B731" s="8">
-        <v>19</v>
-      </c>
-      <c r="C731" s="15" t="s">
-        <v>124</v>
-      </c>
+      <c r="B731" s="8"/>
+      <c r="C731" s="10"/>
       <c r="D731" s="10"/>
       <c r="E731" s="10"/>
       <c r="F731" s="10"/>
     </row>
     <row r="732" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B732" s="8"/>
-      <c r="C732" s="19"/>
+      <c r="B732" s="8">
+        <v>19</v>
+      </c>
+      <c r="C732" s="15" t="s">
+        <v>124</v>
+      </c>
       <c r="D732" s="10"/>
       <c r="E732" s="10"/>
       <c r="F732" s="10"/>
     </row>
     <row r="733" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B733" s="8"/>
-      <c r="C733" s="19"/>
+      <c r="C733" s="21"/>
       <c r="D733" s="10"/>
       <c r="E733" s="10"/>
       <c r="F733" s="10"/>
     </row>
     <row r="734" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B734" s="8"/>
-      <c r="C734" s="19"/>
+      <c r="C734" s="21"/>
       <c r="D734" s="10"/>
       <c r="E734" s="10"/>
       <c r="F734" s="10"/>
     </row>
     <row r="735" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B735" s="8"/>
-      <c r="C735" s="19"/>
+      <c r="C735" s="21"/>
       <c r="D735" s="10"/>
       <c r="E735" s="10"/>
       <c r="F735" s="10"/>
     </row>
     <row r="736" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B736" s="8"/>
-      <c r="C736" s="20"/>
+      <c r="C736" s="21"/>
       <c r="D736" s="10"/>
       <c r="E736" s="10"/>
       <c r="F736" s="10"/>
     </row>
     <row r="737" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B737" s="8"/>
-      <c r="C737" s="18"/>
+      <c r="C737" s="22"/>
       <c r="D737" s="10"/>
       <c r="E737" s="10"/>
       <c r="F737" s="10"/>
     </row>
     <row r="738" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B738" s="8"/>
-      <c r="C738" s="19"/>
+      <c r="C738" s="20"/>
       <c r="D738" s="10"/>
       <c r="E738" s="10"/>
       <c r="F738" s="10"/>
     </row>
     <row r="739" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B739" s="8"/>
-      <c r="C739" s="19"/>
+      <c r="C739" s="21"/>
       <c r="D739" s="10"/>
       <c r="E739" s="10"/>
       <c r="F739" s="10"/>
     </row>
     <row r="740" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B740" s="8"/>
-      <c r="C740" s="19"/>
+      <c r="C740" s="21"/>
       <c r="D740" s="10"/>
       <c r="E740" s="10"/>
       <c r="F740" s="10"/>
     </row>
     <row r="741" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B741" s="8"/>
-      <c r="C741" s="20"/>
+      <c r="C741" s="21"/>
       <c r="D741" s="10"/>
       <c r="E741" s="10"/>
       <c r="F741" s="10"/>
     </row>
     <row r="742" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="C742" s="1" t="s">
+      <c r="B742" s="8"/>
+      <c r="C742" s="22"/>
+      <c r="D742" s="10"/>
+      <c r="E742" s="10"/>
+      <c r="F742" s="10"/>
+    </row>
+    <row r="743" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="C743" s="1" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="743" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="C743" s="5" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="744" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="C744" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="746" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="C746" s="4"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="745" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="C745" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="747" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="C747" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="208">
-    <mergeCell ref="E696:E718"/>
-    <mergeCell ref="F696:F718"/>
-    <mergeCell ref="B677:B718"/>
-    <mergeCell ref="C677:C695"/>
-    <mergeCell ref="D677:D695"/>
-    <mergeCell ref="E677:E695"/>
-    <mergeCell ref="F677:F695"/>
-    <mergeCell ref="F552:F570"/>
-    <mergeCell ref="F594:F612"/>
-    <mergeCell ref="F635:F653"/>
-    <mergeCell ref="F330:F336"/>
-    <mergeCell ref="F337:F355"/>
-    <mergeCell ref="F356:F378"/>
-    <mergeCell ref="F379:F387"/>
-    <mergeCell ref="F388:F396"/>
-    <mergeCell ref="B552:B593"/>
-    <mergeCell ref="C613:C634"/>
-    <mergeCell ref="D613:D634"/>
-    <mergeCell ref="E613:E634"/>
-    <mergeCell ref="F613:F634"/>
-    <mergeCell ref="B594:B634"/>
-    <mergeCell ref="F326:F329"/>
-    <mergeCell ref="E330:E336"/>
-    <mergeCell ref="E337:E355"/>
-    <mergeCell ref="F397:F406"/>
-    <mergeCell ref="F485:F507"/>
-    <mergeCell ref="C162:C169"/>
+    <mergeCell ref="B380:B407"/>
+    <mergeCell ref="B408:B424"/>
+    <mergeCell ref="E697:E719"/>
+    <mergeCell ref="F697:F719"/>
+    <mergeCell ref="B678:B719"/>
+    <mergeCell ref="C678:C696"/>
+    <mergeCell ref="D678:D696"/>
+    <mergeCell ref="E678:E696"/>
+    <mergeCell ref="F678:F696"/>
+    <mergeCell ref="F553:F571"/>
+    <mergeCell ref="F595:F613"/>
+    <mergeCell ref="F636:F654"/>
+    <mergeCell ref="D614:D635"/>
+    <mergeCell ref="E614:E635"/>
+    <mergeCell ref="F614:F635"/>
+    <mergeCell ref="B595:B635"/>
+    <mergeCell ref="D486:D508"/>
+    <mergeCell ref="D509:D514"/>
+    <mergeCell ref="F509:F514"/>
+    <mergeCell ref="C408:C415"/>
+    <mergeCell ref="C416:C424"/>
+    <mergeCell ref="C425:C443"/>
+    <mergeCell ref="C444:C466"/>
+    <mergeCell ref="C467:C485"/>
+    <mergeCell ref="C486:C508"/>
+    <mergeCell ref="C509:C514"/>
     <mergeCell ref="D162:D169"/>
     <mergeCell ref="E162:E169"/>
     <mergeCell ref="F162:F169"/>
-    <mergeCell ref="F407:F414"/>
-    <mergeCell ref="F415:F423"/>
-    <mergeCell ref="F424:F442"/>
-    <mergeCell ref="F443:F465"/>
-    <mergeCell ref="F466:F484"/>
-    <mergeCell ref="E415:E423"/>
-    <mergeCell ref="E424:E442"/>
-    <mergeCell ref="E443:E465"/>
-    <mergeCell ref="E466:E484"/>
-    <mergeCell ref="E356:E378"/>
-    <mergeCell ref="E379:E387"/>
-    <mergeCell ref="E388:E396"/>
-    <mergeCell ref="E397:E406"/>
-    <mergeCell ref="E407:E414"/>
-    <mergeCell ref="D424:D442"/>
-    <mergeCell ref="F84:F86"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="F89:F111"/>
-    <mergeCell ref="F112:F149"/>
-    <mergeCell ref="F150:F157"/>
-    <mergeCell ref="E485:E507"/>
-    <mergeCell ref="E508:E513"/>
-    <mergeCell ref="E719:E724"/>
-    <mergeCell ref="E725:E730"/>
-    <mergeCell ref="E654:E676"/>
-    <mergeCell ref="F654:F676"/>
-    <mergeCell ref="E571:E593"/>
-    <mergeCell ref="F571:F593"/>
+    <mergeCell ref="F408:F415"/>
+    <mergeCell ref="F416:F424"/>
+    <mergeCell ref="F425:F443"/>
+    <mergeCell ref="F444:F466"/>
+    <mergeCell ref="F467:F485"/>
+    <mergeCell ref="E416:E424"/>
+    <mergeCell ref="E425:E443"/>
+    <mergeCell ref="E444:E466"/>
+    <mergeCell ref="E467:E485"/>
+    <mergeCell ref="E356:E379"/>
+    <mergeCell ref="E380:E388"/>
+    <mergeCell ref="E389:E397"/>
+    <mergeCell ref="E398:E407"/>
+    <mergeCell ref="E408:E415"/>
+    <mergeCell ref="D425:D443"/>
+    <mergeCell ref="F330:F336"/>
+    <mergeCell ref="F337:F355"/>
+    <mergeCell ref="F356:F379"/>
+    <mergeCell ref="F380:F388"/>
+    <mergeCell ref="F389:F397"/>
+    <mergeCell ref="F655:F677"/>
+    <mergeCell ref="E572:E594"/>
+    <mergeCell ref="F572:F594"/>
     <mergeCell ref="F158:F161"/>
     <mergeCell ref="F170:F172"/>
     <mergeCell ref="F173:F195"/>
@@ -18473,33 +18518,11 @@
     <mergeCell ref="E326:E329"/>
     <mergeCell ref="F284:F302"/>
     <mergeCell ref="F303:F325"/>
-    <mergeCell ref="D485:D507"/>
-    <mergeCell ref="D508:D513"/>
-    <mergeCell ref="D719:D724"/>
-    <mergeCell ref="D725:D730"/>
-    <mergeCell ref="D330:D336"/>
-    <mergeCell ref="D337:D355"/>
-    <mergeCell ref="D397:D406"/>
-    <mergeCell ref="D407:D414"/>
-    <mergeCell ref="D415:D423"/>
-    <mergeCell ref="D443:D465"/>
-    <mergeCell ref="D466:D484"/>
-    <mergeCell ref="D356:D378"/>
-    <mergeCell ref="D379:D387"/>
-    <mergeCell ref="D388:D396"/>
-    <mergeCell ref="D696:D718"/>
-    <mergeCell ref="F508:F513"/>
-    <mergeCell ref="F719:F724"/>
-    <mergeCell ref="F725:F730"/>
-    <mergeCell ref="E3:E40"/>
-    <mergeCell ref="E41:E78"/>
-    <mergeCell ref="E79:E81"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="E84:E86"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="E89:E111"/>
-    <mergeCell ref="E112:E149"/>
-    <mergeCell ref="E150:E157"/>
+    <mergeCell ref="F326:F329"/>
+    <mergeCell ref="E330:E336"/>
+    <mergeCell ref="E337:E355"/>
+    <mergeCell ref="F398:F407"/>
+    <mergeCell ref="F486:F508"/>
     <mergeCell ref="E158:E161"/>
     <mergeCell ref="E170:E172"/>
     <mergeCell ref="E173:E195"/>
@@ -18512,9 +18535,20 @@
     <mergeCell ref="F41:F78"/>
     <mergeCell ref="F79:F81"/>
     <mergeCell ref="F82:F83"/>
-    <mergeCell ref="D326:D329"/>
-    <mergeCell ref="D158:D161"/>
-    <mergeCell ref="D170:D172"/>
+    <mergeCell ref="F84:F86"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="F89:F111"/>
+    <mergeCell ref="F112:F149"/>
+    <mergeCell ref="F150:F157"/>
+    <mergeCell ref="E3:E40"/>
+    <mergeCell ref="E41:E78"/>
+    <mergeCell ref="E79:E81"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="E84:E86"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="E89:E111"/>
+    <mergeCell ref="E112:E149"/>
+    <mergeCell ref="E150:E157"/>
     <mergeCell ref="D173:D195"/>
     <mergeCell ref="D196:D216"/>
     <mergeCell ref="D217:D241"/>
@@ -18522,6 +18556,23 @@
     <mergeCell ref="D261:D283"/>
     <mergeCell ref="D284:D302"/>
     <mergeCell ref="D303:D325"/>
+    <mergeCell ref="F720:F725"/>
+    <mergeCell ref="F726:F731"/>
+    <mergeCell ref="D720:D725"/>
+    <mergeCell ref="D726:D731"/>
+    <mergeCell ref="D330:D336"/>
+    <mergeCell ref="D337:D355"/>
+    <mergeCell ref="D398:D407"/>
+    <mergeCell ref="D408:D415"/>
+    <mergeCell ref="D416:D424"/>
+    <mergeCell ref="D444:D466"/>
+    <mergeCell ref="D467:D485"/>
+    <mergeCell ref="D356:D379"/>
+    <mergeCell ref="D380:D388"/>
+    <mergeCell ref="D389:D397"/>
+    <mergeCell ref="D697:D719"/>
+    <mergeCell ref="E486:E508"/>
+    <mergeCell ref="E509:E514"/>
     <mergeCell ref="D3:D40"/>
     <mergeCell ref="D41:D78"/>
     <mergeCell ref="D79:D81"/>
@@ -18531,38 +18582,30 @@
     <mergeCell ref="D89:D111"/>
     <mergeCell ref="D112:D149"/>
     <mergeCell ref="D150:D157"/>
-    <mergeCell ref="C407:C414"/>
-    <mergeCell ref="C415:C423"/>
-    <mergeCell ref="C424:C442"/>
-    <mergeCell ref="C443:C465"/>
-    <mergeCell ref="C466:C484"/>
-    <mergeCell ref="C485:C507"/>
-    <mergeCell ref="C508:C513"/>
-    <mergeCell ref="C719:C724"/>
-    <mergeCell ref="C725:C730"/>
-    <mergeCell ref="C552:C570"/>
-    <mergeCell ref="C594:C612"/>
-    <mergeCell ref="C635:C653"/>
-    <mergeCell ref="C654:C676"/>
-    <mergeCell ref="C571:C593"/>
-    <mergeCell ref="C696:C718"/>
+    <mergeCell ref="B3:B40"/>
+    <mergeCell ref="B41:B111"/>
+    <mergeCell ref="B112:B157"/>
+    <mergeCell ref="C720:C725"/>
+    <mergeCell ref="C726:C731"/>
+    <mergeCell ref="C553:C571"/>
+    <mergeCell ref="C595:C613"/>
+    <mergeCell ref="C636:C654"/>
+    <mergeCell ref="C655:C677"/>
+    <mergeCell ref="C572:C594"/>
+    <mergeCell ref="C697:C719"/>
     <mergeCell ref="C284:C302"/>
     <mergeCell ref="C303:C325"/>
     <mergeCell ref="C326:C329"/>
     <mergeCell ref="C330:C336"/>
     <mergeCell ref="C337:C355"/>
-    <mergeCell ref="C356:C378"/>
-    <mergeCell ref="C379:C387"/>
-    <mergeCell ref="C388:C396"/>
-    <mergeCell ref="C397:C406"/>
-    <mergeCell ref="B337:B378"/>
-    <mergeCell ref="B379:B406"/>
-    <mergeCell ref="B407:B423"/>
-    <mergeCell ref="B424:B465"/>
-    <mergeCell ref="B466:B507"/>
-    <mergeCell ref="B508:B513"/>
-    <mergeCell ref="B719:B724"/>
-    <mergeCell ref="B725:B730"/>
+    <mergeCell ref="C356:C379"/>
+    <mergeCell ref="C380:C388"/>
+    <mergeCell ref="C389:C397"/>
+    <mergeCell ref="C398:C407"/>
+    <mergeCell ref="C162:C169"/>
+    <mergeCell ref="B553:B594"/>
+    <mergeCell ref="C614:C635"/>
+    <mergeCell ref="B337:B379"/>
     <mergeCell ref="C3:C40"/>
     <mergeCell ref="C41:C78"/>
     <mergeCell ref="C79:C81"/>
@@ -18572,6 +18615,20 @@
     <mergeCell ref="C89:C111"/>
     <mergeCell ref="C112:C149"/>
     <mergeCell ref="C150:C157"/>
+    <mergeCell ref="B170:B195"/>
+    <mergeCell ref="B196:B241"/>
+    <mergeCell ref="B242:B283"/>
+    <mergeCell ref="B284:B325"/>
+    <mergeCell ref="B326:B336"/>
+    <mergeCell ref="B158:B169"/>
+    <mergeCell ref="B738:B742"/>
+    <mergeCell ref="C738:C742"/>
+    <mergeCell ref="D738:D742"/>
+    <mergeCell ref="B425:B466"/>
+    <mergeCell ref="B467:B508"/>
+    <mergeCell ref="B509:B514"/>
+    <mergeCell ref="B720:B725"/>
+    <mergeCell ref="B726:B731"/>
     <mergeCell ref="C158:C161"/>
     <mergeCell ref="C170:C172"/>
     <mergeCell ref="C173:C195"/>
@@ -18579,39 +18636,33 @@
     <mergeCell ref="C217:C241"/>
     <mergeCell ref="C242:C260"/>
     <mergeCell ref="C261:C283"/>
-    <mergeCell ref="B3:B40"/>
-    <mergeCell ref="B41:B111"/>
-    <mergeCell ref="B112:B157"/>
-    <mergeCell ref="B170:B195"/>
-    <mergeCell ref="B196:B241"/>
-    <mergeCell ref="B242:B283"/>
-    <mergeCell ref="B284:B325"/>
-    <mergeCell ref="B326:B336"/>
-    <mergeCell ref="B158:B169"/>
-    <mergeCell ref="B737:B741"/>
-    <mergeCell ref="C737:C741"/>
-    <mergeCell ref="D737:D741"/>
-    <mergeCell ref="E737:E741"/>
-    <mergeCell ref="F737:F741"/>
-    <mergeCell ref="B514:B551"/>
-    <mergeCell ref="C514:C551"/>
-    <mergeCell ref="D514:D551"/>
-    <mergeCell ref="E514:E551"/>
-    <mergeCell ref="F514:F551"/>
-    <mergeCell ref="B731:B736"/>
-    <mergeCell ref="C731:C736"/>
-    <mergeCell ref="D731:D736"/>
-    <mergeCell ref="E731:E736"/>
-    <mergeCell ref="F731:F736"/>
-    <mergeCell ref="D552:D570"/>
-    <mergeCell ref="E552:E570"/>
-    <mergeCell ref="D594:D612"/>
-    <mergeCell ref="E594:E612"/>
-    <mergeCell ref="D635:D653"/>
-    <mergeCell ref="E635:E653"/>
-    <mergeCell ref="D654:D676"/>
-    <mergeCell ref="B635:B676"/>
-    <mergeCell ref="D571:D593"/>
+    <mergeCell ref="D326:D329"/>
+    <mergeCell ref="D158:D161"/>
+    <mergeCell ref="D170:D172"/>
+    <mergeCell ref="E738:E742"/>
+    <mergeCell ref="F738:F742"/>
+    <mergeCell ref="B515:B552"/>
+    <mergeCell ref="C515:C552"/>
+    <mergeCell ref="D515:D552"/>
+    <mergeCell ref="E515:E552"/>
+    <mergeCell ref="F515:F552"/>
+    <mergeCell ref="B732:B737"/>
+    <mergeCell ref="C732:C737"/>
+    <mergeCell ref="D732:D737"/>
+    <mergeCell ref="E732:E737"/>
+    <mergeCell ref="F732:F737"/>
+    <mergeCell ref="D553:D571"/>
+    <mergeCell ref="E553:E571"/>
+    <mergeCell ref="D595:D613"/>
+    <mergeCell ref="E595:E613"/>
+    <mergeCell ref="D636:D654"/>
+    <mergeCell ref="E636:E654"/>
+    <mergeCell ref="D655:D677"/>
+    <mergeCell ref="B636:B677"/>
+    <mergeCell ref="D572:D594"/>
+    <mergeCell ref="E720:E725"/>
+    <mergeCell ref="E726:E731"/>
+    <mergeCell ref="E655:E677"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18646,11 +18697,11 @@
       <c r="D2" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="22" t="s">
-        <v>183</v>
+      <c r="F2" s="19" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -18696,7 +18747,7 @@
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="29">
+      <c r="B9" s="32">
         <v>2</v>
       </c>
       <c r="C9" s="33" t="s">
@@ -18711,35 +18762,35 @@
       <c r="F9" s="33"/>
     </row>
     <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="29"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="33"/>
       <c r="D10" s="36"/>
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
     </row>
     <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="29"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="33"/>
       <c r="D11" s="36"/>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
     </row>
     <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="29"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="33"/>
       <c r="D12" s="36"/>
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
     </row>
     <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="29"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="33"/>
       <c r="D13" s="36"/>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
     </row>
     <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="29"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="33"/>
       <c r="D14" s="37"/>
       <c r="E14" s="33"/>
@@ -18755,7 +18806,7 @@
       <c r="D15" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="19" t="s">
         <v>78</v>
       </c>
       <c r="F15" s="10"/>
@@ -18796,7 +18847,7 @@
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="29">
+      <c r="B21" s="32">
         <v>4</v>
       </c>
       <c r="C21" s="33" t="s">
@@ -18811,35 +18862,35 @@
       <c r="F21" s="33"/>
     </row>
     <row r="22" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B22" s="29"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="33"/>
       <c r="D22" s="36"/>
       <c r="E22" s="33"/>
       <c r="F22" s="33"/>
     </row>
     <row r="23" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B23" s="29"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="33"/>
       <c r="D23" s="36"/>
       <c r="E23" s="33"/>
       <c r="F23" s="33"/>
     </row>
     <row r="24" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B24" s="29"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="33"/>
       <c r="D24" s="36"/>
       <c r="E24" s="33"/>
       <c r="F24" s="33"/>
     </row>
     <row r="25" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B25" s="29"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="33"/>
       <c r="D25" s="36"/>
       <c r="E25" s="33"/>
       <c r="F25" s="33"/>
     </row>
     <row r="26" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B26" s="29"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="33"/>
       <c r="D26" s="37"/>
       <c r="E26" s="33"/>
@@ -18905,7 +18956,7 @@
       <c r="F33" s="14"/>
     </row>
     <row r="34" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B34" s="30">
+      <c r="B34" s="29">
         <v>6</v>
       </c>
       <c r="C34" s="35" t="s">
@@ -18920,35 +18971,35 @@
       <c r="F34" s="35"/>
     </row>
     <row r="35" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B35" s="31"/>
+      <c r="B35" s="30"/>
       <c r="C35" s="36"/>
       <c r="D35" s="36"/>
       <c r="E35" s="36"/>
       <c r="F35" s="36"/>
     </row>
     <row r="36" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B36" s="31"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="36"/>
       <c r="D36" s="36"/>
       <c r="E36" s="36"/>
       <c r="F36" s="36"/>
     </row>
     <row r="37" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B37" s="31"/>
+      <c r="B37" s="30"/>
       <c r="C37" s="36"/>
       <c r="D37" s="36"/>
       <c r="E37" s="36"/>
       <c r="F37" s="36"/>
     </row>
     <row r="38" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B38" s="31"/>
+      <c r="B38" s="30"/>
       <c r="C38" s="36"/>
       <c r="D38" s="36"/>
       <c r="E38" s="36"/>
       <c r="F38" s="36"/>
     </row>
     <row r="39" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B39" s="32"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="37"/>
       <c r="D39" s="37"/>
       <c r="E39" s="37"/>
@@ -19001,7 +19052,7 @@
       <c r="F45" s="10"/>
     </row>
     <row r="46" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B46" s="30">
+      <c r="B46" s="29">
         <v>8</v>
       </c>
       <c r="C46" s="33" t="s">
@@ -19018,42 +19069,42 @@
       </c>
     </row>
     <row r="47" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B47" s="31"/>
+      <c r="B47" s="30"/>
       <c r="C47" s="33"/>
       <c r="D47" s="36"/>
       <c r="E47" s="33"/>
       <c r="F47" s="33"/>
     </row>
     <row r="48" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B48" s="31"/>
+      <c r="B48" s="30"/>
       <c r="C48" s="33"/>
       <c r="D48" s="36"/>
       <c r="E48" s="33"/>
       <c r="F48" s="33"/>
     </row>
     <row r="49" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B49" s="31"/>
+      <c r="B49" s="30"/>
       <c r="C49" s="33"/>
       <c r="D49" s="36"/>
       <c r="E49" s="33"/>
       <c r="F49" s="33"/>
     </row>
     <row r="50" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B50" s="31"/>
+      <c r="B50" s="30"/>
       <c r="C50" s="33"/>
       <c r="D50" s="36"/>
       <c r="E50" s="33"/>
       <c r="F50" s="33"/>
     </row>
     <row r="51" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B51" s="31"/>
+      <c r="B51" s="30"/>
       <c r="C51" s="33"/>
       <c r="D51" s="36"/>
       <c r="E51" s="33"/>
       <c r="F51" s="33"/>
     </row>
     <row r="52" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B52" s="32"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="33"/>
       <c r="D52" s="37"/>
       <c r="E52" s="33"/>
@@ -19069,10 +19120,10 @@
       <c r="D53" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E53" s="22" t="s">
+      <c r="E53" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F53" s="22" t="s">
+      <c r="F53" s="19" t="s">
         <v>94</v>
       </c>
     </row>
@@ -19119,7 +19170,7 @@
       <c r="F59" s="10"/>
     </row>
     <row r="60" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B60" s="29">
+      <c r="B60" s="32">
         <v>10</v>
       </c>
       <c r="C60" s="33" t="s">
@@ -19134,35 +19185,35 @@
       <c r="F60" s="33"/>
     </row>
     <row r="61" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B61" s="29"/>
+      <c r="B61" s="32"/>
       <c r="C61" s="33"/>
       <c r="D61" s="36"/>
       <c r="E61" s="33"/>
       <c r="F61" s="33"/>
     </row>
     <row r="62" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B62" s="29"/>
+      <c r="B62" s="32"/>
       <c r="C62" s="33"/>
       <c r="D62" s="36"/>
       <c r="E62" s="33"/>
       <c r="F62" s="33"/>
     </row>
     <row r="63" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B63" s="29"/>
+      <c r="B63" s="32"/>
       <c r="C63" s="33"/>
       <c r="D63" s="36"/>
       <c r="E63" s="33"/>
       <c r="F63" s="33"/>
     </row>
     <row r="64" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B64" s="29"/>
+      <c r="B64" s="32"/>
       <c r="C64" s="33"/>
       <c r="D64" s="36"/>
       <c r="E64" s="33"/>
       <c r="F64" s="33"/>
     </row>
     <row r="65" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B65" s="29"/>
+      <c r="B65" s="32"/>
       <c r="C65" s="33"/>
       <c r="D65" s="37"/>
       <c r="E65" s="33"/>
@@ -19437,10 +19488,10 @@
         <v>101</v>
       </c>
       <c r="D20" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>180</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>181</v>
       </c>
       <c r="F20" s="10"/>
     </row>
@@ -19551,7 +19602,7 @@
       <c r="F34" s="58"/>
     </row>
     <row r="35" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B35" s="29">
+      <c r="B35" s="32">
         <v>7</v>
       </c>
       <c r="C35" s="41" t="s">
@@ -19568,56 +19619,56 @@
       </c>
     </row>
     <row r="36" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B36" s="29"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="39"/>
       <c r="D36" s="33"/>
       <c r="E36" s="62"/>
       <c r="F36" s="33"/>
     </row>
     <row r="37" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B37" s="29"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="39"/>
       <c r="D37" s="33"/>
       <c r="E37" s="62"/>
       <c r="F37" s="33"/>
     </row>
     <row r="38" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B38" s="29"/>
+      <c r="B38" s="32"/>
       <c r="C38" s="39"/>
       <c r="D38" s="33"/>
       <c r="E38" s="62"/>
       <c r="F38" s="33"/>
     </row>
     <row r="39" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B39" s="29"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="39"/>
       <c r="D39" s="33"/>
       <c r="E39" s="62"/>
       <c r="F39" s="33"/>
     </row>
     <row r="40" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B40" s="29"/>
+      <c r="B40" s="32"/>
       <c r="C40" s="39"/>
       <c r="D40" s="33"/>
       <c r="E40" s="62"/>
       <c r="F40" s="33"/>
     </row>
     <row r="41" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B41" s="29"/>
+      <c r="B41" s="32"/>
       <c r="C41" s="39"/>
       <c r="D41" s="33"/>
       <c r="E41" s="62"/>
       <c r="F41" s="33"/>
     </row>
     <row r="42" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B42" s="29"/>
+      <c r="B42" s="32"/>
       <c r="C42" s="39"/>
       <c r="D42" s="33"/>
       <c r="E42" s="62"/>
       <c r="F42" s="33"/>
     </row>
     <row r="43" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B43" s="29"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="40"/>
       <c r="D43" s="33"/>
       <c r="E43" s="37"/>
@@ -19635,47 +19686,47 @@
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="63" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B45" s="8"/>
-      <c r="C45" s="19"/>
+      <c r="C45" s="21"/>
       <c r="D45" s="10"/>
       <c r="E45" s="13"/>
       <c r="F45" s="10"/>
     </row>
     <row r="46" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B46" s="8"/>
-      <c r="C46" s="19"/>
+      <c r="C46" s="21"/>
       <c r="D46" s="10"/>
       <c r="E46" s="13"/>
       <c r="F46" s="10"/>
     </row>
     <row r="47" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B47" s="8"/>
-      <c r="C47" s="19"/>
+      <c r="C47" s="21"/>
       <c r="D47" s="10"/>
       <c r="E47" s="13"/>
       <c r="F47" s="10"/>
     </row>
     <row r="48" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B48" s="8"/>
-      <c r="C48" s="19"/>
+      <c r="C48" s="21"/>
       <c r="D48" s="10"/>
       <c r="E48" s="13"/>
       <c r="F48" s="10"/>
     </row>
     <row r="49" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B49" s="8"/>
-      <c r="C49" s="19"/>
+      <c r="C49" s="21"/>
       <c r="D49" s="10"/>
       <c r="E49" s="13"/>
       <c r="F49" s="10"/>
     </row>
     <row r="50" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B50" s="8"/>
-      <c r="C50" s="20"/>
+      <c r="C50" s="22"/>
       <c r="D50" s="10"/>
       <c r="E50" s="14"/>
       <c r="F50" s="10"/>
@@ -19780,7 +19831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F143"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -19802,47 +19853,47 @@
         <v>110</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="E2" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>182</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="8"/>
       <c r="C3" s="10"/>
-      <c r="D3" s="19"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="8"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="19"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="8"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="19"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
     </row>
     <row r="6" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="8"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="19"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="8"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="20"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
     </row>
@@ -19854,45 +19905,45 @@
         <v>111</v>
       </c>
       <c r="D8" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>185</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>186</v>
       </c>
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="8"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="19"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
     </row>
     <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="8"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="19"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="8"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="19"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
     <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="8"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="19"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="8"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="20"/>
+      <c r="D13" s="22"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
@@ -19904,68 +19955,68 @@
         <v>112</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>227</v>
+        <v>195</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="8"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="19"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="8"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="19"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="8"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="19"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B18" s="8"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="19"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B19" s="8"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="19"/>
+      <c r="D19" s="21"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="8"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="19"/>
+      <c r="D20" s="21"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="8"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="19"/>
+      <c r="D21" s="21"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="8"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="20"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
     </row>
@@ -19974,71 +20025,71 @@
         <v>4</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>226</v>
+        <v>196</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B24" s="8"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="19"/>
+      <c r="D24" s="21"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
     </row>
     <row r="25" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B25" s="8"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="19"/>
+      <c r="D25" s="21"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B26" s="8"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="19"/>
+      <c r="D26" s="21"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B27" s="8"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="19"/>
+      <c r="D27" s="21"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
     </row>
     <row r="28" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B28" s="8"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="19"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B29" s="8"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="19"/>
+      <c r="D29" s="21"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
     </row>
     <row r="30" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B30" s="8"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="19"/>
+      <c r="D30" s="21"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
     </row>
     <row r="31" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B31" s="8"/>
       <c r="C31" s="10"/>
-      <c r="D31" s="19"/>
+      <c r="D31" s="21"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
     </row>
@@ -20050,45 +20101,45 @@
         <v>113</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>200</v>
+        <v>197</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="F32" s="10"/>
     </row>
     <row r="33" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B33" s="8"/>
       <c r="C33" s="10"/>
-      <c r="D33" s="19"/>
+      <c r="D33" s="21"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
     </row>
     <row r="34" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B34" s="8"/>
       <c r="C34" s="10"/>
-      <c r="D34" s="19"/>
+      <c r="D34" s="21"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
     </row>
     <row r="35" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B35" s="8"/>
       <c r="C35" s="10"/>
-      <c r="D35" s="19"/>
+      <c r="D35" s="21"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
     </row>
     <row r="36" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B36" s="8"/>
       <c r="C36" s="10"/>
-      <c r="D36" s="19"/>
+      <c r="D36" s="21"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
     </row>
     <row r="37" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B37" s="8"/>
       <c r="C37" s="10"/>
-      <c r="D37" s="20"/>
+      <c r="D37" s="22"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
     </row>
@@ -20100,45 +20151,45 @@
         <v>114</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="E38" s="22" t="s">
         <v>187</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="F38" s="10"/>
     </row>
     <row r="39" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B39" s="8"/>
       <c r="C39" s="10"/>
-      <c r="D39" s="19"/>
+      <c r="D39" s="21"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
     </row>
     <row r="40" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B40" s="8"/>
       <c r="C40" s="10"/>
-      <c r="D40" s="19"/>
+      <c r="D40" s="21"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
     </row>
     <row r="41" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B41" s="8"/>
       <c r="C41" s="10"/>
-      <c r="D41" s="19"/>
+      <c r="D41" s="21"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
     </row>
     <row r="42" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B42" s="8"/>
       <c r="C42" s="10"/>
-      <c r="D42" s="19"/>
+      <c r="D42" s="21"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
     </row>
     <row r="43" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B43" s="8"/>
       <c r="C43" s="10"/>
-      <c r="D43" s="20"/>
+      <c r="D43" s="22"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
     </row>
@@ -20150,45 +20201,45 @@
         <v>115</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="E44" s="22" t="s">
-        <v>192</v>
+        <v>188</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>191</v>
       </c>
       <c r="F44" s="10"/>
     </row>
     <row r="45" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B45" s="8"/>
       <c r="C45" s="10"/>
-      <c r="D45" s="19"/>
+      <c r="D45" s="21"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
     </row>
     <row r="46" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B46" s="8"/>
       <c r="C46" s="10"/>
-      <c r="D46" s="19"/>
+      <c r="D46" s="21"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
     </row>
     <row r="47" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B47" s="8"/>
       <c r="C47" s="10"/>
-      <c r="D47" s="19"/>
+      <c r="D47" s="21"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
     </row>
     <row r="48" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B48" s="8"/>
       <c r="C48" s="10"/>
-      <c r="D48" s="19"/>
+      <c r="D48" s="21"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
     </row>
     <row r="49" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B49" s="8"/>
       <c r="C49" s="10"/>
-      <c r="D49" s="20"/>
+      <c r="D49" s="22"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
     </row>
@@ -20197,48 +20248,48 @@
         <v>8</v>
       </c>
       <c r="C50" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D50" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="D50" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>193</v>
+      <c r="E50" s="19" t="s">
+        <v>192</v>
       </c>
       <c r="F50" s="10"/>
     </row>
     <row r="51" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B51" s="8"/>
       <c r="C51" s="10"/>
-      <c r="D51" s="19"/>
+      <c r="D51" s="21"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
     </row>
     <row r="52" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B52" s="8"/>
       <c r="C52" s="10"/>
-      <c r="D52" s="19"/>
+      <c r="D52" s="21"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
     </row>
     <row r="53" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B53" s="8"/>
       <c r="C53" s="10"/>
-      <c r="D53" s="19"/>
+      <c r="D53" s="21"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
     </row>
     <row r="54" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B54" s="8"/>
       <c r="C54" s="10"/>
-      <c r="D54" s="19"/>
+      <c r="D54" s="21"/>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
     </row>
     <row r="55" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B55" s="8"/>
       <c r="C55" s="10"/>
-      <c r="D55" s="20"/>
+      <c r="D55" s="22"/>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
     </row>
@@ -20247,14 +20298,14 @@
         <v>9</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E56" s="10"/>
-      <c r="F56" s="22" t="s">
-        <v>225</v>
+      <c r="F56" s="19" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -20353,61 +20404,61 @@
         <v>10</v>
       </c>
       <c r="C70" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="E70" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="D70" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="E70" s="25" t="s">
-        <v>203</v>
-      </c>
       <c r="F70" s="25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="71" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B71" s="27"/>
       <c r="C71" s="14"/>
-      <c r="D71" s="19"/>
+      <c r="D71" s="21"/>
       <c r="E71" s="14"/>
       <c r="F71" s="14"/>
     </row>
     <row r="72" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B72" s="27"/>
       <c r="C72" s="10"/>
-      <c r="D72" s="19"/>
+      <c r="D72" s="21"/>
       <c r="E72" s="10"/>
       <c r="F72" s="10"/>
     </row>
     <row r="73" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B73" s="27"/>
       <c r="C73" s="10"/>
-      <c r="D73" s="19"/>
+      <c r="D73" s="21"/>
       <c r="E73" s="10"/>
       <c r="F73" s="10"/>
     </row>
     <row r="74" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B74" s="27"/>
       <c r="C74" s="10"/>
-      <c r="D74" s="19"/>
+      <c r="D74" s="21"/>
       <c r="E74" s="10"/>
       <c r="F74" s="10"/>
     </row>
     <row r="75" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B75" s="27"/>
       <c r="C75" s="10"/>
-      <c r="D75" s="20"/>
+      <c r="D75" s="22"/>
       <c r="E75" s="10"/>
       <c r="F75" s="10"/>
     </row>
     <row r="76" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B76" s="27"/>
       <c r="C76" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D76" s="24"/>
       <c r="E76" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F76" s="25"/>
     </row>
@@ -20455,36 +20506,36 @@
     </row>
     <row r="83" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B83" s="27"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
       <c r="E83" s="14"/>
       <c r="F83" s="14"/>
     </row>
     <row r="84" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B84" s="27"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
       <c r="E84" s="10"/>
       <c r="F84" s="10"/>
     </row>
     <row r="85" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B85" s="27"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
       <c r="E85" s="10"/>
       <c r="F85" s="10"/>
     </row>
     <row r="86" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B86" s="27"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="19"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
       <c r="E86" s="10"/>
       <c r="F86" s="10"/>
     </row>
     <row r="87" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B87" s="28"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="20"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
       <c r="E87" s="10"/>
       <c r="F87" s="10"/>
     </row>
@@ -20496,68 +20547,68 @@
         <v>116</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="E88" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="F88" s="22" t="s">
-        <v>206</v>
+        <v>209</v>
+      </c>
+      <c r="E88" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="F88" s="19" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="89" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B89" s="8"/>
       <c r="C89" s="10"/>
-      <c r="D89" s="19"/>
+      <c r="D89" s="21"/>
       <c r="E89" s="10"/>
       <c r="F89" s="10"/>
     </row>
     <row r="90" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B90" s="8"/>
       <c r="C90" s="10"/>
-      <c r="D90" s="19"/>
+      <c r="D90" s="21"/>
       <c r="E90" s="10"/>
       <c r="F90" s="10"/>
     </row>
     <row r="91" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B91" s="8"/>
       <c r="C91" s="10"/>
-      <c r="D91" s="19"/>
+      <c r="D91" s="21"/>
       <c r="E91" s="10"/>
       <c r="F91" s="10"/>
     </row>
     <row r="92" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B92" s="8"/>
       <c r="C92" s="10"/>
-      <c r="D92" s="19"/>
+      <c r="D92" s="21"/>
       <c r="E92" s="10"/>
       <c r="F92" s="10"/>
     </row>
     <row r="93" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B93" s="8"/>
       <c r="C93" s="10"/>
-      <c r="D93" s="19"/>
+      <c r="D93" s="21"/>
       <c r="E93" s="10"/>
       <c r="F93" s="10"/>
     </row>
     <row r="94" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B94" s="8"/>
       <c r="C94" s="10"/>
-      <c r="D94" s="19"/>
+      <c r="D94" s="21"/>
       <c r="E94" s="10"/>
       <c r="F94" s="10"/>
     </row>
     <row r="95" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B95" s="8"/>
       <c r="C95" s="10"/>
-      <c r="D95" s="19"/>
+      <c r="D95" s="21"/>
       <c r="E95" s="10"/>
       <c r="F95" s="10"/>
     </row>
     <row r="96" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B96" s="8"/>
       <c r="C96" s="10"/>
-      <c r="D96" s="20"/>
+      <c r="D96" s="22"/>
       <c r="E96" s="10"/>
       <c r="F96" s="10"/>
     </row>
@@ -20566,111 +20617,111 @@
         <v>12</v>
       </c>
       <c r="C97" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E97" s="10"/>
-      <c r="F97" s="22" t="s">
-        <v>223</v>
+      <c r="F97" s="19" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="98" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B98" s="8"/>
-      <c r="C98" s="19"/>
+      <c r="C98" s="21"/>
       <c r="D98" s="24"/>
       <c r="E98" s="10"/>
-      <c r="F98" s="22"/>
+      <c r="F98" s="19"/>
     </row>
     <row r="99" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B99" s="8"/>
-      <c r="C99" s="19"/>
+      <c r="C99" s="21"/>
       <c r="D99" s="24"/>
       <c r="E99" s="10"/>
-      <c r="F99" s="22"/>
+      <c r="F99" s="19"/>
     </row>
     <row r="100" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B100" s="8"/>
-      <c r="C100" s="19"/>
+      <c r="C100" s="21"/>
       <c r="D100" s="24"/>
       <c r="E100" s="10"/>
-      <c r="F100" s="22"/>
+      <c r="F100" s="19"/>
     </row>
     <row r="101" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B101" s="8"/>
-      <c r="C101" s="19"/>
+      <c r="C101" s="21"/>
       <c r="D101" s="24"/>
       <c r="E101" s="10"/>
-      <c r="F101" s="22"/>
+      <c r="F101" s="19"/>
     </row>
     <row r="102" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B102" s="8"/>
-      <c r="C102" s="19"/>
+      <c r="C102" s="21"/>
       <c r="D102" s="24"/>
       <c r="E102" s="10"/>
-      <c r="F102" s="22"/>
+      <c r="F102" s="19"/>
     </row>
     <row r="103" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B103" s="8"/>
-      <c r="C103" s="19"/>
+      <c r="C103" s="21"/>
       <c r="D103" s="24"/>
       <c r="E103" s="10"/>
-      <c r="F103" s="22"/>
+      <c r="F103" s="19"/>
     </row>
     <row r="104" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B104" s="8"/>
-      <c r="C104" s="19"/>
+      <c r="C104" s="21"/>
       <c r="D104" s="24"/>
       <c r="E104" s="10"/>
-      <c r="F104" s="22"/>
+      <c r="F104" s="19"/>
     </row>
     <row r="105" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B105" s="8"/>
-      <c r="C105" s="19"/>
+      <c r="C105" s="21"/>
       <c r="D105" s="24"/>
       <c r="E105" s="10"/>
-      <c r="F105" s="22"/>
+      <c r="F105" s="19"/>
     </row>
     <row r="106" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B106" s="8"/>
-      <c r="C106" s="19"/>
+      <c r="C106" s="21"/>
       <c r="D106" s="24"/>
       <c r="E106" s="10"/>
-      <c r="F106" s="22"/>
+      <c r="F106" s="19"/>
     </row>
     <row r="107" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B107" s="8"/>
-      <c r="C107" s="19"/>
+      <c r="C107" s="21"/>
       <c r="D107" s="24"/>
       <c r="E107" s="10"/>
-      <c r="F107" s="22"/>
+      <c r="F107" s="19"/>
     </row>
     <row r="108" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B108" s="8"/>
-      <c r="C108" s="19"/>
+      <c r="C108" s="21"/>
       <c r="D108" s="24"/>
       <c r="E108" s="10"/>
-      <c r="F108" s="22"/>
+      <c r="F108" s="19"/>
     </row>
     <row r="109" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B109" s="8"/>
-      <c r="C109" s="19"/>
+      <c r="C109" s="21"/>
       <c r="D109" s="24"/>
       <c r="E109" s="10"/>
-      <c r="F109" s="22"/>
+      <c r="F109" s="19"/>
     </row>
     <row r="110" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B110" s="8"/>
-      <c r="C110" s="19"/>
+      <c r="C110" s="21"/>
       <c r="D110" s="24"/>
       <c r="E110" s="10"/>
-      <c r="F110" s="22"/>
+      <c r="F110" s="19"/>
     </row>
     <row r="111" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B111" s="8"/>
-      <c r="C111" s="20"/>
-      <c r="D111" s="20"/>
+      <c r="C111" s="22"/>
+      <c r="D111" s="22"/>
       <c r="E111" s="10"/>
       <c r="F111" s="10"/>
     </row>
@@ -20679,64 +20730,64 @@
         <v>13</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="E112" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="F112" s="22" t="s">
-        <v>224</v>
+        <v>212</v>
+      </c>
+      <c r="E112" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="F112" s="19" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="113" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B113" s="8"/>
       <c r="C113" s="10"/>
-      <c r="D113" s="19"/>
+      <c r="D113" s="21"/>
       <c r="E113" s="10"/>
       <c r="F113" s="10"/>
     </row>
     <row r="114" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B114" s="8"/>
       <c r="C114" s="10"/>
-      <c r="D114" s="19"/>
+      <c r="D114" s="21"/>
       <c r="E114" s="10"/>
       <c r="F114" s="10"/>
     </row>
     <row r="115" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B115" s="8"/>
       <c r="C115" s="10"/>
-      <c r="D115" s="19"/>
+      <c r="D115" s="21"/>
       <c r="E115" s="10"/>
       <c r="F115" s="10"/>
     </row>
     <row r="116" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B116" s="8"/>
       <c r="C116" s="10"/>
-      <c r="D116" s="19"/>
+      <c r="D116" s="21"/>
       <c r="E116" s="10"/>
       <c r="F116" s="10"/>
     </row>
     <row r="117" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B117" s="8"/>
       <c r="C117" s="10"/>
-      <c r="D117" s="19"/>
+      <c r="D117" s="21"/>
       <c r="E117" s="10"/>
       <c r="F117" s="10"/>
     </row>
     <row r="118" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B118" s="8"/>
       <c r="C118" s="10"/>
-      <c r="D118" s="19"/>
+      <c r="D118" s="21"/>
       <c r="E118" s="10"/>
       <c r="F118" s="10"/>
     </row>
     <row r="119" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B119" s="8"/>
       <c r="C119" s="10"/>
-      <c r="D119" s="20"/>
+      <c r="D119" s="22"/>
       <c r="E119" s="10"/>
       <c r="F119" s="10"/>
     </row>
@@ -20750,35 +20801,35 @@
     <row r="121" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B121" s="8"/>
       <c r="C121" s="10"/>
-      <c r="D121" s="19"/>
+      <c r="D121" s="21"/>
       <c r="E121" s="10"/>
       <c r="F121" s="10"/>
     </row>
     <row r="122" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B122" s="8"/>
       <c r="C122" s="10"/>
-      <c r="D122" s="19"/>
+      <c r="D122" s="21"/>
       <c r="E122" s="10"/>
       <c r="F122" s="10"/>
     </row>
     <row r="123" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B123" s="8"/>
       <c r="C123" s="10"/>
-      <c r="D123" s="19"/>
+      <c r="D123" s="21"/>
       <c r="E123" s="10"/>
       <c r="F123" s="10"/>
     </row>
     <row r="124" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B124" s="8"/>
       <c r="C124" s="10"/>
-      <c r="D124" s="19"/>
+      <c r="D124" s="21"/>
       <c r="E124" s="10"/>
       <c r="F124" s="10"/>
     </row>
     <row r="125" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B125" s="8"/>
       <c r="C125" s="10"/>
-      <c r="D125" s="20"/>
+      <c r="D125" s="22"/>
       <c r="E125" s="10"/>
       <c r="F125" s="10"/>
     </row>
@@ -20792,35 +20843,35 @@
     <row r="127" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B127" s="8"/>
       <c r="C127" s="10"/>
-      <c r="D127" s="19"/>
+      <c r="D127" s="21"/>
       <c r="E127" s="10"/>
       <c r="F127" s="10"/>
     </row>
     <row r="128" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B128" s="8"/>
       <c r="C128" s="10"/>
-      <c r="D128" s="19"/>
+      <c r="D128" s="21"/>
       <c r="E128" s="10"/>
       <c r="F128" s="10"/>
     </row>
     <row r="129" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B129" s="8"/>
       <c r="C129" s="10"/>
-      <c r="D129" s="19"/>
+      <c r="D129" s="21"/>
       <c r="E129" s="10"/>
       <c r="F129" s="10"/>
     </row>
     <row r="130" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B130" s="8"/>
       <c r="C130" s="10"/>
-      <c r="D130" s="19"/>
+      <c r="D130" s="21"/>
       <c r="E130" s="10"/>
       <c r="F130" s="10"/>
     </row>
     <row r="131" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B131" s="8"/>
       <c r="C131" s="10"/>
-      <c r="D131" s="20"/>
+      <c r="D131" s="22"/>
       <c r="E131" s="10"/>
       <c r="F131" s="10"/>
     </row>
@@ -20834,35 +20885,35 @@
     <row r="133" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B133" s="8"/>
       <c r="C133" s="10"/>
-      <c r="D133" s="19"/>
+      <c r="D133" s="21"/>
       <c r="E133" s="10"/>
       <c r="F133" s="10"/>
     </row>
     <row r="134" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B134" s="8"/>
       <c r="C134" s="10"/>
-      <c r="D134" s="19"/>
+      <c r="D134" s="21"/>
       <c r="E134" s="10"/>
       <c r="F134" s="10"/>
     </row>
     <row r="135" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B135" s="8"/>
       <c r="C135" s="10"/>
-      <c r="D135" s="19"/>
+      <c r="D135" s="21"/>
       <c r="E135" s="10"/>
       <c r="F135" s="10"/>
     </row>
     <row r="136" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B136" s="8"/>
       <c r="C136" s="10"/>
-      <c r="D136" s="19"/>
+      <c r="D136" s="21"/>
       <c r="E136" s="10"/>
       <c r="F136" s="10"/>
     </row>
     <row r="137" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B137" s="8"/>
       <c r="C137" s="10"/>
-      <c r="D137" s="20"/>
+      <c r="D137" s="22"/>
       <c r="E137" s="10"/>
       <c r="F137" s="10"/>
     </row>
@@ -20876,35 +20927,35 @@
     <row r="139" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B139" s="8"/>
       <c r="C139" s="10"/>
-      <c r="D139" s="19"/>
+      <c r="D139" s="21"/>
       <c r="E139" s="10"/>
       <c r="F139" s="10"/>
     </row>
     <row r="140" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B140" s="8"/>
       <c r="C140" s="10"/>
-      <c r="D140" s="19"/>
+      <c r="D140" s="21"/>
       <c r="E140" s="10"/>
       <c r="F140" s="10"/>
     </row>
     <row r="141" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B141" s="8"/>
       <c r="C141" s="10"/>
-      <c r="D141" s="19"/>
+      <c r="D141" s="21"/>
       <c r="E141" s="10"/>
       <c r="F141" s="10"/>
     </row>
     <row r="142" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B142" s="8"/>
       <c r="C142" s="10"/>
-      <c r="D142" s="19"/>
+      <c r="D142" s="21"/>
       <c r="E142" s="10"/>
       <c r="F142" s="10"/>
     </row>
     <row r="143" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B143" s="8"/>
       <c r="C143" s="10"/>
-      <c r="D143" s="20"/>
+      <c r="D143" s="22"/>
       <c r="E143" s="10"/>
       <c r="F143" s="10"/>
     </row>

--- a/docs/接口文档/tetris-zoom/新平台云会议业务接口.xlsx
+++ b/docs/接口文档/tetris-zoom/新平台云会议业务接口.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="235">
   <si>
     <t>序号</t>
   </si>
@@ -368,33 +368,6 @@
   </si>
   <si>
     <t>/tetris-zoom/api/zoom/android/message/private/letters</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>数据类型：formdata</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Long myZoomMemberId 消息发送者成员id
-JSONString targetZoomMemberId 消息发送目标成员id列表
-String message 消息内容</t>
-    </r>
   </si>
   <si>
     <r>
@@ -9571,48 +9544,6 @@
   </si>
   <si>
     <r>
-      <t>/tetris-zoom/api/zoom/android</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/close/video</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>数据类型：formdata</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Long myZoomMemberId 会议成员id</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
@@ -10839,131 +10770,6 @@
   </si>
   <si>
     <t>websocket通知成员关闭视频</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{
-    targetId:"消息目标用户id",
-    businessId:"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>zoomCloseVideo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">",
-    content:{
-        id:"会议成员id",
-        uuid:"会议成员uuid",
-        updateTime:"会议成员创建时间，格式：yyyy-MM-dd hh:ss:mm" ,
-        userId:"用户id",
-        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>userno:"用户号码",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-        userNickname:"用户昵称",
-        rename:"入会名称",  
-        tourist:"是否是游客" ,
-        zoomId:"会议id",
-        chairman:"是否是主席" ,
-        spokesman:"是否是发言人" ,
-        join:"是否加入会议",
-        myAudio:"是否开启自己音频",
-        myVideo:"是否开启自己视频" ,
-        theirAudio:"是否接收音频", 
-        theirVideo:"是否接收视频",
-        shareScreen:"是否开启共享屏幕",
-        bundleId:"设备id",
-        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>layerId:"接入id",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-        videoChannelId:"视频通道id",
-        audioChannelId:"音频通道id",
-        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">screenVideoChannelId:"屏幕视频通道id",
-        screenAudioChannelId:"屏幕音频通道id",
-        type:"TERMINl|JV220"  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  
-    },
-    fromId:"消息发送者id",
-    fromName:"消息发送者名称"
-}</t>
-    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -11471,6 +11277,496 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
+    fromId:"消息发送者id",
+    fromName:"消息发送者名称"
+}</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据类型：formdata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Long myZoomMemberId 消息发送者成员id
+JSONString targetZoomMemberIds 消息发送目标成员id列表
+String message 消息内容</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议成员修改入会名称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>websocket通知会议成员修改入会名称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/tetris-zoom/api/zoom/android</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/close/video</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/tetris-zoom/api/zoom/android/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rename</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据类型：formdata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Long myZoomMemberId 会议成员id</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">数据类型：formdata
+Long </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>myZoomMemberId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 会议成员id
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">String rename </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>重命名</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据类型：json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+{
+    id:"会议成员id",
+    uuid:"会议成员uuid",
+    updateTime:"会议成员创建时间，格式：yyyy-MM-dd hh:ss:mm" ,
+    userId:"用户id",
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> userno:"用户号码",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    userNickname:"用户昵称",
+    rename:"入会名称",  
+    tourist:"是否是游客" ,
+    zoomId:"会议id",
+    chairman:"是否是主席" ,
+    spokesman:"是否是发言人" ,
+    join:"是否加入会议",
+    myAudio:"是否开启自己音频",
+    myVideo:"是否开启自己视频" ,
+    theirAudio:"是否接收音频", 
+    theirVideo:"是否接收视频",
+    shareScreen:"是否开启共享屏幕",
+    bundleId:"设备id",
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>layerId:"接入id",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    videoChannelId:"视频通道id",
+    audioChannelId:"音频通道id",
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> screenVideoChannelId:"屏幕视频通道id",
+    screenAudioChannelId:"屏幕音频通道id",
+    type:"TERMINl|JV220"   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+}</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    targetId:"消息目标用户id",
+    businessId:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zoomCloseVideo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">",
+    content:{
+        id:"会议成员id",
+        uuid:"会议成员uuid",
+        updateTime:"会议成员创建时间，格式：yyyy-MM-dd hh:ss:mm" ,
+        userId:"用户id",
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>userno:"用户号码",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        userNickname:"用户昵称",
+        rename:"入会名称",  
+        tourist:"是否是游客" ,
+        zoomId:"会议id",
+        chairman:"是否是主席" ,
+        spokesman:"是否是发言人" ,
+        join:"是否加入会议",
+        myAudio:"是否开启自己音频",
+        myVideo:"是否开启自己视频" ,
+        theirAudio:"是否接收音频", 
+        theirVideo:"是否接收视频",
+        shareScreen:"是否开启共享屏幕",
+        bundleId:"设备id",
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>layerId:"接入id",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        videoChannelId:"视频通道id",
+        audioChannelId:"音频通道id",
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">screenVideoChannelId:"屏幕视频通道id",
+        screenAudioChannelId:"屏幕音频通道id",
+        type:"TERMINl|JV220"  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  
+    },
+    fromId:"消息发送者id",
+    fromName:"消息发送者名称"
+}</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+    targetId:"消息目标用户id",
+    businessId:"zoomMemberRename",
+    content:{
+        id:"会议成员id",
+        uuid:"会议成员uuid",
+        updateTime:"会议成员创建时间，格式：yyyy-MM-dd hh:ss:mm" ,
+        userId:"用户id",
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>userno:"用户号码",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        userNickname:"用户昵称",
+        rename:"入会名称",  
+        tourist:"是否是游客" ,
+        zoomId:"会议id",
+        chairman:"是否是主席" ,
+        spokesman:"是否是发言人" ,
+        join:"是否加入会议",
+        myAudio:"是否开启自己音频",
+        myVideo:"是否开启自己视频" ,
+        theirAudio:"是否接收音频", 
+        theirVideo:"是否接收视频",
+        shareScreen:"是否开启共享屏幕",
+        bundleId:"设备id",
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>layerId:"接入id",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        videoChannelId:"视频通道id",
+        audioChannelId:"音频通道id",
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">screenVideoChannelId:"屏幕视频通道id",
+        screenAudioChannelId:"屏幕音频通道id",
+        type:"TERMINl|JV220" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   
+    },
     fromId:"消息发送者id",
     fromName:"消息发送者名称"
 }</t>
@@ -11570,7 +11866,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11592,6 +11888,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11660,7 +11962,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -11761,6 +12063,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -11776,40 +12090,28 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -11849,6 +12151,24 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -12172,16 +12492,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -12224,14 +12544,14 @@
         <v>2</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -12922,10 +13242,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F747"/>
+  <dimension ref="B1:F789"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A349" workbookViewId="0">
-      <selection activeCell="E356" sqref="E356:E379"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A720" workbookViewId="0">
+      <selection activeCell="E697" sqref="E697:E719"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -12967,11 +13287,11 @@
       <c r="D3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>139</v>
+      <c r="E3" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -13244,10 +13564,10 @@
         <v>8</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="F41" s="50" t="s">
-        <v>140</v>
+        <v>116</v>
+      </c>
+      <c r="F41" s="46" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -13511,7 +13831,7 @@
     </row>
     <row r="79" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B79" s="27"/>
-      <c r="C79" s="34" t="s">
+      <c r="C79" s="38" t="s">
         <v>10</v>
       </c>
       <c r="D79" s="10" t="s">
@@ -13556,7 +13876,7 @@
     </row>
     <row r="84" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B84" s="27"/>
-      <c r="C84" s="34" t="s">
+      <c r="C84" s="38" t="s">
         <v>15</v>
       </c>
       <c r="D84" s="17" t="s">
@@ -13601,12 +13921,12 @@
     </row>
     <row r="89" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B89" s="27"/>
-      <c r="C89" s="34" t="s">
+      <c r="C89" s="38" t="s">
         <v>20</v>
       </c>
       <c r="D89" s="17"/>
       <c r="E89" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F89" s="17"/>
     </row>
@@ -13768,337 +14088,337 @@
       <c r="B112" s="29">
         <v>3</v>
       </c>
-      <c r="C112" s="35" t="s">
+      <c r="C112" s="39" t="s">
         <v>21</v>
       </c>
       <c r="D112" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E112" s="44" t="s">
+      <c r="E112" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F112" s="46" t="s">
-        <v>141</v>
+      <c r="F112" s="47" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="113" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B113" s="30"/>
-      <c r="C113" s="36"/>
+      <c r="C113" s="40"/>
       <c r="D113" s="33"/>
       <c r="E113" s="33"/>
       <c r="F113" s="33"/>
     </row>
     <row r="114" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B114" s="30"/>
-      <c r="C114" s="36"/>
+      <c r="C114" s="40"/>
       <c r="D114" s="33"/>
       <c r="E114" s="33"/>
       <c r="F114" s="33"/>
     </row>
     <row r="115" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B115" s="30"/>
-      <c r="C115" s="36"/>
+      <c r="C115" s="40"/>
       <c r="D115" s="33"/>
       <c r="E115" s="33"/>
       <c r="F115" s="33"/>
     </row>
     <row r="116" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B116" s="30"/>
-      <c r="C116" s="36"/>
+      <c r="C116" s="40"/>
       <c r="D116" s="33"/>
       <c r="E116" s="33"/>
       <c r="F116" s="33"/>
     </row>
     <row r="117" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B117" s="30"/>
-      <c r="C117" s="36"/>
+      <c r="C117" s="40"/>
       <c r="D117" s="33"/>
       <c r="E117" s="33"/>
       <c r="F117" s="33"/>
     </row>
     <row r="118" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B118" s="30"/>
-      <c r="C118" s="36"/>
+      <c r="C118" s="40"/>
       <c r="D118" s="33"/>
       <c r="E118" s="33"/>
       <c r="F118" s="33"/>
     </row>
     <row r="119" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B119" s="30"/>
-      <c r="C119" s="36"/>
+      <c r="C119" s="40"/>
       <c r="D119" s="33"/>
       <c r="E119" s="33"/>
       <c r="F119" s="33"/>
     </row>
     <row r="120" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B120" s="30"/>
-      <c r="C120" s="36"/>
+      <c r="C120" s="40"/>
       <c r="D120" s="33"/>
       <c r="E120" s="33"/>
       <c r="F120" s="33"/>
     </row>
     <row r="121" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B121" s="30"/>
-      <c r="C121" s="36"/>
+      <c r="C121" s="40"/>
       <c r="D121" s="33"/>
       <c r="E121" s="33"/>
       <c r="F121" s="33"/>
     </row>
     <row r="122" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B122" s="30"/>
-      <c r="C122" s="36"/>
+      <c r="C122" s="40"/>
       <c r="D122" s="33"/>
       <c r="E122" s="33"/>
       <c r="F122" s="33"/>
     </row>
     <row r="123" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B123" s="30"/>
-      <c r="C123" s="36"/>
+      <c r="C123" s="40"/>
       <c r="D123" s="33"/>
       <c r="E123" s="33"/>
       <c r="F123" s="33"/>
     </row>
     <row r="124" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B124" s="30"/>
-      <c r="C124" s="36"/>
+      <c r="C124" s="40"/>
       <c r="D124" s="33"/>
       <c r="E124" s="33"/>
       <c r="F124" s="33"/>
     </row>
     <row r="125" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B125" s="30"/>
-      <c r="C125" s="36"/>
+      <c r="C125" s="40"/>
       <c r="D125" s="33"/>
       <c r="E125" s="33"/>
       <c r="F125" s="33"/>
     </row>
     <row r="126" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B126" s="30"/>
-      <c r="C126" s="36"/>
+      <c r="C126" s="40"/>
       <c r="D126" s="33"/>
       <c r="E126" s="33"/>
       <c r="F126" s="33"/>
     </row>
     <row r="127" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B127" s="30"/>
-      <c r="C127" s="36"/>
+      <c r="C127" s="40"/>
       <c r="D127" s="33"/>
       <c r="E127" s="33"/>
       <c r="F127" s="33"/>
     </row>
     <row r="128" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B128" s="30"/>
-      <c r="C128" s="36"/>
+      <c r="C128" s="40"/>
       <c r="D128" s="33"/>
       <c r="E128" s="33"/>
       <c r="F128" s="33"/>
     </row>
     <row r="129" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B129" s="30"/>
-      <c r="C129" s="36"/>
+      <c r="C129" s="40"/>
       <c r="D129" s="33"/>
       <c r="E129" s="33"/>
       <c r="F129" s="33"/>
     </row>
     <row r="130" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B130" s="30"/>
-      <c r="C130" s="36"/>
+      <c r="C130" s="40"/>
       <c r="D130" s="33"/>
       <c r="E130" s="33"/>
       <c r="F130" s="33"/>
     </row>
     <row r="131" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B131" s="30"/>
-      <c r="C131" s="36"/>
+      <c r="C131" s="40"/>
       <c r="D131" s="33"/>
       <c r="E131" s="33"/>
       <c r="F131" s="33"/>
     </row>
     <row r="132" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B132" s="30"/>
-      <c r="C132" s="36"/>
+      <c r="C132" s="40"/>
       <c r="D132" s="33"/>
       <c r="E132" s="33"/>
       <c r="F132" s="33"/>
     </row>
     <row r="133" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B133" s="30"/>
-      <c r="C133" s="36"/>
+      <c r="C133" s="40"/>
       <c r="D133" s="33"/>
       <c r="E133" s="33"/>
       <c r="F133" s="33"/>
     </row>
     <row r="134" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B134" s="30"/>
-      <c r="C134" s="36"/>
+      <c r="C134" s="40"/>
       <c r="D134" s="33"/>
       <c r="E134" s="33"/>
       <c r="F134" s="33"/>
     </row>
     <row r="135" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B135" s="30"/>
-      <c r="C135" s="36"/>
+      <c r="C135" s="40"/>
       <c r="D135" s="33"/>
       <c r="E135" s="33"/>
       <c r="F135" s="33"/>
     </row>
     <row r="136" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B136" s="30"/>
-      <c r="C136" s="36"/>
+      <c r="C136" s="40"/>
       <c r="D136" s="33"/>
       <c r="E136" s="33"/>
       <c r="F136" s="33"/>
     </row>
     <row r="137" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B137" s="30"/>
-      <c r="C137" s="36"/>
+      <c r="C137" s="40"/>
       <c r="D137" s="33"/>
       <c r="E137" s="33"/>
       <c r="F137" s="33"/>
     </row>
     <row r="138" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B138" s="30"/>
-      <c r="C138" s="36"/>
+      <c r="C138" s="40"/>
       <c r="D138" s="33"/>
       <c r="E138" s="33"/>
       <c r="F138" s="33"/>
     </row>
     <row r="139" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B139" s="30"/>
-      <c r="C139" s="36"/>
+      <c r="C139" s="40"/>
       <c r="D139" s="33"/>
       <c r="E139" s="33"/>
       <c r="F139" s="33"/>
     </row>
     <row r="140" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B140" s="30"/>
-      <c r="C140" s="36"/>
+      <c r="C140" s="40"/>
       <c r="D140" s="33"/>
       <c r="E140" s="33"/>
       <c r="F140" s="33"/>
     </row>
     <row r="141" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B141" s="30"/>
-      <c r="C141" s="36"/>
+      <c r="C141" s="40"/>
       <c r="D141" s="33"/>
       <c r="E141" s="33"/>
       <c r="F141" s="33"/>
     </row>
     <row r="142" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B142" s="30"/>
-      <c r="C142" s="36"/>
+      <c r="C142" s="40"/>
       <c r="D142" s="33"/>
       <c r="E142" s="33"/>
       <c r="F142" s="33"/>
     </row>
     <row r="143" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B143" s="30"/>
-      <c r="C143" s="36"/>
+      <c r="C143" s="40"/>
       <c r="D143" s="33"/>
       <c r="E143" s="33"/>
       <c r="F143" s="33"/>
     </row>
     <row r="144" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B144" s="30"/>
-      <c r="C144" s="36"/>
+      <c r="C144" s="40"/>
       <c r="D144" s="33"/>
       <c r="E144" s="33"/>
       <c r="F144" s="33"/>
     </row>
     <row r="145" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B145" s="30"/>
-      <c r="C145" s="36"/>
+      <c r="C145" s="40"/>
       <c r="D145" s="33"/>
       <c r="E145" s="33"/>
       <c r="F145" s="33"/>
     </row>
     <row r="146" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B146" s="30"/>
-      <c r="C146" s="36"/>
+      <c r="C146" s="40"/>
       <c r="D146" s="33"/>
       <c r="E146" s="33"/>
       <c r="F146" s="33"/>
     </row>
     <row r="147" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B147" s="30"/>
-      <c r="C147" s="36"/>
+      <c r="C147" s="40"/>
       <c r="D147" s="33"/>
       <c r="E147" s="33"/>
       <c r="F147" s="33"/>
     </row>
     <row r="148" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B148" s="30"/>
-      <c r="C148" s="36"/>
+      <c r="C148" s="40"/>
       <c r="D148" s="33"/>
       <c r="E148" s="33"/>
       <c r="F148" s="33"/>
     </row>
     <row r="149" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B149" s="30"/>
-      <c r="C149" s="37"/>
+      <c r="C149" s="41"/>
       <c r="D149" s="33"/>
       <c r="E149" s="33"/>
       <c r="F149" s="33"/>
     </row>
     <row r="150" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B150" s="30"/>
-      <c r="C150" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="D150" s="35"/>
-      <c r="E150" s="38" t="s">
+      <c r="C150" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="F150" s="35"/>
+      <c r="D150" s="39"/>
+      <c r="E150" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="F150" s="39"/>
     </row>
     <row r="151" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B151" s="30"/>
-      <c r="C151" s="39"/>
-      <c r="D151" s="36"/>
-      <c r="E151" s="36"/>
-      <c r="F151" s="36"/>
+      <c r="C151" s="35"/>
+      <c r="D151" s="40"/>
+      <c r="E151" s="40"/>
+      <c r="F151" s="40"/>
     </row>
     <row r="152" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B152" s="30"/>
-      <c r="C152" s="39"/>
-      <c r="D152" s="36"/>
-      <c r="E152" s="36"/>
-      <c r="F152" s="36"/>
+      <c r="C152" s="35"/>
+      <c r="D152" s="40"/>
+      <c r="E152" s="40"/>
+      <c r="F152" s="40"/>
     </row>
     <row r="153" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B153" s="30"/>
-      <c r="C153" s="39"/>
-      <c r="D153" s="36"/>
-      <c r="E153" s="36"/>
-      <c r="F153" s="36"/>
+      <c r="C153" s="35"/>
+      <c r="D153" s="40"/>
+      <c r="E153" s="40"/>
+      <c r="F153" s="40"/>
     </row>
     <row r="154" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B154" s="30"/>
-      <c r="C154" s="39"/>
-      <c r="D154" s="36"/>
-      <c r="E154" s="36"/>
-      <c r="F154" s="36"/>
+      <c r="C154" s="35"/>
+      <c r="D154" s="40"/>
+      <c r="E154" s="40"/>
+      <c r="F154" s="40"/>
     </row>
     <row r="155" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B155" s="30"/>
-      <c r="C155" s="39"/>
-      <c r="D155" s="36"/>
-      <c r="E155" s="36"/>
-      <c r="F155" s="36"/>
+      <c r="C155" s="35"/>
+      <c r="D155" s="40"/>
+      <c r="E155" s="40"/>
+      <c r="F155" s="40"/>
     </row>
     <row r="156" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B156" s="30"/>
-      <c r="C156" s="39"/>
-      <c r="D156" s="36"/>
-      <c r="E156" s="36"/>
-      <c r="F156" s="36"/>
+      <c r="C156" s="35"/>
+      <c r="D156" s="40"/>
+      <c r="E156" s="40"/>
+      <c r="F156" s="40"/>
     </row>
     <row r="157" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B157" s="31"/>
-      <c r="C157" s="40"/>
-      <c r="D157" s="37"/>
-      <c r="E157" s="37"/>
-      <c r="F157" s="37"/>
+      <c r="C157" s="37"/>
+      <c r="D157" s="41"/>
+      <c r="E157" s="41"/>
+      <c r="F157" s="41"/>
     </row>
     <row r="158" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B158" s="26">
@@ -14110,7 +14430,7 @@
       <c r="D158" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E158" s="45" t="s">
+      <c r="E158" s="50" t="s">
         <v>25</v>
       </c>
       <c r="F158" s="10"/>
@@ -14139,11 +14459,11 @@
     <row r="162" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B162" s="27"/>
       <c r="C162" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D162" s="10"/>
       <c r="E162" s="51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F162" s="10"/>
     </row>
@@ -14206,8 +14526,8 @@
       <c r="D170" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="E170" s="46" t="s">
-        <v>122</v>
+      <c r="E170" s="47" t="s">
+        <v>121</v>
       </c>
       <c r="F170" s="33"/>
     </row>
@@ -14227,168 +14547,168 @@
     </row>
     <row r="173" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B173" s="30"/>
-      <c r="C173" s="41" t="s">
+      <c r="C173" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="D173" s="35"/>
-      <c r="E173" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="F173" s="35"/>
+      <c r="D173" s="39"/>
+      <c r="E173" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="F173" s="39"/>
     </row>
     <row r="174" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B174" s="30"/>
-      <c r="C174" s="39"/>
-      <c r="D174" s="36"/>
-      <c r="E174" s="36"/>
-      <c r="F174" s="36"/>
+      <c r="C174" s="35"/>
+      <c r="D174" s="40"/>
+      <c r="E174" s="40"/>
+      <c r="F174" s="40"/>
     </row>
     <row r="175" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B175" s="30"/>
-      <c r="C175" s="39"/>
-      <c r="D175" s="36"/>
-      <c r="E175" s="36"/>
-      <c r="F175" s="36"/>
+      <c r="C175" s="35"/>
+      <c r="D175" s="40"/>
+      <c r="E175" s="40"/>
+      <c r="F175" s="40"/>
     </row>
     <row r="176" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B176" s="30"/>
-      <c r="C176" s="39"/>
-      <c r="D176" s="36"/>
-      <c r="E176" s="36"/>
-      <c r="F176" s="36"/>
+      <c r="C176" s="35"/>
+      <c r="D176" s="40"/>
+      <c r="E176" s="40"/>
+      <c r="F176" s="40"/>
     </row>
     <row r="177" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B177" s="30"/>
-      <c r="C177" s="39"/>
-      <c r="D177" s="36"/>
-      <c r="E177" s="36"/>
-      <c r="F177" s="36"/>
+      <c r="C177" s="35"/>
+      <c r="D177" s="40"/>
+      <c r="E177" s="40"/>
+      <c r="F177" s="40"/>
     </row>
     <row r="178" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B178" s="30"/>
-      <c r="C178" s="39"/>
-      <c r="D178" s="36"/>
-      <c r="E178" s="36"/>
-      <c r="F178" s="36"/>
+      <c r="C178" s="35"/>
+      <c r="D178" s="40"/>
+      <c r="E178" s="40"/>
+      <c r="F178" s="40"/>
     </row>
     <row r="179" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B179" s="30"/>
-      <c r="C179" s="39"/>
-      <c r="D179" s="36"/>
-      <c r="E179" s="36"/>
-      <c r="F179" s="36"/>
+      <c r="C179" s="35"/>
+      <c r="D179" s="40"/>
+      <c r="E179" s="40"/>
+      <c r="F179" s="40"/>
     </row>
     <row r="180" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B180" s="30"/>
-      <c r="C180" s="39"/>
-      <c r="D180" s="36"/>
-      <c r="E180" s="36"/>
-      <c r="F180" s="36"/>
+      <c r="C180" s="35"/>
+      <c r="D180" s="40"/>
+      <c r="E180" s="40"/>
+      <c r="F180" s="40"/>
     </row>
     <row r="181" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B181" s="30"/>
-      <c r="C181" s="39"/>
-      <c r="D181" s="36"/>
-      <c r="E181" s="36"/>
-      <c r="F181" s="36"/>
+      <c r="C181" s="35"/>
+      <c r="D181" s="40"/>
+      <c r="E181" s="40"/>
+      <c r="F181" s="40"/>
     </row>
     <row r="182" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B182" s="30"/>
-      <c r="C182" s="39"/>
-      <c r="D182" s="36"/>
-      <c r="E182" s="36"/>
-      <c r="F182" s="36"/>
+      <c r="C182" s="35"/>
+      <c r="D182" s="40"/>
+      <c r="E182" s="40"/>
+      <c r="F182" s="40"/>
     </row>
     <row r="183" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B183" s="30"/>
-      <c r="C183" s="39"/>
-      <c r="D183" s="36"/>
-      <c r="E183" s="36"/>
-      <c r="F183" s="36"/>
+      <c r="C183" s="35"/>
+      <c r="D183" s="40"/>
+      <c r="E183" s="40"/>
+      <c r="F183" s="40"/>
     </row>
     <row r="184" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B184" s="30"/>
-      <c r="C184" s="39"/>
-      <c r="D184" s="36"/>
-      <c r="E184" s="36"/>
-      <c r="F184" s="36"/>
+      <c r="C184" s="35"/>
+      <c r="D184" s="40"/>
+      <c r="E184" s="40"/>
+      <c r="F184" s="40"/>
     </row>
     <row r="185" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B185" s="30"/>
-      <c r="C185" s="39"/>
-      <c r="D185" s="36"/>
-      <c r="E185" s="36"/>
-      <c r="F185" s="36"/>
+      <c r="C185" s="35"/>
+      <c r="D185" s="40"/>
+      <c r="E185" s="40"/>
+      <c r="F185" s="40"/>
     </row>
     <row r="186" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B186" s="30"/>
-      <c r="C186" s="39"/>
-      <c r="D186" s="36"/>
-      <c r="E186" s="36"/>
-      <c r="F186" s="36"/>
+      <c r="C186" s="35"/>
+      <c r="D186" s="40"/>
+      <c r="E186" s="40"/>
+      <c r="F186" s="40"/>
     </row>
     <row r="187" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B187" s="30"/>
-      <c r="C187" s="39"/>
-      <c r="D187" s="36"/>
-      <c r="E187" s="36"/>
-      <c r="F187" s="36"/>
+      <c r="C187" s="35"/>
+      <c r="D187" s="40"/>
+      <c r="E187" s="40"/>
+      <c r="F187" s="40"/>
     </row>
     <row r="188" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B188" s="30"/>
-      <c r="C188" s="39"/>
-      <c r="D188" s="36"/>
-      <c r="E188" s="36"/>
-      <c r="F188" s="36"/>
+      <c r="C188" s="35"/>
+      <c r="D188" s="40"/>
+      <c r="E188" s="40"/>
+      <c r="F188" s="40"/>
     </row>
     <row r="189" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B189" s="30"/>
-      <c r="C189" s="39"/>
-      <c r="D189" s="36"/>
-      <c r="E189" s="36"/>
-      <c r="F189" s="36"/>
+      <c r="C189" s="35"/>
+      <c r="D189" s="40"/>
+      <c r="E189" s="40"/>
+      <c r="F189" s="40"/>
     </row>
     <row r="190" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B190" s="30"/>
-      <c r="C190" s="39"/>
-      <c r="D190" s="36"/>
-      <c r="E190" s="36"/>
-      <c r="F190" s="36"/>
+      <c r="C190" s="35"/>
+      <c r="D190" s="40"/>
+      <c r="E190" s="40"/>
+      <c r="F190" s="40"/>
     </row>
     <row r="191" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B191" s="30"/>
-      <c r="C191" s="39"/>
-      <c r="D191" s="36"/>
-      <c r="E191" s="36"/>
-      <c r="F191" s="36"/>
+      <c r="C191" s="35"/>
+      <c r="D191" s="40"/>
+      <c r="E191" s="40"/>
+      <c r="F191" s="40"/>
     </row>
     <row r="192" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B192" s="30"/>
-      <c r="C192" s="39"/>
-      <c r="D192" s="36"/>
-      <c r="E192" s="36"/>
-      <c r="F192" s="36"/>
+      <c r="C192" s="35"/>
+      <c r="D192" s="40"/>
+      <c r="E192" s="40"/>
+      <c r="F192" s="40"/>
     </row>
     <row r="193" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B193" s="30"/>
-      <c r="C193" s="39"/>
-      <c r="D193" s="36"/>
-      <c r="E193" s="36"/>
-      <c r="F193" s="36"/>
+      <c r="C193" s="35"/>
+      <c r="D193" s="40"/>
+      <c r="E193" s="40"/>
+      <c r="F193" s="40"/>
     </row>
     <row r="194" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B194" s="30"/>
-      <c r="C194" s="39"/>
-      <c r="D194" s="36"/>
-      <c r="E194" s="36"/>
-      <c r="F194" s="36"/>
+      <c r="C194" s="35"/>
+      <c r="D194" s="40"/>
+      <c r="E194" s="40"/>
+      <c r="F194" s="40"/>
     </row>
     <row r="195" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B195" s="30"/>
-      <c r="C195" s="39"/>
-      <c r="D195" s="36"/>
-      <c r="E195" s="36"/>
-      <c r="F195" s="36"/>
+      <c r="C195" s="35"/>
+      <c r="D195" s="40"/>
+      <c r="E195" s="40"/>
+      <c r="F195" s="40"/>
     </row>
     <row r="196" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B196" s="26">
@@ -14404,7 +14724,7 @@
         <v>31</v>
       </c>
       <c r="F196" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="197" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -14549,12 +14869,12 @@
     </row>
     <row r="217" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B217" s="27"/>
-      <c r="C217" s="42" t="s">
+      <c r="C217" s="36" t="s">
         <v>32</v>
       </c>
       <c r="D217" s="10"/>
       <c r="E217" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F217" s="10"/>
     </row>
@@ -14736,18 +15056,18 @@
       <c r="D242" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E242" s="48" t="s">
+      <c r="E242" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="F242" s="43" t="s">
         <v>126</v>
-      </c>
-      <c r="F242" s="48" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="243" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B243" s="30"/>
       <c r="C243" s="33"/>
       <c r="D243" s="33"/>
-      <c r="E243" s="49"/>
+      <c r="E243" s="44"/>
       <c r="F243" s="33"/>
     </row>
     <row r="244" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -14871,165 +15191,165 @@
     </row>
     <row r="261" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B261" s="30"/>
-      <c r="C261" s="41" t="s">
+      <c r="C261" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D261" s="33"/>
-      <c r="E261" s="48" t="s">
-        <v>144</v>
+      <c r="E261" s="43" t="s">
+        <v>143</v>
       </c>
       <c r="F261" s="33"/>
     </row>
     <row r="262" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B262" s="30"/>
-      <c r="C262" s="39"/>
+      <c r="C262" s="35"/>
       <c r="D262" s="33"/>
       <c r="E262" s="33"/>
       <c r="F262" s="33"/>
     </row>
     <row r="263" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B263" s="30"/>
-      <c r="C263" s="39"/>
+      <c r="C263" s="35"/>
       <c r="D263" s="33"/>
       <c r="E263" s="33"/>
       <c r="F263" s="33"/>
     </row>
     <row r="264" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B264" s="30"/>
-      <c r="C264" s="39"/>
+      <c r="C264" s="35"/>
       <c r="D264" s="33"/>
       <c r="E264" s="33"/>
       <c r="F264" s="33"/>
     </row>
     <row r="265" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B265" s="30"/>
-      <c r="C265" s="39"/>
+      <c r="C265" s="35"/>
       <c r="D265" s="33"/>
       <c r="E265" s="33"/>
       <c r="F265" s="33"/>
     </row>
     <row r="266" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B266" s="30"/>
-      <c r="C266" s="39"/>
+      <c r="C266" s="35"/>
       <c r="D266" s="33"/>
       <c r="E266" s="33"/>
       <c r="F266" s="33"/>
     </row>
     <row r="267" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B267" s="30"/>
-      <c r="C267" s="39"/>
+      <c r="C267" s="35"/>
       <c r="D267" s="33"/>
       <c r="E267" s="33"/>
       <c r="F267" s="33"/>
     </row>
     <row r="268" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B268" s="30"/>
-      <c r="C268" s="39"/>
+      <c r="C268" s="35"/>
       <c r="D268" s="33"/>
       <c r="E268" s="33"/>
       <c r="F268" s="33"/>
     </row>
     <row r="269" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B269" s="30"/>
-      <c r="C269" s="39"/>
+      <c r="C269" s="35"/>
       <c r="D269" s="33"/>
       <c r="E269" s="33"/>
       <c r="F269" s="33"/>
     </row>
     <row r="270" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B270" s="30"/>
-      <c r="C270" s="39"/>
+      <c r="C270" s="35"/>
       <c r="D270" s="33"/>
       <c r="E270" s="33"/>
       <c r="F270" s="33"/>
     </row>
     <row r="271" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B271" s="30"/>
-      <c r="C271" s="39"/>
+      <c r="C271" s="35"/>
       <c r="D271" s="33"/>
       <c r="E271" s="33"/>
       <c r="F271" s="33"/>
     </row>
     <row r="272" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B272" s="30"/>
-      <c r="C272" s="39"/>
+      <c r="C272" s="35"/>
       <c r="D272" s="33"/>
       <c r="E272" s="33"/>
       <c r="F272" s="33"/>
     </row>
     <row r="273" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B273" s="30"/>
-      <c r="C273" s="39"/>
+      <c r="C273" s="35"/>
       <c r="D273" s="33"/>
       <c r="E273" s="33"/>
       <c r="F273" s="33"/>
     </row>
     <row r="274" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B274" s="30"/>
-      <c r="C274" s="39"/>
+      <c r="C274" s="35"/>
       <c r="D274" s="33"/>
       <c r="E274" s="33"/>
       <c r="F274" s="33"/>
     </row>
     <row r="275" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B275" s="30"/>
-      <c r="C275" s="39"/>
+      <c r="C275" s="35"/>
       <c r="D275" s="33"/>
       <c r="E275" s="33"/>
       <c r="F275" s="33"/>
     </row>
     <row r="276" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B276" s="30"/>
-      <c r="C276" s="39"/>
+      <c r="C276" s="35"/>
       <c r="D276" s="33"/>
       <c r="E276" s="33"/>
       <c r="F276" s="33"/>
     </row>
     <row r="277" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B277" s="30"/>
-      <c r="C277" s="39"/>
+      <c r="C277" s="35"/>
       <c r="D277" s="33"/>
       <c r="E277" s="33"/>
       <c r="F277" s="33"/>
     </row>
     <row r="278" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B278" s="30"/>
-      <c r="C278" s="39"/>
+      <c r="C278" s="35"/>
       <c r="D278" s="33"/>
       <c r="E278" s="33"/>
       <c r="F278" s="33"/>
     </row>
     <row r="279" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B279" s="30"/>
-      <c r="C279" s="39"/>
+      <c r="C279" s="35"/>
       <c r="D279" s="33"/>
       <c r="E279" s="33"/>
       <c r="F279" s="33"/>
     </row>
     <row r="280" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B280" s="30"/>
-      <c r="C280" s="39"/>
+      <c r="C280" s="35"/>
       <c r="D280" s="33"/>
       <c r="E280" s="33"/>
       <c r="F280" s="33"/>
     </row>
     <row r="281" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B281" s="30"/>
-      <c r="C281" s="39"/>
+      <c r="C281" s="35"/>
       <c r="D281" s="33"/>
       <c r="E281" s="33"/>
       <c r="F281" s="33"/>
     </row>
     <row r="282" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B282" s="30"/>
-      <c r="C282" s="39"/>
+      <c r="C282" s="35"/>
       <c r="D282" s="33"/>
       <c r="E282" s="33"/>
       <c r="F282" s="33"/>
     </row>
     <row r="283" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B283" s="31"/>
-      <c r="C283" s="40"/>
+      <c r="C283" s="37"/>
       <c r="D283" s="33"/>
       <c r="E283" s="33"/>
       <c r="F283" s="33"/>
@@ -15042,13 +15362,13 @@
         <v>36</v>
       </c>
       <c r="D284" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E284" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F284" s="16" t="s">
         <v>128</v>
-      </c>
-      <c r="E284" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="F284" s="16" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="285" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -15179,14 +15499,14 @@
     </row>
     <row r="303" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B303" s="27"/>
-      <c r="C303" s="34" t="s">
+      <c r="C303" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D303" s="34"/>
+      <c r="D303" s="38"/>
       <c r="E303" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="F303" s="34"/>
+        <v>129</v>
+      </c>
+      <c r="F303" s="38"/>
     </row>
     <row r="304" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B304" s="27"/>
@@ -15350,10 +15670,10 @@
         <v>38</v>
       </c>
       <c r="D326" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="E326" s="48" t="s">
-        <v>131</v>
+        <v>145</v>
+      </c>
+      <c r="E326" s="43" t="s">
+        <v>130</v>
       </c>
       <c r="F326" s="33"/>
     </row>
@@ -15380,56 +15700,56 @@
     </row>
     <row r="330" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B330" s="30"/>
-      <c r="C330" s="41" t="s">
+      <c r="C330" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D330" s="35"/>
-      <c r="E330" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="F330" s="35"/>
+      <c r="D330" s="39"/>
+      <c r="E330" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="F330" s="39"/>
     </row>
     <row r="331" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B331" s="30"/>
-      <c r="C331" s="39"/>
-      <c r="D331" s="36"/>
-      <c r="E331" s="36"/>
-      <c r="F331" s="36"/>
+      <c r="C331" s="35"/>
+      <c r="D331" s="40"/>
+      <c r="E331" s="40"/>
+      <c r="F331" s="40"/>
     </row>
     <row r="332" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B332" s="30"/>
-      <c r="C332" s="39"/>
-      <c r="D332" s="36"/>
-      <c r="E332" s="36"/>
-      <c r="F332" s="36"/>
+      <c r="C332" s="35"/>
+      <c r="D332" s="40"/>
+      <c r="E332" s="40"/>
+      <c r="F332" s="40"/>
     </row>
     <row r="333" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B333" s="30"/>
-      <c r="C333" s="39"/>
-      <c r="D333" s="36"/>
-      <c r="E333" s="36"/>
-      <c r="F333" s="36"/>
+      <c r="C333" s="35"/>
+      <c r="D333" s="40"/>
+      <c r="E333" s="40"/>
+      <c r="F333" s="40"/>
     </row>
     <row r="334" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B334" s="30"/>
-      <c r="C334" s="39"/>
-      <c r="D334" s="36"/>
-      <c r="E334" s="36"/>
-      <c r="F334" s="36"/>
+      <c r="C334" s="35"/>
+      <c r="D334" s="40"/>
+      <c r="E334" s="40"/>
+      <c r="F334" s="40"/>
     </row>
     <row r="335" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B335" s="30"/>
-      <c r="C335" s="39"/>
-      <c r="D335" s="36"/>
-      <c r="E335" s="36"/>
-      <c r="F335" s="36"/>
+      <c r="C335" s="35"/>
+      <c r="D335" s="40"/>
+      <c r="E335" s="40"/>
+      <c r="F335" s="40"/>
     </row>
     <row r="336" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B336" s="31"/>
-      <c r="C336" s="40"/>
-      <c r="D336" s="37"/>
-      <c r="E336" s="37"/>
-      <c r="F336" s="37"/>
+      <c r="C336" s="37"/>
+      <c r="D336" s="41"/>
+      <c r="E336" s="41"/>
+      <c r="F336" s="41"/>
     </row>
     <row r="337" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B337" s="26">
@@ -15442,10 +15762,10 @@
         <v>41</v>
       </c>
       <c r="E337" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F337" s="16" t="s">
         <v>133</v>
-      </c>
-      <c r="F337" s="16" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="338" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -15581,7 +15901,7 @@
       </c>
       <c r="D356" s="17"/>
       <c r="E356" s="15" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F356" s="17"/>
     </row>
@@ -15756,10 +16076,10 @@
       <c r="D380" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="E380" s="44" t="s">
+      <c r="E380" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="F380" s="44" t="s">
+      <c r="F380" s="48" t="s">
         <v>46</v>
       </c>
     </row>
@@ -15821,164 +16141,164 @@
     </row>
     <row r="389" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B389" s="30"/>
-      <c r="C389" s="35" t="s">
+      <c r="C389" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="D389" s="35" t="s">
+      <c r="D389" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="E389" s="38" t="s">
+      <c r="E389" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="F389" s="42" t="s">
         <v>49</v>
-      </c>
-      <c r="F389" s="38" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="390" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B390" s="30"/>
-      <c r="C390" s="36"/>
-      <c r="D390" s="36"/>
-      <c r="E390" s="36"/>
-      <c r="F390" s="36"/>
+      <c r="C390" s="40"/>
+      <c r="D390" s="40"/>
+      <c r="E390" s="40"/>
+      <c r="F390" s="40"/>
     </row>
     <row r="391" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B391" s="30"/>
-      <c r="C391" s="36"/>
-      <c r="D391" s="36"/>
-      <c r="E391" s="36"/>
-      <c r="F391" s="36"/>
+      <c r="C391" s="40"/>
+      <c r="D391" s="40"/>
+      <c r="E391" s="40"/>
+      <c r="F391" s="40"/>
     </row>
     <row r="392" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B392" s="30"/>
-      <c r="C392" s="36"/>
-      <c r="D392" s="36"/>
-      <c r="E392" s="36"/>
-      <c r="F392" s="36"/>
+      <c r="C392" s="40"/>
+      <c r="D392" s="40"/>
+      <c r="E392" s="40"/>
+      <c r="F392" s="40"/>
     </row>
     <row r="393" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B393" s="30"/>
-      <c r="C393" s="36"/>
-      <c r="D393" s="36"/>
-      <c r="E393" s="36"/>
-      <c r="F393" s="36"/>
+      <c r="C393" s="40"/>
+      <c r="D393" s="40"/>
+      <c r="E393" s="40"/>
+      <c r="F393" s="40"/>
     </row>
     <row r="394" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B394" s="30"/>
-      <c r="C394" s="36"/>
-      <c r="D394" s="36"/>
-      <c r="E394" s="36"/>
-      <c r="F394" s="36"/>
+      <c r="C394" s="40"/>
+      <c r="D394" s="40"/>
+      <c r="E394" s="40"/>
+      <c r="F394" s="40"/>
     </row>
     <row r="395" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B395" s="30"/>
-      <c r="C395" s="36"/>
-      <c r="D395" s="36"/>
-      <c r="E395" s="36"/>
-      <c r="F395" s="36"/>
+      <c r="C395" s="40"/>
+      <c r="D395" s="40"/>
+      <c r="E395" s="40"/>
+      <c r="F395" s="40"/>
     </row>
     <row r="396" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B396" s="30"/>
-      <c r="C396" s="36"/>
-      <c r="D396" s="36"/>
-      <c r="E396" s="36"/>
-      <c r="F396" s="36"/>
+      <c r="C396" s="40"/>
+      <c r="D396" s="40"/>
+      <c r="E396" s="40"/>
+      <c r="F396" s="40"/>
     </row>
     <row r="397" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B397" s="30"/>
-      <c r="C397" s="37"/>
-      <c r="D397" s="37"/>
-      <c r="E397" s="37"/>
-      <c r="F397" s="37"/>
+      <c r="C397" s="41"/>
+      <c r="D397" s="41"/>
+      <c r="E397" s="41"/>
+      <c r="F397" s="41"/>
     </row>
     <row r="398" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B398" s="30"/>
-      <c r="C398" s="35" t="s">
+      <c r="C398" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D398" s="39"/>
+      <c r="E398" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="D398" s="35"/>
-      <c r="E398" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="F398" s="38"/>
+      <c r="F398" s="42"/>
     </row>
     <row r="399" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B399" s="30"/>
-      <c r="C399" s="36"/>
-      <c r="D399" s="36"/>
-      <c r="E399" s="36"/>
-      <c r="F399" s="36"/>
+      <c r="C399" s="40"/>
+      <c r="D399" s="40"/>
+      <c r="E399" s="40"/>
+      <c r="F399" s="40"/>
     </row>
     <row r="400" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B400" s="30"/>
-      <c r="C400" s="36"/>
-      <c r="D400" s="36"/>
-      <c r="E400" s="36"/>
-      <c r="F400" s="36"/>
+      <c r="C400" s="40"/>
+      <c r="D400" s="40"/>
+      <c r="E400" s="40"/>
+      <c r="F400" s="40"/>
     </row>
     <row r="401" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B401" s="30"/>
-      <c r="C401" s="36"/>
-      <c r="D401" s="36"/>
-      <c r="E401" s="36"/>
-      <c r="F401" s="36"/>
+      <c r="C401" s="40"/>
+      <c r="D401" s="40"/>
+      <c r="E401" s="40"/>
+      <c r="F401" s="40"/>
     </row>
     <row r="402" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B402" s="30"/>
-      <c r="C402" s="36"/>
-      <c r="D402" s="36"/>
-      <c r="E402" s="36"/>
-      <c r="F402" s="36"/>
+      <c r="C402" s="40"/>
+      <c r="D402" s="40"/>
+      <c r="E402" s="40"/>
+      <c r="F402" s="40"/>
     </row>
     <row r="403" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B403" s="30"/>
-      <c r="C403" s="36"/>
-      <c r="D403" s="36"/>
-      <c r="E403" s="36"/>
-      <c r="F403" s="36"/>
+      <c r="C403" s="40"/>
+      <c r="D403" s="40"/>
+      <c r="E403" s="40"/>
+      <c r="F403" s="40"/>
     </row>
     <row r="404" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B404" s="30"/>
-      <c r="C404" s="36"/>
-      <c r="D404" s="36"/>
-      <c r="E404" s="36"/>
-      <c r="F404" s="36"/>
+      <c r="C404" s="40"/>
+      <c r="D404" s="40"/>
+      <c r="E404" s="40"/>
+      <c r="F404" s="40"/>
     </row>
     <row r="405" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B405" s="30"/>
-      <c r="C405" s="36"/>
-      <c r="D405" s="36"/>
-      <c r="E405" s="36"/>
-      <c r="F405" s="36"/>
+      <c r="C405" s="40"/>
+      <c r="D405" s="40"/>
+      <c r="E405" s="40"/>
+      <c r="F405" s="40"/>
     </row>
     <row r="406" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B406" s="30"/>
-      <c r="C406" s="36"/>
-      <c r="D406" s="36"/>
-      <c r="E406" s="36"/>
-      <c r="F406" s="36"/>
+      <c r="C406" s="40"/>
+      <c r="D406" s="40"/>
+      <c r="E406" s="40"/>
+      <c r="F406" s="40"/>
     </row>
     <row r="407" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B407" s="31"/>
-      <c r="C407" s="37"/>
-      <c r="D407" s="37"/>
-      <c r="E407" s="37"/>
-      <c r="F407" s="37"/>
+      <c r="C407" s="41"/>
+      <c r="D407" s="41"/>
+      <c r="E407" s="41"/>
+      <c r="F407" s="41"/>
     </row>
     <row r="408" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B408" s="26">
         <v>13</v>
       </c>
       <c r="C408" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D408" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D408" s="10" t="s">
+      <c r="E408" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E408" s="19" t="s">
+      <c r="F408" s="19" t="s">
         <v>55</v>
-      </c>
-      <c r="F408" s="19" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="409" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -16033,11 +16353,11 @@
     <row r="416" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B416" s="27"/>
       <c r="C416" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D416" s="17"/>
+      <c r="E416" s="38" t="s">
         <v>57</v>
-      </c>
-      <c r="D416" s="17"/>
-      <c r="E416" s="34" t="s">
-        <v>58</v>
       </c>
       <c r="F416" s="17"/>
     </row>
@@ -16102,107 +16422,107 @@
         <v>14</v>
       </c>
       <c r="C425" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D425" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D425" s="33" t="s">
+      <c r="E425" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="E425" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="F425" s="48" t="s">
-        <v>118</v>
+      <c r="F425" s="43" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="426" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B426" s="30"/>
       <c r="C426" s="33"/>
       <c r="D426" s="33"/>
-      <c r="E426" s="44"/>
+      <c r="E426" s="48"/>
       <c r="F426" s="33"/>
     </row>
     <row r="427" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B427" s="30"/>
       <c r="C427" s="33"/>
       <c r="D427" s="33"/>
-      <c r="E427" s="44"/>
+      <c r="E427" s="48"/>
       <c r="F427" s="33"/>
     </row>
     <row r="428" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B428" s="30"/>
       <c r="C428" s="33"/>
       <c r="D428" s="33"/>
-      <c r="E428" s="44"/>
+      <c r="E428" s="48"/>
       <c r="F428" s="33"/>
     </row>
     <row r="429" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B429" s="30"/>
       <c r="C429" s="33"/>
       <c r="D429" s="33"/>
-      <c r="E429" s="44"/>
+      <c r="E429" s="48"/>
       <c r="F429" s="33"/>
     </row>
     <row r="430" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B430" s="30"/>
       <c r="C430" s="33"/>
       <c r="D430" s="33"/>
-      <c r="E430" s="44"/>
+      <c r="E430" s="48"/>
       <c r="F430" s="33"/>
     </row>
     <row r="431" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B431" s="30"/>
       <c r="C431" s="33"/>
       <c r="D431" s="33"/>
-      <c r="E431" s="44"/>
+      <c r="E431" s="48"/>
       <c r="F431" s="33"/>
     </row>
     <row r="432" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B432" s="30"/>
       <c r="C432" s="33"/>
       <c r="D432" s="33"/>
-      <c r="E432" s="44"/>
+      <c r="E432" s="48"/>
       <c r="F432" s="33"/>
     </row>
     <row r="433" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B433" s="30"/>
       <c r="C433" s="33"/>
       <c r="D433" s="33"/>
-      <c r="E433" s="44"/>
+      <c r="E433" s="48"/>
       <c r="F433" s="33"/>
     </row>
     <row r="434" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B434" s="30"/>
       <c r="C434" s="33"/>
       <c r="D434" s="33"/>
-      <c r="E434" s="44"/>
+      <c r="E434" s="48"/>
       <c r="F434" s="33"/>
     </row>
     <row r="435" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B435" s="30"/>
       <c r="C435" s="33"/>
       <c r="D435" s="33"/>
-      <c r="E435" s="44"/>
+      <c r="E435" s="48"/>
       <c r="F435" s="33"/>
     </row>
     <row r="436" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B436" s="30"/>
       <c r="C436" s="33"/>
       <c r="D436" s="33"/>
-      <c r="E436" s="44"/>
+      <c r="E436" s="48"/>
       <c r="F436" s="33"/>
     </row>
     <row r="437" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B437" s="30"/>
       <c r="C437" s="33"/>
       <c r="D437" s="33"/>
-      <c r="E437" s="44"/>
+      <c r="E437" s="48"/>
       <c r="F437" s="33"/>
     </row>
     <row r="438" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B438" s="30"/>
       <c r="C438" s="33"/>
       <c r="D438" s="33"/>
-      <c r="E438" s="44"/>
+      <c r="E438" s="48"/>
       <c r="F438" s="33"/>
     </row>
     <row r="439" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -16242,165 +16562,165 @@
     </row>
     <row r="444" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B444" s="30"/>
-      <c r="C444" s="41" t="s">
-        <v>62</v>
+      <c r="C444" s="34" t="s">
+        <v>61</v>
       </c>
       <c r="D444" s="33"/>
-      <c r="E444" s="48" t="s">
-        <v>119</v>
+      <c r="E444" s="43" t="s">
+        <v>118</v>
       </c>
       <c r="F444" s="33"/>
     </row>
     <row r="445" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B445" s="30"/>
-      <c r="C445" s="39"/>
+      <c r="C445" s="35"/>
       <c r="D445" s="33"/>
       <c r="E445" s="33"/>
       <c r="F445" s="33"/>
     </row>
     <row r="446" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B446" s="30"/>
-      <c r="C446" s="39"/>
+      <c r="C446" s="35"/>
       <c r="D446" s="33"/>
       <c r="E446" s="33"/>
       <c r="F446" s="33"/>
     </row>
     <row r="447" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B447" s="30"/>
-      <c r="C447" s="39"/>
+      <c r="C447" s="35"/>
       <c r="D447" s="33"/>
       <c r="E447" s="33"/>
       <c r="F447" s="33"/>
     </row>
     <row r="448" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B448" s="30"/>
-      <c r="C448" s="39"/>
+      <c r="C448" s="35"/>
       <c r="D448" s="33"/>
       <c r="E448" s="33"/>
       <c r="F448" s="33"/>
     </row>
     <row r="449" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B449" s="30"/>
-      <c r="C449" s="39"/>
+      <c r="C449" s="35"/>
       <c r="D449" s="33"/>
       <c r="E449" s="33"/>
       <c r="F449" s="33"/>
     </row>
     <row r="450" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B450" s="30"/>
-      <c r="C450" s="39"/>
+      <c r="C450" s="35"/>
       <c r="D450" s="33"/>
       <c r="E450" s="33"/>
       <c r="F450" s="33"/>
     </row>
     <row r="451" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B451" s="30"/>
-      <c r="C451" s="39"/>
+      <c r="C451" s="35"/>
       <c r="D451" s="33"/>
       <c r="E451" s="33"/>
       <c r="F451" s="33"/>
     </row>
     <row r="452" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B452" s="30"/>
-      <c r="C452" s="39"/>
+      <c r="C452" s="35"/>
       <c r="D452" s="33"/>
       <c r="E452" s="33"/>
       <c r="F452" s="33"/>
     </row>
     <row r="453" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B453" s="30"/>
-      <c r="C453" s="39"/>
+      <c r="C453" s="35"/>
       <c r="D453" s="33"/>
       <c r="E453" s="33"/>
       <c r="F453" s="33"/>
     </row>
     <row r="454" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B454" s="30"/>
-      <c r="C454" s="39"/>
+      <c r="C454" s="35"/>
       <c r="D454" s="33"/>
       <c r="E454" s="33"/>
       <c r="F454" s="33"/>
     </row>
     <row r="455" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B455" s="30"/>
-      <c r="C455" s="39"/>
+      <c r="C455" s="35"/>
       <c r="D455" s="33"/>
       <c r="E455" s="33"/>
       <c r="F455" s="33"/>
     </row>
     <row r="456" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B456" s="30"/>
-      <c r="C456" s="39"/>
+      <c r="C456" s="35"/>
       <c r="D456" s="33"/>
       <c r="E456" s="33"/>
       <c r="F456" s="33"/>
     </row>
     <row r="457" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B457" s="30"/>
-      <c r="C457" s="39"/>
+      <c r="C457" s="35"/>
       <c r="D457" s="33"/>
       <c r="E457" s="33"/>
       <c r="F457" s="33"/>
     </row>
     <row r="458" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B458" s="30"/>
-      <c r="C458" s="39"/>
+      <c r="C458" s="35"/>
       <c r="D458" s="33"/>
       <c r="E458" s="33"/>
       <c r="F458" s="33"/>
     </row>
     <row r="459" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B459" s="30"/>
-      <c r="C459" s="39"/>
+      <c r="C459" s="35"/>
       <c r="D459" s="33"/>
       <c r="E459" s="33"/>
       <c r="F459" s="33"/>
     </row>
     <row r="460" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B460" s="30"/>
-      <c r="C460" s="39"/>
+      <c r="C460" s="35"/>
       <c r="D460" s="33"/>
       <c r="E460" s="33"/>
       <c r="F460" s="33"/>
     </row>
     <row r="461" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B461" s="30"/>
-      <c r="C461" s="39"/>
+      <c r="C461" s="35"/>
       <c r="D461" s="33"/>
       <c r="E461" s="33"/>
       <c r="F461" s="33"/>
     </row>
     <row r="462" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B462" s="30"/>
-      <c r="C462" s="39"/>
+      <c r="C462" s="35"/>
       <c r="D462" s="33"/>
       <c r="E462" s="33"/>
       <c r="F462" s="33"/>
     </row>
     <row r="463" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B463" s="30"/>
-      <c r="C463" s="39"/>
+      <c r="C463" s="35"/>
       <c r="D463" s="33"/>
       <c r="E463" s="33"/>
       <c r="F463" s="33"/>
     </row>
     <row r="464" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B464" s="30"/>
-      <c r="C464" s="39"/>
+      <c r="C464" s="35"/>
       <c r="D464" s="33"/>
       <c r="E464" s="33"/>
       <c r="F464" s="33"/>
     </row>
     <row r="465" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B465" s="30"/>
-      <c r="C465" s="39"/>
+      <c r="C465" s="35"/>
       <c r="D465" s="33"/>
       <c r="E465" s="33"/>
       <c r="F465" s="33"/>
     </row>
     <row r="466" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B466" s="31"/>
-      <c r="C466" s="40"/>
+      <c r="C466" s="37"/>
       <c r="D466" s="33"/>
       <c r="E466" s="33"/>
       <c r="F466" s="33"/>
@@ -16410,16 +16730,16 @@
         <v>15</v>
       </c>
       <c r="C467" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D467" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D467" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="E467" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F467" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="468" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -16550,12 +16870,12 @@
     </row>
     <row r="486" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B486" s="27"/>
-      <c r="C486" s="34" t="s">
-        <v>65</v>
+      <c r="C486" s="38" t="s">
+        <v>64</v>
       </c>
       <c r="D486" s="10"/>
       <c r="E486" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F486" s="10"/>
     </row>
@@ -16718,13 +17038,13 @@
         <v>16</v>
       </c>
       <c r="C509" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D509" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="E509" s="48" t="s">
-        <v>136</v>
+        <v>159</v>
+      </c>
+      <c r="E509" s="43" t="s">
+        <v>135</v>
       </c>
       <c r="F509" s="33"/>
     </row>
@@ -16768,14 +17088,14 @@
         <v>18</v>
       </c>
       <c r="C515" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D515" s="10"/>
       <c r="E515" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F515" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="516" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -17042,16 +17362,16 @@
         <v>19</v>
       </c>
       <c r="C553" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D553" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E553" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="F553" s="19" t="s">
         <v>161</v>
-      </c>
-      <c r="F553" s="19" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="554" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -17183,11 +17503,11 @@
     <row r="572" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B572" s="27"/>
       <c r="C572" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D572" s="10"/>
       <c r="E572" s="19" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F572" s="19"/>
     </row>
@@ -17350,16 +17670,16 @@
         <v>20</v>
       </c>
       <c r="C595" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D595" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E595" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="E595" s="19" t="s">
+      <c r="F595" s="19" t="s">
         <v>166</v>
-      </c>
-      <c r="F595" s="19" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="596" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -17491,11 +17811,11 @@
     <row r="614" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B614" s="27"/>
       <c r="C614" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D614" s="9"/>
       <c r="E614" s="19" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F614" s="19"/>
     </row>
@@ -17651,16 +17971,16 @@
         <v>21</v>
       </c>
       <c r="C636" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D636" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E636" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F636" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="637" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -17792,11 +18112,11 @@
     <row r="655" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B655" s="27"/>
       <c r="C655" s="15" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D655" s="11"/>
       <c r="E655" s="15" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F655" s="15"/>
     </row>
@@ -17959,16 +18279,16 @@
         <v>22</v>
       </c>
       <c r="C678" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D678" s="9" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="E678" s="19" t="s">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="F678" s="19" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="679" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -18100,11 +18420,11 @@
     <row r="697" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B697" s="27"/>
       <c r="C697" s="15" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D697" s="9"/>
       <c r="E697" s="19" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="F697" s="19"/>
     </row>
@@ -18263,198 +18583,515 @@
       <c r="F719" s="10"/>
     </row>
     <row r="720" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B720" s="8">
+      <c r="B720" s="64">
+        <v>23</v>
+      </c>
+      <c r="C720" s="65" t="s">
+        <v>226</v>
+      </c>
+      <c r="D720" s="66" t="s">
+        <v>229</v>
+      </c>
+      <c r="E720" s="66" t="s">
+        <v>231</v>
+      </c>
+      <c r="F720" s="66" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="721" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B721" s="67"/>
+      <c r="C721" s="68"/>
+      <c r="D721" s="68"/>
+      <c r="E721" s="68"/>
+      <c r="F721" s="68"/>
+    </row>
+    <row r="722" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B722" s="67"/>
+      <c r="C722" s="68"/>
+      <c r="D722" s="68"/>
+      <c r="E722" s="68"/>
+      <c r="F722" s="68"/>
+    </row>
+    <row r="723" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B723" s="67"/>
+      <c r="C723" s="68"/>
+      <c r="D723" s="68"/>
+      <c r="E723" s="68"/>
+      <c r="F723" s="68"/>
+    </row>
+    <row r="724" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B724" s="67"/>
+      <c r="C724" s="68"/>
+      <c r="D724" s="68"/>
+      <c r="E724" s="68"/>
+      <c r="F724" s="68"/>
+    </row>
+    <row r="725" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B725" s="67"/>
+      <c r="C725" s="68"/>
+      <c r="D725" s="68"/>
+      <c r="E725" s="68"/>
+      <c r="F725" s="68"/>
+    </row>
+    <row r="726" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B726" s="67"/>
+      <c r="C726" s="68"/>
+      <c r="D726" s="68"/>
+      <c r="E726" s="68"/>
+      <c r="F726" s="68"/>
+    </row>
+    <row r="727" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B727" s="67"/>
+      <c r="C727" s="68"/>
+      <c r="D727" s="68"/>
+      <c r="E727" s="68"/>
+      <c r="F727" s="68"/>
+    </row>
+    <row r="728" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B728" s="67"/>
+      <c r="C728" s="68"/>
+      <c r="D728" s="68"/>
+      <c r="E728" s="68"/>
+      <c r="F728" s="68"/>
+    </row>
+    <row r="729" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B729" s="67"/>
+      <c r="C729" s="68"/>
+      <c r="D729" s="68"/>
+      <c r="E729" s="68"/>
+      <c r="F729" s="68"/>
+    </row>
+    <row r="730" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B730" s="67"/>
+      <c r="C730" s="68"/>
+      <c r="D730" s="68"/>
+      <c r="E730" s="68"/>
+      <c r="F730" s="68"/>
+    </row>
+    <row r="731" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B731" s="67"/>
+      <c r="C731" s="68"/>
+      <c r="D731" s="68"/>
+      <c r="E731" s="68"/>
+      <c r="F731" s="68"/>
+    </row>
+    <row r="732" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B732" s="67"/>
+      <c r="C732" s="68"/>
+      <c r="D732" s="68"/>
+      <c r="E732" s="68"/>
+      <c r="F732" s="68"/>
+    </row>
+    <row r="733" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B733" s="67"/>
+      <c r="C733" s="68"/>
+      <c r="D733" s="68"/>
+      <c r="E733" s="68"/>
+      <c r="F733" s="68"/>
+    </row>
+    <row r="734" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B734" s="67"/>
+      <c r="C734" s="68"/>
+      <c r="D734" s="68"/>
+      <c r="E734" s="68"/>
+      <c r="F734" s="68"/>
+    </row>
+    <row r="735" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B735" s="67"/>
+      <c r="C735" s="68"/>
+      <c r="D735" s="68"/>
+      <c r="E735" s="68"/>
+      <c r="F735" s="68"/>
+    </row>
+    <row r="736" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B736" s="67"/>
+      <c r="C736" s="68"/>
+      <c r="D736" s="68"/>
+      <c r="E736" s="68"/>
+      <c r="F736" s="68"/>
+    </row>
+    <row r="737" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B737" s="67"/>
+      <c r="C737" s="68"/>
+      <c r="D737" s="68"/>
+      <c r="E737" s="68"/>
+      <c r="F737" s="68"/>
+    </row>
+    <row r="738" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B738" s="67"/>
+      <c r="C738" s="69"/>
+      <c r="D738" s="69"/>
+      <c r="E738" s="69"/>
+      <c r="F738" s="69"/>
+    </row>
+    <row r="739" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B739" s="67"/>
+      <c r="C739" s="65" t="s">
+        <v>227</v>
+      </c>
+      <c r="D739" s="65"/>
+      <c r="E739" s="66" t="s">
+        <v>234</v>
+      </c>
+      <c r="F739" s="65"/>
+    </row>
+    <row r="740" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B740" s="67"/>
+      <c r="C740" s="68"/>
+      <c r="D740" s="68"/>
+      <c r="E740" s="68"/>
+      <c r="F740" s="68"/>
+    </row>
+    <row r="741" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B741" s="67"/>
+      <c r="C741" s="68"/>
+      <c r="D741" s="68"/>
+      <c r="E741" s="68"/>
+      <c r="F741" s="68"/>
+    </row>
+    <row r="742" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B742" s="67"/>
+      <c r="C742" s="68"/>
+      <c r="D742" s="68"/>
+      <c r="E742" s="68"/>
+      <c r="F742" s="68"/>
+    </row>
+    <row r="743" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B743" s="67"/>
+      <c r="C743" s="68"/>
+      <c r="D743" s="68"/>
+      <c r="E743" s="68"/>
+      <c r="F743" s="68"/>
+    </row>
+    <row r="744" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B744" s="67"/>
+      <c r="C744" s="68"/>
+      <c r="D744" s="68"/>
+      <c r="E744" s="68"/>
+      <c r="F744" s="68"/>
+    </row>
+    <row r="745" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B745" s="67"/>
+      <c r="C745" s="68"/>
+      <c r="D745" s="68"/>
+      <c r="E745" s="68"/>
+      <c r="F745" s="68"/>
+    </row>
+    <row r="746" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B746" s="67"/>
+      <c r="C746" s="68"/>
+      <c r="D746" s="68"/>
+      <c r="E746" s="68"/>
+      <c r="F746" s="68"/>
+    </row>
+    <row r="747" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B747" s="67"/>
+      <c r="C747" s="68"/>
+      <c r="D747" s="68"/>
+      <c r="E747" s="68"/>
+      <c r="F747" s="68"/>
+    </row>
+    <row r="748" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B748" s="67"/>
+      <c r="C748" s="68"/>
+      <c r="D748" s="68"/>
+      <c r="E748" s="68"/>
+      <c r="F748" s="68"/>
+    </row>
+    <row r="749" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B749" s="67"/>
+      <c r="C749" s="68"/>
+      <c r="D749" s="68"/>
+      <c r="E749" s="68"/>
+      <c r="F749" s="68"/>
+    </row>
+    <row r="750" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B750" s="67"/>
+      <c r="C750" s="68"/>
+      <c r="D750" s="68"/>
+      <c r="E750" s="68"/>
+      <c r="F750" s="68"/>
+    </row>
+    <row r="751" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B751" s="67"/>
+      <c r="C751" s="68"/>
+      <c r="D751" s="68"/>
+      <c r="E751" s="68"/>
+      <c r="F751" s="68"/>
+    </row>
+    <row r="752" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B752" s="67"/>
+      <c r="C752" s="68"/>
+      <c r="D752" s="68"/>
+      <c r="E752" s="68"/>
+      <c r="F752" s="68"/>
+    </row>
+    <row r="753" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B753" s="67"/>
+      <c r="C753" s="68"/>
+      <c r="D753" s="68"/>
+      <c r="E753" s="68"/>
+      <c r="F753" s="68"/>
+    </row>
+    <row r="754" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B754" s="67"/>
+      <c r="C754" s="68"/>
+      <c r="D754" s="68"/>
+      <c r="E754" s="68"/>
+      <c r="F754" s="68"/>
+    </row>
+    <row r="755" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B755" s="67"/>
+      <c r="C755" s="68"/>
+      <c r="D755" s="68"/>
+      <c r="E755" s="68"/>
+      <c r="F755" s="68"/>
+    </row>
+    <row r="756" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B756" s="67"/>
+      <c r="C756" s="68"/>
+      <c r="D756" s="68"/>
+      <c r="E756" s="68"/>
+      <c r="F756" s="68"/>
+    </row>
+    <row r="757" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B757" s="67"/>
+      <c r="C757" s="68"/>
+      <c r="D757" s="68"/>
+      <c r="E757" s="68"/>
+      <c r="F757" s="68"/>
+    </row>
+    <row r="758" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B758" s="67"/>
+      <c r="C758" s="68"/>
+      <c r="D758" s="68"/>
+      <c r="E758" s="68"/>
+      <c r="F758" s="68"/>
+    </row>
+    <row r="759" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B759" s="67"/>
+      <c r="C759" s="68"/>
+      <c r="D759" s="68"/>
+      <c r="E759" s="68"/>
+      <c r="F759" s="68"/>
+    </row>
+    <row r="760" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B760" s="67"/>
+      <c r="C760" s="68"/>
+      <c r="D760" s="68"/>
+      <c r="E760" s="68"/>
+      <c r="F760" s="68"/>
+    </row>
+    <row r="761" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B761" s="67"/>
+      <c r="C761" s="68"/>
+      <c r="D761" s="68"/>
+      <c r="E761" s="68"/>
+      <c r="F761" s="68"/>
+    </row>
+    <row r="762" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B762" s="8">
         <v>17</v>
       </c>
-      <c r="C720" s="10" t="s">
+      <c r="C762" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D762" s="10"/>
+      <c r="E762" s="10"/>
+      <c r="F762" s="10"/>
+    </row>
+    <row r="763" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B763" s="8"/>
+      <c r="C763" s="10"/>
+      <c r="D763" s="10"/>
+      <c r="E763" s="10"/>
+      <c r="F763" s="10"/>
+    </row>
+    <row r="764" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B764" s="8"/>
+      <c r="C764" s="10"/>
+      <c r="D764" s="10"/>
+      <c r="E764" s="10"/>
+      <c r="F764" s="10"/>
+    </row>
+    <row r="765" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B765" s="8"/>
+      <c r="C765" s="10"/>
+      <c r="D765" s="10"/>
+      <c r="E765" s="10"/>
+      <c r="F765" s="10"/>
+    </row>
+    <row r="766" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B766" s="8"/>
+      <c r="C766" s="10"/>
+      <c r="D766" s="10"/>
+      <c r="E766" s="10"/>
+      <c r="F766" s="10"/>
+    </row>
+    <row r="767" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B767" s="8"/>
+      <c r="C767" s="10"/>
+      <c r="D767" s="10"/>
+      <c r="E767" s="10"/>
+      <c r="F767" s="10"/>
+    </row>
+    <row r="768" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B768" s="8">
+        <v>18</v>
+      </c>
+      <c r="C768" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D768" s="10"/>
+      <c r="E768" s="10"/>
+      <c r="F768" s="10"/>
+    </row>
+    <row r="769" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B769" s="8"/>
+      <c r="C769" s="10"/>
+      <c r="D769" s="10"/>
+      <c r="E769" s="10"/>
+      <c r="F769" s="10"/>
+    </row>
+    <row r="770" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B770" s="8"/>
+      <c r="C770" s="10"/>
+      <c r="D770" s="10"/>
+      <c r="E770" s="10"/>
+      <c r="F770" s="10"/>
+    </row>
+    <row r="771" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B771" s="8"/>
+      <c r="C771" s="10"/>
+      <c r="D771" s="10"/>
+      <c r="E771" s="10"/>
+      <c r="F771" s="10"/>
+    </row>
+    <row r="772" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B772" s="8"/>
+      <c r="C772" s="10"/>
+      <c r="D772" s="10"/>
+      <c r="E772" s="10"/>
+      <c r="F772" s="10"/>
+    </row>
+    <row r="773" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B773" s="8"/>
+      <c r="C773" s="10"/>
+      <c r="D773" s="10"/>
+      <c r="E773" s="10"/>
+      <c r="F773" s="10"/>
+    </row>
+    <row r="774" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B774" s="8">
+        <v>19</v>
+      </c>
+      <c r="C774" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D774" s="10"/>
+      <c r="E774" s="10"/>
+      <c r="F774" s="10"/>
+    </row>
+    <row r="775" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B775" s="8"/>
+      <c r="C775" s="21"/>
+      <c r="D775" s="10"/>
+      <c r="E775" s="10"/>
+      <c r="F775" s="10"/>
+    </row>
+    <row r="776" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B776" s="8"/>
+      <c r="C776" s="21"/>
+      <c r="D776" s="10"/>
+      <c r="E776" s="10"/>
+      <c r="F776" s="10"/>
+    </row>
+    <row r="777" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B777" s="8"/>
+      <c r="C777" s="21"/>
+      <c r="D777" s="10"/>
+      <c r="E777" s="10"/>
+      <c r="F777" s="10"/>
+    </row>
+    <row r="778" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B778" s="8"/>
+      <c r="C778" s="21"/>
+      <c r="D778" s="10"/>
+      <c r="E778" s="10"/>
+      <c r="F778" s="10"/>
+    </row>
+    <row r="779" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B779" s="8"/>
+      <c r="C779" s="22"/>
+      <c r="D779" s="10"/>
+      <c r="E779" s="10"/>
+      <c r="F779" s="10"/>
+    </row>
+    <row r="780" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B780" s="8"/>
+      <c r="C780" s="20"/>
+      <c r="D780" s="10"/>
+      <c r="E780" s="10"/>
+      <c r="F780" s="10"/>
+    </row>
+    <row r="781" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B781" s="8"/>
+      <c r="C781" s="21"/>
+      <c r="D781" s="10"/>
+      <c r="E781" s="10"/>
+      <c r="F781" s="10"/>
+    </row>
+    <row r="782" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B782" s="8"/>
+      <c r="C782" s="21"/>
+      <c r="D782" s="10"/>
+      <c r="E782" s="10"/>
+      <c r="F782" s="10"/>
+    </row>
+    <row r="783" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B783" s="8"/>
+      <c r="C783" s="21"/>
+      <c r="D783" s="10"/>
+      <c r="E783" s="10"/>
+      <c r="F783" s="10"/>
+    </row>
+    <row r="784" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B784" s="8"/>
+      <c r="C784" s="22"/>
+      <c r="D784" s="10"/>
+      <c r="E784" s="10"/>
+      <c r="F784" s="10"/>
+    </row>
+    <row r="785" spans="3:3" ht="20.100000000000001" customHeight="1">
+      <c r="C785" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D720" s="10"/>
-      <c r="E720" s="10"/>
-      <c r="F720" s="10"/>
-    </row>
-    <row r="721" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B721" s="8"/>
-      <c r="C721" s="10"/>
-      <c r="D721" s="10"/>
-      <c r="E721" s="10"/>
-      <c r="F721" s="10"/>
-    </row>
-    <row r="722" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B722" s="8"/>
-      <c r="C722" s="10"/>
-      <c r="D722" s="10"/>
-      <c r="E722" s="10"/>
-      <c r="F722" s="10"/>
-    </row>
-    <row r="723" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B723" s="8"/>
-      <c r="C723" s="10"/>
-      <c r="D723" s="10"/>
-      <c r="E723" s="10"/>
-      <c r="F723" s="10"/>
-    </row>
-    <row r="724" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B724" s="8"/>
-      <c r="C724" s="10"/>
-      <c r="D724" s="10"/>
-      <c r="E724" s="10"/>
-      <c r="F724" s="10"/>
-    </row>
-    <row r="725" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B725" s="8"/>
-      <c r="C725" s="10"/>
-      <c r="D725" s="10"/>
-      <c r="E725" s="10"/>
-      <c r="F725" s="10"/>
-    </row>
-    <row r="726" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B726" s="8">
-        <v>18</v>
-      </c>
-      <c r="C726" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="D726" s="10"/>
-      <c r="E726" s="10"/>
-      <c r="F726" s="10"/>
-    </row>
-    <row r="727" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B727" s="8"/>
-      <c r="C727" s="10"/>
-      <c r="D727" s="10"/>
-      <c r="E727" s="10"/>
-      <c r="F727" s="10"/>
-    </row>
-    <row r="728" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B728" s="8"/>
-      <c r="C728" s="10"/>
-      <c r="D728" s="10"/>
-      <c r="E728" s="10"/>
-      <c r="F728" s="10"/>
-    </row>
-    <row r="729" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B729" s="8"/>
-      <c r="C729" s="10"/>
-      <c r="D729" s="10"/>
-      <c r="E729" s="10"/>
-      <c r="F729" s="10"/>
-    </row>
-    <row r="730" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B730" s="8"/>
-      <c r="C730" s="10"/>
-      <c r="D730" s="10"/>
-      <c r="E730" s="10"/>
-      <c r="F730" s="10"/>
-    </row>
-    <row r="731" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B731" s="8"/>
-      <c r="C731" s="10"/>
-      <c r="D731" s="10"/>
-      <c r="E731" s="10"/>
-      <c r="F731" s="10"/>
-    </row>
-    <row r="732" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B732" s="8">
-        <v>19</v>
-      </c>
-      <c r="C732" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D732" s="10"/>
-      <c r="E732" s="10"/>
-      <c r="F732" s="10"/>
-    </row>
-    <row r="733" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B733" s="8"/>
-      <c r="C733" s="21"/>
-      <c r="D733" s="10"/>
-      <c r="E733" s="10"/>
-      <c r="F733" s="10"/>
-    </row>
-    <row r="734" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B734" s="8"/>
-      <c r="C734" s="21"/>
-      <c r="D734" s="10"/>
-      <c r="E734" s="10"/>
-      <c r="F734" s="10"/>
-    </row>
-    <row r="735" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B735" s="8"/>
-      <c r="C735" s="21"/>
-      <c r="D735" s="10"/>
-      <c r="E735" s="10"/>
-      <c r="F735" s="10"/>
-    </row>
-    <row r="736" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B736" s="8"/>
-      <c r="C736" s="21"/>
-      <c r="D736" s="10"/>
-      <c r="E736" s="10"/>
-      <c r="F736" s="10"/>
-    </row>
-    <row r="737" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B737" s="8"/>
-      <c r="C737" s="22"/>
-      <c r="D737" s="10"/>
-      <c r="E737" s="10"/>
-      <c r="F737" s="10"/>
-    </row>
-    <row r="738" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B738" s="8"/>
-      <c r="C738" s="20"/>
-      <c r="D738" s="10"/>
-      <c r="E738" s="10"/>
-      <c r="F738" s="10"/>
-    </row>
-    <row r="739" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B739" s="8"/>
-      <c r="C739" s="21"/>
-      <c r="D739" s="10"/>
-      <c r="E739" s="10"/>
-      <c r="F739" s="10"/>
-    </row>
-    <row r="740" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B740" s="8"/>
-      <c r="C740" s="21"/>
-      <c r="D740" s="10"/>
-      <c r="E740" s="10"/>
-      <c r="F740" s="10"/>
-    </row>
-    <row r="741" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B741" s="8"/>
-      <c r="C741" s="21"/>
-      <c r="D741" s="10"/>
-      <c r="E741" s="10"/>
-      <c r="F741" s="10"/>
-    </row>
-    <row r="742" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B742" s="8"/>
-      <c r="C742" s="22"/>
-      <c r="D742" s="10"/>
-      <c r="E742" s="10"/>
-      <c r="F742" s="10"/>
-    </row>
-    <row r="743" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="C743" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="744" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="C744" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="745" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="C745" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="747" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="C747" s="4"/>
+    </row>
+    <row r="786" spans="3:3" ht="20.100000000000001" customHeight="1">
+      <c r="C786" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="787" spans="3:3" ht="20.100000000000001" customHeight="1">
+      <c r="C787" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="789" spans="3:3" ht="20.100000000000001" customHeight="1">
+      <c r="C789" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="208">
+  <mergeCells count="217">
+    <mergeCell ref="B720:B761"/>
+    <mergeCell ref="C720:C738"/>
+    <mergeCell ref="D720:D738"/>
+    <mergeCell ref="E720:E738"/>
+    <mergeCell ref="F720:F738"/>
+    <mergeCell ref="C739:C761"/>
+    <mergeCell ref="D739:D761"/>
+    <mergeCell ref="E739:E761"/>
+    <mergeCell ref="F739:F761"/>
     <mergeCell ref="B380:B407"/>
     <mergeCell ref="B408:B424"/>
     <mergeCell ref="E697:E719"/>
@@ -18556,10 +19193,10 @@
     <mergeCell ref="D261:D283"/>
     <mergeCell ref="D284:D302"/>
     <mergeCell ref="D303:D325"/>
-    <mergeCell ref="F720:F725"/>
-    <mergeCell ref="F726:F731"/>
-    <mergeCell ref="D720:D725"/>
-    <mergeCell ref="D726:D731"/>
+    <mergeCell ref="F762:F767"/>
+    <mergeCell ref="F768:F773"/>
+    <mergeCell ref="D762:D767"/>
+    <mergeCell ref="D768:D773"/>
     <mergeCell ref="D330:D336"/>
     <mergeCell ref="D337:D355"/>
     <mergeCell ref="D398:D407"/>
@@ -18585,8 +19222,8 @@
     <mergeCell ref="B3:B40"/>
     <mergeCell ref="B41:B111"/>
     <mergeCell ref="B112:B157"/>
-    <mergeCell ref="C720:C725"/>
-    <mergeCell ref="C726:C731"/>
+    <mergeCell ref="C762:C767"/>
+    <mergeCell ref="C768:C773"/>
     <mergeCell ref="C553:C571"/>
     <mergeCell ref="C595:C613"/>
     <mergeCell ref="C636:C654"/>
@@ -18621,14 +19258,14 @@
     <mergeCell ref="B284:B325"/>
     <mergeCell ref="B326:B336"/>
     <mergeCell ref="B158:B169"/>
-    <mergeCell ref="B738:B742"/>
-    <mergeCell ref="C738:C742"/>
-    <mergeCell ref="D738:D742"/>
+    <mergeCell ref="B780:B784"/>
+    <mergeCell ref="C780:C784"/>
+    <mergeCell ref="D780:D784"/>
     <mergeCell ref="B425:B466"/>
     <mergeCell ref="B467:B508"/>
     <mergeCell ref="B509:B514"/>
-    <mergeCell ref="B720:B725"/>
-    <mergeCell ref="B726:B731"/>
+    <mergeCell ref="B762:B767"/>
+    <mergeCell ref="B768:B773"/>
     <mergeCell ref="C158:C161"/>
     <mergeCell ref="C170:C172"/>
     <mergeCell ref="C173:C195"/>
@@ -18639,18 +19276,18 @@
     <mergeCell ref="D326:D329"/>
     <mergeCell ref="D158:D161"/>
     <mergeCell ref="D170:D172"/>
-    <mergeCell ref="E738:E742"/>
-    <mergeCell ref="F738:F742"/>
+    <mergeCell ref="E780:E784"/>
+    <mergeCell ref="F780:F784"/>
     <mergeCell ref="B515:B552"/>
     <mergeCell ref="C515:C552"/>
     <mergeCell ref="D515:D552"/>
     <mergeCell ref="E515:E552"/>
     <mergeCell ref="F515:F552"/>
-    <mergeCell ref="B732:B737"/>
-    <mergeCell ref="C732:C737"/>
-    <mergeCell ref="D732:D737"/>
-    <mergeCell ref="E732:E737"/>
-    <mergeCell ref="F732:F737"/>
+    <mergeCell ref="B774:B779"/>
+    <mergeCell ref="C774:C779"/>
+    <mergeCell ref="D774:D779"/>
+    <mergeCell ref="E774:E779"/>
+    <mergeCell ref="F774:F779"/>
     <mergeCell ref="D553:D571"/>
     <mergeCell ref="E553:E571"/>
     <mergeCell ref="D595:D613"/>
@@ -18660,8 +19297,8 @@
     <mergeCell ref="D655:D677"/>
     <mergeCell ref="B636:B677"/>
     <mergeCell ref="D572:D594"/>
-    <mergeCell ref="E720:E725"/>
-    <mergeCell ref="E726:E731"/>
+    <mergeCell ref="E762:E767"/>
+    <mergeCell ref="E768:E773"/>
     <mergeCell ref="E655:E677"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -18692,16 +19329,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>71</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -18751,48 +19388,48 @@
         <v>2</v>
       </c>
       <c r="C9" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="E9" s="48" t="s">
         <v>74</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>75</v>
       </c>
       <c r="F9" s="33"/>
     </row>
     <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
-      <c r="D10" s="36"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
     </row>
     <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="32"/>
       <c r="C11" s="33"/>
-      <c r="D11" s="36"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
     </row>
     <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="32"/>
       <c r="C12" s="33"/>
-      <c r="D12" s="36"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
     </row>
     <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="32"/>
       <c r="C13" s="33"/>
-      <c r="D13" s="36"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
     </row>
     <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="32"/>
       <c r="C14" s="33"/>
-      <c r="D14" s="37"/>
+      <c r="D14" s="41"/>
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
@@ -18801,13 +19438,13 @@
         <v>3</v>
       </c>
       <c r="C15" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="E15" s="19" t="s">
         <v>77</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>78</v>
       </c>
       <c r="F15" s="10"/>
     </row>
@@ -18851,48 +19488,48 @@
         <v>4</v>
       </c>
       <c r="C21" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="48" t="s">
         <v>79</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="44" t="s">
-        <v>80</v>
       </c>
       <c r="F21" s="33"/>
     </row>
     <row r="22" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="32"/>
       <c r="C22" s="33"/>
-      <c r="D22" s="36"/>
+      <c r="D22" s="40"/>
       <c r="E22" s="33"/>
       <c r="F22" s="33"/>
     </row>
     <row r="23" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B23" s="32"/>
       <c r="C23" s="33"/>
-      <c r="D23" s="36"/>
+      <c r="D23" s="40"/>
       <c r="E23" s="33"/>
       <c r="F23" s="33"/>
     </row>
     <row r="24" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B24" s="32"/>
       <c r="C24" s="33"/>
-      <c r="D24" s="36"/>
+      <c r="D24" s="40"/>
       <c r="E24" s="33"/>
       <c r="F24" s="33"/>
     </row>
     <row r="25" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B25" s="32"/>
       <c r="C25" s="33"/>
-      <c r="D25" s="36"/>
+      <c r="D25" s="40"/>
       <c r="E25" s="33"/>
       <c r="F25" s="33"/>
     </row>
     <row r="26" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B26" s="32"/>
       <c r="C26" s="33"/>
-      <c r="D26" s="37"/>
+      <c r="D26" s="41"/>
       <c r="E26" s="33"/>
       <c r="F26" s="33"/>
     </row>
@@ -18901,16 +19538,16 @@
         <v>5</v>
       </c>
       <c r="C27" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="E27" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="15" t="s">
-        <v>83</v>
-      </c>
       <c r="F27" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -18959,58 +19596,58 @@
       <c r="B34" s="29">
         <v>6</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="E34" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="F34" s="35"/>
+      <c r="E34" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="39"/>
     </row>
     <row r="35" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B35" s="30"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
     </row>
     <row r="36" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B36" s="30"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
     </row>
     <row r="37" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B37" s="30"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
     </row>
     <row r="38" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B38" s="30"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
     </row>
     <row r="39" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B39" s="31"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
     </row>
     <row r="40" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B40" s="26">
         <v>7</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D40" s="17"/>
       <c r="E40" s="10"/>
@@ -19056,57 +19693,57 @@
         <v>8</v>
       </c>
       <c r="C46" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="D46" s="35" t="s">
+      <c r="E46" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="E46" s="53" t="s">
+      <c r="F46" s="53" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" s="53" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B47" s="30"/>
       <c r="C47" s="33"/>
-      <c r="D47" s="36"/>
+      <c r="D47" s="40"/>
       <c r="E47" s="33"/>
       <c r="F47" s="33"/>
     </row>
     <row r="48" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B48" s="30"/>
       <c r="C48" s="33"/>
-      <c r="D48" s="36"/>
+      <c r="D48" s="40"/>
       <c r="E48" s="33"/>
       <c r="F48" s="33"/>
     </row>
     <row r="49" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B49" s="30"/>
       <c r="C49" s="33"/>
-      <c r="D49" s="36"/>
+      <c r="D49" s="40"/>
       <c r="E49" s="33"/>
       <c r="F49" s="33"/>
     </row>
     <row r="50" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B50" s="30"/>
       <c r="C50" s="33"/>
-      <c r="D50" s="36"/>
+      <c r="D50" s="40"/>
       <c r="E50" s="33"/>
       <c r="F50" s="33"/>
     </row>
     <row r="51" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B51" s="30"/>
       <c r="C51" s="33"/>
-      <c r="D51" s="36"/>
+      <c r="D51" s="40"/>
       <c r="E51" s="33"/>
       <c r="F51" s="33"/>
     </row>
     <row r="52" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B52" s="31"/>
       <c r="C52" s="33"/>
-      <c r="D52" s="37"/>
+      <c r="D52" s="41"/>
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
     </row>
@@ -19115,16 +19752,16 @@
         <v>9</v>
       </c>
       <c r="C53" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D53" s="17" t="s">
+      <c r="E53" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E53" s="19" t="s">
+      <c r="F53" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="F53" s="19" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="54" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -19174,48 +19811,48 @@
         <v>10</v>
       </c>
       <c r="C60" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="D60" s="35" t="s">
+      <c r="E60" s="48" t="s">
         <v>96</v>
-      </c>
-      <c r="E60" s="44" t="s">
-        <v>97</v>
       </c>
       <c r="F60" s="33"/>
     </row>
     <row r="61" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B61" s="32"/>
       <c r="C61" s="33"/>
-      <c r="D61" s="36"/>
+      <c r="D61" s="40"/>
       <c r="E61" s="33"/>
       <c r="F61" s="33"/>
     </row>
     <row r="62" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B62" s="32"/>
       <c r="C62" s="33"/>
-      <c r="D62" s="36"/>
+      <c r="D62" s="40"/>
       <c r="E62" s="33"/>
       <c r="F62" s="33"/>
     </row>
     <row r="63" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B63" s="32"/>
       <c r="C63" s="33"/>
-      <c r="D63" s="36"/>
+      <c r="D63" s="40"/>
       <c r="E63" s="33"/>
       <c r="F63" s="33"/>
     </row>
     <row r="64" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B64" s="32"/>
       <c r="C64" s="33"/>
-      <c r="D64" s="36"/>
+      <c r="D64" s="40"/>
       <c r="E64" s="33"/>
       <c r="F64" s="33"/>
     </row>
     <row r="65" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B65" s="32"/>
       <c r="C65" s="33"/>
-      <c r="D65" s="37"/>
+      <c r="D65" s="41"/>
       <c r="E65" s="33"/>
       <c r="F65" s="33"/>
     </row>
@@ -19347,7 +19984,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" s="58"/>
       <c r="E2" s="59"/>
@@ -19393,7 +20030,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="58"/>
       <c r="E8" s="59"/>
@@ -19439,7 +20076,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D14" s="58"/>
       <c r="E14" s="59"/>
@@ -19485,13 +20122,13 @@
         <v>4</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F20" s="10"/>
     </row>
@@ -19514,7 +20151,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D23" s="58"/>
       <c r="E23" s="59"/>
@@ -19560,7 +20197,7 @@
         <v>6</v>
       </c>
       <c r="C29" s="54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D29" s="58"/>
       <c r="E29" s="59"/>
@@ -19605,88 +20242,88 @@
       <c r="B35" s="32">
         <v>7</v>
       </c>
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="D35" s="33" t="s">
+      <c r="E35" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="E35" s="38" t="s">
+      <c r="F35" s="48" t="s">
         <v>106</v>
-      </c>
-      <c r="F35" s="44" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B36" s="32"/>
-      <c r="C36" s="39"/>
+      <c r="C36" s="35"/>
       <c r="D36" s="33"/>
       <c r="E36" s="62"/>
       <c r="F36" s="33"/>
     </row>
     <row r="37" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B37" s="32"/>
-      <c r="C37" s="39"/>
+      <c r="C37" s="35"/>
       <c r="D37" s="33"/>
       <c r="E37" s="62"/>
       <c r="F37" s="33"/>
     </row>
     <row r="38" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B38" s="32"/>
-      <c r="C38" s="39"/>
+      <c r="C38" s="35"/>
       <c r="D38" s="33"/>
       <c r="E38" s="62"/>
       <c r="F38" s="33"/>
     </row>
     <row r="39" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B39" s="32"/>
-      <c r="C39" s="39"/>
+      <c r="C39" s="35"/>
       <c r="D39" s="33"/>
       <c r="E39" s="62"/>
       <c r="F39" s="33"/>
     </row>
     <row r="40" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B40" s="32"/>
-      <c r="C40" s="39"/>
+      <c r="C40" s="35"/>
       <c r="D40" s="33"/>
       <c r="E40" s="62"/>
       <c r="F40" s="33"/>
     </row>
     <row r="41" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B41" s="32"/>
-      <c r="C41" s="39"/>
+      <c r="C41" s="35"/>
       <c r="D41" s="33"/>
       <c r="E41" s="62"/>
       <c r="F41" s="33"/>
     </row>
     <row r="42" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B42" s="32"/>
-      <c r="C42" s="39"/>
+      <c r="C42" s="35"/>
       <c r="D42" s="33"/>
       <c r="E42" s="62"/>
       <c r="F42" s="33"/>
     </row>
     <row r="43" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B43" s="32"/>
-      <c r="C43" s="40"/>
+      <c r="C43" s="37"/>
       <c r="D43" s="33"/>
-      <c r="E43" s="37"/>
+      <c r="E43" s="41"/>
       <c r="F43" s="33"/>
     </row>
     <row r="44" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B44" s="8">
         <v>8</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C44" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="63" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -19850,16 +20487,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -19902,13 +20539,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F8" s="10"/>
     </row>
@@ -19952,16 +20589,16 @@
         <v>3</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -20025,16 +20662,16 @@
         <v>4</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -20098,13 +20735,13 @@
         <v>5</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F32" s="10"/>
     </row>
@@ -20148,13 +20785,13 @@
         <v>6</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F38" s="10"/>
     </row>
@@ -20198,13 +20835,13 @@
         <v>7</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D44" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="E44" s="19" t="s">
         <v>188</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>191</v>
       </c>
       <c r="F44" s="10"/>
     </row>
@@ -20248,13 +20885,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="E50" s="19" t="s">
         <v>189</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="E50" s="19" t="s">
-        <v>192</v>
       </c>
       <c r="F50" s="10"/>
     </row>
@@ -20298,14 +20935,14 @@
         <v>9</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="19" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="57" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -20404,16 +21041,16 @@
         <v>10</v>
       </c>
       <c r="C70" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="E70" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="F70" s="25" t="s">
         <v>201</v>
-      </c>
-      <c r="D70" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="E70" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="F70" s="25" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="71" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -20454,11 +21091,11 @@
     <row r="76" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B76" s="27"/>
       <c r="C76" s="15" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D76" s="24"/>
       <c r="E76" s="25" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F76" s="25"/>
     </row>
@@ -20544,16 +21181,16 @@
         <v>11</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E88" s="19" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -20616,15 +21253,15 @@
       <c r="B97" s="8">
         <v>12</v>
       </c>
-      <c r="C97" s="34" t="s">
-        <v>207</v>
+      <c r="C97" s="38" t="s">
+        <v>204</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E97" s="10"/>
       <c r="F97" s="19" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="98" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -20730,16 +21367,16 @@
         <v>13</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E112" s="19" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F112" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="113" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -20794,7 +21431,7 @@
     <row r="120" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B120" s="8"/>
       <c r="C120" s="10"/>
-      <c r="D120" s="34"/>
+      <c r="D120" s="38"/>
       <c r="E120" s="10"/>
       <c r="F120" s="10"/>
     </row>
@@ -20836,7 +21473,7 @@
     <row r="126" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B126" s="8"/>
       <c r="C126" s="10"/>
-      <c r="D126" s="34"/>
+      <c r="D126" s="38"/>
       <c r="E126" s="10"/>
       <c r="F126" s="10"/>
     </row>
@@ -20878,7 +21515,7 @@
     <row r="132" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B132" s="8"/>
       <c r="C132" s="10"/>
-      <c r="D132" s="34"/>
+      <c r="D132" s="38"/>
       <c r="E132" s="10"/>
       <c r="F132" s="10"/>
     </row>
@@ -20920,7 +21557,7 @@
     <row r="138" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B138" s="8"/>
       <c r="C138" s="10"/>
-      <c r="D138" s="34"/>
+      <c r="D138" s="38"/>
       <c r="E138" s="10"/>
       <c r="F138" s="10"/>
     </row>

--- a/docs/接口文档/tetris-zoom/新平台云会议业务接口.xlsx
+++ b/docs/接口文档/tetris-zoom/新平台云会议业务接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="28800" windowHeight="12510" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="28800" windowHeight="12510" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="登录接口" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="236">
   <si>
     <t>序号</t>
   </si>
@@ -9953,10 +9953,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>/tetris-zoom/api/zoom/android/contacts/add</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>/tetris-zoom/api/zoom/android/contacts/rename</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -10797,70 +10793,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-}]</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>数据类型：json</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-[{
-    name:"默认分组",
-    contacts:[{
-        id:"联系人id",
-        uuid:"联系人uuid",
-        userId:"用户id",
-        userNickname:"用户昵称",
-        rename:"重命名",
-        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>status:"ONLINE(在线)||OFFLINE(离线)",
-        onlineTerminalTypes:在线终端类型(数组:ZOOM_ANDROID安卓会议端|ZOOM_QT安卓qt端)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-    }]  
-},{
-    id:"分组id",
-    uuid:"分组uuid",
-    name:"分组名称",
-    contacts:[{}]  
 }]</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
@@ -11788,6 +11720,78 @@
         creatorUserRename:'创建用户入会别名'   
     }]
 }</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据类型：json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+[{
+    name:"默认分组",
+    contacts:[{
+        id:"联系人id",
+        uuid:"联系人uuid",
+        userId:"用户id",
+        userNickname:"用户昵称",
+        rename:"重命名",
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>status:"ONLINE(在线)||OFFLINE(离线)",
+        onlineTerminalTypes:在线终端类型(数组:ZOOM_ANDROID安卓会议端|ZOOM_QT安卓qt端)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    }]  
+},{
+    id:"分组id",
+    uuid:"分组uuid",
+    name:"分组名称",
+    contacts:[{}]  
+}]</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改联系人分组名称同（修改收藏夹分组名称）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tetris-zoom/api/zoom/android/contacts/add</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -11988,7 +11992,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -12170,6 +12174,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -12179,43 +12195,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12227,8 +12213,29 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14154,7 +14161,7 @@
         <v>21</v>
       </c>
       <c r="E112" s="43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F112" s="51" t="s">
         <v>136</v>
@@ -15960,7 +15967,7 @@
       </c>
       <c r="D356" s="10"/>
       <c r="E356" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F356" s="10"/>
     </row>
@@ -16207,7 +16214,7 @@
         <v>47</v>
       </c>
       <c r="E389" s="44" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F389" s="44" t="s">
         <v>48</v>
@@ -17566,7 +17573,7 @@
       </c>
       <c r="D572" s="9"/>
       <c r="E572" s="30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F572" s="30"/>
     </row>
@@ -17874,7 +17881,7 @@
       </c>
       <c r="D614" s="16"/>
       <c r="E614" s="30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F614" s="30"/>
     </row>
@@ -18171,11 +18178,11 @@
     <row r="655" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B655" s="28"/>
       <c r="C655" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D655" s="13"/>
       <c r="E655" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F655" s="15"/>
     </row>
@@ -18341,10 +18348,10 @@
         <v>154</v>
       </c>
       <c r="D678" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="E678" s="30" t="s">
         <v>223</v>
-      </c>
-      <c r="E678" s="30" t="s">
-        <v>225</v>
       </c>
       <c r="F678" s="30" t="s">
         <v>166</v>
@@ -18479,11 +18486,11 @@
     <row r="697" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B697" s="28"/>
       <c r="C697" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D697" s="16"/>
       <c r="E697" s="30" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F697" s="30"/>
     </row>
@@ -18646,16 +18653,16 @@
         <v>23</v>
       </c>
       <c r="C720" s="20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D720" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="E720" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="E720" s="23" t="s">
-        <v>226</v>
-      </c>
       <c r="F720" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="721" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -18787,11 +18794,11 @@
     <row r="739" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B739" s="19"/>
       <c r="C739" s="20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D739" s="20"/>
       <c r="E739" s="23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F739" s="20"/>
     </row>
@@ -19370,7 +19377,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F71"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:E26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -19557,7 +19566,7 @@
       </c>
       <c r="F21" s="33"/>
     </row>
-    <row r="22" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="2:6" ht="19.5" customHeight="1">
       <c r="B22" s="56"/>
       <c r="C22" s="33"/>
       <c r="D22" s="45"/>
@@ -20025,7 +20034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E44" sqref="E44:E57"/>
     </sheetView>
   </sheetViews>
@@ -20041,141 +20050,141 @@
   <sheetData>
     <row r="1" spans="2:6" ht="9.9499999999999993" customHeight="1"/>
     <row r="2" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B2" s="66">
+      <c r="B2" s="79">
         <v>1</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="76" t="s">
         <v>96</v>
       </c>
       <c r="D2" s="60"/>
-      <c r="E2" s="61"/>
+      <c r="E2" s="65"/>
       <c r="F2" s="60"/>
     </row>
     <row r="3" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="66"/>
-      <c r="C3" s="64"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="76"/>
       <c r="D3" s="60"/>
-      <c r="E3" s="62"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="60"/>
     </row>
     <row r="4" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="66"/>
-      <c r="C4" s="64"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="76"/>
       <c r="D4" s="60"/>
-      <c r="E4" s="62"/>
+      <c r="E4" s="66"/>
       <c r="F4" s="60"/>
     </row>
     <row r="5" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="66"/>
-      <c r="C5" s="64"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="76"/>
       <c r="D5" s="60"/>
-      <c r="E5" s="62"/>
+      <c r="E5" s="66"/>
       <c r="F5" s="60"/>
     </row>
     <row r="6" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="66"/>
-      <c r="C6" s="64"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="76"/>
       <c r="D6" s="60"/>
-      <c r="E6" s="62"/>
+      <c r="E6" s="66"/>
       <c r="F6" s="60"/>
     </row>
     <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="66"/>
-      <c r="C7" s="64"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="76"/>
       <c r="D7" s="60"/>
-      <c r="E7" s="63"/>
+      <c r="E7" s="67"/>
       <c r="F7" s="60"/>
     </row>
     <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="66">
+      <c r="B8" s="79">
         <v>2</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="76" t="s">
         <v>97</v>
       </c>
       <c r="D8" s="60"/>
-      <c r="E8" s="61"/>
+      <c r="E8" s="65"/>
       <c r="F8" s="60"/>
     </row>
     <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="66"/>
-      <c r="C9" s="64"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="60"/>
-      <c r="E9" s="62"/>
+      <c r="E9" s="66"/>
       <c r="F9" s="60"/>
     </row>
     <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="66"/>
-      <c r="C10" s="64"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="76"/>
       <c r="D10" s="60"/>
-      <c r="E10" s="62"/>
+      <c r="E10" s="66"/>
       <c r="F10" s="60"/>
     </row>
     <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="66"/>
-      <c r="C11" s="64"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="76"/>
       <c r="D11" s="60"/>
-      <c r="E11" s="62"/>
+      <c r="E11" s="66"/>
       <c r="F11" s="60"/>
     </row>
     <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="66"/>
-      <c r="C12" s="64"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="76"/>
       <c r="D12" s="60"/>
-      <c r="E12" s="62"/>
+      <c r="E12" s="66"/>
       <c r="F12" s="60"/>
     </row>
     <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="66"/>
-      <c r="C13" s="64"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="76"/>
       <c r="D13" s="60"/>
-      <c r="E13" s="63"/>
+      <c r="E13" s="67"/>
       <c r="F13" s="60"/>
     </row>
     <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="66">
+      <c r="B14" s="79">
         <v>3</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="76" t="s">
         <v>98</v>
       </c>
       <c r="D14" s="60"/>
-      <c r="E14" s="61"/>
+      <c r="E14" s="65"/>
       <c r="F14" s="60"/>
     </row>
     <row r="15" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="67"/>
-      <c r="C15" s="65"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="77"/>
       <c r="D15" s="60"/>
-      <c r="E15" s="62"/>
+      <c r="E15" s="66"/>
       <c r="F15" s="60"/>
     </row>
     <row r="16" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="67"/>
-      <c r="C16" s="65"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="77"/>
       <c r="D16" s="60"/>
-      <c r="E16" s="62"/>
+      <c r="E16" s="66"/>
       <c r="F16" s="60"/>
     </row>
     <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="67"/>
-      <c r="C17" s="65"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="77"/>
       <c r="D17" s="60"/>
-      <c r="E17" s="62"/>
+      <c r="E17" s="66"/>
       <c r="F17" s="60"/>
     </row>
     <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="67"/>
-      <c r="C18" s="65"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="77"/>
       <c r="D18" s="60"/>
-      <c r="E18" s="62"/>
+      <c r="E18" s="66"/>
       <c r="F18" s="60"/>
     </row>
     <row r="19" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="67"/>
-      <c r="C19" s="65"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="77"/>
       <c r="D19" s="60"/>
-      <c r="E19" s="63"/>
+      <c r="E19" s="67"/>
       <c r="F19" s="60"/>
     </row>
     <row r="20" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -20208,169 +20217,169 @@
       <c r="F22" s="9"/>
     </row>
     <row r="23" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B23" s="66">
+      <c r="B23" s="79">
         <v>5</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="76" t="s">
         <v>100</v>
       </c>
       <c r="D23" s="60"/>
-      <c r="E23" s="61"/>
+      <c r="E23" s="65"/>
       <c r="F23" s="60"/>
     </row>
     <row r="24" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B24" s="66"/>
-      <c r="C24" s="64"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="60"/>
-      <c r="E24" s="62"/>
+      <c r="E24" s="66"/>
       <c r="F24" s="60"/>
     </row>
     <row r="25" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B25" s="66"/>
-      <c r="C25" s="64"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="76"/>
       <c r="D25" s="60"/>
-      <c r="E25" s="62"/>
+      <c r="E25" s="66"/>
       <c r="F25" s="60"/>
     </row>
     <row r="26" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B26" s="66"/>
-      <c r="C26" s="64"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="76"/>
       <c r="D26" s="60"/>
-      <c r="E26" s="62"/>
+      <c r="E26" s="66"/>
       <c r="F26" s="60"/>
     </row>
     <row r="27" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B27" s="66"/>
-      <c r="C27" s="64"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="76"/>
       <c r="D27" s="60"/>
-      <c r="E27" s="62"/>
+      <c r="E27" s="66"/>
       <c r="F27" s="60"/>
     </row>
     <row r="28" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B28" s="66"/>
-      <c r="C28" s="64"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="76"/>
       <c r="D28" s="60"/>
-      <c r="E28" s="63"/>
+      <c r="E28" s="67"/>
       <c r="F28" s="60"/>
     </row>
     <row r="29" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B29" s="66">
+      <c r="B29" s="79">
         <v>6</v>
       </c>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="76" t="s">
         <v>101</v>
       </c>
       <c r="D29" s="60"/>
-      <c r="E29" s="61"/>
+      <c r="E29" s="65"/>
       <c r="F29" s="60"/>
     </row>
     <row r="30" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B30" s="66"/>
-      <c r="C30" s="64"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="76"/>
       <c r="D30" s="60"/>
-      <c r="E30" s="62"/>
+      <c r="E30" s="66"/>
       <c r="F30" s="60"/>
     </row>
     <row r="31" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B31" s="66"/>
-      <c r="C31" s="64"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="76"/>
       <c r="D31" s="60"/>
-      <c r="E31" s="62"/>
+      <c r="E31" s="66"/>
       <c r="F31" s="60"/>
     </row>
     <row r="32" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B32" s="66"/>
-      <c r="C32" s="64"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="76"/>
       <c r="D32" s="60"/>
-      <c r="E32" s="62"/>
+      <c r="E32" s="66"/>
       <c r="F32" s="60"/>
     </row>
     <row r="33" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B33" s="66"/>
-      <c r="C33" s="64"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="76"/>
       <c r="D33" s="60"/>
-      <c r="E33" s="62"/>
+      <c r="E33" s="66"/>
       <c r="F33" s="60"/>
     </row>
     <row r="34" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B34" s="66"/>
-      <c r="C34" s="64"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="60"/>
-      <c r="E34" s="63"/>
+      <c r="E34" s="67"/>
       <c r="F34" s="60"/>
     </row>
     <row r="35" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B35" s="68">
+      <c r="B35" s="74">
         <v>7</v>
       </c>
-      <c r="C35" s="69" t="s">
+      <c r="C35" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="D35" s="70" t="s">
+      <c r="D35" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="69" t="s">
-        <v>232</v>
-      </c>
-      <c r="F35" s="71" t="s">
-        <v>233</v>
+      <c r="E35" s="68" t="s">
+        <v>230</v>
+      </c>
+      <c r="F35" s="61" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B36" s="68"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="70"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="62"/>
     </row>
     <row r="37" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B37" s="68"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="70"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="62"/>
     </row>
     <row r="38" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B38" s="68"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="70"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="62"/>
     </row>
     <row r="39" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B39" s="68"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="70"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="62"/>
     </row>
     <row r="40" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B40" s="68"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="70"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="62"/>
     </row>
     <row r="41" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B41" s="68"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="70"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="62"/>
     </row>
     <row r="42" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B42" s="68"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="70"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="62"/>
     </row>
     <row r="43" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B43" s="68"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="70"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="62"/>
     </row>
     <row r="44" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B44" s="75">
@@ -20379,104 +20388,104 @@
       <c r="C44" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="76" t="s">
-        <v>231</v>
-      </c>
-      <c r="E44" s="77"/>
-      <c r="F44" s="80" t="s">
-        <v>234</v>
+      <c r="D44" s="64" t="s">
+        <v>229</v>
+      </c>
+      <c r="E44" s="71"/>
+      <c r="F44" s="63" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B45" s="75"/>
       <c r="C45" s="21"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="76"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="64"/>
     </row>
     <row r="46" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B46" s="75"/>
       <c r="C46" s="21"/>
-      <c r="D46" s="76"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="76"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="64"/>
     </row>
     <row r="47" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B47" s="75"/>
       <c r="C47" s="21"/>
-      <c r="D47" s="76"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="76"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="64"/>
     </row>
     <row r="48" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B48" s="75"/>
       <c r="C48" s="21"/>
-      <c r="D48" s="76"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="76"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="64"/>
     </row>
     <row r="49" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B49" s="75"/>
       <c r="C49" s="21"/>
-      <c r="D49" s="76"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="76"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="64"/>
     </row>
     <row r="50" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B50" s="75"/>
       <c r="C50" s="21"/>
-      <c r="D50" s="76"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="76"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="64"/>
     </row>
     <row r="51" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B51" s="75"/>
       <c r="C51" s="21"/>
-      <c r="D51" s="76"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="76"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="64"/>
     </row>
     <row r="52" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B52" s="75"/>
       <c r="C52" s="21"/>
-      <c r="D52" s="76"/>
-      <c r="E52" s="78"/>
-      <c r="F52" s="76"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="64"/>
     </row>
     <row r="53" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B53" s="75"/>
       <c r="C53" s="21"/>
-      <c r="D53" s="76"/>
-      <c r="E53" s="78"/>
-      <c r="F53" s="76"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="64"/>
     </row>
     <row r="54" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B54" s="75"/>
       <c r="C54" s="21"/>
-      <c r="D54" s="76"/>
-      <c r="E54" s="78"/>
-      <c r="F54" s="76"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="64"/>
     </row>
     <row r="55" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B55" s="75"/>
       <c r="C55" s="21"/>
-      <c r="D55" s="76"/>
-      <c r="E55" s="78"/>
-      <c r="F55" s="76"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="64"/>
     </row>
     <row r="56" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B56" s="75"/>
       <c r="C56" s="21"/>
-      <c r="D56" s="76"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="76"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="72"/>
+      <c r="F56" s="64"/>
     </row>
     <row r="57" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B57" s="75"/>
       <c r="C57" s="22"/>
-      <c r="D57" s="76"/>
-      <c r="E57" s="79"/>
-      <c r="F57" s="76"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="73"/>
+      <c r="F57" s="64"/>
     </row>
     <row r="58" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B58" s="8"/>
@@ -20576,9 +20585,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F143"/>
+  <dimension ref="B1:F150"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -20645,77 +20654,75 @@
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="8">
+      <c r="B8" s="18"/>
+      <c r="C8" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D8" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="19"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+    </row>
+    <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="19"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+    </row>
+    <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="19"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+    </row>
+    <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="19"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+    </row>
+    <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="19"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+    </row>
+    <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="81"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+    </row>
+    <row r="15" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="8">
         <v>2</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D15" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E15" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="8">
-        <v>3</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="9"/>
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -20749,40 +20756,40 @@
     <row r="20" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="38"/>
+      <c r="D20" s="39"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
     </row>
     <row r="21" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="B21" s="8">
+        <v>3</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="22" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="39"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
     </row>
     <row r="23" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B23" s="8">
-        <v>4</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>216</v>
-      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B24" s="8"/>
@@ -20822,16 +20829,26 @@
     <row r="29" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="38"/>
+      <c r="D29" s="39"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+      <c r="B30" s="8">
+        <v>4</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="31" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B31" s="8"/>
@@ -20841,18 +20858,10 @@
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B32" s="8">
-        <v>5</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>192</v>
-      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="9"/>
       <c r="F32" s="9"/>
     </row>
     <row r="33" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -20886,30 +20895,30 @@
     <row r="37" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="39"/>
+      <c r="D37" s="38"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
     </row>
     <row r="38" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B38" s="8">
-        <v>6</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="E38" s="30" t="s">
-        <v>179</v>
-      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="9"/>
       <c r="F38" s="9"/>
     </row>
     <row r="39" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B39" s="8"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="9"/>
+      <c r="B39" s="8">
+        <v>5</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>191</v>
+      </c>
       <c r="F39" s="9"/>
     </row>
     <row r="40" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -20936,30 +20945,30 @@
     <row r="43" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B43" s="8"/>
       <c r="C43" s="9"/>
-      <c r="D43" s="39"/>
+      <c r="D43" s="38"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
     </row>
     <row r="44" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B44" s="8">
-        <v>7</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="E44" s="30" t="s">
-        <v>184</v>
-      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="9"/>
       <c r="F44" s="9"/>
     </row>
     <row r="45" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B45" s="8"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="9"/>
+      <c r="B45" s="8">
+        <v>6</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>179</v>
+      </c>
       <c r="F45" s="9"/>
     </row>
     <row r="46" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -20986,30 +20995,30 @@
     <row r="49" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B49" s="8"/>
       <c r="C49" s="9"/>
-      <c r="D49" s="39"/>
+      <c r="D49" s="38"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
     </row>
     <row r="50" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B50" s="8">
-        <v>8</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="E50" s="30" t="s">
-        <v>185</v>
-      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="9"/>
       <c r="F50" s="9"/>
     </row>
     <row r="51" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B51" s="8"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="9"/>
+      <c r="B51" s="8">
+        <v>7</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>184</v>
+      </c>
       <c r="F51" s="9"/>
     </row>
     <row r="52" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -21036,73 +21045,81 @@
     <row r="55" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B55" s="8"/>
       <c r="C55" s="9"/>
-      <c r="D55" s="39"/>
+      <c r="D55" s="38"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
     </row>
     <row r="56" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B56" s="8">
-        <v>9</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>193</v>
-      </c>
+      <c r="B56" s="8"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="39"/>
       <c r="E56" s="9"/>
-      <c r="F56" s="30" t="s">
-        <v>215</v>
-      </c>
+      <c r="F56" s="9"/>
     </row>
     <row r="57" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B57" s="8"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="9"/>
+      <c r="B57" s="8">
+        <v>8</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E57" s="30" t="s">
+        <v>185</v>
+      </c>
       <c r="F57" s="9"/>
     </row>
     <row r="58" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B58" s="8"/>
       <c r="C58" s="9"/>
-      <c r="D58" s="31"/>
+      <c r="D58" s="38"/>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
     </row>
     <row r="59" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B59" s="8"/>
       <c r="C59" s="9"/>
-      <c r="D59" s="31"/>
+      <c r="D59" s="38"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
     </row>
     <row r="60" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B60" s="8"/>
       <c r="C60" s="9"/>
-      <c r="D60" s="31"/>
+      <c r="D60" s="38"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
     </row>
     <row r="61" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B61" s="8"/>
       <c r="C61" s="9"/>
-      <c r="D61" s="31"/>
+      <c r="D61" s="38"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
     </row>
     <row r="62" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B62" s="8"/>
       <c r="C62" s="9"/>
-      <c r="D62" s="31"/>
+      <c r="D62" s="39"/>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
     </row>
     <row r="63" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B63" s="8"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="31"/>
+      <c r="B63" s="8">
+        <v>9</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>192</v>
+      </c>
       <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
+      <c r="F63" s="30" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="64" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B64" s="8"/>
@@ -21142,286 +21159,286 @@
     <row r="69" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B69" s="8"/>
       <c r="C69" s="9"/>
-      <c r="D69" s="32"/>
+      <c r="D69" s="31"/>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
     </row>
     <row r="70" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B70" s="27">
-        <v>10</v>
-      </c>
-      <c r="C70" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="D70" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="E70" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="F70" s="32" t="s">
-        <v>197</v>
-      </c>
+      <c r="B70" s="8"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
     </row>
     <row r="71" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B71" s="28"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="38"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
     </row>
     <row r="72" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B72" s="28"/>
+      <c r="B72" s="8"/>
       <c r="C72" s="9"/>
-      <c r="D72" s="38"/>
+      <c r="D72" s="31"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
     </row>
     <row r="73" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B73" s="28"/>
+      <c r="B73" s="8"/>
       <c r="C73" s="9"/>
-      <c r="D73" s="38"/>
+      <c r="D73" s="31"/>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
     </row>
     <row r="74" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B74" s="28"/>
+      <c r="B74" s="8"/>
       <c r="C74" s="9"/>
-      <c r="D74" s="38"/>
+      <c r="D74" s="31"/>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
     </row>
     <row r="75" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B75" s="28"/>
+      <c r="B75" s="8"/>
       <c r="C75" s="9"/>
-      <c r="D75" s="39"/>
+      <c r="D75" s="31"/>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
     </row>
     <row r="76" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B76" s="28"/>
-      <c r="C76" s="15" t="s">
+      <c r="B76" s="8"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+    </row>
+    <row r="77" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B77" s="27">
+        <v>10</v>
+      </c>
+      <c r="C77" s="58" t="s">
+        <v>193</v>
+      </c>
+      <c r="D77" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="E77" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="F77" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="D76" s="31"/>
-      <c r="E76" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="F76" s="32"/>
-    </row>
-    <row r="77" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B77" s="28"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="32"/>
-      <c r="F77" s="32"/>
     </row>
     <row r="78" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B78" s="28"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="32"/>
-      <c r="F78" s="32"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
     </row>
     <row r="79" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B79" s="28"/>
-      <c r="C79" s="31"/>
-      <c r="D79" s="31"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="32"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="38"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
     </row>
     <row r="80" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B80" s="28"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="32"/>
-      <c r="F80" s="32"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
     </row>
     <row r="81" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B81" s="28"/>
-      <c r="C81" s="31"/>
-      <c r="D81" s="31"/>
-      <c r="E81" s="32"/>
-      <c r="F81" s="32"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
     </row>
     <row r="82" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B82" s="28"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="31"/>
-      <c r="E82" s="32"/>
-      <c r="F82" s="32"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
     </row>
     <row r="83" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B83" s="28"/>
-      <c r="C83" s="38"/>
-      <c r="D83" s="38"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
+      <c r="C83" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="D83" s="31"/>
+      <c r="E83" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="F83" s="32"/>
     </row>
     <row r="84" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B84" s="28"/>
-      <c r="C84" s="38"/>
-      <c r="D84" s="38"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
     </row>
     <row r="85" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B85" s="28"/>
-      <c r="C85" s="38"/>
-      <c r="D85" s="38"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="32"/>
     </row>
     <row r="86" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B86" s="28"/>
-      <c r="C86" s="38"/>
-      <c r="D86" s="38"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="32"/>
     </row>
     <row r="87" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B87" s="29"/>
-      <c r="C87" s="39"/>
-      <c r="D87" s="39"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="32"/>
     </row>
     <row r="88" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B88" s="8">
-        <v>11</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D88" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="E88" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="F88" s="30" t="s">
-        <v>198</v>
-      </c>
+      <c r="B88" s="28"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="32"/>
     </row>
     <row r="89" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B89" s="8"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="38"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
+      <c r="B89" s="28"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="32"/>
+      <c r="F89" s="32"/>
     </row>
     <row r="90" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B90" s="8"/>
-      <c r="C90" s="9"/>
+      <c r="B90" s="28"/>
+      <c r="C90" s="38"/>
       <c r="D90" s="38"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
     </row>
     <row r="91" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B91" s="8"/>
-      <c r="C91" s="9"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="38"/>
       <c r="D91" s="38"/>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
     </row>
     <row r="92" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B92" s="8"/>
-      <c r="C92" s="9"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="38"/>
       <c r="D92" s="38"/>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
     </row>
     <row r="93" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B93" s="8"/>
-      <c r="C93" s="9"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="38"/>
       <c r="D93" s="38"/>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
     </row>
     <row r="94" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B94" s="8"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="38"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="39"/>
+      <c r="D94" s="39"/>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
     </row>
     <row r="95" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B95" s="8"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="38"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
+      <c r="B95" s="8">
+        <v>11</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="E95" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="F95" s="30" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="96" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B96" s="8"/>
       <c r="C96" s="9"/>
-      <c r="D96" s="39"/>
+      <c r="D96" s="38"/>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
     </row>
     <row r="97" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B97" s="8">
-        <v>12</v>
-      </c>
-      <c r="C97" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="D97" s="15" t="s">
-        <v>204</v>
-      </c>
+      <c r="B97" s="8"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="38"/>
       <c r="E97" s="9"/>
-      <c r="F97" s="30" t="s">
-        <v>213</v>
-      </c>
+      <c r="F97" s="9"/>
     </row>
     <row r="98" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B98" s="8"/>
-      <c r="C98" s="38"/>
-      <c r="D98" s="31"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="38"/>
       <c r="E98" s="9"/>
-      <c r="F98" s="30"/>
+      <c r="F98" s="9"/>
     </row>
     <row r="99" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B99" s="8"/>
-      <c r="C99" s="38"/>
-      <c r="D99" s="31"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="38"/>
       <c r="E99" s="9"/>
-      <c r="F99" s="30"/>
+      <c r="F99" s="9"/>
     </row>
     <row r="100" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B100" s="8"/>
-      <c r="C100" s="38"/>
-      <c r="D100" s="31"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="38"/>
       <c r="E100" s="9"/>
-      <c r="F100" s="30"/>
+      <c r="F100" s="9"/>
     </row>
     <row r="101" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B101" s="8"/>
-      <c r="C101" s="38"/>
-      <c r="D101" s="31"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="38"/>
       <c r="E101" s="9"/>
-      <c r="F101" s="30"/>
+      <c r="F101" s="9"/>
     </row>
     <row r="102" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B102" s="8"/>
-      <c r="C102" s="38"/>
-      <c r="D102" s="31"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="38"/>
       <c r="E102" s="9"/>
-      <c r="F102" s="30"/>
+      <c r="F102" s="9"/>
     </row>
     <row r="103" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B103" s="8"/>
-      <c r="C103" s="38"/>
-      <c r="D103" s="31"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="39"/>
       <c r="E103" s="9"/>
-      <c r="F103" s="30"/>
+      <c r="F103" s="9"/>
     </row>
     <row r="104" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B104" s="8"/>
-      <c r="C104" s="38"/>
-      <c r="D104" s="31"/>
+      <c r="B104" s="8">
+        <v>12</v>
+      </c>
+      <c r="C104" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="D104" s="15" t="s">
+        <v>203</v>
+      </c>
       <c r="E104" s="9"/>
-      <c r="F104" s="30"/>
+      <c r="F104" s="30" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="105" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B105" s="8"/>
@@ -21467,81 +21484,81 @@
     </row>
     <row r="111" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B111" s="8"/>
-      <c r="C111" s="39"/>
-      <c r="D111" s="39"/>
+      <c r="C111" s="38"/>
+      <c r="D111" s="31"/>
       <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
+      <c r="F111" s="30"/>
     </row>
     <row r="112" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B112" s="8">
-        <v>13</v>
-      </c>
-      <c r="C112" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="D112" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E112" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="F112" s="30" t="s">
-        <v>214</v>
-      </c>
+      <c r="B112" s="8"/>
+      <c r="C112" s="38"/>
+      <c r="D112" s="31"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="30"/>
     </row>
     <row r="113" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B113" s="8"/>
-      <c r="C113" s="9"/>
-      <c r="D113" s="38"/>
+      <c r="C113" s="38"/>
+      <c r="D113" s="31"/>
       <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
+      <c r="F113" s="30"/>
     </row>
     <row r="114" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B114" s="8"/>
-      <c r="C114" s="9"/>
-      <c r="D114" s="38"/>
+      <c r="C114" s="38"/>
+      <c r="D114" s="31"/>
       <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
+      <c r="F114" s="30"/>
     </row>
     <row r="115" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B115" s="8"/>
-      <c r="C115" s="9"/>
-      <c r="D115" s="38"/>
+      <c r="C115" s="38"/>
+      <c r="D115" s="31"/>
       <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
+      <c r="F115" s="30"/>
     </row>
     <row r="116" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B116" s="8"/>
-      <c r="C116" s="9"/>
-      <c r="D116" s="38"/>
+      <c r="C116" s="38"/>
+      <c r="D116" s="31"/>
       <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
+      <c r="F116" s="30"/>
     </row>
     <row r="117" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B117" s="8"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="38"/>
+      <c r="C117" s="38"/>
+      <c r="D117" s="31"/>
       <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
+      <c r="F117" s="30"/>
     </row>
     <row r="118" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B118" s="8"/>
-      <c r="C118" s="9"/>
-      <c r="D118" s="38"/>
+      <c r="C118" s="39"/>
+      <c r="D118" s="39"/>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
     </row>
     <row r="119" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B119" s="8"/>
-      <c r="C119" s="9"/>
-      <c r="D119" s="39"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="9"/>
+      <c r="B119" s="8">
+        <v>13</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="D119" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="E119" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="F119" s="30" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="120" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B120" s="8"/>
       <c r="C120" s="9"/>
-      <c r="D120" s="37"/>
+      <c r="D120" s="38"/>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
     </row>
@@ -21576,21 +21593,21 @@
     <row r="125" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B125" s="8"/>
       <c r="C125" s="9"/>
-      <c r="D125" s="39"/>
+      <c r="D125" s="38"/>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
     </row>
     <row r="126" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B126" s="8"/>
       <c r="C126" s="9"/>
-      <c r="D126" s="37"/>
+      <c r="D126" s="39"/>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
     </row>
     <row r="127" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B127" s="8"/>
       <c r="C127" s="9"/>
-      <c r="D127" s="38"/>
+      <c r="D127" s="37"/>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
     </row>
@@ -21618,21 +21635,21 @@
     <row r="131" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B131" s="8"/>
       <c r="C131" s="9"/>
-      <c r="D131" s="39"/>
+      <c r="D131" s="38"/>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
     </row>
     <row r="132" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B132" s="8"/>
       <c r="C132" s="9"/>
-      <c r="D132" s="37"/>
+      <c r="D132" s="39"/>
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
     </row>
     <row r="133" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B133" s="8"/>
       <c r="C133" s="9"/>
-      <c r="D133" s="38"/>
+      <c r="D133" s="37"/>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
     </row>
@@ -21660,21 +21677,21 @@
     <row r="137" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B137" s="8"/>
       <c r="C137" s="9"/>
-      <c r="D137" s="39"/>
+      <c r="D137" s="38"/>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
     </row>
     <row r="138" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B138" s="8"/>
       <c r="C138" s="9"/>
-      <c r="D138" s="37"/>
+      <c r="D138" s="39"/>
       <c r="E138" s="9"/>
       <c r="F138" s="9"/>
     </row>
     <row r="139" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B139" s="8"/>
       <c r="C139" s="9"/>
-      <c r="D139" s="38"/>
+      <c r="D139" s="37"/>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
     </row>
@@ -21702,101 +21719,155 @@
     <row r="143" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B143" s="8"/>
       <c r="C143" s="9"/>
-      <c r="D143" s="39"/>
+      <c r="D143" s="38"/>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
     </row>
+    <row r="144" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B144" s="8"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="39"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+    </row>
+    <row r="145" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B145" s="8"/>
+      <c r="C145" s="9"/>
+      <c r="D145" s="37"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+    </row>
+    <row r="146" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B146" s="8"/>
+      <c r="C146" s="9"/>
+      <c r="D146" s="38"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+    </row>
+    <row r="147" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B147" s="8"/>
+      <c r="C147" s="9"/>
+      <c r="D147" s="38"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="9"/>
+    </row>
+    <row r="148" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B148" s="8"/>
+      <c r="C148" s="9"/>
+      <c r="D148" s="38"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
+    </row>
+    <row r="149" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B149" s="8"/>
+      <c r="C149" s="9"/>
+      <c r="D149" s="38"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
+    </row>
+    <row r="150" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B150" s="8"/>
+      <c r="C150" s="9"/>
+      <c r="D150" s="39"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="89">
+  <mergeCells count="94">
     <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B14:B22"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="B56:B69"/>
-    <mergeCell ref="B88:B96"/>
-    <mergeCell ref="B97:B111"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="B70:B87"/>
-    <mergeCell ref="B112:B119"/>
-    <mergeCell ref="B120:B125"/>
-    <mergeCell ref="B126:B131"/>
-    <mergeCell ref="B132:B137"/>
-    <mergeCell ref="B138:B143"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="B127:B132"/>
+    <mergeCell ref="B133:B138"/>
+    <mergeCell ref="B139:B144"/>
+    <mergeCell ref="B145:B150"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="B63:B76"/>
+    <mergeCell ref="B95:B103"/>
+    <mergeCell ref="B104:B118"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="B77:B94"/>
     <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="C14:C22"/>
-    <mergeCell ref="C32:C37"/>
-    <mergeCell ref="C38:C43"/>
-    <mergeCell ref="C23:C31"/>
-    <mergeCell ref="C44:C49"/>
-    <mergeCell ref="C56:C69"/>
-    <mergeCell ref="C70:C75"/>
-    <mergeCell ref="C88:C96"/>
-    <mergeCell ref="C97:C111"/>
-    <mergeCell ref="C50:C55"/>
-    <mergeCell ref="C76:C87"/>
-    <mergeCell ref="C112:C119"/>
-    <mergeCell ref="C120:C125"/>
-    <mergeCell ref="C126:C131"/>
-    <mergeCell ref="C132:C137"/>
-    <mergeCell ref="C138:C143"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="C21:C29"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="C30:C38"/>
+    <mergeCell ref="C127:C132"/>
+    <mergeCell ref="C133:C138"/>
+    <mergeCell ref="C139:C144"/>
+    <mergeCell ref="C145:C150"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="C63:C76"/>
+    <mergeCell ref="C77:C82"/>
+    <mergeCell ref="C95:C103"/>
+    <mergeCell ref="C104:C118"/>
+    <mergeCell ref="C57:C62"/>
+    <mergeCell ref="C83:C94"/>
     <mergeCell ref="D2:D7"/>
-    <mergeCell ref="D8:D13"/>
-    <mergeCell ref="D14:D22"/>
-    <mergeCell ref="D32:D37"/>
-    <mergeCell ref="D38:D43"/>
-    <mergeCell ref="D23:D31"/>
-    <mergeCell ref="D44:D49"/>
-    <mergeCell ref="D56:D69"/>
-    <mergeCell ref="D70:D75"/>
-    <mergeCell ref="D88:D96"/>
-    <mergeCell ref="D97:D111"/>
-    <mergeCell ref="D50:D55"/>
-    <mergeCell ref="D76:D87"/>
-    <mergeCell ref="D112:D119"/>
-    <mergeCell ref="D120:D125"/>
-    <mergeCell ref="D126:D131"/>
-    <mergeCell ref="D132:D137"/>
-    <mergeCell ref="D138:D143"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="D21:D29"/>
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="D45:D50"/>
+    <mergeCell ref="D30:D38"/>
+    <mergeCell ref="D127:D132"/>
+    <mergeCell ref="D133:D138"/>
+    <mergeCell ref="D139:D144"/>
+    <mergeCell ref="D145:D150"/>
+    <mergeCell ref="D51:D56"/>
+    <mergeCell ref="D63:D76"/>
+    <mergeCell ref="D77:D82"/>
+    <mergeCell ref="D95:D103"/>
+    <mergeCell ref="D104:D118"/>
+    <mergeCell ref="D57:D62"/>
+    <mergeCell ref="D83:D94"/>
     <mergeCell ref="E2:E7"/>
-    <mergeCell ref="E8:E13"/>
-    <mergeCell ref="E14:E22"/>
-    <mergeCell ref="E32:E37"/>
-    <mergeCell ref="E38:E43"/>
-    <mergeCell ref="E23:E31"/>
-    <mergeCell ref="E44:E49"/>
-    <mergeCell ref="E56:E69"/>
-    <mergeCell ref="E70:E75"/>
-    <mergeCell ref="E88:E96"/>
-    <mergeCell ref="E97:E111"/>
-    <mergeCell ref="E50:E55"/>
-    <mergeCell ref="E76:E87"/>
-    <mergeCell ref="E112:E119"/>
-    <mergeCell ref="E120:E125"/>
-    <mergeCell ref="E126:E131"/>
-    <mergeCell ref="E132:E137"/>
-    <mergeCell ref="E138:E143"/>
+    <mergeCell ref="E15:E20"/>
+    <mergeCell ref="E21:E29"/>
+    <mergeCell ref="E39:E44"/>
+    <mergeCell ref="E45:E50"/>
+    <mergeCell ref="E30:E38"/>
+    <mergeCell ref="E127:E132"/>
+    <mergeCell ref="E133:E138"/>
+    <mergeCell ref="E139:E144"/>
+    <mergeCell ref="E145:E150"/>
+    <mergeCell ref="E51:E56"/>
+    <mergeCell ref="E63:E76"/>
+    <mergeCell ref="E77:E82"/>
+    <mergeCell ref="E95:E103"/>
+    <mergeCell ref="E104:E118"/>
+    <mergeCell ref="E57:E62"/>
+    <mergeCell ref="E83:E94"/>
     <mergeCell ref="F2:F7"/>
-    <mergeCell ref="F8:F13"/>
-    <mergeCell ref="F14:F22"/>
-    <mergeCell ref="F32:F37"/>
-    <mergeCell ref="F38:F43"/>
-    <mergeCell ref="F23:F31"/>
-    <mergeCell ref="F44:F49"/>
-    <mergeCell ref="F56:F69"/>
-    <mergeCell ref="F70:F75"/>
-    <mergeCell ref="F88:F96"/>
-    <mergeCell ref="F97:F111"/>
-    <mergeCell ref="F50:F55"/>
-    <mergeCell ref="F76:F87"/>
-    <mergeCell ref="F112:F119"/>
-    <mergeCell ref="F120:F125"/>
-    <mergeCell ref="F126:F131"/>
-    <mergeCell ref="F132:F137"/>
-    <mergeCell ref="F138:F143"/>
+    <mergeCell ref="F15:F20"/>
+    <mergeCell ref="F21:F29"/>
+    <mergeCell ref="F39:F44"/>
+    <mergeCell ref="F45:F50"/>
+    <mergeCell ref="F30:F38"/>
+    <mergeCell ref="F8:F14"/>
+    <mergeCell ref="F127:F132"/>
+    <mergeCell ref="F133:F138"/>
+    <mergeCell ref="F139:F144"/>
+    <mergeCell ref="F145:F150"/>
+    <mergeCell ref="F51:F56"/>
+    <mergeCell ref="F63:F76"/>
+    <mergeCell ref="F77:F82"/>
+    <mergeCell ref="F95:F103"/>
+    <mergeCell ref="F104:F118"/>
+    <mergeCell ref="F57:F62"/>
+    <mergeCell ref="F83:F94"/>
+    <mergeCell ref="B8:B14"/>
+    <mergeCell ref="C8:C14"/>
+    <mergeCell ref="D8:D14"/>
+    <mergeCell ref="E8:E14"/>
+    <mergeCell ref="F119:F126"/>
+    <mergeCell ref="E119:E126"/>
+    <mergeCell ref="D119:D126"/>
+    <mergeCell ref="C119:C126"/>
+    <mergeCell ref="B119:B126"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
